--- a/outreach_videos/IODP-JR_movie_log.xlsx
+++ b/outreach_videos/IODP-JR_movie_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\EducationOutreach\1_JRSO-OutreachPOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\R_Studio\IODP-general\big_and_Shiny\19_outreach_videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9CFCD7-9AD3-444E-AB52-2BA6EE75092B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B4FB79-B606-48EA-8985-067DD93DC2B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40080" yWindow="3276" windowWidth="24576" windowHeight="16656" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="866">
   <si>
     <t>Filename</t>
   </si>
@@ -2620,6 +2620,21 @@
   </si>
   <si>
     <t>video partially corrupted</t>
+  </si>
+  <si>
+    <t>Expedition 378 - South Pacific Paleogene Climate</t>
+  </si>
+  <si>
+    <t>Hydrocarbons in a new early Paleocene sedimentary section recovered from the Campbell Plateau, south of New Zealand, by IODP Expedition 378</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hs7w5slpNTE</t>
+  </si>
+  <si>
+    <t>Geological Society of Australia Inc</t>
+  </si>
+  <si>
+    <t>Simon George</t>
   </si>
 </sst>
 </file>
@@ -3046,7 +3061,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3182,6 +3197,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="289">
@@ -3810,13 +3853,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE501"/>
+  <dimension ref="A1:AE505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="X220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D418" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF227" sqref="AF227"/>
+      <selection pane="bottomRight" activeCell="F431" sqref="F431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23758,158 +23801,98 @@
       <c r="C428" s="18"/>
       <c r="D428" s="19"/>
       <c r="E428" s="19"/>
-      <c r="F428" s="19"/>
-      <c r="G428" s="19"/>
-      <c r="H428" s="19"/>
-      <c r="I428" s="19"/>
-      <c r="J428" s="19"/>
-      <c r="K428" s="19"/>
-      <c r="L428" s="19"/>
-      <c r="M428" s="19"/>
-      <c r="N428" s="19"/>
-      <c r="O428" s="19"/>
-      <c r="P428" s="19"/>
-      <c r="Q428" s="19"/>
-      <c r="R428" s="19"/>
-      <c r="S428" s="19"/>
-      <c r="T428" s="19"/>
-      <c r="U428" s="19"/>
-      <c r="V428" s="19"/>
-      <c r="W428" s="19"/>
-      <c r="X428" s="19"/>
-      <c r="Y428" s="19"/>
-      <c r="Z428" s="19"/>
-      <c r="AA428" s="19"/>
-      <c r="AB428" s="19"/>
-      <c r="AC428" s="19"/>
+      <c r="F428" s="62"/>
+      <c r="G428" s="63"/>
+      <c r="H428" s="63"/>
+      <c r="I428" s="64"/>
+      <c r="J428" s="63"/>
+      <c r="K428" s="64"/>
+      <c r="L428" s="64"/>
+      <c r="M428" s="63"/>
+      <c r="N428" s="64"/>
+      <c r="O428" s="63"/>
+      <c r="P428" s="63"/>
+      <c r="Q428" s="64"/>
+      <c r="R428" s="63"/>
+      <c r="S428" s="64"/>
+      <c r="T428" s="64"/>
+      <c r="U428" s="63"/>
+      <c r="V428" s="63"/>
+      <c r="W428" s="63"/>
+      <c r="X428" s="63"/>
+      <c r="Y428" s="63"/>
+      <c r="Z428" s="63"/>
+      <c r="AA428" s="63"/>
+      <c r="AB428" s="63"/>
+      <c r="AC428" s="63"/>
     </row>
     <row r="429" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A429" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B429" s="61" t="s">
+        <v>861</v>
+      </c>
+      <c r="B429" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C429" s="61"/>
-      <c r="D429" s="19"/>
-      <c r="E429" s="19"/>
-      <c r="F429" s="19"/>
-      <c r="G429" s="19"/>
-      <c r="H429" s="19"/>
-      <c r="I429" s="19"/>
-      <c r="J429" s="19"/>
-      <c r="K429" s="19"/>
-      <c r="L429" s="19"/>
-      <c r="M429" s="19"/>
-      <c r="N429" s="19"/>
-      <c r="O429" s="19"/>
-      <c r="P429" s="19"/>
-      <c r="Q429" s="19"/>
-      <c r="R429" s="19"/>
-      <c r="S429" s="19"/>
-      <c r="T429" s="19"/>
-      <c r="U429" s="19"/>
-      <c r="V429" s="19"/>
-      <c r="W429" s="19"/>
-      <c r="X429" s="19"/>
-      <c r="Y429" s="19"/>
-      <c r="Z429" s="19"/>
-      <c r="AA429" s="19"/>
-      <c r="AB429" s="19"/>
-      <c r="AC429" s="19"/>
+      <c r="C429" s="60"/>
     </row>
     <row r="430" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A430" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C430" s="14" t="s">
+      <c r="C430" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D430" s="19"/>
-      <c r="E430" s="19"/>
-      <c r="F430" s="19"/>
-      <c r="G430" s="19"/>
-      <c r="H430" s="19"/>
-      <c r="I430" s="19"/>
-      <c r="J430" s="19"/>
-      <c r="K430" s="19"/>
-      <c r="L430" s="19"/>
-      <c r="M430" s="19"/>
-      <c r="N430" s="19"/>
-      <c r="O430" s="19"/>
-      <c r="P430" s="19"/>
-      <c r="Q430" s="19"/>
-      <c r="R430" s="19"/>
-      <c r="S430" s="19"/>
-      <c r="T430" s="19"/>
-      <c r="U430" s="19"/>
-      <c r="V430" s="19"/>
-      <c r="W430" s="19"/>
-      <c r="X430" s="19"/>
-      <c r="Y430" s="19"/>
-      <c r="Z430" s="19"/>
-      <c r="AA430" s="19"/>
-      <c r="AB430" s="19"/>
-      <c r="AC430" s="19"/>
-    </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A431" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="B431" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C431" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D431" s="28"/>
-      <c r="E431" s="28"/>
-      <c r="F431" s="31">
-        <v>3.6770833333333336E-2</v>
-      </c>
-      <c r="G431" s="33"/>
-      <c r="H431" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I431" s="33"/>
-      <c r="J431" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K431" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L431" s="33"/>
-      <c r="M431" s="33"/>
-      <c r="N431" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O431" s="33"/>
-      <c r="P431" s="33"/>
-      <c r="Q431" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R431" s="33"/>
-      <c r="S431" s="33"/>
-      <c r="T431" s="33"/>
-      <c r="U431" s="33"/>
-      <c r="V431" s="33"/>
-      <c r="W431" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="X431" s="33"/>
-      <c r="Y431" s="33"/>
-      <c r="Z431" s="33"/>
-      <c r="AA431" s="33"/>
-      <c r="AB431" s="33"/>
-      <c r="AC431" s="33"/>
-      <c r="AD431" t="s">
-        <v>800</v>
-      </c>
-      <c r="AE431" t="s">
-        <v>540</v>
+    </row>
+    <row r="431" spans="1:31" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A431" s="44" t="s">
+        <v>862</v>
+      </c>
+      <c r="B431" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D431" s="66" t="s">
+        <v>865</v>
+      </c>
+      <c r="E431" s="66"/>
+      <c r="F431" s="67">
+        <v>7.0023148148148154E-3</v>
+      </c>
+      <c r="G431" s="68"/>
+      <c r="H431" s="69"/>
+      <c r="I431" s="69"/>
+      <c r="J431" s="68"/>
+      <c r="K431" s="68"/>
+      <c r="L431" s="68"/>
+      <c r="M431" s="68"/>
+      <c r="N431" s="69"/>
+      <c r="O431" s="68"/>
+      <c r="P431" s="68"/>
+      <c r="Q431" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="R431" s="68"/>
+      <c r="S431" s="68"/>
+      <c r="T431" s="69"/>
+      <c r="U431" s="68"/>
+      <c r="V431" s="68"/>
+      <c r="W431" s="68"/>
+      <c r="X431" s="68"/>
+      <c r="Y431" s="68"/>
+      <c r="Z431" s="68"/>
+      <c r="AA431" s="68"/>
+      <c r="AB431" s="68"/>
+      <c r="AC431" s="68"/>
+      <c r="AD431" s="70" t="s">
+        <v>863</v>
+      </c>
+      <c r="AE431" s="71" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="432" spans="1:31" x14ac:dyDescent="0.3">
@@ -23945,7 +23928,7 @@
     </row>
     <row r="433" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A433" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B433" s="61" t="s">
         <v>135</v>
@@ -24017,7 +24000,7 @@
     </row>
     <row r="435" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A435" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B435" s="29" t="s">
         <v>4</v>
@@ -24025,25 +24008,27 @@
       <c r="C435" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D435" s="28" t="s">
-        <v>814</v>
-      </c>
+      <c r="D435" s="28"/>
       <c r="E435" s="28"/>
       <c r="F435" s="31">
-        <v>3.6898148148148145E-2</v>
+        <v>3.6770833333333336E-2</v>
       </c>
       <c r="G435" s="33"/>
       <c r="H435" s="32" t="s">
         <v>417</v>
       </c>
       <c r="I435" s="33"/>
-      <c r="J435" s="33"/>
-      <c r="K435" s="33"/>
-      <c r="L435" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="J435" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K435" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L435" s="33"/>
       <c r="M435" s="33"/>
-      <c r="N435" s="33"/>
+      <c r="N435" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="O435" s="33"/>
       <c r="P435" s="33"/>
       <c r="Q435" s="32" t="s">
@@ -24054,7 +24039,9 @@
       <c r="T435" s="33"/>
       <c r="U435" s="33"/>
       <c r="V435" s="33"/>
-      <c r="W435" s="33"/>
+      <c r="W435" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="X435" s="33"/>
       <c r="Y435" s="33"/>
       <c r="Z435" s="33"/>
@@ -24062,75 +24049,51 @@
       <c r="AB435" s="33"/>
       <c r="AC435" s="33"/>
       <c r="AD435" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AE435" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="436" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A436" s="19" t="s">
-        <v>812</v>
-      </c>
-      <c r="B436" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C436" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D436" s="19" t="s">
-        <v>814</v>
-      </c>
+      <c r="A436" s="19"/>
+      <c r="B436" s="18"/>
+      <c r="C436" s="18"/>
+      <c r="D436" s="19"/>
       <c r="E436" s="19"/>
-      <c r="F436" s="47">
-        <v>3.4340277777777782E-2</v>
-      </c>
-      <c r="G436" s="48"/>
-      <c r="H436" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I436" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="J436" s="48"/>
-      <c r="K436" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L436" s="48"/>
-      <c r="M436" s="48"/>
-      <c r="N436" s="48"/>
-      <c r="O436" s="48"/>
-      <c r="P436" s="48"/>
-      <c r="Q436" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R436" s="48"/>
-      <c r="S436" s="48"/>
-      <c r="T436" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U436" s="48"/>
-      <c r="V436" s="48"/>
-      <c r="W436" s="48"/>
-      <c r="X436" s="48"/>
-      <c r="Y436" s="48"/>
-      <c r="Z436" s="48"/>
-      <c r="AA436" s="48"/>
-      <c r="AB436" s="48"/>
-      <c r="AC436" s="48" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD436" t="s">
-        <v>813</v>
-      </c>
-      <c r="AE436" t="s">
-        <v>540</v>
-      </c>
+      <c r="F436" s="19"/>
+      <c r="G436" s="19"/>
+      <c r="H436" s="19"/>
+      <c r="I436" s="19"/>
+      <c r="J436" s="19"/>
+      <c r="K436" s="19"/>
+      <c r="L436" s="19"/>
+      <c r="M436" s="19"/>
+      <c r="N436" s="19"/>
+      <c r="O436" s="19"/>
+      <c r="P436" s="19"/>
+      <c r="Q436" s="19"/>
+      <c r="R436" s="19"/>
+      <c r="S436" s="19"/>
+      <c r="T436" s="19"/>
+      <c r="U436" s="19"/>
+      <c r="V436" s="19"/>
+      <c r="W436" s="19"/>
+      <c r="X436" s="19"/>
+      <c r="Y436" s="19"/>
+      <c r="Z436" s="19"/>
+      <c r="AA436" s="19"/>
+      <c r="AB436" s="19"/>
+      <c r="AC436" s="19"/>
     </row>
     <row r="437" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A437" s="19"/>
-      <c r="B437" s="18"/>
-      <c r="C437" s="18"/>
+      <c r="A437" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B437" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C437" s="61"/>
       <c r="D437" s="19"/>
       <c r="E437" s="19"/>
       <c r="F437" s="19"/>
@@ -24159,495 +24122,463 @@
       <c r="AC437" s="19"/>
     </row>
     <row r="438" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A438" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="B438" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C438" s="60"/>
-      <c r="D438"/>
+      <c r="A438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B438" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C438" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D438" s="19"/>
+      <c r="E438" s="19"/>
+      <c r="F438" s="19"/>
+      <c r="G438" s="19"/>
+      <c r="H438" s="19"/>
+      <c r="I438" s="19"/>
+      <c r="J438" s="19"/>
+      <c r="K438" s="19"/>
+      <c r="L438" s="19"/>
+      <c r="M438" s="19"/>
+      <c r="N438" s="19"/>
+      <c r="O438" s="19"/>
+      <c r="P438" s="19"/>
+      <c r="Q438" s="19"/>
+      <c r="R438" s="19"/>
+      <c r="S438" s="19"/>
+      <c r="T438" s="19"/>
+      <c r="U438" s="19"/>
+      <c r="V438" s="19"/>
+      <c r="W438" s="19"/>
+      <c r="X438" s="19"/>
+      <c r="Y438" s="19"/>
+      <c r="Z438" s="19"/>
+      <c r="AA438" s="19"/>
+      <c r="AB438" s="19"/>
+      <c r="AC438" s="19"/>
     </row>
     <row r="439" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A439" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B439" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C439" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D439"/>
+      <c r="A439" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="B439" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D439" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="E439" s="28"/>
+      <c r="F439" s="31">
+        <v>3.6898148148148145E-2</v>
+      </c>
+      <c r="G439" s="33"/>
+      <c r="H439" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I439" s="33"/>
+      <c r="J439" s="33"/>
+      <c r="K439" s="33"/>
+      <c r="L439" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M439" s="33"/>
+      <c r="N439" s="33"/>
+      <c r="O439" s="33"/>
+      <c r="P439" s="33"/>
+      <c r="Q439" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R439" s="33"/>
+      <c r="S439" s="33"/>
+      <c r="T439" s="33"/>
+      <c r="U439" s="33"/>
+      <c r="V439" s="33"/>
+      <c r="W439" s="33"/>
+      <c r="X439" s="33"/>
+      <c r="Y439" s="33"/>
+      <c r="Z439" s="33"/>
+      <c r="AA439" s="33"/>
+      <c r="AB439" s="33"/>
+      <c r="AC439" s="33"/>
+      <c r="AD439" t="s">
+        <v>801</v>
+      </c>
+      <c r="AE439" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="440" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A440" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="B440" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C440" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D440" s="28" t="s">
-        <v>794</v>
-      </c>
-      <c r="E440" s="28"/>
-      <c r="F440" s="31">
-        <v>2.1979166666666664E-2</v>
-      </c>
-      <c r="G440" s="33"/>
-      <c r="H440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M440" s="33"/>
-      <c r="N440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O440" s="33"/>
-      <c r="P440" s="33"/>
-      <c r="Q440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R440" s="33"/>
-      <c r="S440" s="33"/>
-      <c r="T440" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U440" s="33"/>
-      <c r="V440" s="33"/>
-      <c r="W440" s="33"/>
-      <c r="X440" s="33"/>
-      <c r="Y440" s="33"/>
-      <c r="Z440" s="33"/>
-      <c r="AA440" s="33"/>
-      <c r="AB440" s="33"/>
-      <c r="AC440" s="33" t="s">
-        <v>441</v>
+      <c r="A440" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="B440" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C440" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D440" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="E440" s="19"/>
+      <c r="F440" s="47">
+        <v>3.4340277777777782E-2</v>
+      </c>
+      <c r="G440" s="48"/>
+      <c r="H440" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I440" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J440" s="48"/>
+      <c r="K440" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L440" s="48"/>
+      <c r="M440" s="48"/>
+      <c r="N440" s="48"/>
+      <c r="O440" s="48"/>
+      <c r="P440" s="48"/>
+      <c r="Q440" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R440" s="48"/>
+      <c r="S440" s="48"/>
+      <c r="T440" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U440" s="48"/>
+      <c r="V440" s="48"/>
+      <c r="W440" s="48"/>
+      <c r="X440" s="48"/>
+      <c r="Y440" s="48"/>
+      <c r="Z440" s="48"/>
+      <c r="AA440" s="48"/>
+      <c r="AB440" s="48"/>
+      <c r="AC440" s="48" t="s">
+        <v>852</v>
       </c>
       <c r="AD440" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="AE440" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="441" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+      <c r="A441" s="19"/>
+      <c r="B441" s="18"/>
+      <c r="C441" s="18"/>
+      <c r="D441" s="19"/>
+      <c r="E441" s="19"/>
+      <c r="F441" s="19"/>
+      <c r="G441" s="19"/>
+      <c r="H441" s="19"/>
+      <c r="I441" s="19"/>
+      <c r="J441" s="19"/>
+      <c r="K441" s="19"/>
+      <c r="L441" s="19"/>
+      <c r="M441" s="19"/>
+      <c r="N441" s="19"/>
+      <c r="O441" s="19"/>
+      <c r="P441" s="19"/>
+      <c r="Q441" s="19"/>
+      <c r="R441" s="19"/>
+      <c r="S441" s="19"/>
+      <c r="T441" s="19"/>
+      <c r="U441" s="19"/>
+      <c r="V441" s="19"/>
+      <c r="W441" s="19"/>
+      <c r="X441" s="19"/>
+      <c r="Y441" s="19"/>
+      <c r="Z441" s="19"/>
+      <c r="AA441" s="19"/>
+      <c r="AB441" s="19"/>
+      <c r="AC441" s="19"/>
+    </row>
+    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A442" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="B442" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C442" s="60"/>
+      <c r="D442"/>
+    </row>
+    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D443"/>
+    </row>
+    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A444" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="B444" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D444" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="E444" s="28"/>
+      <c r="F444" s="31">
+        <v>2.1979166666666664E-2</v>
+      </c>
+      <c r="G444" s="33"/>
+      <c r="H444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M444" s="33"/>
+      <c r="N444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O444" s="33"/>
+      <c r="P444" s="33"/>
+      <c r="Q444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R444" s="33"/>
+      <c r="S444" s="33"/>
+      <c r="T444" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U444" s="33"/>
+      <c r="V444" s="33"/>
+      <c r="W444" s="33"/>
+      <c r="X444" s="33"/>
+      <c r="Y444" s="33"/>
+      <c r="Z444" s="33"/>
+      <c r="AA444" s="33"/>
+      <c r="AB444" s="33"/>
+      <c r="AC444" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD444" t="s">
+        <v>793</v>
+      </c>
+      <c r="AE444" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="445" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>807</v>
       </c>
-      <c r="B441" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D441"/>
-      <c r="F441" s="24">
+      <c r="B445" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445"/>
+      <c r="F445" s="24">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="G441" s="26"/>
-      <c r="H441" s="26"/>
-      <c r="I441" s="26"/>
-      <c r="J441" s="26"/>
-      <c r="K441" s="26"/>
-      <c r="L441" s="26"/>
-      <c r="M441" s="26"/>
-      <c r="N441" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O441" s="26"/>
-      <c r="P441" s="26"/>
-      <c r="Q441" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R441" s="26"/>
-      <c r="S441" s="26"/>
-      <c r="T441" s="26"/>
-      <c r="U441" s="26"/>
-      <c r="V441" s="26"/>
-      <c r="W441" s="26"/>
-      <c r="X441" s="26"/>
-      <c r="Y441" s="26"/>
-      <c r="Z441" s="26"/>
-      <c r="AA441" s="26"/>
-      <c r="AB441" s="26"/>
-      <c r="AC441" s="26"/>
-      <c r="AD441" t="s">
+      <c r="G445" s="26"/>
+      <c r="H445" s="26"/>
+      <c r="I445" s="26"/>
+      <c r="J445" s="26"/>
+      <c r="K445" s="26"/>
+      <c r="L445" s="26"/>
+      <c r="M445" s="26"/>
+      <c r="N445" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O445" s="26"/>
+      <c r="P445" s="26"/>
+      <c r="Q445" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R445" s="26"/>
+      <c r="S445" s="26"/>
+      <c r="T445" s="26"/>
+      <c r="U445" s="26"/>
+      <c r="V445" s="26"/>
+      <c r="W445" s="26"/>
+      <c r="X445" s="26"/>
+      <c r="Y445" s="26"/>
+      <c r="Z445" s="26"/>
+      <c r="AA445" s="26"/>
+      <c r="AB445" s="26"/>
+      <c r="AC445" s="26"/>
+      <c r="AD445" t="s">
         <v>805</v>
       </c>
-      <c r="AE441" t="s">
+      <c r="AE445" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A442" s="28" t="s">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A446" s="28" t="s">
         <v>804</v>
       </c>
-      <c r="B442" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C442" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D442" s="28" t="s">
+      <c r="B446" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C446" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D446" s="28" t="s">
         <v>803</v>
       </c>
-      <c r="E442" s="28"/>
-      <c r="F442" s="31">
+      <c r="E446" s="28"/>
+      <c r="F446" s="31">
         <v>1.9675925925925928E-3</v>
       </c>
-      <c r="G442" s="33"/>
-      <c r="H442" s="33"/>
-      <c r="I442" s="33"/>
-      <c r="J442" s="33"/>
-      <c r="K442" s="33"/>
-      <c r="L442" s="33"/>
-      <c r="M442" s="33"/>
-      <c r="N442" s="33"/>
-      <c r="O442" s="33"/>
-      <c r="P442" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q442" s="33"/>
-      <c r="R442" s="33"/>
-      <c r="S442" s="33"/>
-      <c r="T442" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U442" s="33"/>
-      <c r="V442" s="33"/>
-      <c r="W442" s="33"/>
-      <c r="X442" s="33"/>
-      <c r="Y442" s="33"/>
-      <c r="Z442" s="33"/>
-      <c r="AA442" s="33"/>
-      <c r="AB442" s="33"/>
-      <c r="AC442" s="33"/>
-      <c r="AD442" t="s">
+      <c r="G446" s="33"/>
+      <c r="H446" s="33"/>
+      <c r="I446" s="33"/>
+      <c r="J446" s="33"/>
+      <c r="K446" s="33"/>
+      <c r="L446" s="33"/>
+      <c r="M446" s="33"/>
+      <c r="N446" s="33"/>
+      <c r="O446" s="33"/>
+      <c r="P446" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q446" s="33"/>
+      <c r="R446" s="33"/>
+      <c r="S446" s="33"/>
+      <c r="T446" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U446" s="33"/>
+      <c r="V446" s="33"/>
+      <c r="W446" s="33"/>
+      <c r="X446" s="33"/>
+      <c r="Y446" s="33"/>
+      <c r="Z446" s="33"/>
+      <c r="AA446" s="33"/>
+      <c r="AB446" s="33"/>
+      <c r="AC446" s="33"/>
+      <c r="AD446" t="s">
         <v>802</v>
       </c>
-      <c r="AE442" t="s">
+      <c r="AE446" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
         <v>809</v>
       </c>
-      <c r="B443" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C443" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D443"/>
-      <c r="F443" s="24">
+      <c r="B447" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D447"/>
+      <c r="F447" s="24">
         <v>6.7430555555555563E-2</v>
       </c>
-      <c r="G443" s="26"/>
-      <c r="H443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="J443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="M443" s="26"/>
-      <c r="N443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O443" s="26"/>
-      <c r="P443" s="26"/>
-      <c r="Q443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R443" s="26"/>
-      <c r="S443" s="26"/>
-      <c r="T443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U443" s="26"/>
-      <c r="V443" s="26"/>
-      <c r="W443" s="26"/>
-      <c r="X443" s="26"/>
-      <c r="Y443" s="26"/>
-      <c r="Z443" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA443" s="26"/>
-      <c r="AB443" s="26"/>
-      <c r="AC443" s="26" t="s">
+      <c r="G447" s="26"/>
+      <c r="H447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M447" s="26"/>
+      <c r="N447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O447" s="26"/>
+      <c r="P447" s="26"/>
+      <c r="Q447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R447" s="26"/>
+      <c r="S447" s="26"/>
+      <c r="T447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U447" s="26"/>
+      <c r="V447" s="26"/>
+      <c r="W447" s="26"/>
+      <c r="X447" s="26"/>
+      <c r="Y447" s="26"/>
+      <c r="Z447" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA447" s="26"/>
+      <c r="AB447" s="26"/>
+      <c r="AC447" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="AD443" t="s">
+      <c r="AD447" t="s">
         <v>808</v>
       </c>
-      <c r="AE443" t="s">
+      <c r="AE447" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="D444"/>
-    </row>
-    <row r="445" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="3" t="s">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D448"/>
+    </row>
+    <row r="449" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B445" s="60" t="s">
+      <c r="B449" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C445" s="60"/>
-      <c r="D445" s="6"/>
-    </row>
-    <row r="446" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="C449" s="60"/>
+      <c r="D449" s="6"/>
+    </row>
+    <row r="450" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B450" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C446" s="7" t="s">
+      <c r="C450" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D446" s="6"/>
-    </row>
-    <row r="447" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="28" t="s">
+      <c r="D450" s="6"/>
+    </row>
+    <row r="451" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="28" t="s">
         <v>614</v>
-      </c>
-      <c r="B447" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C447" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D447" s="30"/>
-      <c r="E447" s="28"/>
-      <c r="F447" s="31">
-        <v>1.5046296296296294E-3</v>
-      </c>
-      <c r="G447" s="33"/>
-      <c r="H447" s="33"/>
-      <c r="I447" s="33"/>
-      <c r="J447" s="33"/>
-      <c r="K447" s="33"/>
-      <c r="L447" s="33"/>
-      <c r="M447" s="33"/>
-      <c r="N447" s="33"/>
-      <c r="O447" s="33"/>
-      <c r="P447" s="33"/>
-      <c r="Q447" s="33"/>
-      <c r="R447" s="33"/>
-      <c r="S447" s="33"/>
-      <c r="T447" s="33"/>
-      <c r="U447" s="33"/>
-      <c r="V447" s="33"/>
-      <c r="W447" s="33"/>
-      <c r="X447" s="33"/>
-      <c r="Y447" s="33"/>
-      <c r="Z447" s="33"/>
-      <c r="AA447" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB447" s="33"/>
-      <c r="AC447" s="33"/>
-      <c r="AD447" t="s">
-        <v>615</v>
-      </c>
-      <c r="AE447" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="448" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>757</v>
-      </c>
-      <c r="B448" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C448" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D448" s="4"/>
-      <c r="E448"/>
-      <c r="F448" s="24">
-        <v>7.6736111111111111E-3</v>
-      </c>
-      <c r="G448" s="26"/>
-      <c r="H448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I448" s="26"/>
-      <c r="J448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="M448" s="26"/>
-      <c r="N448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="P448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R448" s="26"/>
-      <c r="S448" s="26"/>
-      <c r="T448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U448" s="26"/>
-      <c r="V448" s="26"/>
-      <c r="W448" s="26"/>
-      <c r="X448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y448" s="26"/>
-      <c r="Z448" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA448" s="26"/>
-      <c r="AB448" s="26"/>
-      <c r="AC448" s="26" t="s">
-        <v>853</v>
-      </c>
-      <c r="AD448" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE448" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="449" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="B449" s="54"/>
-      <c r="C449" s="29"/>
-      <c r="D449" s="37"/>
-      <c r="E449" s="42"/>
-      <c r="F449" s="31">
-        <v>2.1643518518518518E-3</v>
-      </c>
-      <c r="G449" s="38"/>
-      <c r="H449" s="38"/>
-      <c r="I449" s="38"/>
-      <c r="J449" s="38"/>
-      <c r="K449" s="38"/>
-      <c r="L449" s="38"/>
-      <c r="M449" s="38"/>
-      <c r="N449" s="38"/>
-      <c r="O449" s="38"/>
-      <c r="P449" s="38"/>
-      <c r="Q449" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R449" s="38"/>
-      <c r="S449" s="38"/>
-      <c r="T449" s="38"/>
-      <c r="U449" s="38"/>
-      <c r="V449" s="38"/>
-      <c r="W449" s="38"/>
-      <c r="X449" s="38"/>
-      <c r="Y449" s="38"/>
-      <c r="Z449" s="38"/>
-      <c r="AA449" s="38"/>
-      <c r="AB449" s="38"/>
-      <c r="AC449" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="AD449" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE449" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="450" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
-        <v>433</v>
-      </c>
-      <c r="B450" s="5"/>
-      <c r="C450" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D450" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E450"/>
-      <c r="F450" s="24">
-        <v>3.695601851851852E-2</v>
-      </c>
-      <c r="G450" s="26"/>
-      <c r="H450" s="26"/>
-      <c r="I450" s="26"/>
-      <c r="J450" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K450" s="26"/>
-      <c r="L450" s="26"/>
-      <c r="M450" s="26"/>
-      <c r="N450" s="26"/>
-      <c r="O450" s="26"/>
-      <c r="P450" s="26"/>
-      <c r="Q450" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R450" s="26"/>
-      <c r="S450" s="26"/>
-      <c r="T450" s="26"/>
-      <c r="U450" s="26"/>
-      <c r="V450" s="26"/>
-      <c r="W450" s="26"/>
-      <c r="X450" s="26"/>
-      <c r="Y450" s="26"/>
-      <c r="Z450" s="26"/>
-      <c r="AA450" s="26"/>
-      <c r="AB450" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC450" s="26"/>
-      <c r="AD450" t="s">
-        <v>818</v>
-      </c>
-      <c r="AE450" s="8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A451" s="28" t="s">
-        <v>498</v>
       </c>
       <c r="B451" s="29" t="s">
         <v>4</v>
@@ -24658,17 +24589,13 @@
       <c r="D451" s="30"/>
       <c r="E451" s="28"/>
       <c r="F451" s="31">
-        <v>7.6388888888888893E-4</v>
+        <v>1.5046296296296294E-3</v>
       </c>
       <c r="G451" s="33"/>
       <c r="H451" s="33"/>
       <c r="I451" s="33"/>
-      <c r="J451" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K451" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="J451" s="33"/>
+      <c r="K451" s="33"/>
       <c r="L451" s="33"/>
       <c r="M451" s="33"/>
       <c r="N451" s="33"/>
@@ -24684,32 +24611,38 @@
       <c r="X451" s="33"/>
       <c r="Y451" s="33"/>
       <c r="Z451" s="33"/>
-      <c r="AA451" s="33"/>
+      <c r="AA451" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="AB451" s="33"/>
       <c r="AC451" s="33"/>
       <c r="AD451" t="s">
-        <v>499</v>
+        <v>615</v>
       </c>
       <c r="AE451" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A452" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B452" s="7"/>
+    <row r="452" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>757</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C452" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D452" s="6"/>
-      <c r="E452" s="1"/>
+      <c r="D452" s="4"/>
+      <c r="E452"/>
       <c r="F452" s="24">
-        <v>3.8078703703703707E-3</v>
-      </c>
-      <c r="G452" s="34"/>
-      <c r="H452" s="34"/>
-      <c r="I452" s="34"/>
+        <v>7.6736111111111111E-3</v>
+      </c>
+      <c r="G452" s="26"/>
+      <c r="H452" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I452" s="26"/>
       <c r="J452" s="49" t="s">
         <v>417</v>
       </c>
@@ -24719,7 +24652,7 @@
       <c r="L452" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="M452" s="34"/>
+      <c r="M452" s="26"/>
       <c r="N452" s="49" t="s">
         <v>417</v>
       </c>
@@ -24732,151 +24665,132 @@
       <c r="Q452" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="R452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S452" s="34"/>
+      <c r="R452" s="26"/>
+      <c r="S452" s="26"/>
       <c r="T452" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="U452" s="34"/>
-      <c r="V452" s="34"/>
-      <c r="W452" s="34"/>
+      <c r="U452" s="26"/>
+      <c r="V452" s="26"/>
+      <c r="W452" s="26"/>
       <c r="X452" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="Y452" s="34"/>
-      <c r="Z452" s="34"/>
-      <c r="AA452" s="34"/>
-      <c r="AB452" s="34"/>
-      <c r="AC452" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD452" s="8" t="s">
-        <v>820</v>
+      <c r="Y452" s="26"/>
+      <c r="Z452" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA452" s="26"/>
+      <c r="AB452" s="26"/>
+      <c r="AC452" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD452" t="s">
+        <v>758</v>
       </c>
       <c r="AE452" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="35" t="s">
-        <v>854</v>
-      </c>
-      <c r="B453" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C453" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D453" s="30" t="s">
-        <v>10</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B453" s="54"/>
+      <c r="C453" s="29"/>
+      <c r="D453" s="37"/>
       <c r="E453" s="42"/>
       <c r="F453" s="31">
-        <v>2.4768518518518516E-3</v>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="G453" s="38"/>
-      <c r="H453" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="H453" s="38"/>
       <c r="I453" s="38"/>
       <c r="J453" s="38"/>
       <c r="K453" s="38"/>
       <c r="L453" s="38"/>
       <c r="M453" s="38"/>
-      <c r="N453" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O453" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="N453" s="38"/>
+      <c r="O453" s="38"/>
       <c r="P453" s="38"/>
       <c r="Q453" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="R453" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="R453" s="38"/>
       <c r="S453" s="38"/>
       <c r="T453" s="38"/>
       <c r="U453" s="38"/>
       <c r="V453" s="38"/>
       <c r="W453" s="38"/>
-      <c r="X453" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="X453" s="38"/>
       <c r="Y453" s="38"/>
       <c r="Z453" s="38"/>
       <c r="AA453" s="38"/>
       <c r="AB453" s="38"/>
       <c r="AC453" s="43" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AD453" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="AE453" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A454" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B454" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE453" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="454" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>433</v>
+      </c>
+      <c r="B454" s="5"/>
+      <c r="C454" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E454" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="E454"/>
       <c r="F454" s="24">
-        <v>3.5648148148148154E-3</v>
-      </c>
-      <c r="G454" s="34"/>
-      <c r="H454" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I454" s="34"/>
-      <c r="J454" s="34"/>
-      <c r="K454" s="34"/>
-      <c r="L454" s="34"/>
-      <c r="M454" s="34"/>
-      <c r="N454" s="34"/>
-      <c r="O454" s="34"/>
-      <c r="P454" s="34"/>
+        <v>3.695601851851852E-2</v>
+      </c>
+      <c r="G454" s="26"/>
+      <c r="H454" s="26"/>
+      <c r="I454" s="26"/>
+      <c r="J454" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K454" s="26"/>
+      <c r="L454" s="26"/>
+      <c r="M454" s="26"/>
+      <c r="N454" s="26"/>
+      <c r="O454" s="26"/>
+      <c r="P454" s="26"/>
       <c r="Q454" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="R454" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S454" s="34"/>
-      <c r="T454" s="34"/>
-      <c r="U454" s="34"/>
-      <c r="V454" s="34"/>
-      <c r="W454" s="34"/>
-      <c r="X454" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y454" s="34"/>
-      <c r="Z454" s="34"/>
-      <c r="AA454" s="34"/>
-      <c r="AB454" s="34"/>
-      <c r="AC454" s="59" t="s">
-        <v>855</v>
-      </c>
-      <c r="AD454" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE454" t="s">
-        <v>540</v>
+      <c r="R454" s="26"/>
+      <c r="S454" s="26"/>
+      <c r="T454" s="26"/>
+      <c r="U454" s="26"/>
+      <c r="V454" s="26"/>
+      <c r="W454" s="26"/>
+      <c r="X454" s="26"/>
+      <c r="Y454" s="26"/>
+      <c r="Z454" s="26"/>
+      <c r="AA454" s="26"/>
+      <c r="AB454" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC454" s="26"/>
+      <c r="AD454" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE454" s="8" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="455" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A455" s="28" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="B455" s="29" t="s">
         <v>4</v>
@@ -24887,7 +24801,7 @@
       <c r="D455" s="30"/>
       <c r="E455" s="28"/>
       <c r="F455" s="31">
-        <v>1.8981481481481482E-3</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="G455" s="33"/>
       <c r="H455" s="33"/>
@@ -24900,18 +24814,12 @@
       </c>
       <c r="L455" s="33"/>
       <c r="M455" s="33"/>
-      <c r="N455" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="N455" s="33"/>
       <c r="O455" s="33"/>
       <c r="P455" s="33"/>
       <c r="Q455" s="33"/>
-      <c r="R455" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S455" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="R455" s="33"/>
+      <c r="S455" s="33"/>
       <c r="T455" s="33"/>
       <c r="U455" s="33"/>
       <c r="V455" s="33"/>
@@ -24920,37 +24828,31 @@
       <c r="Y455" s="33"/>
       <c r="Z455" s="33"/>
       <c r="AA455" s="33"/>
-      <c r="AB455" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="AB455" s="33"/>
       <c r="AC455" s="33"/>
-      <c r="AD455" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE455" s="8" t="s">
-        <v>484</v>
+      <c r="AD455" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE455" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="456" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
-        <v>810</v>
-      </c>
-      <c r="B456" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A456" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B456" s="7"/>
       <c r="C456" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D456" s="6"/>
+      <c r="E456" s="1"/>
       <c r="F456" s="24">
-        <v>3.4027777777777784E-3</v>
-      </c>
-      <c r="G456" s="26"/>
-      <c r="H456" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I456" s="49" t="s">
-        <v>417</v>
-      </c>
+        <v>3.8078703703703707E-3</v>
+      </c>
+      <c r="G456" s="34"/>
+      <c r="H456" s="34"/>
+      <c r="I456" s="34"/>
       <c r="J456" s="49" t="s">
         <v>417</v>
       </c>
@@ -24960,892 +24862,1048 @@
       <c r="L456" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="M456" s="26"/>
+      <c r="M456" s="34"/>
       <c r="N456" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="O456" s="26"/>
-      <c r="P456" s="26"/>
-      <c r="Q456" s="26"/>
-      <c r="R456" s="26"/>
-      <c r="S456" s="49" t="s">
-        <v>417</v>
-      </c>
+      <c r="O456" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="P456" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q456" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R456" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S456" s="34"/>
       <c r="T456" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="U456" s="26"/>
-      <c r="V456" s="26"/>
-      <c r="W456" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="X456" s="26"/>
-      <c r="Y456" s="26"/>
-      <c r="Z456" s="26"/>
-      <c r="AA456" s="26"/>
-      <c r="AB456" s="26"/>
-      <c r="AC456" s="26"/>
-      <c r="AD456" t="s">
-        <v>811</v>
+      <c r="U456" s="34"/>
+      <c r="V456" s="34"/>
+      <c r="W456" s="34"/>
+      <c r="X456" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y456" s="34"/>
+      <c r="Z456" s="34"/>
+      <c r="AA456" s="34"/>
+      <c r="AB456" s="34"/>
+      <c r="AC456" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD456" s="8" t="s">
+        <v>820</v>
       </c>
       <c r="AE456" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="457" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A457" s="28" t="s">
+      <c r="A457" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="B457" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D457" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E457" s="42"/>
+      <c r="F457" s="31">
+        <v>2.4768518518518516E-3</v>
+      </c>
+      <c r="G457" s="38"/>
+      <c r="H457" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I457" s="38"/>
+      <c r="J457" s="38"/>
+      <c r="K457" s="38"/>
+      <c r="L457" s="38"/>
+      <c r="M457" s="38"/>
+      <c r="N457" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O457" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P457" s="38"/>
+      <c r="Q457" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R457" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S457" s="38"/>
+      <c r="T457" s="38"/>
+      <c r="U457" s="38"/>
+      <c r="V457" s="38"/>
+      <c r="W457" s="38"/>
+      <c r="X457" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y457" s="38"/>
+      <c r="Z457" s="38"/>
+      <c r="AA457" s="38"/>
+      <c r="AB457" s="38"/>
+      <c r="AC457" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD457" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE457" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A458" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B458" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D458" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E458" s="1"/>
+      <c r="F458" s="24">
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="G458" s="34"/>
+      <c r="H458" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I458" s="34"/>
+      <c r="J458" s="34"/>
+      <c r="K458" s="34"/>
+      <c r="L458" s="34"/>
+      <c r="M458" s="34"/>
+      <c r="N458" s="34"/>
+      <c r="O458" s="34"/>
+      <c r="P458" s="34"/>
+      <c r="Q458" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R458" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S458" s="34"/>
+      <c r="T458" s="34"/>
+      <c r="U458" s="34"/>
+      <c r="V458" s="34"/>
+      <c r="W458" s="34"/>
+      <c r="X458" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y458" s="34"/>
+      <c r="Z458" s="34"/>
+      <c r="AA458" s="34"/>
+      <c r="AB458" s="34"/>
+      <c r="AC458" s="59" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD458" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE458" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="459" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A459" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B459" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C459" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D459" s="30"/>
+      <c r="E459" s="28"/>
+      <c r="F459" s="31">
+        <v>1.8981481481481482E-3</v>
+      </c>
+      <c r="G459" s="33"/>
+      <c r="H459" s="33"/>
+      <c r="I459" s="33"/>
+      <c r="J459" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K459" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L459" s="33"/>
+      <c r="M459" s="33"/>
+      <c r="N459" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O459" s="33"/>
+      <c r="P459" s="33"/>
+      <c r="Q459" s="33"/>
+      <c r="R459" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S459" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T459" s="33"/>
+      <c r="U459" s="33"/>
+      <c r="V459" s="33"/>
+      <c r="W459" s="33"/>
+      <c r="X459" s="33"/>
+      <c r="Y459" s="33"/>
+      <c r="Z459" s="33"/>
+      <c r="AA459" s="33"/>
+      <c r="AB459" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC459" s="33"/>
+      <c r="AD459" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE459" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="460" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>810</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F460" s="24">
+        <v>3.4027777777777784E-3</v>
+      </c>
+      <c r="G460" s="26"/>
+      <c r="H460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M460" s="26"/>
+      <c r="N460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O460" s="26"/>
+      <c r="P460" s="26"/>
+      <c r="Q460" s="26"/>
+      <c r="R460" s="26"/>
+      <c r="S460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="T460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U460" s="26"/>
+      <c r="V460" s="26"/>
+      <c r="W460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="X460" s="26"/>
+      <c r="Y460" s="26"/>
+      <c r="Z460" s="26"/>
+      <c r="AA460" s="26"/>
+      <c r="AB460" s="26"/>
+      <c r="AC460" s="26"/>
+      <c r="AD460" t="s">
+        <v>811</v>
+      </c>
+      <c r="AE460" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="461" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A461" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B457" s="29"/>
-      <c r="C457" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D457" s="30"/>
-      <c r="E457" s="28"/>
-      <c r="F457" s="31">
+      <c r="B461" s="29"/>
+      <c r="C461" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461" s="30"/>
+      <c r="E461" s="28"/>
+      <c r="F461" s="31">
         <v>1.1122685185185185E-2</v>
       </c>
-      <c r="G457" s="33"/>
-      <c r="H457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="N457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P457" s="33"/>
-      <c r="Q457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T457" s="33"/>
-      <c r="U457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="V457" s="33"/>
-      <c r="W457" s="33"/>
-      <c r="X457" s="33"/>
-      <c r="Y457" s="33"/>
-      <c r="Z457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB457" s="33"/>
-      <c r="AC457" s="33"/>
-      <c r="AD457" s="8" t="s">
+      <c r="G461" s="33"/>
+      <c r="H461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="N461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P461" s="33"/>
+      <c r="Q461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T461" s="33"/>
+      <c r="U461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="V461" s="33"/>
+      <c r="W461" s="33"/>
+      <c r="X461" s="33"/>
+      <c r="Y461" s="33"/>
+      <c r="Z461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB461" s="33"/>
+      <c r="AC461" s="33"/>
+      <c r="AD461" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE457" s="8" t="s">
+      <c r="AE461" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
         <v>824</v>
       </c>
-      <c r="B458" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F458" s="24">
+      <c r="B462" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F462" s="24">
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="G458" s="26"/>
-      <c r="H458" s="26"/>
-      <c r="I458" s="26"/>
-      <c r="J458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="M458" s="26"/>
-      <c r="N458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O458" s="26"/>
-      <c r="P458" s="26"/>
-      <c r="Q458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S458" s="26"/>
-      <c r="T458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U458" s="26"/>
-      <c r="V458" s="26"/>
-      <c r="W458" s="26"/>
-      <c r="X458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y458" s="26"/>
-      <c r="Z458" s="26"/>
-      <c r="AA458" s="26"/>
-      <c r="AB458" s="26"/>
-      <c r="AC458" s="26"/>
-      <c r="AD458" t="s">
+      <c r="G462" s="26"/>
+      <c r="H462" s="26"/>
+      <c r="I462" s="26"/>
+      <c r="J462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M462" s="26"/>
+      <c r="N462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O462" s="26"/>
+      <c r="P462" s="26"/>
+      <c r="Q462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S462" s="26"/>
+      <c r="T462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U462" s="26"/>
+      <c r="V462" s="26"/>
+      <c r="W462" s="26"/>
+      <c r="X462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y462" s="26"/>
+      <c r="Z462" s="26"/>
+      <c r="AA462" s="26"/>
+      <c r="AB462" s="26"/>
+      <c r="AC462" s="26"/>
+      <c r="AD462" t="s">
         <v>823</v>
-      </c>
-      <c r="AE458" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="460" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B460" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C460" s="60"/>
-      <c r="D460" s="6"/>
-    </row>
-    <row r="461" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B461" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D461" s="6"/>
-    </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A462" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B462" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C462" s="29"/>
-      <c r="D462" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E462" s="28"/>
-      <c r="F462" s="31">
-        <v>2.8009259259259259E-3</v>
-      </c>
-      <c r="G462" s="33"/>
-      <c r="H462" s="33"/>
-      <c r="I462" s="33"/>
-      <c r="J462" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K462" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L462" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M462" s="33"/>
-      <c r="N462" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O462" s="33"/>
-      <c r="P462" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q462" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R462" s="33"/>
-      <c r="S462" s="33"/>
-      <c r="T462" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U462" s="33"/>
-      <c r="V462" s="33"/>
-      <c r="W462" s="33"/>
-      <c r="X462" s="33"/>
-      <c r="Y462" s="33"/>
-      <c r="Z462" s="33"/>
-      <c r="AA462" s="33"/>
-      <c r="AB462" s="33"/>
-      <c r="AC462" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD462" t="s">
-        <v>825</v>
       </c>
       <c r="AE462" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+    <row r="464" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B464" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C464" s="60"/>
+      <c r="D464" s="6"/>
+    </row>
+    <row r="465" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D465" s="6"/>
+    </row>
+    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A466" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B466" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466" s="29"/>
+      <c r="D466" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E466" s="28"/>
+      <c r="F466" s="31">
+        <v>2.8009259259259259E-3</v>
+      </c>
+      <c r="G466" s="33"/>
+      <c r="H466" s="33"/>
+      <c r="I466" s="33"/>
+      <c r="J466" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K466" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L466" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M466" s="33"/>
+      <c r="N466" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O466" s="33"/>
+      <c r="P466" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q466" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R466" s="33"/>
+      <c r="S466" s="33"/>
+      <c r="T466" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U466" s="33"/>
+      <c r="V466" s="33"/>
+      <c r="W466" s="33"/>
+      <c r="X466" s="33"/>
+      <c r="Y466" s="33"/>
+      <c r="Z466" s="33"/>
+      <c r="AA466" s="33"/>
+      <c r="AB466" s="33"/>
+      <c r="AC466" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD466" t="s">
+        <v>825</v>
+      </c>
+      <c r="AE466" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="467" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
         <v>201</v>
       </c>
-      <c r="B463" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D463" s="4" t="s">
+      <c r="B467" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D467" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F463" s="24">
+      <c r="F467" s="24">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="G463" s="26"/>
-      <c r="H463" s="26"/>
-      <c r="I463" s="26"/>
-      <c r="J463" s="26"/>
-      <c r="K463" s="26"/>
-      <c r="L463" s="26"/>
-      <c r="M463" s="26"/>
-      <c r="N463" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O463" s="26"/>
-      <c r="P463" s="26"/>
-      <c r="Q463" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R463" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S463" s="26"/>
-      <c r="T463" s="26"/>
-      <c r="U463" s="26"/>
-      <c r="V463" s="26"/>
-      <c r="W463" s="26"/>
-      <c r="X463" s="26"/>
-      <c r="Y463" s="26"/>
-      <c r="Z463" s="26"/>
-      <c r="AA463" s="26"/>
-      <c r="AB463" s="26"/>
-      <c r="AC463" s="26"/>
-      <c r="AD463" t="s">
+      <c r="G467" s="26"/>
+      <c r="H467" s="26"/>
+      <c r="I467" s="26"/>
+      <c r="J467" s="26"/>
+      <c r="K467" s="26"/>
+      <c r="L467" s="26"/>
+      <c r="M467" s="26"/>
+      <c r="N467" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O467" s="26"/>
+      <c r="P467" s="26"/>
+      <c r="Q467" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R467" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S467" s="26"/>
+      <c r="T467" s="26"/>
+      <c r="U467" s="26"/>
+      <c r="V467" s="26"/>
+      <c r="W467" s="26"/>
+      <c r="X467" s="26"/>
+      <c r="Y467" s="26"/>
+      <c r="Z467" s="26"/>
+      <c r="AA467" s="26"/>
+      <c r="AB467" s="26"/>
+      <c r="AC467" s="26"/>
+      <c r="AD467" t="s">
         <v>826</v>
       </c>
-      <c r="AE463" t="s">
+      <c r="AE467" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A464" s="28" t="s">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A468" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B464" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C464" s="29"/>
-      <c r="D464" s="30" t="s">
+      <c r="B468" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C468" s="29"/>
+      <c r="D468" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E464" s="28"/>
-      <c r="F464" s="31">
+      <c r="E468" s="28"/>
+      <c r="F468" s="31">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="G464" s="33"/>
-      <c r="H464" s="33"/>
-      <c r="I464" s="33"/>
-      <c r="J464" s="33"/>
-      <c r="K464" s="33"/>
-      <c r="L464" s="33"/>
-      <c r="M464" s="33"/>
-      <c r="N464" s="33"/>
-      <c r="O464" s="33"/>
-      <c r="P464" s="33"/>
-      <c r="Q464" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R464" s="33"/>
-      <c r="S464" s="33"/>
-      <c r="T464" s="33"/>
-      <c r="U464" s="33"/>
-      <c r="V464" s="33"/>
-      <c r="W464" s="33"/>
-      <c r="X464" s="33"/>
-      <c r="Y464" s="33"/>
-      <c r="Z464" s="33"/>
-      <c r="AA464" s="33"/>
-      <c r="AB464" s="33"/>
-      <c r="AC464" s="33" t="s">
+      <c r="G468" s="33"/>
+      <c r="H468" s="33"/>
+      <c r="I468" s="33"/>
+      <c r="J468" s="33"/>
+      <c r="K468" s="33"/>
+      <c r="L468" s="33"/>
+      <c r="M468" s="33"/>
+      <c r="N468" s="33"/>
+      <c r="O468" s="33"/>
+      <c r="P468" s="33"/>
+      <c r="Q468" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R468" s="33"/>
+      <c r="S468" s="33"/>
+      <c r="T468" s="33"/>
+      <c r="U468" s="33"/>
+      <c r="V468" s="33"/>
+      <c r="W468" s="33"/>
+      <c r="X468" s="33"/>
+      <c r="Y468" s="33"/>
+      <c r="Z468" s="33"/>
+      <c r="AA468" s="33"/>
+      <c r="AB468" s="33"/>
+      <c r="AC468" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="AD464" t="s">
+      <c r="AD468" t="s">
         <v>827</v>
       </c>
-      <c r="AE464" t="s">
+      <c r="AE468" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
         <v>203</v>
       </c>
-      <c r="B465" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D465" s="4" t="s">
+      <c r="B469" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D469" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F465" s="24">
+      <c r="F469" s="24">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="G465" s="26"/>
-      <c r="H465" s="26"/>
-      <c r="I465" s="26"/>
-      <c r="J465" s="26"/>
-      <c r="K465" s="26"/>
-      <c r="L465" s="26"/>
-      <c r="M465" s="26"/>
-      <c r="N465" s="26"/>
-      <c r="O465" s="26"/>
-      <c r="P465" s="26"/>
-      <c r="Q465" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R465" s="26"/>
-      <c r="S465" s="26"/>
-      <c r="T465" s="26"/>
-      <c r="U465" s="26"/>
-      <c r="V465" s="26"/>
-      <c r="W465" s="26"/>
-      <c r="X465" s="26"/>
-      <c r="Y465" s="26"/>
-      <c r="Z465" s="26"/>
-      <c r="AA465" s="26"/>
-      <c r="AB465" s="26"/>
-      <c r="AC465" s="26" t="s">
+      <c r="G469" s="26"/>
+      <c r="H469" s="26"/>
+      <c r="I469" s="26"/>
+      <c r="J469" s="26"/>
+      <c r="K469" s="26"/>
+      <c r="L469" s="26"/>
+      <c r="M469" s="26"/>
+      <c r="N469" s="26"/>
+      <c r="O469" s="26"/>
+      <c r="P469" s="26"/>
+      <c r="Q469" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R469" s="26"/>
+      <c r="S469" s="26"/>
+      <c r="T469" s="26"/>
+      <c r="U469" s="26"/>
+      <c r="V469" s="26"/>
+      <c r="W469" s="26"/>
+      <c r="X469" s="26"/>
+      <c r="Y469" s="26"/>
+      <c r="Z469" s="26"/>
+      <c r="AA469" s="26"/>
+      <c r="AB469" s="26"/>
+      <c r="AC469" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="AD465" t="s">
+      <c r="AD469" t="s">
         <v>828</v>
-      </c>
-      <c r="AE465" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="467" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B467" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C467" s="60"/>
-      <c r="D467" s="6"/>
-    </row>
-    <row r="468" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B468" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C468" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D468" s="6"/>
-    </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A469" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B469" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C469" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D469" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E469" s="28"/>
-      <c r="F469" s="31">
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="G469" s="33"/>
-      <c r="H469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M469" s="33"/>
-      <c r="N469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="V469" s="33"/>
-      <c r="W469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="X469" s="33"/>
-      <c r="Y469" s="33"/>
-      <c r="Z469" s="33"/>
-      <c r="AA469" s="33"/>
-      <c r="AB469" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC469" s="33"/>
-      <c r="AD469" t="s">
-        <v>829</v>
       </c>
       <c r="AE469" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+    <row r="471" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B471" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C471" s="60"/>
+      <c r="D471" s="6"/>
+    </row>
+    <row r="472" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D472" s="6"/>
+    </row>
+    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A473" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B473" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C473" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D473" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E473" s="28"/>
+      <c r="F473" s="31">
+        <v>4.5138888888888893E-3</v>
+      </c>
+      <c r="G473" s="33"/>
+      <c r="H473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M473" s="33"/>
+      <c r="N473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="V473" s="33"/>
+      <c r="W473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="X473" s="33"/>
+      <c r="Y473" s="33"/>
+      <c r="Z473" s="33"/>
+      <c r="AA473" s="33"/>
+      <c r="AB473" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC473" s="33"/>
+      <c r="AD473" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE473" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
         <v>832</v>
       </c>
-      <c r="B470" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F470" s="24">
+      <c r="B474" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F474" s="24">
         <v>4.3287037037037035E-3</v>
       </c>
-      <c r="G470" s="26"/>
-      <c r="H470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="J470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K470" s="26"/>
-      <c r="L470" s="26"/>
-      <c r="M470" s="26"/>
-      <c r="N470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O470" s="26"/>
-      <c r="P470" s="26"/>
-      <c r="Q470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S470" s="26"/>
-      <c r="T470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="V470" s="26"/>
-      <c r="W470" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="X470" s="26"/>
-      <c r="Y470" s="26"/>
-      <c r="Z470" s="26"/>
-      <c r="AA470" s="26"/>
-      <c r="AB470" s="26"/>
-      <c r="AC470" s="26" t="s">
+      <c r="G474" s="26"/>
+      <c r="H474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K474" s="26"/>
+      <c r="L474" s="26"/>
+      <c r="M474" s="26"/>
+      <c r="N474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O474" s="26"/>
+      <c r="P474" s="26"/>
+      <c r="Q474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S474" s="26"/>
+      <c r="T474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="V474" s="26"/>
+      <c r="W474" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="X474" s="26"/>
+      <c r="Y474" s="26"/>
+      <c r="Z474" s="26"/>
+      <c r="AA474" s="26"/>
+      <c r="AB474" s="26"/>
+      <c r="AC474" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="AD470" t="s">
+      <c r="AD474" t="s">
         <v>549</v>
       </c>
-      <c r="AE470" t="s">
+      <c r="AE474" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A471" s="28" t="s">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A475" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B471" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C471" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D471" s="30" t="s">
+      <c r="B475" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C475" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D475" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E471" s="28"/>
-      <c r="F471" s="31">
+      <c r="E475" s="28"/>
+      <c r="F475" s="31">
         <v>1.4699074074074074E-3</v>
       </c>
-      <c r="G471" s="33"/>
-      <c r="H471" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I471" s="33"/>
-      <c r="J471" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K471" s="33"/>
-      <c r="L471" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M471" s="33"/>
-      <c r="N471" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O471" s="33"/>
-      <c r="P471" s="33"/>
-      <c r="Q471" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R471" s="33"/>
-      <c r="S471" s="33"/>
-      <c r="T471" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U471" s="33"/>
-      <c r="V471" s="33"/>
-      <c r="W471" s="33"/>
-      <c r="X471" s="33"/>
-      <c r="Y471" s="33"/>
-      <c r="Z471" s="33"/>
-      <c r="AA471" s="33"/>
-      <c r="AB471" s="33"/>
-      <c r="AC471" s="33"/>
-      <c r="AD471" t="s">
+      <c r="G475" s="33"/>
+      <c r="H475" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I475" s="33"/>
+      <c r="J475" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K475" s="33"/>
+      <c r="L475" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M475" s="33"/>
+      <c r="N475" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O475" s="33"/>
+      <c r="P475" s="33"/>
+      <c r="Q475" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R475" s="33"/>
+      <c r="S475" s="33"/>
+      <c r="T475" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U475" s="33"/>
+      <c r="V475" s="33"/>
+      <c r="W475" s="33"/>
+      <c r="X475" s="33"/>
+      <c r="Y475" s="33"/>
+      <c r="Z475" s="33"/>
+      <c r="AA475" s="33"/>
+      <c r="AB475" s="33"/>
+      <c r="AC475" s="33"/>
+      <c r="AD475" t="s">
         <v>830</v>
       </c>
-      <c r="AE471" t="s">
+      <c r="AE475" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>9</v>
       </c>
-      <c r="B472" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D472" s="4" t="s">
+      <c r="B476" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D476" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F472" s="24">
+      <c r="F476" s="24">
         <v>1.8634259259259261E-3</v>
       </c>
-      <c r="G472" s="26"/>
-      <c r="H472" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I472" s="26"/>
-      <c r="J472" s="26"/>
-      <c r="K472" s="26"/>
-      <c r="L472" s="26"/>
-      <c r="M472" s="26"/>
-      <c r="N472" s="26"/>
-      <c r="O472" s="26"/>
-      <c r="P472" s="26"/>
-      <c r="Q472" s="26"/>
-      <c r="R472" s="26"/>
-      <c r="S472" s="26"/>
-      <c r="T472" s="26"/>
-      <c r="U472" s="26"/>
-      <c r="V472" s="26"/>
-      <c r="W472" s="26"/>
-      <c r="X472" s="26"/>
-      <c r="Y472" s="26"/>
-      <c r="Z472" s="26"/>
-      <c r="AA472" s="26"/>
-      <c r="AB472" s="26"/>
-      <c r="AC472" s="26"/>
-      <c r="AD472" t="s">
+      <c r="G476" s="26"/>
+      <c r="H476" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I476" s="26"/>
+      <c r="J476" s="26"/>
+      <c r="K476" s="26"/>
+      <c r="L476" s="26"/>
+      <c r="M476" s="26"/>
+      <c r="N476" s="26"/>
+      <c r="O476" s="26"/>
+      <c r="P476" s="26"/>
+      <c r="Q476" s="26"/>
+      <c r="R476" s="26"/>
+      <c r="S476" s="26"/>
+      <c r="T476" s="26"/>
+      <c r="U476" s="26"/>
+      <c r="V476" s="26"/>
+      <c r="W476" s="26"/>
+      <c r="X476" s="26"/>
+      <c r="Y476" s="26"/>
+      <c r="Z476" s="26"/>
+      <c r="AA476" s="26"/>
+      <c r="AB476" s="26"/>
+      <c r="AC476" s="26"/>
+      <c r="AD476" t="s">
         <v>831</v>
       </c>
-      <c r="AE472" t="s">
+      <c r="AE476" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="3" t="s">
+    <row r="478" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B474" s="60" t="s">
+      <c r="B478" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C474" s="60"/>
-      <c r="D474" s="6"/>
-    </row>
-    <row r="475" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+      <c r="C478" s="60"/>
+      <c r="D478" s="6"/>
+    </row>
+    <row r="479" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B479" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C475" s="7" t="s">
+      <c r="C479" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D475" s="6"/>
-    </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A476" s="28" t="s">
+      <c r="D479" s="6"/>
+    </row>
+    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A480" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B476" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C476" s="29"/>
-      <c r="D476" s="30" t="s">
+      <c r="B480" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C480" s="29"/>
+      <c r="D480" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E476" s="28"/>
-      <c r="F476" s="31">
+      <c r="E480" s="28"/>
+      <c r="F480" s="31">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="G476" s="33"/>
-      <c r="H476" s="33"/>
-      <c r="I476" s="33"/>
-      <c r="J476" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K476" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L476" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M476" s="33"/>
-      <c r="N476" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O476" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P476" s="33"/>
-      <c r="Q476" s="33"/>
-      <c r="R476" s="33"/>
-      <c r="S476" s="33"/>
-      <c r="T476" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U476" s="33"/>
-      <c r="V476" s="33"/>
-      <c r="W476" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="X476" s="33"/>
-      <c r="Y476" s="33"/>
-      <c r="Z476" s="33"/>
-      <c r="AA476" s="33"/>
-      <c r="AB476" s="33"/>
-      <c r="AC476" s="33" t="s">
+      <c r="G480" s="33"/>
+      <c r="H480" s="33"/>
+      <c r="I480" s="33"/>
+      <c r="J480" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K480" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L480" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M480" s="33"/>
+      <c r="N480" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O480" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P480" s="33"/>
+      <c r="Q480" s="33"/>
+      <c r="R480" s="33"/>
+      <c r="S480" s="33"/>
+      <c r="T480" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U480" s="33"/>
+      <c r="V480" s="33"/>
+      <c r="W480" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="X480" s="33"/>
+      <c r="Y480" s="33"/>
+      <c r="Z480" s="33"/>
+      <c r="AA480" s="33"/>
+      <c r="AB480" s="33"/>
+      <c r="AC480" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="AD476" t="s">
+      <c r="AD480" t="s">
         <v>835</v>
       </c>
-      <c r="AE476" t="s">
+      <c r="AE480" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
         <v>834</v>
       </c>
-      <c r="B477" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D477" s="4" t="s">
+      <c r="B481" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F477" s="24">
+      <c r="F481" s="24">
         <v>4.5023148148148149E-3</v>
       </c>
-      <c r="G477" s="26"/>
-      <c r="H477" s="26"/>
-      <c r="I477" s="26"/>
-      <c r="J477" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K477" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L477" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="M477" s="26"/>
-      <c r="N477" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O477" s="26"/>
-      <c r="P477" s="26"/>
-      <c r="Q477" s="26"/>
-      <c r="R477" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S477" s="26"/>
-      <c r="T477" s="26"/>
-      <c r="U477" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="V477" s="26"/>
-      <c r="W477" s="26"/>
-      <c r="X477" s="26"/>
-      <c r="Y477" s="26"/>
-      <c r="Z477" s="26"/>
-      <c r="AA477" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB477" s="26"/>
-      <c r="AC477" s="26" t="s">
+      <c r="G481" s="26"/>
+      <c r="H481" s="26"/>
+      <c r="I481" s="26"/>
+      <c r="J481" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K481" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L481" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M481" s="26"/>
+      <c r="N481" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O481" s="26"/>
+      <c r="P481" s="26"/>
+      <c r="Q481" s="26"/>
+      <c r="R481" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S481" s="26"/>
+      <c r="T481" s="26"/>
+      <c r="U481" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="V481" s="26"/>
+      <c r="W481" s="26"/>
+      <c r="X481" s="26"/>
+      <c r="Y481" s="26"/>
+      <c r="Z481" s="26"/>
+      <c r="AA481" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB481" s="26"/>
+      <c r="AC481" s="26" t="s">
         <v>859</v>
       </c>
-      <c r="AD477" t="s">
+      <c r="AD481" t="s">
         <v>833</v>
       </c>
-      <c r="AE477" t="s">
+      <c r="AE481" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A478" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B478" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C478" s="29"/>
-      <c r="D478" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E478" s="28"/>
-      <c r="F478" s="31">
-        <v>1.7245370370370372E-3</v>
-      </c>
-      <c r="G478" s="33"/>
-      <c r="H478" s="33"/>
-      <c r="I478" s="33"/>
-      <c r="J478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M478" s="33"/>
-      <c r="N478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P478" s="33"/>
-      <c r="Q478" s="33"/>
-      <c r="R478" s="33"/>
-      <c r="S478" s="33"/>
-      <c r="T478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U478" s="33"/>
-      <c r="V478" s="33"/>
-      <c r="W478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="X478" s="33"/>
-      <c r="Y478" s="33"/>
-      <c r="Z478" s="33"/>
-      <c r="AA478" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB478" s="33"/>
-      <c r="AC478" s="33" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD478" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE478" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="480" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B480" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C480" s="60"/>
-      <c r="D480" s="6"/>
-    </row>
-    <row r="481" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B481" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C481" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D481" s="6"/>
     </row>
     <row r="482" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A482" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B482" s="29" t="s">
         <v>4</v>
@@ -25854,37 +25912,51 @@
       <c r="D482" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E482" s="28" t="s">
-        <v>860</v>
-      </c>
+      <c r="E482" s="28"/>
       <c r="F482" s="31">
-        <v>1.6087962962962963E-3</v>
+        <v>1.7245370370370372E-3</v>
       </c>
       <c r="G482" s="33"/>
       <c r="H482" s="33"/>
       <c r="I482" s="33"/>
-      <c r="J482" s="33"/>
-      <c r="K482" s="33"/>
-      <c r="L482" s="33"/>
+      <c r="J482" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K482" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L482" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="M482" s="33"/>
-      <c r="N482" s="33"/>
-      <c r="O482" s="33"/>
+      <c r="N482" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O482" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="P482" s="33"/>
-      <c r="Q482" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="Q482" s="33"/>
       <c r="R482" s="33"/>
       <c r="S482" s="33"/>
-      <c r="T482" s="33"/>
+      <c r="T482" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="U482" s="33"/>
       <c r="V482" s="33"/>
-      <c r="W482" s="33"/>
+      <c r="W482" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="X482" s="33"/>
       <c r="Y482" s="33"/>
       <c r="Z482" s="33"/>
-      <c r="AA482" s="33"/>
+      <c r="AA482" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="AB482" s="33"/>
-      <c r="AC482" s="33"/>
+      <c r="AC482" s="33" t="s">
+        <v>859</v>
+      </c>
       <c r="AD482" s="8" t="s">
         <v>483</v>
       </c>
@@ -25892,225 +25964,215 @@
         <v>484</v>
       </c>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+    <row r="484" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B484" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C484" s="60"/>
+      <c r="D484" s="6"/>
+    </row>
+    <row r="485" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D485" s="6"/>
+    </row>
+    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A486" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B486" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C486" s="29"/>
+      <c r="D486" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E486" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="F486" s="31">
+        <v>1.6087962962962963E-3</v>
+      </c>
+      <c r="G486" s="33"/>
+      <c r="H486" s="33"/>
+      <c r="I486" s="33"/>
+      <c r="J486" s="33"/>
+      <c r="K486" s="33"/>
+      <c r="L486" s="33"/>
+      <c r="M486" s="33"/>
+      <c r="N486" s="33"/>
+      <c r="O486" s="33"/>
+      <c r="P486" s="33"/>
+      <c r="Q486" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R486" s="33"/>
+      <c r="S486" s="33"/>
+      <c r="T486" s="33"/>
+      <c r="U486" s="33"/>
+      <c r="V486" s="33"/>
+      <c r="W486" s="33"/>
+      <c r="X486" s="33"/>
+      <c r="Y486" s="33"/>
+      <c r="Z486" s="33"/>
+      <c r="AA486" s="33"/>
+      <c r="AB486" s="33"/>
+      <c r="AC486" s="33"/>
+      <c r="AD486" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE486" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>150</v>
       </c>
-      <c r="B483" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D483" s="4" t="s">
+      <c r="B487" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D487" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E483" t="s">
+      <c r="E487" t="s">
         <v>860</v>
       </c>
-      <c r="F483" s="24">
+      <c r="F487" s="24">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="G483" s="26"/>
-      <c r="H483" s="26"/>
-      <c r="I483" s="26"/>
-      <c r="J483" s="26"/>
-      <c r="K483" s="26"/>
-      <c r="L483" s="26"/>
-      <c r="M483" s="26"/>
-      <c r="N483" s="26"/>
-      <c r="O483" s="26"/>
-      <c r="P483" s="26"/>
-      <c r="Q483" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R483" s="26"/>
-      <c r="S483" s="26"/>
-      <c r="T483" s="26"/>
-      <c r="U483" s="26"/>
-      <c r="V483" s="26"/>
-      <c r="W483" s="26"/>
-      <c r="X483" s="26"/>
-      <c r="Y483" s="26"/>
-      <c r="Z483" s="26"/>
-      <c r="AA483" s="26"/>
-      <c r="AB483" s="26"/>
-      <c r="AC483" s="26"/>
-      <c r="AD483" s="8" t="s">
+      <c r="G487" s="26"/>
+      <c r="H487" s="26"/>
+      <c r="I487" s="26"/>
+      <c r="J487" s="26"/>
+      <c r="K487" s="26"/>
+      <c r="L487" s="26"/>
+      <c r="M487" s="26"/>
+      <c r="N487" s="26"/>
+      <c r="O487" s="26"/>
+      <c r="P487" s="26"/>
+      <c r="Q487" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R487" s="26"/>
+      <c r="S487" s="26"/>
+      <c r="T487" s="26"/>
+      <c r="U487" s="26"/>
+      <c r="V487" s="26"/>
+      <c r="W487" s="26"/>
+      <c r="X487" s="26"/>
+      <c r="Y487" s="26"/>
+      <c r="Z487" s="26"/>
+      <c r="AA487" s="26"/>
+      <c r="AB487" s="26"/>
+      <c r="AC487" s="26"/>
+      <c r="AD487" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE483" s="8" t="s">
+      <c r="AE487" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A484" s="28" t="s">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A488" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B484" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C484" s="29"/>
-      <c r="D484" s="30" t="s">
+      <c r="B488" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488" s="29"/>
+      <c r="D488" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E484" s="28" t="s">
+      <c r="E488" s="28" t="s">
         <v>860</v>
       </c>
-      <c r="F484" s="31">
+      <c r="F488" s="31">
         <v>1.5046296296296294E-3</v>
       </c>
-      <c r="G484" s="33"/>
-      <c r="H484" s="33"/>
-      <c r="I484" s="33"/>
-      <c r="J484" s="33"/>
-      <c r="K484" s="33"/>
-      <c r="L484" s="33"/>
-      <c r="M484" s="33"/>
-      <c r="N484" s="33"/>
-      <c r="O484" s="33"/>
-      <c r="P484" s="33"/>
-      <c r="Q484" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R484" s="33"/>
-      <c r="S484" s="33"/>
-      <c r="T484" s="33"/>
-      <c r="U484" s="33"/>
-      <c r="V484" s="33"/>
-      <c r="W484" s="33"/>
-      <c r="X484" s="33"/>
-      <c r="Y484" s="33"/>
-      <c r="Z484" s="33"/>
-      <c r="AA484" s="33"/>
-      <c r="AB484" s="33"/>
-      <c r="AC484" s="33"/>
-      <c r="AD484" s="8" t="s">
+      <c r="G488" s="33"/>
+      <c r="H488" s="33"/>
+      <c r="I488" s="33"/>
+      <c r="J488" s="33"/>
+      <c r="K488" s="33"/>
+      <c r="L488" s="33"/>
+      <c r="M488" s="33"/>
+      <c r="N488" s="33"/>
+      <c r="O488" s="33"/>
+      <c r="P488" s="33"/>
+      <c r="Q488" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R488" s="33"/>
+      <c r="S488" s="33"/>
+      <c r="T488" s="33"/>
+      <c r="U488" s="33"/>
+      <c r="V488" s="33"/>
+      <c r="W488" s="33"/>
+      <c r="X488" s="33"/>
+      <c r="Y488" s="33"/>
+      <c r="Z488" s="33"/>
+      <c r="AA488" s="33"/>
+      <c r="AB488" s="33"/>
+      <c r="AC488" s="33"/>
+      <c r="AD488" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE484" s="8" t="s">
+      <c r="AE488" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>153</v>
       </c>
-      <c r="B485" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D485" s="4" t="s">
+      <c r="B489" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D489" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E485" t="s">
+      <c r="E489" t="s">
         <v>860</v>
       </c>
-      <c r="F485" s="24">
+      <c r="F489" s="24">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="G485" s="26"/>
-      <c r="H485" s="26"/>
-      <c r="I485" s="26"/>
-      <c r="J485" s="26"/>
-      <c r="K485" s="26"/>
-      <c r="L485" s="26"/>
-      <c r="M485" s="26"/>
-      <c r="N485" s="26"/>
-      <c r="O485" s="26"/>
-      <c r="P485" s="26"/>
-      <c r="Q485" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R485" s="26"/>
-      <c r="S485" s="26"/>
-      <c r="T485" s="26"/>
-      <c r="U485" s="26"/>
-      <c r="V485" s="26"/>
-      <c r="W485" s="26"/>
-      <c r="X485" s="26"/>
-      <c r="Y485" s="26"/>
-      <c r="Z485" s="26"/>
-      <c r="AA485" s="26"/>
-      <c r="AB485" s="26"/>
-      <c r="AC485" s="26"/>
-      <c r="AD485" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE485" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="487" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B487" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C487" s="60"/>
-      <c r="D487" s="6"/>
-    </row>
-    <row r="488" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B488" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C488" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D488" s="6"/>
-    </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A489" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B489" s="29"/>
-      <c r="C489" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D489" s="30"/>
-      <c r="E489" s="28"/>
-      <c r="F489" s="31">
-        <v>4.2881944444444438E-2</v>
-      </c>
-      <c r="G489" s="33"/>
-      <c r="H489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K489" s="33"/>
-      <c r="L489" s="33"/>
-      <c r="M489" s="33"/>
-      <c r="N489" s="33"/>
-      <c r="O489" s="33"/>
-      <c r="P489" s="33"/>
-      <c r="Q489" s="33"/>
-      <c r="R489" s="33"/>
-      <c r="S489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="V489" s="33"/>
-      <c r="W489" s="33"/>
-      <c r="X489" s="33"/>
-      <c r="Y489" s="33"/>
-      <c r="Z489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA489" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB489" s="33"/>
-      <c r="AC489" s="33"/>
+      <c r="G489" s="26"/>
+      <c r="H489" s="26"/>
+      <c r="I489" s="26"/>
+      <c r="J489" s="26"/>
+      <c r="K489" s="26"/>
+      <c r="L489" s="26"/>
+      <c r="M489" s="26"/>
+      <c r="N489" s="26"/>
+      <c r="O489" s="26"/>
+      <c r="P489" s="26"/>
+      <c r="Q489" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R489" s="26"/>
+      <c r="S489" s="26"/>
+      <c r="T489" s="26"/>
+      <c r="U489" s="26"/>
+      <c r="V489" s="26"/>
+      <c r="W489" s="26"/>
+      <c r="X489" s="26"/>
+      <c r="Y489" s="26"/>
+      <c r="Z489" s="26"/>
+      <c r="AA489" s="26"/>
+      <c r="AB489" s="26"/>
+      <c r="AC489" s="26"/>
       <c r="AD489" s="8" t="s">
         <v>483</v>
       </c>
@@ -26118,368 +26180,474 @@
         <v>484</v>
       </c>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+    <row r="491" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B491" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C491" s="60"/>
+      <c r="D491" s="6"/>
+    </row>
+    <row r="492" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D492" s="6"/>
+    </row>
+    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A493" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B493" s="29"/>
+      <c r="C493" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D493" s="30"/>
+      <c r="E493" s="28"/>
+      <c r="F493" s="31">
+        <v>4.2881944444444438E-2</v>
+      </c>
+      <c r="G493" s="33"/>
+      <c r="H493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K493" s="33"/>
+      <c r="L493" s="33"/>
+      <c r="M493" s="33"/>
+      <c r="N493" s="33"/>
+      <c r="O493" s="33"/>
+      <c r="P493" s="33"/>
+      <c r="Q493" s="33"/>
+      <c r="R493" s="33"/>
+      <c r="S493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="V493" s="33"/>
+      <c r="W493" s="33"/>
+      <c r="X493" s="33"/>
+      <c r="Y493" s="33"/>
+      <c r="Z493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA493" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB493" s="33"/>
+      <c r="AC493" s="33"/>
+      <c r="AD493" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE493" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>143</v>
       </c>
-      <c r="B490" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E490" t="s">
+      <c r="B494" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E494" t="s">
         <v>860</v>
       </c>
-      <c r="F490" s="24">
+      <c r="F494" s="24">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="G490" s="26"/>
-      <c r="H490" s="26"/>
-      <c r="I490" s="26"/>
-      <c r="J490" s="26"/>
-      <c r="K490" s="26"/>
-      <c r="L490" s="26"/>
-      <c r="M490" s="26"/>
-      <c r="N490" s="26"/>
-      <c r="O490" s="26"/>
-      <c r="P490" s="26"/>
-      <c r="Q490" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R490" s="26"/>
-      <c r="S490" s="26"/>
-      <c r="T490" s="26"/>
-      <c r="U490" s="26"/>
-      <c r="V490" s="26"/>
-      <c r="W490" s="26"/>
-      <c r="X490" s="26"/>
-      <c r="Y490" s="26"/>
-      <c r="Z490" s="26"/>
-      <c r="AA490" s="26"/>
-      <c r="AB490" s="26"/>
-      <c r="AC490" s="26"/>
-      <c r="AD490" s="8" t="s">
+      <c r="G494" s="26"/>
+      <c r="H494" s="26"/>
+      <c r="I494" s="26"/>
+      <c r="J494" s="26"/>
+      <c r="K494" s="26"/>
+      <c r="L494" s="26"/>
+      <c r="M494" s="26"/>
+      <c r="N494" s="26"/>
+      <c r="O494" s="26"/>
+      <c r="P494" s="26"/>
+      <c r="Q494" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R494" s="26"/>
+      <c r="S494" s="26"/>
+      <c r="T494" s="26"/>
+      <c r="U494" s="26"/>
+      <c r="V494" s="26"/>
+      <c r="W494" s="26"/>
+      <c r="X494" s="26"/>
+      <c r="Y494" s="26"/>
+      <c r="Z494" s="26"/>
+      <c r="AA494" s="26"/>
+      <c r="AB494" s="26"/>
+      <c r="AC494" s="26"/>
+      <c r="AD494" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE490" s="8" t="s">
+      <c r="AE494" s="8" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A491" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B491" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C491" s="29"/>
-      <c r="D491" s="30"/>
-      <c r="E491" s="28"/>
-      <c r="F491" s="31">
-        <v>1.4548611111111111E-2</v>
-      </c>
-      <c r="G491" s="33"/>
-      <c r="H491" s="33"/>
-      <c r="I491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M491" s="33"/>
-      <c r="N491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U491" s="33"/>
-      <c r="V491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="W491" s="33"/>
-      <c r="X491" s="33"/>
-      <c r="Y491" s="33"/>
-      <c r="Z491" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA491" s="33"/>
-      <c r="AB491" s="33"/>
-      <c r="AC491" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="AD491" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE491" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="493" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B493" s="10"/>
-      <c r="C493" s="10"/>
-      <c r="D493" s="6"/>
-    </row>
-    <row r="494" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B494" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C494" s="7"/>
-      <c r="D494" s="6"/>
     </row>
     <row r="495" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A495" s="28" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="B495" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C495" s="29"/>
-      <c r="D495" s="30" t="s">
-        <v>242</v>
-      </c>
+      <c r="D495" s="30"/>
       <c r="E495" s="28"/>
-      <c r="F495" s="33"/>
+      <c r="F495" s="31">
+        <v>1.4548611111111111E-2</v>
+      </c>
       <c r="G495" s="33"/>
-      <c r="H495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I495" s="33"/>
-      <c r="J495" s="33"/>
-      <c r="K495" s="33"/>
-      <c r="L495" s="33"/>
+      <c r="H495" s="33"/>
+      <c r="I495" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J495" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K495" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L495" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="M495" s="33"/>
-      <c r="N495" s="33"/>
-      <c r="O495" s="33"/>
-      <c r="P495" s="33"/>
+      <c r="N495" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O495" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P495" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="Q495" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="R495" s="33"/>
-      <c r="S495" s="33"/>
-      <c r="T495" s="33"/>
+      <c r="R495" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S495" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T495" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="U495" s="33"/>
-      <c r="V495" s="33"/>
+      <c r="V495" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="W495" s="33"/>
       <c r="X495" s="33"/>
       <c r="Y495" s="33"/>
-      <c r="Z495" s="33"/>
+      <c r="Z495" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="AA495" s="33"/>
       <c r="AB495" s="33"/>
-      <c r="AC495" s="33"/>
-      <c r="AD495" t="s">
-        <v>850</v>
+      <c r="AC495" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD495" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="AE495" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+    <row r="497" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B497" s="10"/>
+      <c r="C497" s="10"/>
+      <c r="D497" s="6"/>
+    </row>
+    <row r="498" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C498" s="7"/>
+      <c r="D498" s="6"/>
+    </row>
+    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A499" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B499" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C499" s="29"/>
+      <c r="D499" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E499" s="28"/>
+      <c r="F499" s="33"/>
+      <c r="G499" s="33"/>
+      <c r="H499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I499" s="33"/>
+      <c r="J499" s="33"/>
+      <c r="K499" s="33"/>
+      <c r="L499" s="33"/>
+      <c r="M499" s="33"/>
+      <c r="N499" s="33"/>
+      <c r="O499" s="33"/>
+      <c r="P499" s="33"/>
+      <c r="Q499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R499" s="33"/>
+      <c r="S499" s="33"/>
+      <c r="T499" s="33"/>
+      <c r="U499" s="33"/>
+      <c r="V499" s="33"/>
+      <c r="W499" s="33"/>
+      <c r="X499" s="33"/>
+      <c r="Y499" s="33"/>
+      <c r="Z499" s="33"/>
+      <c r="AA499" s="33"/>
+      <c r="AB499" s="33"/>
+      <c r="AC499" s="33"/>
+      <c r="AD499" t="s">
+        <v>850</v>
+      </c>
+      <c r="AE499" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
         <v>323</v>
       </c>
-      <c r="B496" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D496" s="4" t="s">
+      <c r="B500" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D500" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F496" s="24">
+      <c r="F500" s="24">
         <v>1.0266203703703703E-2</v>
       </c>
-      <c r="G496" s="26"/>
-      <c r="H496" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I496" s="26"/>
-      <c r="J496" s="26"/>
-      <c r="K496" s="26"/>
-      <c r="L496" s="26"/>
-      <c r="M496" s="26"/>
-      <c r="N496" s="26"/>
-      <c r="O496" s="26"/>
-      <c r="P496" s="26"/>
-      <c r="Q496" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R496" s="26"/>
-      <c r="S496" s="26"/>
-      <c r="T496" s="26"/>
-      <c r="U496" s="26"/>
-      <c r="V496" s="26"/>
-      <c r="W496" s="26"/>
-      <c r="X496" s="26"/>
-      <c r="Y496" s="26"/>
-      <c r="Z496" s="26"/>
-      <c r="AA496" s="26"/>
-      <c r="AB496" s="26"/>
-      <c r="AC496" s="26"/>
-      <c r="AD496" s="8" t="s">
+      <c r="G500" s="26"/>
+      <c r="H500" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I500" s="26"/>
+      <c r="J500" s="26"/>
+      <c r="K500" s="26"/>
+      <c r="L500" s="26"/>
+      <c r="M500" s="26"/>
+      <c r="N500" s="26"/>
+      <c r="O500" s="26"/>
+      <c r="P500" s="26"/>
+      <c r="Q500" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R500" s="26"/>
+      <c r="S500" s="26"/>
+      <c r="T500" s="26"/>
+      <c r="U500" s="26"/>
+      <c r="V500" s="26"/>
+      <c r="W500" s="26"/>
+      <c r="X500" s="26"/>
+      <c r="Y500" s="26"/>
+      <c r="Z500" s="26"/>
+      <c r="AA500" s="26"/>
+      <c r="AB500" s="26"/>
+      <c r="AC500" s="26"/>
+      <c r="AD500" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE496" s="8" t="s">
+      <c r="AE500" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A498" s="3" t="s">
+    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A502" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B498" s="60" t="s">
+      <c r="B502" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C498" s="60"/>
-    </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
+      <c r="C502" s="60"/>
+    </row>
+    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B499" s="7" t="s">
+      <c r="B503" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C499" s="7" t="s">
+      <c r="C503" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A500" s="28" t="s">
+    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A504" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="B500" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C500" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D500" s="30"/>
-      <c r="E500" s="28"/>
-      <c r="F500" s="31">
+      <c r="B504" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C504" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D504" s="30"/>
+      <c r="E504" s="28"/>
+      <c r="F504" s="31">
         <v>5.1736111111111115E-3</v>
       </c>
-      <c r="G500" s="33"/>
-      <c r="H500" s="33"/>
-      <c r="I500" s="33"/>
-      <c r="J500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M500" s="33"/>
-      <c r="N500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R500" s="33"/>
-      <c r="S500" s="33"/>
-      <c r="T500" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U500" s="33"/>
-      <c r="V500" s="33"/>
-      <c r="W500" s="33"/>
-      <c r="X500" s="33"/>
-      <c r="Y500" s="33"/>
-      <c r="Z500" s="33"/>
-      <c r="AA500" s="33"/>
-      <c r="AB500" s="33"/>
-      <c r="AC500" s="33"/>
-      <c r="AD500" t="s">
+      <c r="G504" s="33"/>
+      <c r="H504" s="33"/>
+      <c r="I504" s="33"/>
+      <c r="J504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M504" s="33"/>
+      <c r="N504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R504" s="33"/>
+      <c r="S504" s="33"/>
+      <c r="T504" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U504" s="33"/>
+      <c r="V504" s="33"/>
+      <c r="W504" s="33"/>
+      <c r="X504" s="33"/>
+      <c r="Y504" s="33"/>
+      <c r="Z504" s="33"/>
+      <c r="AA504" s="33"/>
+      <c r="AB504" s="33"/>
+      <c r="AC504" s="33"/>
+      <c r="AD504" t="s">
         <v>837</v>
       </c>
-      <c r="AE500" t="s">
+      <c r="AE504" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
         <v>838</v>
       </c>
-      <c r="B501" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C501" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F501" s="24">
+      <c r="B505" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F505" s="24">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="G501" s="26"/>
-      <c r="H501" s="26"/>
-      <c r="I501" s="26"/>
-      <c r="J501" s="26"/>
-      <c r="K501" s="26"/>
-      <c r="L501" s="26"/>
-      <c r="M501" s="26"/>
-      <c r="N501" s="26"/>
-      <c r="O501" s="26"/>
-      <c r="P501" s="26"/>
-      <c r="Q501" s="26"/>
-      <c r="R501" s="26"/>
-      <c r="S501" s="26"/>
-      <c r="T501" s="26"/>
-      <c r="U501" s="26"/>
-      <c r="V501" s="26"/>
-      <c r="W501" s="26"/>
-      <c r="X501" s="26"/>
-      <c r="Y501" s="26"/>
-      <c r="Z501" s="26"/>
-      <c r="AA501" s="26"/>
-      <c r="AB501" s="26"/>
-      <c r="AC501" s="26"/>
-      <c r="AD501" t="s">
+      <c r="G505" s="26"/>
+      <c r="H505" s="26"/>
+      <c r="I505" s="26"/>
+      <c r="J505" s="26"/>
+      <c r="K505" s="26"/>
+      <c r="L505" s="26"/>
+      <c r="M505" s="26"/>
+      <c r="N505" s="26"/>
+      <c r="O505" s="26"/>
+      <c r="P505" s="26"/>
+      <c r="Q505" s="26"/>
+      <c r="R505" s="26"/>
+      <c r="S505" s="26"/>
+      <c r="T505" s="26"/>
+      <c r="U505" s="26"/>
+      <c r="V505" s="26"/>
+      <c r="W505" s="26"/>
+      <c r="X505" s="26"/>
+      <c r="Y505" s="26"/>
+      <c r="Z505" s="26"/>
+      <c r="AA505" s="26"/>
+      <c r="AB505" s="26"/>
+      <c r="AC505" s="26"/>
+      <c r="AD505" t="s">
         <v>839</v>
       </c>
-      <c r="AE501" t="s">
+      <c r="AE505" t="s">
         <v>540</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A447:AE458">
-    <sortCondition ref="A447:A458"/>
+  <sortState ref="A451:AE462">
+    <sortCondition ref="A451:A462"/>
   </sortState>
-  <mergeCells count="45">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:C138"/>
+  <mergeCells count="46">
+    <mergeCell ref="B429:C429"/>
+    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="B437:C437"/>
+    <mergeCell ref="B464:C464"/>
+    <mergeCell ref="B471:C471"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="B484:C484"/>
+    <mergeCell ref="B491:C491"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="B386:C386"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B214:C214"/>
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B78:C78"/>
@@ -26491,35 +26659,11 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="B386:C386"/>
-    <mergeCell ref="B392:C392"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B429:C429"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B433:C433"/>
-    <mergeCell ref="B460:C460"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B474:C474"/>
-    <mergeCell ref="B480:C480"/>
-    <mergeCell ref="B487:C487"/>
-    <mergeCell ref="B438:C438"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B138:C138"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/outreach_videos/IODP-JR_movie_log.xlsx
+++ b/outreach_videos/IODP-JR_movie_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\R_Studio\IODP-general\big_and_Shiny\19_outreach_videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\EducationOutreach\1_JRSO-OutreachPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B4FB79-B606-48EA-8985-067DD93DC2B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ADE869-94F3-4D78-B2ED-A4AAAEDB356E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40080" yWindow="3276" windowWidth="24576" windowHeight="16656" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="874">
   <si>
     <t>Filename</t>
   </si>
@@ -2635,6 +2635,30 @@
   </si>
   <si>
     <t>Simon George</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NA1FVP40jPU&amp;t=7s</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>Beyond Texas 360 VR</t>
+  </si>
+  <si>
+    <t>Expedition 392</t>
+  </si>
+  <si>
+    <t>PART 1: "Discovering the Earth's deepest secrets through scientific ocean drilling"</t>
+  </si>
+  <si>
+    <t>Maryalice Yakutchik</t>
+  </si>
+  <si>
+    <t>ANZIC IODP</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12h7GVWkTQk</t>
   </si>
 </sst>
 </file>
@@ -3061,7 +3085,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3192,12 +3216,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3226,6 +3244,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="289">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3853,13 +3881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE505"/>
+  <dimension ref="A1:AE509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F431" sqref="F431"/>
+      <selection pane="bottomRight" activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3906,10 +3934,10 @@
       <c r="A3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
@@ -4163,10 +4191,10 @@
       <c r="A8" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -4353,10 +4381,10 @@
       <c r="A13" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="12"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -4939,10 +4967,10 @@
       <c r="A26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="12"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -5811,10 +5839,10 @@
       <c r="A42" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="6"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -6179,10 +6207,10 @@
       <c r="A51" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="61"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="12"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -6988,10 +7016,10 @@
       <c r="A69" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="60"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7345,10 +7373,10 @@
       <c r="A78" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="61"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="12"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -8244,10 +8272,10 @@
       <c r="A93" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C93" s="61"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="12"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
@@ -8575,10 +8603,10 @@
       <c r="A100" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="61" t="s">
+      <c r="B100" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="61"/>
+      <c r="C100" s="71"/>
       <c r="D100" s="12"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
@@ -8871,10 +8899,10 @@
       <c r="A107" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B107" s="60" t="s">
+      <c r="B107" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C107" s="60"/>
+      <c r="C107" s="70"/>
       <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -9482,10 +9510,10 @@
       <c r="A120" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B120" s="61" t="s">
+      <c r="B120" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C120" s="61"/>
+      <c r="C120" s="71"/>
       <c r="D120" s="12"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
@@ -10094,10 +10122,10 @@
       <c r="A133" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B133" s="61" t="s">
+      <c r="B133" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="61"/>
+      <c r="C133" s="71"/>
       <c r="D133" s="12"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
@@ -10291,10 +10319,10 @@
       <c r="A138" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B138" s="61" t="s">
+      <c r="B138" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="61"/>
+      <c r="C138" s="71"/>
       <c r="D138" s="12"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
@@ -10655,10 +10683,10 @@
       <c r="A146" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B146" s="60" t="s">
+      <c r="B146" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C146" s="60"/>
+      <c r="C146" s="70"/>
       <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -12072,10 +12100,10 @@
       <c r="A171" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B171" s="61" t="s">
+      <c r="B171" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C171" s="61"/>
+      <c r="C171" s="71"/>
       <c r="D171" s="12"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
@@ -12858,10 +12886,10 @@
       <c r="A187" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B187" s="61" t="s">
+      <c r="B187" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C187" s="61"/>
+      <c r="C187" s="71"/>
       <c r="D187" s="12"/>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
@@ -13051,10 +13079,10 @@
       <c r="A192" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B192" s="61" t="s">
+      <c r="B192" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C192" s="61"/>
+      <c r="C192" s="71"/>
       <c r="D192" s="12"/>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
@@ -13481,10 +13509,10 @@
       <c r="A201" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B201" s="61" t="s">
+      <c r="B201" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C201" s="61"/>
+      <c r="C201" s="71"/>
       <c r="D201" s="12"/>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
@@ -13650,10 +13678,10 @@
       <c r="A205" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B205" s="60" t="s">
+      <c r="B205" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C205" s="60"/>
+      <c r="C205" s="70"/>
       <c r="D205" s="6"/>
     </row>
     <row r="206" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -14037,10 +14065,10 @@
       <c r="A214" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B214" s="60" t="s">
+      <c r="B214" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C214" s="60"/>
+      <c r="C214" s="70"/>
       <c r="D214" s="6"/>
     </row>
     <row r="215" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -14474,10 +14502,10 @@
       <c r="A226" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B226" s="60" t="s">
+      <c r="B226" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C226" s="60"/>
+      <c r="C226" s="70"/>
       <c r="D226" s="6"/>
     </row>
     <row r="227" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -14612,10 +14640,10 @@
       <c r="A231" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B231" s="60" t="s">
+      <c r="B231" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C231" s="60"/>
+      <c r="C231" s="70"/>
       <c r="D231" s="6"/>
     </row>
     <row r="232" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -14905,10 +14933,10 @@
       <c r="A238" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B238" s="61" t="s">
+      <c r="B238" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C238" s="61"/>
+      <c r="C238" s="71"/>
       <c r="D238" s="12"/>
       <c r="E238" s="13"/>
       <c r="F238" s="13"/>
@@ -15699,10 +15727,10 @@
       <c r="A254" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B254" s="61" t="s">
+      <c r="B254" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C254" s="61"/>
+      <c r="C254" s="71"/>
       <c r="D254" s="12"/>
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
@@ -15914,10 +15942,10 @@
       <c r="A259" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B259" s="61" t="s">
+      <c r="B259" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C259" s="61"/>
+      <c r="C259" s="71"/>
       <c r="D259" s="12"/>
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
@@ -16726,10 +16754,10 @@
       <c r="A274" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B274" s="61" t="s">
+      <c r="B274" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C274" s="61"/>
+      <c r="C274" s="71"/>
       <c r="D274" s="12"/>
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
@@ -17262,10 +17290,10 @@
       <c r="A285" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B285" s="61" t="s">
+      <c r="B285" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C285" s="61"/>
+      <c r="C285" s="71"/>
       <c r="D285" s="12"/>
       <c r="E285" s="19"/>
       <c r="F285" s="19"/>
@@ -18374,10 +18402,10 @@
       <c r="A309" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B309" s="60" t="s">
+      <c r="B309" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C309" s="60"/>
+      <c r="C309" s="70"/>
     </row>
     <row r="310" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A310" s="13" t="s">
@@ -19708,10 +19736,10 @@
       <c r="A335" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B335" s="61" t="s">
+      <c r="B335" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C335" s="61"/>
+      <c r="C335" s="71"/>
       <c r="D335" s="17"/>
       <c r="E335" s="19"/>
       <c r="F335" s="19"/>
@@ -20967,10 +20995,10 @@
       <c r="A362" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B362" s="60" t="s">
+      <c r="B362" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C362" s="60"/>
+      <c r="C362" s="70"/>
     </row>
     <row r="363" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A363" s="13" t="s">
@@ -21780,10 +21808,10 @@
       <c r="A379" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B379" s="61" t="s">
+      <c r="B379" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C379" s="61"/>
+      <c r="C379" s="71"/>
       <c r="D379" s="17"/>
       <c r="E379" s="19"/>
       <c r="F379" s="19"/>
@@ -22019,10 +22047,10 @@
       <c r="A386" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B386" s="60" t="s">
+      <c r="B386" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C386" s="60"/>
+      <c r="C386" s="70"/>
     </row>
     <row r="387" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A387" s="13" t="s">
@@ -22149,10 +22177,10 @@
       <c r="A392" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B392" s="60" t="s">
+      <c r="B392" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C392" s="60"/>
+      <c r="C392" s="70"/>
     </row>
     <row r="393" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A393" s="13" t="s">
@@ -23667,10 +23695,10 @@
       <c r="A424" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B424" s="60" t="s">
+      <c r="B424" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C424" s="60"/>
+      <c r="C424" s="70"/>
     </row>
     <row r="425" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A425" s="13" t="s">
@@ -23801,39 +23829,39 @@
       <c r="C428" s="18"/>
       <c r="D428" s="19"/>
       <c r="E428" s="19"/>
-      <c r="F428" s="62"/>
-      <c r="G428" s="63"/>
-      <c r="H428" s="63"/>
-      <c r="I428" s="64"/>
-      <c r="J428" s="63"/>
-      <c r="K428" s="64"/>
-      <c r="L428" s="64"/>
-      <c r="M428" s="63"/>
-      <c r="N428" s="64"/>
-      <c r="O428" s="63"/>
-      <c r="P428" s="63"/>
-      <c r="Q428" s="64"/>
-      <c r="R428" s="63"/>
-      <c r="S428" s="64"/>
-      <c r="T428" s="64"/>
-      <c r="U428" s="63"/>
-      <c r="V428" s="63"/>
-      <c r="W428" s="63"/>
-      <c r="X428" s="63"/>
-      <c r="Y428" s="63"/>
-      <c r="Z428" s="63"/>
-      <c r="AA428" s="63"/>
-      <c r="AB428" s="63"/>
-      <c r="AC428" s="63"/>
+      <c r="F428" s="60"/>
+      <c r="G428" s="61"/>
+      <c r="H428" s="61"/>
+      <c r="I428" s="62"/>
+      <c r="J428" s="61"/>
+      <c r="K428" s="62"/>
+      <c r="L428" s="62"/>
+      <c r="M428" s="61"/>
+      <c r="N428" s="62"/>
+      <c r="O428" s="61"/>
+      <c r="P428" s="61"/>
+      <c r="Q428" s="62"/>
+      <c r="R428" s="61"/>
+      <c r="S428" s="62"/>
+      <c r="T428" s="62"/>
+      <c r="U428" s="61"/>
+      <c r="V428" s="61"/>
+      <c r="W428" s="61"/>
+      <c r="X428" s="61"/>
+      <c r="Y428" s="61"/>
+      <c r="Z428" s="61"/>
+      <c r="AA428" s="61"/>
+      <c r="AB428" s="61"/>
+      <c r="AC428" s="61"/>
     </row>
     <row r="429" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A429" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="B429" s="60" t="s">
+      <c r="B429" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C429" s="60"/>
+      <c r="C429" s="70"/>
     </row>
     <row r="430" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A430" s="13" t="s">
@@ -23850,48 +23878,48 @@
       <c r="A431" s="44" t="s">
         <v>862</v>
       </c>
-      <c r="B431" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C431" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D431" s="66" t="s">
+      <c r="B431" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D431" s="64" t="s">
         <v>865</v>
       </c>
-      <c r="E431" s="66"/>
-      <c r="F431" s="67">
+      <c r="E431" s="64"/>
+      <c r="F431" s="65">
         <v>7.0023148148148154E-3</v>
       </c>
-      <c r="G431" s="68"/>
-      <c r="H431" s="69"/>
-      <c r="I431" s="69"/>
-      <c r="J431" s="68"/>
-      <c r="K431" s="68"/>
-      <c r="L431" s="68"/>
-      <c r="M431" s="68"/>
-      <c r="N431" s="69"/>
-      <c r="O431" s="68"/>
-      <c r="P431" s="68"/>
-      <c r="Q431" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="R431" s="68"/>
-      <c r="S431" s="68"/>
-      <c r="T431" s="69"/>
-      <c r="U431" s="68"/>
-      <c r="V431" s="68"/>
-      <c r="W431" s="68"/>
-      <c r="X431" s="68"/>
-      <c r="Y431" s="68"/>
-      <c r="Z431" s="68"/>
-      <c r="AA431" s="68"/>
-      <c r="AB431" s="68"/>
-      <c r="AC431" s="68"/>
-      <c r="AD431" s="70" t="s">
+      <c r="G431" s="66"/>
+      <c r="H431" s="67"/>
+      <c r="I431" s="67"/>
+      <c r="J431" s="66"/>
+      <c r="K431" s="66"/>
+      <c r="L431" s="66"/>
+      <c r="M431" s="66"/>
+      <c r="N431" s="67"/>
+      <c r="O431" s="66"/>
+      <c r="P431" s="66"/>
+      <c r="Q431" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="R431" s="66"/>
+      <c r="S431" s="66"/>
+      <c r="T431" s="67"/>
+      <c r="U431" s="66"/>
+      <c r="V431" s="66"/>
+      <c r="W431" s="66"/>
+      <c r="X431" s="66"/>
+      <c r="Y431" s="66"/>
+      <c r="Z431" s="66"/>
+      <c r="AA431" s="66"/>
+      <c r="AB431" s="66"/>
+      <c r="AC431" s="66"/>
+      <c r="AD431" s="68" t="s">
         <v>863</v>
       </c>
-      <c r="AE431" s="71" t="s">
+      <c r="AE431" s="69" t="s">
         <v>864</v>
       </c>
     </row>
@@ -23930,10 +23958,10 @@
       <c r="A433" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B433" s="61" t="s">
+      <c r="B433" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C433" s="61"/>
+      <c r="C433" s="71"/>
       <c r="D433" s="19"/>
       <c r="E433" s="19"/>
       <c r="F433" s="19"/>
@@ -24090,10 +24118,10 @@
       <c r="A437" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B437" s="61" t="s">
+      <c r="B437" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C437" s="61"/>
+      <c r="C437" s="71"/>
       <c r="D437" s="19"/>
       <c r="E437" s="19"/>
       <c r="F437" s="19"/>
@@ -24305,10 +24333,10 @@
       <c r="A442" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="B442" s="60" t="s">
+      <c r="B442" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C442" s="60"/>
+      <c r="C442" s="70"/>
       <c r="D442"/>
     </row>
     <row r="443" spans="1:31" x14ac:dyDescent="0.3">
@@ -24553,19 +24581,43 @@
     </row>
     <row r="448" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D448"/>
-    </row>
-    <row r="449" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B449" s="60" t="s">
+      <c r="F448" s="72"/>
+      <c r="G448" s="73"/>
+      <c r="H448" s="62"/>
+      <c r="I448" s="62"/>
+      <c r="J448" s="62"/>
+      <c r="K448" s="62"/>
+      <c r="L448" s="62"/>
+      <c r="M448" s="73"/>
+      <c r="N448" s="62"/>
+      <c r="O448" s="73"/>
+      <c r="P448" s="73"/>
+      <c r="Q448" s="62"/>
+      <c r="R448" s="73"/>
+      <c r="S448" s="73"/>
+      <c r="T448" s="62"/>
+      <c r="U448" s="73"/>
+      <c r="V448" s="73"/>
+      <c r="W448" s="73"/>
+      <c r="X448" s="73"/>
+      <c r="Y448" s="73"/>
+      <c r="Z448" s="62"/>
+      <c r="AA448" s="73"/>
+      <c r="AB448" s="73"/>
+      <c r="AC448" s="73"/>
+    </row>
+    <row r="449" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A449" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B449" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C449" s="60"/>
-      <c r="D449" s="6"/>
-    </row>
-    <row r="450" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="C449" s="70"/>
+      <c r="D449"/>
+    </row>
+    <row r="450" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A450" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B450" s="7" t="s">
@@ -24574,11 +24626,11 @@
       <c r="C450" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D450" s="6"/>
-    </row>
-    <row r="451" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D450"/>
+    </row>
+    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A451" s="28" t="s">
-        <v>614</v>
+        <v>870</v>
       </c>
       <c r="B451" s="29" t="s">
         <v>4</v>
@@ -24586,211 +24638,107 @@
       <c r="C451" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D451" s="30"/>
+      <c r="D451" s="28" t="s">
+        <v>871</v>
+      </c>
       <c r="E451" s="28"/>
       <c r="F451" s="31">
-        <v>1.5046296296296294E-3</v>
+        <v>3.243055555555556E-2</v>
       </c>
       <c r="G451" s="33"/>
-      <c r="H451" s="33"/>
-      <c r="I451" s="33"/>
-      <c r="J451" s="33"/>
-      <c r="K451" s="33"/>
-      <c r="L451" s="33"/>
+      <c r="H451" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I451" s="32"/>
+      <c r="J451" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K451" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L451" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="M451" s="33"/>
-      <c r="N451" s="33"/>
+      <c r="N451" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="O451" s="33"/>
       <c r="P451" s="33"/>
-      <c r="Q451" s="33"/>
+      <c r="Q451" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="R451" s="33"/>
       <c r="S451" s="33"/>
-      <c r="T451" s="33"/>
+      <c r="T451" s="32"/>
       <c r="U451" s="33"/>
       <c r="V451" s="33"/>
       <c r="W451" s="33"/>
       <c r="X451" s="33"/>
       <c r="Y451" s="33"/>
       <c r="Z451" s="33"/>
-      <c r="AA451" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="AA451" s="33"/>
       <c r="AB451" s="33"/>
       <c r="AC451" s="33"/>
       <c r="AD451" t="s">
-        <v>615</v>
+        <v>873</v>
       </c>
       <c r="AE451" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="452" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
-        <v>757</v>
-      </c>
-      <c r="B452" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C452" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D452" s="4"/>
-      <c r="E452"/>
-      <c r="F452" s="24">
-        <v>7.6736111111111111E-3</v>
-      </c>
-      <c r="G452" s="26"/>
-      <c r="H452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I452" s="26"/>
-      <c r="J452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="M452" s="26"/>
-      <c r="N452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="P452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R452" s="26"/>
-      <c r="S452" s="26"/>
-      <c r="T452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U452" s="26"/>
-      <c r="V452" s="26"/>
-      <c r="W452" s="26"/>
-      <c r="X452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y452" s="26"/>
-      <c r="Z452" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA452" s="26"/>
-      <c r="AB452" s="26"/>
-      <c r="AC452" s="26" t="s">
-        <v>853</v>
-      </c>
-      <c r="AD452" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE452" t="s">
-        <v>540</v>
-      </c>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D452"/>
+      <c r="F452" s="72"/>
+      <c r="G452" s="73"/>
+      <c r="H452" s="62"/>
+      <c r="I452" s="62"/>
+      <c r="J452" s="62"/>
+      <c r="K452" s="62"/>
+      <c r="L452" s="62"/>
+      <c r="M452" s="73"/>
+      <c r="N452" s="62"/>
+      <c r="O452" s="73"/>
+      <c r="P452" s="73"/>
+      <c r="Q452" s="62"/>
+      <c r="R452" s="73"/>
+      <c r="S452" s="73"/>
+      <c r="T452" s="62"/>
+      <c r="U452" s="73"/>
+      <c r="V452" s="73"/>
+      <c r="W452" s="73"/>
+      <c r="X452" s="73"/>
+      <c r="Y452" s="73"/>
+      <c r="Z452" s="62"/>
+      <c r="AA452" s="73"/>
+      <c r="AB452" s="73"/>
+      <c r="AC452" s="73"/>
     </row>
     <row r="453" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="B453" s="54"/>
-      <c r="C453" s="29"/>
-      <c r="D453" s="37"/>
-      <c r="E453" s="42"/>
-      <c r="F453" s="31">
-        <v>2.1643518518518518E-3</v>
-      </c>
-      <c r="G453" s="38"/>
-      <c r="H453" s="38"/>
-      <c r="I453" s="38"/>
-      <c r="J453" s="38"/>
-      <c r="K453" s="38"/>
-      <c r="L453" s="38"/>
-      <c r="M453" s="38"/>
-      <c r="N453" s="38"/>
-      <c r="O453" s="38"/>
-      <c r="P453" s="38"/>
-      <c r="Q453" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R453" s="38"/>
-      <c r="S453" s="38"/>
-      <c r="T453" s="38"/>
-      <c r="U453" s="38"/>
-      <c r="V453" s="38"/>
-      <c r="W453" s="38"/>
-      <c r="X453" s="38"/>
-      <c r="Y453" s="38"/>
-      <c r="Z453" s="38"/>
-      <c r="AA453" s="38"/>
-      <c r="AB453" s="38"/>
-      <c r="AC453" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="AD453" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE453" s="8" t="s">
-        <v>484</v>
-      </c>
+      <c r="A453" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B453" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C453" s="70"/>
+      <c r="D453" s="6"/>
     </row>
     <row r="454" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
-        <v>433</v>
-      </c>
-      <c r="B454" s="5"/>
-      <c r="C454" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D454" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E454"/>
-      <c r="F454" s="24">
-        <v>3.695601851851852E-2</v>
-      </c>
-      <c r="G454" s="26"/>
-      <c r="H454" s="26"/>
-      <c r="I454" s="26"/>
-      <c r="J454" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K454" s="26"/>
-      <c r="L454" s="26"/>
-      <c r="M454" s="26"/>
-      <c r="N454" s="26"/>
-      <c r="O454" s="26"/>
-      <c r="P454" s="26"/>
-      <c r="Q454" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R454" s="26"/>
-      <c r="S454" s="26"/>
-      <c r="T454" s="26"/>
-      <c r="U454" s="26"/>
-      <c r="V454" s="26"/>
-      <c r="W454" s="26"/>
-      <c r="X454" s="26"/>
-      <c r="Y454" s="26"/>
-      <c r="Z454" s="26"/>
-      <c r="AA454" s="26"/>
-      <c r="AB454" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC454" s="26"/>
-      <c r="AD454" t="s">
-        <v>818</v>
-      </c>
-      <c r="AE454" s="8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D454" s="6"/>
+    </row>
+    <row r="455" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="28" t="s">
-        <v>498</v>
+        <v>614</v>
       </c>
       <c r="B455" s="29" t="s">
         <v>4</v>
@@ -24801,17 +24749,13 @@
       <c r="D455" s="30"/>
       <c r="E455" s="28"/>
       <c r="F455" s="31">
-        <v>7.6388888888888893E-4</v>
+        <v>1.5046296296296294E-3</v>
       </c>
       <c r="G455" s="33"/>
       <c r="H455" s="33"/>
       <c r="I455" s="33"/>
-      <c r="J455" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K455" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="J455" s="33"/>
+      <c r="K455" s="33"/>
       <c r="L455" s="33"/>
       <c r="M455" s="33"/>
       <c r="N455" s="33"/>
@@ -24827,32 +24771,38 @@
       <c r="X455" s="33"/>
       <c r="Y455" s="33"/>
       <c r="Z455" s="33"/>
-      <c r="AA455" s="33"/>
+      <c r="AA455" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="AB455" s="33"/>
       <c r="AC455" s="33"/>
       <c r="AD455" t="s">
-        <v>499</v>
+        <v>615</v>
       </c>
       <c r="AE455" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A456" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B456" s="7"/>
+    <row r="456" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>757</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C456" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D456" s="6"/>
-      <c r="E456" s="1"/>
+      <c r="D456" s="4"/>
+      <c r="E456"/>
       <c r="F456" s="24">
-        <v>3.8078703703703707E-3</v>
-      </c>
-      <c r="G456" s="34"/>
-      <c r="H456" s="34"/>
-      <c r="I456" s="34"/>
+        <v>7.6736111111111111E-3</v>
+      </c>
+      <c r="G456" s="26"/>
+      <c r="H456" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I456" s="26"/>
       <c r="J456" s="49" t="s">
         <v>417</v>
       </c>
@@ -24862,7 +24812,7 @@
       <c r="L456" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="M456" s="34"/>
+      <c r="M456" s="26"/>
       <c r="N456" s="49" t="s">
         <v>417</v>
       </c>
@@ -24875,151 +24825,132 @@
       <c r="Q456" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="R456" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S456" s="34"/>
+      <c r="R456" s="26"/>
+      <c r="S456" s="26"/>
       <c r="T456" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="U456" s="34"/>
-      <c r="V456" s="34"/>
-      <c r="W456" s="34"/>
+      <c r="U456" s="26"/>
+      <c r="V456" s="26"/>
+      <c r="W456" s="26"/>
       <c r="X456" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="Y456" s="34"/>
-      <c r="Z456" s="34"/>
-      <c r="AA456" s="34"/>
-      <c r="AB456" s="34"/>
-      <c r="AC456" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD456" s="8" t="s">
-        <v>820</v>
+      <c r="Y456" s="26"/>
+      <c r="Z456" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA456" s="26"/>
+      <c r="AB456" s="26"/>
+      <c r="AC456" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD456" t="s">
+        <v>758</v>
       </c>
       <c r="AE456" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="35" t="s">
-        <v>854</v>
-      </c>
-      <c r="B457" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C457" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D457" s="30" t="s">
-        <v>10</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B457" s="54"/>
+      <c r="C457" s="29"/>
+      <c r="D457" s="37"/>
       <c r="E457" s="42"/>
       <c r="F457" s="31">
-        <v>2.4768518518518516E-3</v>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="G457" s="38"/>
-      <c r="H457" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="H457" s="38"/>
       <c r="I457" s="38"/>
       <c r="J457" s="38"/>
       <c r="K457" s="38"/>
       <c r="L457" s="38"/>
       <c r="M457" s="38"/>
-      <c r="N457" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O457" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="N457" s="38"/>
+      <c r="O457" s="38"/>
       <c r="P457" s="38"/>
       <c r="Q457" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="R457" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="R457" s="38"/>
       <c r="S457" s="38"/>
       <c r="T457" s="38"/>
       <c r="U457" s="38"/>
       <c r="V457" s="38"/>
       <c r="W457" s="38"/>
-      <c r="X457" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="X457" s="38"/>
       <c r="Y457" s="38"/>
       <c r="Z457" s="38"/>
       <c r="AA457" s="38"/>
       <c r="AB457" s="38"/>
       <c r="AC457" s="43" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AD457" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="AE457" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A458" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B458" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE457" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="458" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>433</v>
+      </c>
+      <c r="B458" s="5"/>
+      <c r="C458" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E458" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="E458"/>
       <c r="F458" s="24">
-        <v>3.5648148148148154E-3</v>
-      </c>
-      <c r="G458" s="34"/>
-      <c r="H458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I458" s="34"/>
-      <c r="J458" s="34"/>
-      <c r="K458" s="34"/>
-      <c r="L458" s="34"/>
-      <c r="M458" s="34"/>
-      <c r="N458" s="34"/>
-      <c r="O458" s="34"/>
-      <c r="P458" s="34"/>
+        <v>3.695601851851852E-2</v>
+      </c>
+      <c r="G458" s="26"/>
+      <c r="H458" s="26"/>
+      <c r="I458" s="26"/>
+      <c r="J458" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K458" s="26"/>
+      <c r="L458" s="26"/>
+      <c r="M458" s="26"/>
+      <c r="N458" s="26"/>
+      <c r="O458" s="26"/>
+      <c r="P458" s="26"/>
       <c r="Q458" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="R458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S458" s="34"/>
-      <c r="T458" s="34"/>
-      <c r="U458" s="34"/>
-      <c r="V458" s="34"/>
-      <c r="W458" s="34"/>
-      <c r="X458" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y458" s="34"/>
-      <c r="Z458" s="34"/>
-      <c r="AA458" s="34"/>
-      <c r="AB458" s="34"/>
-      <c r="AC458" s="59" t="s">
-        <v>855</v>
-      </c>
-      <c r="AD458" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE458" t="s">
-        <v>540</v>
+      <c r="R458" s="26"/>
+      <c r="S458" s="26"/>
+      <c r="T458" s="26"/>
+      <c r="U458" s="26"/>
+      <c r="V458" s="26"/>
+      <c r="W458" s="26"/>
+      <c r="X458" s="26"/>
+      <c r="Y458" s="26"/>
+      <c r="Z458" s="26"/>
+      <c r="AA458" s="26"/>
+      <c r="AB458" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC458" s="26"/>
+      <c r="AD458" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE458" s="8" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="459" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A459" s="28" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="B459" s="29" t="s">
         <v>4</v>
@@ -25030,7 +24961,7 @@
       <c r="D459" s="30"/>
       <c r="E459" s="28"/>
       <c r="F459" s="31">
-        <v>1.8981481481481482E-3</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="G459" s="33"/>
       <c r="H459" s="33"/>
@@ -25043,18 +24974,12 @@
       </c>
       <c r="L459" s="33"/>
       <c r="M459" s="33"/>
-      <c r="N459" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="N459" s="33"/>
       <c r="O459" s="33"/>
       <c r="P459" s="33"/>
       <c r="Q459" s="33"/>
-      <c r="R459" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S459" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="R459" s="33"/>
+      <c r="S459" s="33"/>
       <c r="T459" s="33"/>
       <c r="U459" s="33"/>
       <c r="V459" s="33"/>
@@ -25063,37 +24988,31 @@
       <c r="Y459" s="33"/>
       <c r="Z459" s="33"/>
       <c r="AA459" s="33"/>
-      <c r="AB459" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="AB459" s="33"/>
       <c r="AC459" s="33"/>
-      <c r="AD459" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE459" s="8" t="s">
-        <v>484</v>
+      <c r="AD459" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE459" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="460" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
-        <v>810</v>
-      </c>
-      <c r="B460" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A460" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B460" s="7"/>
       <c r="C460" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D460" s="6"/>
+      <c r="E460" s="1"/>
       <c r="F460" s="24">
-        <v>3.4027777777777784E-3</v>
-      </c>
-      <c r="G460" s="26"/>
-      <c r="H460" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I460" s="49" t="s">
-        <v>417</v>
-      </c>
+        <v>3.8078703703703707E-3</v>
+      </c>
+      <c r="G460" s="34"/>
+      <c r="H460" s="34"/>
+      <c r="I460" s="34"/>
       <c r="J460" s="49" t="s">
         <v>417</v>
       </c>
@@ -25103,892 +25022,1050 @@
       <c r="L460" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="M460" s="26"/>
+      <c r="M460" s="34"/>
       <c r="N460" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="O460" s="26"/>
-      <c r="P460" s="26"/>
-      <c r="Q460" s="26"/>
-      <c r="R460" s="26"/>
-      <c r="S460" s="49" t="s">
-        <v>417</v>
-      </c>
+      <c r="O460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="P460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S460" s="34"/>
       <c r="T460" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="U460" s="26"/>
-      <c r="V460" s="26"/>
-      <c r="W460" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="X460" s="26"/>
-      <c r="Y460" s="26"/>
-      <c r="Z460" s="26"/>
-      <c r="AA460" s="26"/>
-      <c r="AB460" s="26"/>
-      <c r="AC460" s="26"/>
-      <c r="AD460" t="s">
-        <v>811</v>
+      <c r="U460" s="34"/>
+      <c r="V460" s="34"/>
+      <c r="W460" s="34"/>
+      <c r="X460" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y460" s="34"/>
+      <c r="Z460" s="34"/>
+      <c r="AA460" s="34"/>
+      <c r="AB460" s="34"/>
+      <c r="AC460" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD460" s="8" t="s">
+        <v>820</v>
       </c>
       <c r="AE460" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="461" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A461" s="28" t="s">
+      <c r="A461" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="B461" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C461" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E461" s="42"/>
+      <c r="F461" s="31">
+        <v>2.4768518518518516E-3</v>
+      </c>
+      <c r="G461" s="38"/>
+      <c r="H461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I461" s="38"/>
+      <c r="J461" s="38"/>
+      <c r="K461" s="38"/>
+      <c r="L461" s="38"/>
+      <c r="M461" s="38"/>
+      <c r="N461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P461" s="38"/>
+      <c r="Q461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S461" s="38"/>
+      <c r="T461" s="38"/>
+      <c r="U461" s="38"/>
+      <c r="V461" s="38"/>
+      <c r="W461" s="38"/>
+      <c r="X461" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y461" s="38"/>
+      <c r="Z461" s="38"/>
+      <c r="AA461" s="38"/>
+      <c r="AB461" s="38"/>
+      <c r="AC461" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD461" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE461" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A462" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B462" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E462" s="1"/>
+      <c r="F462" s="24">
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="G462" s="34"/>
+      <c r="H462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I462" s="34"/>
+      <c r="J462" s="34"/>
+      <c r="K462" s="34"/>
+      <c r="L462" s="34"/>
+      <c r="M462" s="34"/>
+      <c r="N462" s="34"/>
+      <c r="O462" s="34"/>
+      <c r="P462" s="34"/>
+      <c r="Q462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S462" s="34"/>
+      <c r="T462" s="34"/>
+      <c r="U462" s="34"/>
+      <c r="V462" s="34"/>
+      <c r="W462" s="34"/>
+      <c r="X462" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y462" s="34"/>
+      <c r="Z462" s="34"/>
+      <c r="AA462" s="34"/>
+      <c r="AB462" s="34"/>
+      <c r="AC462" s="59" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD462" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE462" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="463" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A463" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B463" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C463" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D463" s="30"/>
+      <c r="E463" s="28"/>
+      <c r="F463" s="31">
+        <v>1.8981481481481482E-3</v>
+      </c>
+      <c r="G463" s="33"/>
+      <c r="H463" s="33"/>
+      <c r="I463" s="33"/>
+      <c r="J463" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K463" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L463" s="33"/>
+      <c r="M463" s="33"/>
+      <c r="N463" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O463" s="33"/>
+      <c r="P463" s="33"/>
+      <c r="Q463" s="33"/>
+      <c r="R463" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S463" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T463" s="33"/>
+      <c r="U463" s="33"/>
+      <c r="V463" s="33"/>
+      <c r="W463" s="33"/>
+      <c r="X463" s="33"/>
+      <c r="Y463" s="33"/>
+      <c r="Z463" s="33"/>
+      <c r="AA463" s="33"/>
+      <c r="AB463" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC463" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD463" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE463" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="464" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>810</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F464" s="24">
+        <v>3.4027777777777784E-3</v>
+      </c>
+      <c r="G464" s="26"/>
+      <c r="H464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M464" s="26"/>
+      <c r="N464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O464" s="26"/>
+      <c r="P464" s="26"/>
+      <c r="Q464" s="26"/>
+      <c r="R464" s="26"/>
+      <c r="S464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="T464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U464" s="26"/>
+      <c r="V464" s="26"/>
+      <c r="W464" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="X464" s="26"/>
+      <c r="Y464" s="26"/>
+      <c r="Z464" s="26"/>
+      <c r="AA464" s="26"/>
+      <c r="AB464" s="26"/>
+      <c r="AC464" s="26"/>
+      <c r="AD464" t="s">
+        <v>811</v>
+      </c>
+      <c r="AE464" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="465" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A465" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B461" s="29"/>
-      <c r="C461" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D461" s="30"/>
-      <c r="E461" s="28"/>
-      <c r="F461" s="31">
+      <c r="B465" s="29"/>
+      <c r="C465" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D465" s="30"/>
+      <c r="E465" s="28"/>
+      <c r="F465" s="31">
         <v>1.1122685185185185E-2</v>
       </c>
-      <c r="G461" s="33"/>
-      <c r="H461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="N461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P461" s="33"/>
-      <c r="Q461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T461" s="33"/>
-      <c r="U461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="V461" s="33"/>
-      <c r="W461" s="33"/>
-      <c r="X461" s="33"/>
-      <c r="Y461" s="33"/>
-      <c r="Z461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA461" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB461" s="33"/>
-      <c r="AC461" s="33"/>
-      <c r="AD461" s="8" t="s">
+      <c r="G465" s="33"/>
+      <c r="H465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="N465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P465" s="33"/>
+      <c r="Q465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T465" s="33"/>
+      <c r="U465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="V465" s="33"/>
+      <c r="W465" s="33"/>
+      <c r="X465" s="33"/>
+      <c r="Y465" s="33"/>
+      <c r="Z465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA465" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB465" s="33"/>
+      <c r="AC465" s="33"/>
+      <c r="AD465" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE461" s="8" t="s">
+      <c r="AE465" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
         <v>824</v>
       </c>
-      <c r="B462" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F462" s="24">
+      <c r="B466" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F466" s="24">
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="G462" s="26"/>
-      <c r="H462" s="26"/>
-      <c r="I462" s="26"/>
-      <c r="J462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="M462" s="26"/>
-      <c r="N462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O462" s="26"/>
-      <c r="P462" s="26"/>
-      <c r="Q462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S462" s="26"/>
-      <c r="T462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U462" s="26"/>
-      <c r="V462" s="26"/>
-      <c r="W462" s="26"/>
-      <c r="X462" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y462" s="26"/>
-      <c r="Z462" s="26"/>
-      <c r="AA462" s="26"/>
-      <c r="AB462" s="26"/>
-      <c r="AC462" s="26"/>
-      <c r="AD462" t="s">
+      <c r="G466" s="26"/>
+      <c r="H466" s="26"/>
+      <c r="I466" s="26"/>
+      <c r="J466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M466" s="26"/>
+      <c r="N466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O466" s="26"/>
+      <c r="P466" s="26"/>
+      <c r="Q466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S466" s="26"/>
+      <c r="T466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U466" s="26"/>
+      <c r="V466" s="26"/>
+      <c r="W466" s="26"/>
+      <c r="X466" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y466" s="26"/>
+      <c r="Z466" s="26"/>
+      <c r="AA466" s="26"/>
+      <c r="AB466" s="26"/>
+      <c r="AC466" s="26"/>
+      <c r="AD466" t="s">
         <v>823</v>
-      </c>
-      <c r="AE462" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="464" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B464" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C464" s="60"/>
-      <c r="D464" s="6"/>
-    </row>
-    <row r="465" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B465" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C465" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D465" s="6"/>
-    </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A466" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B466" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C466" s="29"/>
-      <c r="D466" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E466" s="28"/>
-      <c r="F466" s="31">
-        <v>2.8009259259259259E-3</v>
-      </c>
-      <c r="G466" s="33"/>
-      <c r="H466" s="33"/>
-      <c r="I466" s="33"/>
-      <c r="J466" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K466" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L466" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M466" s="33"/>
-      <c r="N466" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O466" s="33"/>
-      <c r="P466" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q466" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R466" s="33"/>
-      <c r="S466" s="33"/>
-      <c r="T466" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U466" s="33"/>
-      <c r="V466" s="33"/>
-      <c r="W466" s="33"/>
-      <c r="X466" s="33"/>
-      <c r="Y466" s="33"/>
-      <c r="Z466" s="33"/>
-      <c r="AA466" s="33"/>
-      <c r="AB466" s="33"/>
-      <c r="AC466" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD466" t="s">
-        <v>825</v>
       </c>
       <c r="AE466" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+    <row r="468" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B468" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C468" s="70"/>
+      <c r="D468" s="6"/>
+    </row>
+    <row r="469" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D469" s="6"/>
+    </row>
+    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A470" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B470" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C470" s="29"/>
+      <c r="D470" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E470" s="28"/>
+      <c r="F470" s="31">
+        <v>2.8009259259259259E-3</v>
+      </c>
+      <c r="G470" s="33"/>
+      <c r="H470" s="33"/>
+      <c r="I470" s="33"/>
+      <c r="J470" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K470" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L470" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M470" s="33"/>
+      <c r="N470" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O470" s="33"/>
+      <c r="P470" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q470" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R470" s="33"/>
+      <c r="S470" s="33"/>
+      <c r="T470" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U470" s="33"/>
+      <c r="V470" s="33"/>
+      <c r="W470" s="33"/>
+      <c r="X470" s="33"/>
+      <c r="Y470" s="33"/>
+      <c r="Z470" s="33"/>
+      <c r="AA470" s="33"/>
+      <c r="AB470" s="33"/>
+      <c r="AC470" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD470" t="s">
+        <v>825</v>
+      </c>
+      <c r="AE470" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="471" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>201</v>
       </c>
-      <c r="B467" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D467" s="4" t="s">
+      <c r="B471" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D471" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F467" s="24">
+      <c r="F471" s="24">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="G467" s="26"/>
-      <c r="H467" s="26"/>
-      <c r="I467" s="26"/>
-      <c r="J467" s="26"/>
-      <c r="K467" s="26"/>
-      <c r="L467" s="26"/>
-      <c r="M467" s="26"/>
-      <c r="N467" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O467" s="26"/>
-      <c r="P467" s="26"/>
-      <c r="Q467" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R467" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S467" s="26"/>
-      <c r="T467" s="26"/>
-      <c r="U467" s="26"/>
-      <c r="V467" s="26"/>
-      <c r="W467" s="26"/>
-      <c r="X467" s="26"/>
-      <c r="Y467" s="26"/>
-      <c r="Z467" s="26"/>
-      <c r="AA467" s="26"/>
-      <c r="AB467" s="26"/>
-      <c r="AC467" s="26"/>
-      <c r="AD467" t="s">
+      <c r="G471" s="26"/>
+      <c r="H471" s="26"/>
+      <c r="I471" s="26"/>
+      <c r="J471" s="26"/>
+      <c r="K471" s="26"/>
+      <c r="L471" s="26"/>
+      <c r="M471" s="26"/>
+      <c r="N471" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O471" s="26"/>
+      <c r="P471" s="26"/>
+      <c r="Q471" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R471" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S471" s="26"/>
+      <c r="T471" s="26"/>
+      <c r="U471" s="26"/>
+      <c r="V471" s="26"/>
+      <c r="W471" s="26"/>
+      <c r="X471" s="26"/>
+      <c r="Y471" s="26"/>
+      <c r="Z471" s="26"/>
+      <c r="AA471" s="26"/>
+      <c r="AB471" s="26"/>
+      <c r="AC471" s="26"/>
+      <c r="AD471" t="s">
         <v>826</v>
       </c>
-      <c r="AE467" t="s">
+      <c r="AE471" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A468" s="28" t="s">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A472" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B468" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C468" s="29"/>
-      <c r="D468" s="30" t="s">
+      <c r="B472" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C472" s="29"/>
+      <c r="D472" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E468" s="28"/>
-      <c r="F468" s="31">
+      <c r="E472" s="28"/>
+      <c r="F472" s="31">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="G468" s="33"/>
-      <c r="H468" s="33"/>
-      <c r="I468" s="33"/>
-      <c r="J468" s="33"/>
-      <c r="K468" s="33"/>
-      <c r="L468" s="33"/>
-      <c r="M468" s="33"/>
-      <c r="N468" s="33"/>
-      <c r="O468" s="33"/>
-      <c r="P468" s="33"/>
-      <c r="Q468" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R468" s="33"/>
-      <c r="S468" s="33"/>
-      <c r="T468" s="33"/>
-      <c r="U468" s="33"/>
-      <c r="V468" s="33"/>
-      <c r="W468" s="33"/>
-      <c r="X468" s="33"/>
-      <c r="Y468" s="33"/>
-      <c r="Z468" s="33"/>
-      <c r="AA468" s="33"/>
-      <c r="AB468" s="33"/>
-      <c r="AC468" s="33" t="s">
+      <c r="G472" s="33"/>
+      <c r="H472" s="33"/>
+      <c r="I472" s="33"/>
+      <c r="J472" s="33"/>
+      <c r="K472" s="33"/>
+      <c r="L472" s="33"/>
+      <c r="M472" s="33"/>
+      <c r="N472" s="33"/>
+      <c r="O472" s="33"/>
+      <c r="P472" s="33"/>
+      <c r="Q472" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R472" s="33"/>
+      <c r="S472" s="33"/>
+      <c r="T472" s="33"/>
+      <c r="U472" s="33"/>
+      <c r="V472" s="33"/>
+      <c r="W472" s="33"/>
+      <c r="X472" s="33"/>
+      <c r="Y472" s="33"/>
+      <c r="Z472" s="33"/>
+      <c r="AA472" s="33"/>
+      <c r="AB472" s="33"/>
+      <c r="AC472" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="AD468" t="s">
+      <c r="AD472" t="s">
         <v>827</v>
       </c>
-      <c r="AE468" t="s">
+      <c r="AE472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
         <v>203</v>
       </c>
-      <c r="B469" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D469" s="4" t="s">
+      <c r="B473" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D473" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F469" s="24">
+      <c r="F473" s="24">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="G469" s="26"/>
-      <c r="H469" s="26"/>
-      <c r="I469" s="26"/>
-      <c r="J469" s="26"/>
-      <c r="K469" s="26"/>
-      <c r="L469" s="26"/>
-      <c r="M469" s="26"/>
-      <c r="N469" s="26"/>
-      <c r="O469" s="26"/>
-      <c r="P469" s="26"/>
-      <c r="Q469" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R469" s="26"/>
-      <c r="S469" s="26"/>
-      <c r="T469" s="26"/>
-      <c r="U469" s="26"/>
-      <c r="V469" s="26"/>
-      <c r="W469" s="26"/>
-      <c r="X469" s="26"/>
-      <c r="Y469" s="26"/>
-      <c r="Z469" s="26"/>
-      <c r="AA469" s="26"/>
-      <c r="AB469" s="26"/>
-      <c r="AC469" s="26" t="s">
+      <c r="G473" s="26"/>
+      <c r="H473" s="26"/>
+      <c r="I473" s="26"/>
+      <c r="J473" s="26"/>
+      <c r="K473" s="26"/>
+      <c r="L473" s="26"/>
+      <c r="M473" s="26"/>
+      <c r="N473" s="26"/>
+      <c r="O473" s="26"/>
+      <c r="P473" s="26"/>
+      <c r="Q473" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R473" s="26"/>
+      <c r="S473" s="26"/>
+      <c r="T473" s="26"/>
+      <c r="U473" s="26"/>
+      <c r="V473" s="26"/>
+      <c r="W473" s="26"/>
+      <c r="X473" s="26"/>
+      <c r="Y473" s="26"/>
+      <c r="Z473" s="26"/>
+      <c r="AA473" s="26"/>
+      <c r="AB473" s="26"/>
+      <c r="AC473" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="AD469" t="s">
+      <c r="AD473" t="s">
         <v>828</v>
-      </c>
-      <c r="AE469" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="471" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B471" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C471" s="60"/>
-      <c r="D471" s="6"/>
-    </row>
-    <row r="472" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B472" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D472" s="6"/>
-    </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A473" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B473" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C473" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D473" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E473" s="28"/>
-      <c r="F473" s="31">
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="G473" s="33"/>
-      <c r="H473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M473" s="33"/>
-      <c r="N473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="V473" s="33"/>
-      <c r="W473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="X473" s="33"/>
-      <c r="Y473" s="33"/>
-      <c r="Z473" s="33"/>
-      <c r="AA473" s="33"/>
-      <c r="AB473" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC473" s="33"/>
-      <c r="AD473" t="s">
-        <v>829</v>
       </c>
       <c r="AE473" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+    <row r="475" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B475" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C475" s="70"/>
+      <c r="D475" s="6"/>
+    </row>
+    <row r="476" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D476" s="6"/>
+    </row>
+    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A477" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B477" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C477" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D477" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E477" s="28"/>
+      <c r="F477" s="31">
+        <v>4.5138888888888893E-3</v>
+      </c>
+      <c r="G477" s="33"/>
+      <c r="H477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M477" s="33"/>
+      <c r="N477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="V477" s="33"/>
+      <c r="W477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="X477" s="33"/>
+      <c r="Y477" s="33"/>
+      <c r="Z477" s="33"/>
+      <c r="AA477" s="33"/>
+      <c r="AB477" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC477" s="33"/>
+      <c r="AD477" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE477" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
         <v>832</v>
       </c>
-      <c r="B474" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F474" s="24">
+      <c r="B478" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F478" s="24">
         <v>4.3287037037037035E-3</v>
       </c>
-      <c r="G474" s="26"/>
-      <c r="H474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="J474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K474" s="26"/>
-      <c r="L474" s="26"/>
-      <c r="M474" s="26"/>
-      <c r="N474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O474" s="26"/>
-      <c r="P474" s="26"/>
-      <c r="Q474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S474" s="26"/>
-      <c r="T474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="U474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="V474" s="26"/>
-      <c r="W474" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="X474" s="26"/>
-      <c r="Y474" s="26"/>
-      <c r="Z474" s="26"/>
-      <c r="AA474" s="26"/>
-      <c r="AB474" s="26"/>
-      <c r="AC474" s="26" t="s">
+      <c r="G478" s="26"/>
+      <c r="H478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K478" s="26"/>
+      <c r="L478" s="26"/>
+      <c r="M478" s="26"/>
+      <c r="N478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O478" s="26"/>
+      <c r="P478" s="26"/>
+      <c r="Q478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S478" s="26"/>
+      <c r="T478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="U478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="V478" s="26"/>
+      <c r="W478" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="X478" s="26"/>
+      <c r="Y478" s="26"/>
+      <c r="Z478" s="26"/>
+      <c r="AA478" s="26"/>
+      <c r="AB478" s="26"/>
+      <c r="AC478" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="AD474" t="s">
+      <c r="AD478" t="s">
         <v>549</v>
       </c>
-      <c r="AE474" t="s">
+      <c r="AE478" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A475" s="28" t="s">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A479" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B475" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C475" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D475" s="30" t="s">
+      <c r="B479" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C479" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D479" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E475" s="28"/>
-      <c r="F475" s="31">
+      <c r="E479" s="28"/>
+      <c r="F479" s="31">
         <v>1.4699074074074074E-3</v>
       </c>
-      <c r="G475" s="33"/>
-      <c r="H475" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I475" s="33"/>
-      <c r="J475" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K475" s="33"/>
-      <c r="L475" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M475" s="33"/>
-      <c r="N475" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O475" s="33"/>
-      <c r="P475" s="33"/>
-      <c r="Q475" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R475" s="33"/>
-      <c r="S475" s="33"/>
-      <c r="T475" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U475" s="33"/>
-      <c r="V475" s="33"/>
-      <c r="W475" s="33"/>
-      <c r="X475" s="33"/>
-      <c r="Y475" s="33"/>
-      <c r="Z475" s="33"/>
-      <c r="AA475" s="33"/>
-      <c r="AB475" s="33"/>
-      <c r="AC475" s="33"/>
-      <c r="AD475" t="s">
+      <c r="G479" s="33"/>
+      <c r="H479" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I479" s="33"/>
+      <c r="J479" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K479" s="33"/>
+      <c r="L479" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M479" s="33"/>
+      <c r="N479" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O479" s="33"/>
+      <c r="P479" s="33"/>
+      <c r="Q479" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R479" s="33"/>
+      <c r="S479" s="33"/>
+      <c r="T479" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U479" s="33"/>
+      <c r="V479" s="33"/>
+      <c r="W479" s="33"/>
+      <c r="X479" s="33"/>
+      <c r="Y479" s="33"/>
+      <c r="Z479" s="33"/>
+      <c r="AA479" s="33"/>
+      <c r="AB479" s="33"/>
+      <c r="AC479" s="33"/>
+      <c r="AD479" t="s">
         <v>830</v>
       </c>
-      <c r="AE475" t="s">
+      <c r="AE479" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
         <v>9</v>
       </c>
-      <c r="B476" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C476" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D476" s="4" t="s">
+      <c r="B480" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D480" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F476" s="24">
+      <c r="F480" s="24">
         <v>1.8634259259259261E-3</v>
       </c>
-      <c r="G476" s="26"/>
-      <c r="H476" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I476" s="26"/>
-      <c r="J476" s="26"/>
-      <c r="K476" s="26"/>
-      <c r="L476" s="26"/>
-      <c r="M476" s="26"/>
-      <c r="N476" s="26"/>
-      <c r="O476" s="26"/>
-      <c r="P476" s="26"/>
-      <c r="Q476" s="26"/>
-      <c r="R476" s="26"/>
-      <c r="S476" s="26"/>
-      <c r="T476" s="26"/>
-      <c r="U476" s="26"/>
-      <c r="V476" s="26"/>
-      <c r="W476" s="26"/>
-      <c r="X476" s="26"/>
-      <c r="Y476" s="26"/>
-      <c r="Z476" s="26"/>
-      <c r="AA476" s="26"/>
-      <c r="AB476" s="26"/>
-      <c r="AC476" s="26"/>
-      <c r="AD476" t="s">
+      <c r="G480" s="26"/>
+      <c r="H480" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I480" s="26"/>
+      <c r="J480" s="26"/>
+      <c r="K480" s="26"/>
+      <c r="L480" s="26"/>
+      <c r="M480" s="26"/>
+      <c r="N480" s="26"/>
+      <c r="O480" s="26"/>
+      <c r="P480" s="26"/>
+      <c r="Q480" s="26"/>
+      <c r="R480" s="26"/>
+      <c r="S480" s="26"/>
+      <c r="T480" s="26"/>
+      <c r="U480" s="26"/>
+      <c r="V480" s="26"/>
+      <c r="W480" s="26"/>
+      <c r="X480" s="26"/>
+      <c r="Y480" s="26"/>
+      <c r="Z480" s="26"/>
+      <c r="AA480" s="26"/>
+      <c r="AB480" s="26"/>
+      <c r="AC480" s="26"/>
+      <c r="AD480" t="s">
         <v>831</v>
       </c>
-      <c r="AE476" t="s">
+      <c r="AE480" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="478" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="3" t="s">
+    <row r="482" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B478" s="60" t="s">
+      <c r="B482" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C478" s="60"/>
-      <c r="D478" s="6"/>
-    </row>
-    <row r="479" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
+      <c r="C482" s="70"/>
+      <c r="D482" s="6"/>
+    </row>
+    <row r="483" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B483" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C479" s="7" t="s">
+      <c r="C483" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D479" s="6"/>
-    </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A480" s="28" t="s">
+      <c r="D483" s="6"/>
+    </row>
+    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A484" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B480" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C480" s="29"/>
-      <c r="D480" s="30" t="s">
+      <c r="B484" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C484" s="29"/>
+      <c r="D484" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E480" s="28"/>
-      <c r="F480" s="31">
+      <c r="E484" s="28"/>
+      <c r="F484" s="31">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="G480" s="33"/>
-      <c r="H480" s="33"/>
-      <c r="I480" s="33"/>
-      <c r="J480" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K480" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L480" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M480" s="33"/>
-      <c r="N480" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O480" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P480" s="33"/>
-      <c r="Q480" s="33"/>
-      <c r="R480" s="33"/>
-      <c r="S480" s="33"/>
-      <c r="T480" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U480" s="33"/>
-      <c r="V480" s="33"/>
-      <c r="W480" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="X480" s="33"/>
-      <c r="Y480" s="33"/>
-      <c r="Z480" s="33"/>
-      <c r="AA480" s="33"/>
-      <c r="AB480" s="33"/>
-      <c r="AC480" s="33" t="s">
+      <c r="G484" s="33"/>
+      <c r="H484" s="33"/>
+      <c r="I484" s="33"/>
+      <c r="J484" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K484" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L484" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M484" s="33"/>
+      <c r="N484" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O484" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P484" s="33"/>
+      <c r="Q484" s="33"/>
+      <c r="R484" s="33"/>
+      <c r="S484" s="33"/>
+      <c r="T484" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U484" s="33"/>
+      <c r="V484" s="33"/>
+      <c r="W484" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="X484" s="33"/>
+      <c r="Y484" s="33"/>
+      <c r="Z484" s="33"/>
+      <c r="AA484" s="33"/>
+      <c r="AB484" s="33"/>
+      <c r="AC484" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="AD480" t="s">
+      <c r="AD484" t="s">
         <v>835</v>
       </c>
-      <c r="AE480" t="s">
+      <c r="AE484" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>834</v>
       </c>
-      <c r="B481" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D481" s="4" t="s">
+      <c r="B485" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D485" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F481" s="24">
+      <c r="F485" s="24">
         <v>4.5023148148148149E-3</v>
       </c>
-      <c r="G481" s="26"/>
-      <c r="H481" s="26"/>
-      <c r="I481" s="26"/>
-      <c r="J481" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="K481" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="L481" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="M481" s="26"/>
-      <c r="N481" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="O481" s="26"/>
-      <c r="P481" s="26"/>
-      <c r="Q481" s="26"/>
-      <c r="R481" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="S481" s="26"/>
-      <c r="T481" s="26"/>
-      <c r="U481" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="V481" s="26"/>
-      <c r="W481" s="26"/>
-      <c r="X481" s="26"/>
-      <c r="Y481" s="26"/>
-      <c r="Z481" s="26"/>
-      <c r="AA481" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB481" s="26"/>
-      <c r="AC481" s="26" t="s">
+      <c r="G485" s="26"/>
+      <c r="H485" s="26"/>
+      <c r="I485" s="26"/>
+      <c r="J485" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K485" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L485" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M485" s="26"/>
+      <c r="N485" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O485" s="26"/>
+      <c r="P485" s="26"/>
+      <c r="Q485" s="26"/>
+      <c r="R485" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="S485" s="26"/>
+      <c r="T485" s="26"/>
+      <c r="U485" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="V485" s="26"/>
+      <c r="W485" s="26"/>
+      <c r="X485" s="26"/>
+      <c r="Y485" s="26"/>
+      <c r="Z485" s="26"/>
+      <c r="AA485" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB485" s="26"/>
+      <c r="AC485" s="26" t="s">
         <v>859</v>
       </c>
-      <c r="AD481" t="s">
+      <c r="AD485" t="s">
         <v>833</v>
       </c>
-      <c r="AE481" t="s">
+      <c r="AE485" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A482" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B482" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C482" s="29"/>
-      <c r="D482" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E482" s="28"/>
-      <c r="F482" s="31">
-        <v>1.7245370370370372E-3</v>
-      </c>
-      <c r="G482" s="33"/>
-      <c r="H482" s="33"/>
-      <c r="I482" s="33"/>
-      <c r="J482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M482" s="33"/>
-      <c r="N482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P482" s="33"/>
-      <c r="Q482" s="33"/>
-      <c r="R482" s="33"/>
-      <c r="S482" s="33"/>
-      <c r="T482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U482" s="33"/>
-      <c r="V482" s="33"/>
-      <c r="W482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="X482" s="33"/>
-      <c r="Y482" s="33"/>
-      <c r="Z482" s="33"/>
-      <c r="AA482" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB482" s="33"/>
-      <c r="AC482" s="33" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD482" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE482" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="484" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B484" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C484" s="60"/>
-      <c r="D484" s="6"/>
-    </row>
-    <row r="485" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B485" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C485" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D485" s="6"/>
     </row>
     <row r="486" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A486" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B486" s="29" t="s">
         <v>4</v>
@@ -25997,37 +26074,51 @@
       <c r="D486" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E486" s="28" t="s">
-        <v>860</v>
-      </c>
+      <c r="E486" s="28"/>
       <c r="F486" s="31">
-        <v>1.6087962962962963E-3</v>
+        <v>1.7245370370370372E-3</v>
       </c>
       <c r="G486" s="33"/>
       <c r="H486" s="33"/>
       <c r="I486" s="33"/>
-      <c r="J486" s="33"/>
-      <c r="K486" s="33"/>
-      <c r="L486" s="33"/>
+      <c r="J486" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K486" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L486" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="M486" s="33"/>
-      <c r="N486" s="33"/>
-      <c r="O486" s="33"/>
+      <c r="N486" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O486" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="P486" s="33"/>
-      <c r="Q486" s="32" t="s">
-        <v>417</v>
-      </c>
+      <c r="Q486" s="33"/>
       <c r="R486" s="33"/>
       <c r="S486" s="33"/>
-      <c r="T486" s="33"/>
+      <c r="T486" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="U486" s="33"/>
       <c r="V486" s="33"/>
-      <c r="W486" s="33"/>
+      <c r="W486" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="X486" s="33"/>
       <c r="Y486" s="33"/>
       <c r="Z486" s="33"/>
-      <c r="AA486" s="33"/>
+      <c r="AA486" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="AB486" s="33"/>
-      <c r="AC486" s="33"/>
+      <c r="AC486" s="33" t="s">
+        <v>859</v>
+      </c>
       <c r="AD486" s="8" t="s">
         <v>483</v>
       </c>
@@ -26035,225 +26126,215 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+    <row r="488" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B488" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C488" s="70"/>
+      <c r="D488" s="6"/>
+    </row>
+    <row r="489" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" s="6"/>
+    </row>
+    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A490" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B490" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C490" s="29"/>
+      <c r="D490" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E490" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="F490" s="31">
+        <v>1.6087962962962963E-3</v>
+      </c>
+      <c r="G490" s="33"/>
+      <c r="H490" s="33"/>
+      <c r="I490" s="33"/>
+      <c r="J490" s="33"/>
+      <c r="K490" s="33"/>
+      <c r="L490" s="33"/>
+      <c r="M490" s="33"/>
+      <c r="N490" s="33"/>
+      <c r="O490" s="33"/>
+      <c r="P490" s="33"/>
+      <c r="Q490" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R490" s="33"/>
+      <c r="S490" s="33"/>
+      <c r="T490" s="33"/>
+      <c r="U490" s="33"/>
+      <c r="V490" s="33"/>
+      <c r="W490" s="33"/>
+      <c r="X490" s="33"/>
+      <c r="Y490" s="33"/>
+      <c r="Z490" s="33"/>
+      <c r="AA490" s="33"/>
+      <c r="AB490" s="33"/>
+      <c r="AC490" s="33"/>
+      <c r="AD490" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE490" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
         <v>150</v>
       </c>
-      <c r="B487" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D487" s="4" t="s">
+      <c r="B491" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D491" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E487" t="s">
+      <c r="E491" t="s">
         <v>860</v>
       </c>
-      <c r="F487" s="24">
+      <c r="F491" s="24">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="G487" s="26"/>
-      <c r="H487" s="26"/>
-      <c r="I487" s="26"/>
-      <c r="J487" s="26"/>
-      <c r="K487" s="26"/>
-      <c r="L487" s="26"/>
-      <c r="M487" s="26"/>
-      <c r="N487" s="26"/>
-      <c r="O487" s="26"/>
-      <c r="P487" s="26"/>
-      <c r="Q487" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R487" s="26"/>
-      <c r="S487" s="26"/>
-      <c r="T487" s="26"/>
-      <c r="U487" s="26"/>
-      <c r="V487" s="26"/>
-      <c r="W487" s="26"/>
-      <c r="X487" s="26"/>
-      <c r="Y487" s="26"/>
-      <c r="Z487" s="26"/>
-      <c r="AA487" s="26"/>
-      <c r="AB487" s="26"/>
-      <c r="AC487" s="26"/>
-      <c r="AD487" s="8" t="s">
+      <c r="G491" s="26"/>
+      <c r="H491" s="26"/>
+      <c r="I491" s="26"/>
+      <c r="J491" s="26"/>
+      <c r="K491" s="26"/>
+      <c r="L491" s="26"/>
+      <c r="M491" s="26"/>
+      <c r="N491" s="26"/>
+      <c r="O491" s="26"/>
+      <c r="P491" s="26"/>
+      <c r="Q491" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R491" s="26"/>
+      <c r="S491" s="26"/>
+      <c r="T491" s="26"/>
+      <c r="U491" s="26"/>
+      <c r="V491" s="26"/>
+      <c r="W491" s="26"/>
+      <c r="X491" s="26"/>
+      <c r="Y491" s="26"/>
+      <c r="Z491" s="26"/>
+      <c r="AA491" s="26"/>
+      <c r="AB491" s="26"/>
+      <c r="AC491" s="26"/>
+      <c r="AD491" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE487" s="8" t="s">
+      <c r="AE491" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A488" s="28" t="s">
+    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A492" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B488" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C488" s="29"/>
-      <c r="D488" s="30" t="s">
+      <c r="B492" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492" s="29"/>
+      <c r="D492" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E488" s="28" t="s">
+      <c r="E492" s="28" t="s">
         <v>860</v>
       </c>
-      <c r="F488" s="31">
+      <c r="F492" s="31">
         <v>1.5046296296296294E-3</v>
       </c>
-      <c r="G488" s="33"/>
-      <c r="H488" s="33"/>
-      <c r="I488" s="33"/>
-      <c r="J488" s="33"/>
-      <c r="K488" s="33"/>
-      <c r="L488" s="33"/>
-      <c r="M488" s="33"/>
-      <c r="N488" s="33"/>
-      <c r="O488" s="33"/>
-      <c r="P488" s="33"/>
-      <c r="Q488" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R488" s="33"/>
-      <c r="S488" s="33"/>
-      <c r="T488" s="33"/>
-      <c r="U488" s="33"/>
-      <c r="V488" s="33"/>
-      <c r="W488" s="33"/>
-      <c r="X488" s="33"/>
-      <c r="Y488" s="33"/>
-      <c r="Z488" s="33"/>
-      <c r="AA488" s="33"/>
-      <c r="AB488" s="33"/>
-      <c r="AC488" s="33"/>
-      <c r="AD488" s="8" t="s">
+      <c r="G492" s="33"/>
+      <c r="H492" s="33"/>
+      <c r="I492" s="33"/>
+      <c r="J492" s="33"/>
+      <c r="K492" s="33"/>
+      <c r="L492" s="33"/>
+      <c r="M492" s="33"/>
+      <c r="N492" s="33"/>
+      <c r="O492" s="33"/>
+      <c r="P492" s="33"/>
+      <c r="Q492" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R492" s="33"/>
+      <c r="S492" s="33"/>
+      <c r="T492" s="33"/>
+      <c r="U492" s="33"/>
+      <c r="V492" s="33"/>
+      <c r="W492" s="33"/>
+      <c r="X492" s="33"/>
+      <c r="Y492" s="33"/>
+      <c r="Z492" s="33"/>
+      <c r="AA492" s="33"/>
+      <c r="AB492" s="33"/>
+      <c r="AC492" s="33"/>
+      <c r="AD492" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE488" s="8" t="s">
+      <c r="AE492" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
         <v>153</v>
       </c>
-      <c r="B489" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D489" s="4" t="s">
+      <c r="B493" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D493" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E489" t="s">
+      <c r="E493" t="s">
         <v>860</v>
       </c>
-      <c r="F489" s="24">
+      <c r="F493" s="24">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="G489" s="26"/>
-      <c r="H489" s="26"/>
-      <c r="I489" s="26"/>
-      <c r="J489" s="26"/>
-      <c r="K489" s="26"/>
-      <c r="L489" s="26"/>
-      <c r="M489" s="26"/>
-      <c r="N489" s="26"/>
-      <c r="O489" s="26"/>
-      <c r="P489" s="26"/>
-      <c r="Q489" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R489" s="26"/>
-      <c r="S489" s="26"/>
-      <c r="T489" s="26"/>
-      <c r="U489" s="26"/>
-      <c r="V489" s="26"/>
-      <c r="W489" s="26"/>
-      <c r="X489" s="26"/>
-      <c r="Y489" s="26"/>
-      <c r="Z489" s="26"/>
-      <c r="AA489" s="26"/>
-      <c r="AB489" s="26"/>
-      <c r="AC489" s="26"/>
-      <c r="AD489" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE489" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="491" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B491" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C491" s="60"/>
-      <c r="D491" s="6"/>
-    </row>
-    <row r="492" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B492" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C492" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D492" s="6"/>
-    </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A493" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B493" s="29"/>
-      <c r="C493" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D493" s="30"/>
-      <c r="E493" s="28"/>
-      <c r="F493" s="31">
-        <v>4.2881944444444438E-2</v>
-      </c>
-      <c r="G493" s="33"/>
-      <c r="H493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K493" s="33"/>
-      <c r="L493" s="33"/>
-      <c r="M493" s="33"/>
-      <c r="N493" s="33"/>
-      <c r="O493" s="33"/>
-      <c r="P493" s="33"/>
-      <c r="Q493" s="33"/>
-      <c r="R493" s="33"/>
-      <c r="S493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="V493" s="33"/>
-      <c r="W493" s="33"/>
-      <c r="X493" s="33"/>
-      <c r="Y493" s="33"/>
-      <c r="Z493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA493" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB493" s="33"/>
-      <c r="AC493" s="33"/>
+      <c r="G493" s="26"/>
+      <c r="H493" s="26"/>
+      <c r="I493" s="26"/>
+      <c r="J493" s="26"/>
+      <c r="K493" s="26"/>
+      <c r="L493" s="26"/>
+      <c r="M493" s="26"/>
+      <c r="N493" s="26"/>
+      <c r="O493" s="26"/>
+      <c r="P493" s="26"/>
+      <c r="Q493" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R493" s="26"/>
+      <c r="S493" s="26"/>
+      <c r="T493" s="26"/>
+      <c r="U493" s="26"/>
+      <c r="V493" s="26"/>
+      <c r="W493" s="26"/>
+      <c r="X493" s="26"/>
+      <c r="Y493" s="26"/>
+      <c r="Z493" s="26"/>
+      <c r="AA493" s="26"/>
+      <c r="AB493" s="26"/>
+      <c r="AC493" s="26"/>
       <c r="AD493" s="8" t="s">
         <v>483</v>
       </c>
@@ -26261,377 +26342,459 @@
         <v>484</v>
       </c>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+    <row r="495" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B495" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C495" s="70"/>
+      <c r="D495" s="6"/>
+    </row>
+    <row r="496" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D496" s="6"/>
+    </row>
+    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A497" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B497" s="29"/>
+      <c r="C497" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D497" s="30"/>
+      <c r="E497" s="28"/>
+      <c r="F497" s="31">
+        <v>4.2881944444444438E-2</v>
+      </c>
+      <c r="G497" s="33"/>
+      <c r="H497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K497" s="33"/>
+      <c r="L497" s="33"/>
+      <c r="M497" s="33"/>
+      <c r="N497" s="33"/>
+      <c r="O497" s="33"/>
+      <c r="P497" s="33"/>
+      <c r="Q497" s="33"/>
+      <c r="R497" s="33"/>
+      <c r="S497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="V497" s="33"/>
+      <c r="W497" s="33"/>
+      <c r="X497" s="33"/>
+      <c r="Y497" s="33"/>
+      <c r="Z497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA497" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB497" s="33"/>
+      <c r="AC497" s="33"/>
+      <c r="AD497" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE497" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>143</v>
       </c>
-      <c r="B494" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E494" t="s">
+      <c r="B498" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E498" t="s">
         <v>860</v>
       </c>
-      <c r="F494" s="24">
+      <c r="F498" s="24">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="G494" s="26"/>
-      <c r="H494" s="26"/>
-      <c r="I494" s="26"/>
-      <c r="J494" s="26"/>
-      <c r="K494" s="26"/>
-      <c r="L494" s="26"/>
-      <c r="M494" s="26"/>
-      <c r="N494" s="26"/>
-      <c r="O494" s="26"/>
-      <c r="P494" s="26"/>
-      <c r="Q494" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R494" s="26"/>
-      <c r="S494" s="26"/>
-      <c r="T494" s="26"/>
-      <c r="U494" s="26"/>
-      <c r="V494" s="26"/>
-      <c r="W494" s="26"/>
-      <c r="X494" s="26"/>
-      <c r="Y494" s="26"/>
-      <c r="Z494" s="26"/>
-      <c r="AA494" s="26"/>
-      <c r="AB494" s="26"/>
-      <c r="AC494" s="26"/>
-      <c r="AD494" s="8" t="s">
+      <c r="G498" s="26"/>
+      <c r="H498" s="26"/>
+      <c r="I498" s="26"/>
+      <c r="J498" s="26"/>
+      <c r="K498" s="26"/>
+      <c r="L498" s="26"/>
+      <c r="M498" s="26"/>
+      <c r="N498" s="26"/>
+      <c r="O498" s="26"/>
+      <c r="P498" s="26"/>
+      <c r="Q498" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R498" s="26"/>
+      <c r="S498" s="26"/>
+      <c r="T498" s="26"/>
+      <c r="U498" s="26"/>
+      <c r="V498" s="26"/>
+      <c r="W498" s="26"/>
+      <c r="X498" s="26"/>
+      <c r="Y498" s="26"/>
+      <c r="Z498" s="26"/>
+      <c r="AA498" s="26"/>
+      <c r="AB498" s="26"/>
+      <c r="AC498" s="26"/>
+      <c r="AD498" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE494" s="8" t="s">
+      <c r="AE498" s="8" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A495" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B495" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C495" s="29"/>
-      <c r="D495" s="30"/>
-      <c r="E495" s="28"/>
-      <c r="F495" s="31">
-        <v>1.4548611111111111E-2</v>
-      </c>
-      <c r="G495" s="33"/>
-      <c r="H495" s="33"/>
-      <c r="I495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="J495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M495" s="33"/>
-      <c r="N495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="S495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="T495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U495" s="33"/>
-      <c r="V495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="W495" s="33"/>
-      <c r="X495" s="33"/>
-      <c r="Y495" s="33"/>
-      <c r="Z495" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA495" s="33"/>
-      <c r="AB495" s="33"/>
-      <c r="AC495" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="AD495" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE495" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="497" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B497" s="10"/>
-      <c r="C497" s="10"/>
-      <c r="D497" s="6"/>
-    </row>
-    <row r="498" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B498" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C498" s="7"/>
-      <c r="D498" s="6"/>
     </row>
     <row r="499" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A499" s="28" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="B499" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C499" s="29"/>
-      <c r="D499" s="30" t="s">
-        <v>242</v>
-      </c>
+      <c r="D499" s="30"/>
       <c r="E499" s="28"/>
-      <c r="F499" s="33"/>
+      <c r="F499" s="31">
+        <v>1.4548611111111111E-2</v>
+      </c>
       <c r="G499" s="33"/>
-      <c r="H499" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="I499" s="33"/>
-      <c r="J499" s="33"/>
-      <c r="K499" s="33"/>
-      <c r="L499" s="33"/>
+      <c r="H499" s="33"/>
+      <c r="I499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L499" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="M499" s="33"/>
-      <c r="N499" s="33"/>
-      <c r="O499" s="33"/>
-      <c r="P499" s="33"/>
+      <c r="N499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P499" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="Q499" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="R499" s="33"/>
-      <c r="S499" s="33"/>
-      <c r="T499" s="33"/>
+      <c r="R499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S499" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T499" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="U499" s="33"/>
-      <c r="V499" s="33"/>
+      <c r="V499" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="W499" s="33"/>
       <c r="X499" s="33"/>
       <c r="Y499" s="33"/>
-      <c r="Z499" s="33"/>
+      <c r="Z499" s="32" t="s">
+        <v>417</v>
+      </c>
       <c r="AA499" s="33"/>
       <c r="AB499" s="33"/>
-      <c r="AC499" s="33"/>
-      <c r="AD499" t="s">
-        <v>850</v>
+      <c r="AC499" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD499" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="AE499" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
+    <row r="501" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B501" s="10"/>
+      <c r="C501" s="10"/>
+      <c r="D501" s="6"/>
+    </row>
+    <row r="502" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C502" s="7"/>
+      <c r="D502" s="6"/>
+    </row>
+    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A503" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B503" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C503" s="29"/>
+      <c r="D503" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E503" s="28"/>
+      <c r="F503" s="33"/>
+      <c r="G503" s="33"/>
+      <c r="H503" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I503" s="33"/>
+      <c r="J503" s="33"/>
+      <c r="K503" s="33"/>
+      <c r="L503" s="33"/>
+      <c r="M503" s="33"/>
+      <c r="N503" s="33"/>
+      <c r="O503" s="33"/>
+      <c r="P503" s="33"/>
+      <c r="Q503" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R503" s="33"/>
+      <c r="S503" s="33"/>
+      <c r="T503" s="33"/>
+      <c r="U503" s="33"/>
+      <c r="V503" s="33"/>
+      <c r="W503" s="33"/>
+      <c r="X503" s="33"/>
+      <c r="Y503" s="33"/>
+      <c r="Z503" s="33"/>
+      <c r="AA503" s="33"/>
+      <c r="AB503" s="33"/>
+      <c r="AC503" s="33"/>
+      <c r="AD503" t="s">
+        <v>850</v>
+      </c>
+      <c r="AE503" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>323</v>
       </c>
-      <c r="B500" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D500" s="4" t="s">
+      <c r="B504" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D504" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F500" s="24">
+      <c r="F504" s="24">
         <v>1.0266203703703703E-2</v>
       </c>
-      <c r="G500" s="26"/>
-      <c r="H500" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I500" s="26"/>
-      <c r="J500" s="26"/>
-      <c r="K500" s="26"/>
-      <c r="L500" s="26"/>
-      <c r="M500" s="26"/>
-      <c r="N500" s="26"/>
-      <c r="O500" s="26"/>
-      <c r="P500" s="26"/>
-      <c r="Q500" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="R500" s="26"/>
-      <c r="S500" s="26"/>
-      <c r="T500" s="26"/>
-      <c r="U500" s="26"/>
-      <c r="V500" s="26"/>
-      <c r="W500" s="26"/>
-      <c r="X500" s="26"/>
-      <c r="Y500" s="26"/>
-      <c r="Z500" s="26"/>
-      <c r="AA500" s="26"/>
-      <c r="AB500" s="26"/>
-      <c r="AC500" s="26"/>
-      <c r="AD500" s="8" t="s">
+      <c r="G504" s="26"/>
+      <c r="H504" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I504" s="26"/>
+      <c r="J504" s="26"/>
+      <c r="K504" s="26"/>
+      <c r="L504" s="26"/>
+      <c r="M504" s="26"/>
+      <c r="N504" s="26"/>
+      <c r="O504" s="26"/>
+      <c r="P504" s="26"/>
+      <c r="Q504" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="R504" s="26"/>
+      <c r="S504" s="26"/>
+      <c r="T504" s="26"/>
+      <c r="U504" s="26"/>
+      <c r="V504" s="26"/>
+      <c r="W504" s="26"/>
+      <c r="X504" s="26"/>
+      <c r="Y504" s="26"/>
+      <c r="Z504" s="26"/>
+      <c r="AA504" s="26"/>
+      <c r="AB504" s="26"/>
+      <c r="AC504" s="26"/>
+      <c r="AD504" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AE500" s="8" t="s">
+      <c r="AE504" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A502" s="3" t="s">
+    <row r="506" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A506" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B502" s="60" t="s">
+      <c r="B506" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C502" s="60"/>
-    </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
+      <c r="C506" s="70"/>
+    </row>
+    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B503" s="7" t="s">
+      <c r="B507" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C503" s="7" t="s">
+      <c r="C507" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A504" s="28" t="s">
+    <row r="508" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A508" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="B504" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C504" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D504" s="30"/>
-      <c r="E504" s="28"/>
-      <c r="F504" s="31">
+      <c r="B508" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C508" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D508" s="30"/>
+      <c r="E508" s="28"/>
+      <c r="F508" s="31">
         <v>5.1736111111111115E-3</v>
       </c>
-      <c r="G504" s="33"/>
-      <c r="H504" s="33"/>
-      <c r="I504" s="33"/>
-      <c r="J504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="M504" s="33"/>
-      <c r="N504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="O504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="P504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="R504" s="33"/>
-      <c r="S504" s="33"/>
-      <c r="T504" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U504" s="33"/>
-      <c r="V504" s="33"/>
-      <c r="W504" s="33"/>
-      <c r="X504" s="33"/>
-      <c r="Y504" s="33"/>
-      <c r="Z504" s="33"/>
-      <c r="AA504" s="33"/>
-      <c r="AB504" s="33"/>
-      <c r="AC504" s="33"/>
-      <c r="AD504" t="s">
+      <c r="G508" s="33"/>
+      <c r="H508" s="33"/>
+      <c r="I508" s="33"/>
+      <c r="J508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="K508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M508" s="33"/>
+      <c r="N508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="O508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="P508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="R508" s="33"/>
+      <c r="S508" s="33"/>
+      <c r="T508" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="U508" s="33"/>
+      <c r="V508" s="33"/>
+      <c r="W508" s="33"/>
+      <c r="X508" s="33"/>
+      <c r="Y508" s="33"/>
+      <c r="Z508" s="33"/>
+      <c r="AA508" s="33"/>
+      <c r="AB508" s="33"/>
+      <c r="AC508" s="33"/>
+      <c r="AD508" t="s">
         <v>837</v>
       </c>
-      <c r="AE504" t="s">
+      <c r="AE508" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
+    <row r="509" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>838</v>
       </c>
-      <c r="B505" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C505" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F505" s="24">
+      <c r="B509" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F509" s="24">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="G505" s="26"/>
-      <c r="H505" s="26"/>
-      <c r="I505" s="26"/>
-      <c r="J505" s="26"/>
-      <c r="K505" s="26"/>
-      <c r="L505" s="26"/>
-      <c r="M505" s="26"/>
-      <c r="N505" s="26"/>
-      <c r="O505" s="26"/>
-      <c r="P505" s="26"/>
-      <c r="Q505" s="26"/>
-      <c r="R505" s="26"/>
-      <c r="S505" s="26"/>
-      <c r="T505" s="26"/>
-      <c r="U505" s="26"/>
-      <c r="V505" s="26"/>
-      <c r="W505" s="26"/>
-      <c r="X505" s="26"/>
-      <c r="Y505" s="26"/>
-      <c r="Z505" s="26"/>
-      <c r="AA505" s="26"/>
-      <c r="AB505" s="26"/>
-      <c r="AC505" s="26"/>
-      <c r="AD505" t="s">
+      <c r="G509" s="26"/>
+      <c r="H509" s="26"/>
+      <c r="I509" s="26"/>
+      <c r="J509" s="26"/>
+      <c r="K509" s="26"/>
+      <c r="L509" s="26"/>
+      <c r="M509" s="26"/>
+      <c r="N509" s="26"/>
+      <c r="O509" s="26"/>
+      <c r="P509" s="26"/>
+      <c r="Q509" s="26"/>
+      <c r="R509" s="26"/>
+      <c r="S509" s="26"/>
+      <c r="T509" s="26"/>
+      <c r="U509" s="26"/>
+      <c r="V509" s="26"/>
+      <c r="W509" s="26"/>
+      <c r="X509" s="26"/>
+      <c r="Y509" s="26"/>
+      <c r="Z509" s="26"/>
+      <c r="AA509" s="26"/>
+      <c r="AB509" s="26"/>
+      <c r="AC509" s="26"/>
+      <c r="AD509" t="s">
         <v>839</v>
       </c>
-      <c r="AE505" t="s">
+      <c r="AE509" t="s">
         <v>540</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A451:AE462">
-    <sortCondition ref="A451:A462"/>
+  <sortState ref="A455:AE466">
+    <sortCondition ref="A455:A466"/>
   </sortState>
-  <mergeCells count="46">
+  <mergeCells count="47">
     <mergeCell ref="B429:C429"/>
-    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="B506:C506"/>
     <mergeCell ref="B437:C437"/>
-    <mergeCell ref="B464:C464"/>
-    <mergeCell ref="B471:C471"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="B484:C484"/>
-    <mergeCell ref="B491:C491"/>
+    <mergeCell ref="B468:C468"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="B482:C482"/>
+    <mergeCell ref="B488:C488"/>
+    <mergeCell ref="B495:C495"/>
     <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B449:C449"/>
     <mergeCell ref="B226:C226"/>
     <mergeCell ref="B231:C231"/>
     <mergeCell ref="B238:C238"/>
     <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B453:C453"/>
     <mergeCell ref="B259:C259"/>
     <mergeCell ref="B274:C274"/>
     <mergeCell ref="B285:C285"/>

--- a/outreach_videos/IODP-JR_movie_log.xlsx
+++ b/outreach_videos/IODP-JR_movie_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\EducationOutreach\1_JRSO-OutreachPOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\R_Studio\IODP-general\big_and_Shiny\19_outreach_videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B1C75-41CE-4467-A648-F0915DDBF5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC9FE29-F231-4A74-8F80-4665DA0EEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6885" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="979">
   <si>
     <t>Filename</t>
   </si>
@@ -2863,6 +2863,117 @@
   </si>
   <si>
     <t>Periscope Film</t>
+  </si>
+  <si>
+    <t>Expedition 399 - Building Blocks of Life, Atlantis Massif</t>
+  </si>
+  <si>
+    <t>Multi Temperature Fluid Sampler Explanation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0NNxDfl_NA</t>
+  </si>
+  <si>
+    <t>Expedition 395 - Reykjanes Mantle Convection and Climate</t>
+  </si>
+  <si>
+    <t>Advanced Piston Coring: A view form the JR drill floor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FfaxvUWPHQM</t>
+  </si>
+  <si>
+    <t>EXP 395 Bringing up the Core</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hP4RBqhi7T0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WetPXqH60rs</t>
+  </si>
+  <si>
+    <t>EXP 395 Whole Core Analysis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HnKzW5550Ng</t>
+  </si>
+  <si>
+    <t>EXP 395 Splitting the Core</t>
+  </si>
+  <si>
+    <t>Slip and Cut!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CGHaVrtFzUQ</t>
+  </si>
+  <si>
+    <t>Jennifer C. Field</t>
+  </si>
+  <si>
+    <t>Reentry Funnel Installation: A view from the JR</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BDifQyPdct0</t>
+  </si>
+  <si>
+    <t>Expedition 400 - NW Greenland Glaciated Margin</t>
+  </si>
+  <si>
+    <t>The JR's Lifeboats</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DHfz5pK2tLc</t>
+  </si>
+  <si>
+    <t>Beth Doyle</t>
+  </si>
+  <si>
+    <t>Discovery on Deck: Ice Navigation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=itZ0xrPvGjE</t>
+  </si>
+  <si>
+    <t>EXP 400 OPEN HOUSE 09 30 23</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7s0dS4RTr-A</t>
+  </si>
+  <si>
+    <t>Bienvenue à bord du JOIDES Resolution</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oeFQelrups4</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Discovery on Deck: Protected Species Observer Watch</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mnGhgqrdDf8</t>
+  </si>
+  <si>
+    <t>VSI</t>
+  </si>
+  <si>
+    <t>Discovery on Deck: JR Baker Albert</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qwerkZRQKfA</t>
+  </si>
+  <si>
+    <t>galley</t>
+  </si>
+  <si>
+    <t>IODP EXP 400 Trailer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yc1vlo-JH_E</t>
+  </si>
+  <si>
+    <t>Beth Doyle and Michelle Pratt</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3400,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3398,8 +3509,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="289">
@@ -4028,13 +4147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE545"/>
+  <dimension ref="A1:AE568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D500" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D488" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U534" sqref="U534"/>
+      <selection pane="bottomRight" activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23917,22 +24036,68 @@
         <v>539</v>
       </c>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B477"/>
-      <c r="C477"/>
-      <c r="D477"/>
-    </row>
-    <row r="478" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="45"/>
+      <c r="C477" s="45"/>
+      <c r="F477" s="46"/>
+      <c r="G477" s="47"/>
+      <c r="H477" s="48"/>
+      <c r="I477" s="48"/>
+      <c r="J477" s="48"/>
+      <c r="K477" s="48"/>
+      <c r="L477" s="48"/>
+      <c r="M477" s="47"/>
+      <c r="N477" s="48"/>
+      <c r="O477" s="47"/>
+      <c r="P477" s="47"/>
+      <c r="Q477" s="48"/>
+      <c r="R477" s="47"/>
+      <c r="S477" s="47"/>
+      <c r="T477" s="48"/>
+      <c r="U477" s="47"/>
+      <c r="V477" s="47"/>
+      <c r="W477" s="47"/>
+      <c r="X477" s="47"/>
+      <c r="Y477" s="47"/>
+      <c r="Z477" s="47"/>
+      <c r="AA477" s="47"/>
+      <c r="AB477" s="47"/>
+      <c r="AC477" s="47"/>
+    </row>
+    <row r="478" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
-        <v>139</v>
+        <v>942</v>
       </c>
       <c r="B478" s="43" t="s">
         <v>135</v>
       </c>
       <c r="C478" s="43"/>
-      <c r="D478" s="6"/>
-    </row>
-    <row r="479" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F478" s="46"/>
+      <c r="G478" s="47"/>
+      <c r="H478" s="48"/>
+      <c r="I478" s="48"/>
+      <c r="J478" s="48"/>
+      <c r="K478" s="48"/>
+      <c r="L478" s="48"/>
+      <c r="M478" s="47"/>
+      <c r="N478" s="48"/>
+      <c r="O478" s="47"/>
+      <c r="P478" s="47"/>
+      <c r="Q478" s="48"/>
+      <c r="R478" s="47"/>
+      <c r="S478" s="47"/>
+      <c r="T478" s="48"/>
+      <c r="U478" s="47"/>
+      <c r="V478" s="47"/>
+      <c r="W478" s="47"/>
+      <c r="X478" s="47"/>
+      <c r="Y478" s="47"/>
+      <c r="Z478" s="47"/>
+      <c r="AA478" s="47"/>
+      <c r="AB478" s="47"/>
+      <c r="AC478" s="47"/>
+    </row>
+    <row r="479" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>0</v>
       </c>
@@ -23942,32 +24107,51 @@
       <c r="C479" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D479" s="6"/>
-    </row>
-    <row r="480" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F479" s="46"/>
+      <c r="G479" s="47"/>
+      <c r="H479" s="48"/>
+      <c r="I479" s="48"/>
+      <c r="J479" s="48"/>
+      <c r="K479" s="48"/>
+      <c r="L479" s="48"/>
+      <c r="M479" s="47"/>
+      <c r="N479" s="48"/>
+      <c r="O479" s="47"/>
+      <c r="P479" s="47"/>
+      <c r="Q479" s="48"/>
+      <c r="R479" s="47"/>
+      <c r="S479" s="47"/>
+      <c r="T479" s="48"/>
+      <c r="U479" s="47"/>
+      <c r="V479" s="47"/>
+      <c r="W479" s="47"/>
+      <c r="X479" s="47"/>
+      <c r="Y479" s="47"/>
+      <c r="Z479" s="47"/>
+      <c r="AA479" s="47"/>
+      <c r="AB479" s="47"/>
+      <c r="AC479" s="47"/>
+    </row>
+    <row r="480" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="16" t="s">
-        <v>887</v>
+        <v>943</v>
       </c>
       <c r="B480" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C480" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D480" s="18"/>
+      <c r="C480" s="17"/>
+      <c r="D480" s="16"/>
       <c r="E480" s="16"/>
       <c r="F480" s="19">
-        <v>1.8865740740740742E-3</v>
+        <v>1.8750000000000001E-3</v>
       </c>
       <c r="G480" s="21"/>
-      <c r="H480" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I480" s="21"/>
-      <c r="J480" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K480" s="20"/>
+      <c r="H480" s="20"/>
+      <c r="I480" s="20"/>
+      <c r="J480" s="20"/>
+      <c r="K480" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="L480" s="20" t="s">
         <v>416</v>
       </c>
@@ -23977,273 +24161,174 @@
       </c>
       <c r="O480" s="21"/>
       <c r="P480" s="21"/>
-      <c r="Q480" s="20"/>
-      <c r="R480" s="20"/>
-      <c r="S480" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T480" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q480" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R480" s="21"/>
+      <c r="S480" s="21"/>
+      <c r="T480" s="20"/>
       <c r="U480" s="21"/>
       <c r="V480" s="21"/>
       <c r="W480" s="21"/>
-      <c r="X480" s="20"/>
+      <c r="X480" s="21"/>
       <c r="Y480" s="21"/>
       <c r="Z480" s="21"/>
       <c r="AA480" s="21"/>
       <c r="AB480" s="21"/>
       <c r="AC480" s="21"/>
-      <c r="AD480" t="s">
-        <v>888</v>
+      <c r="AD480" s="44" t="s">
+        <v>944</v>
       </c>
       <c r="AE480" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="481" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>885</v>
-      </c>
-      <c r="B481" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D481" s="4"/>
-      <c r="E481"/>
-      <c r="F481" s="12">
-        <v>1.9097222222222222E-3</v>
-      </c>
-      <c r="G481" s="14"/>
-      <c r="H481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M481" s="14"/>
-      <c r="N481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O481" s="14"/>
-      <c r="P481" s="14"/>
-      <c r="Q481" s="13"/>
-      <c r="R481" s="13"/>
-      <c r="S481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U481" s="14"/>
-      <c r="V481" s="14"/>
-      <c r="W481" s="14"/>
-      <c r="X481" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y481" s="14"/>
-      <c r="Z481" s="14"/>
-      <c r="AA481" s="14"/>
-      <c r="AB481" s="14"/>
-      <c r="AC481" s="14"/>
-      <c r="AD481" t="s">
-        <v>886</v>
-      </c>
-      <c r="AE481" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="482" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="B482" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C482" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D482" s="18"/>
-      <c r="E482" s="16"/>
-      <c r="F482" s="19">
-        <v>1.5046296296296294E-3</v>
-      </c>
-      <c r="G482" s="21"/>
-      <c r="H482" s="21"/>
-      <c r="I482" s="21"/>
-      <c r="J482" s="21"/>
-      <c r="K482" s="21"/>
-      <c r="L482" s="21"/>
-      <c r="M482" s="21"/>
-      <c r="N482" s="21"/>
-      <c r="O482" s="21"/>
-      <c r="P482" s="21"/>
-      <c r="Q482" s="21"/>
-      <c r="R482" s="21"/>
-      <c r="S482" s="21"/>
-      <c r="T482" s="21"/>
-      <c r="U482" s="21"/>
-      <c r="V482" s="21"/>
-      <c r="W482" s="21"/>
-      <c r="X482" s="21"/>
-      <c r="Y482" s="21"/>
-      <c r="Z482" s="21"/>
-      <c r="AA482" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB482" s="21"/>
-      <c r="AC482" s="21"/>
-      <c r="AD482" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE482" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="483" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
-        <v>756</v>
-      </c>
-      <c r="B483" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C483" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D483" s="4"/>
-      <c r="E483"/>
-      <c r="F483" s="12">
-        <v>7.6736111111111111E-3</v>
-      </c>
-      <c r="G483" s="14"/>
-      <c r="H483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I483" s="14"/>
-      <c r="J483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M483" s="14"/>
-      <c r="N483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R483" s="14"/>
-      <c r="S483" s="14"/>
-      <c r="T483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U483" s="14"/>
-      <c r="V483" s="14"/>
-      <c r="W483" s="14"/>
-      <c r="X483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y483" s="14"/>
-      <c r="Z483" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA483" s="14"/>
-      <c r="AB483" s="14"/>
-      <c r="AC483" s="14" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD483" t="s">
-        <v>757</v>
-      </c>
-      <c r="AE483" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="45"/>
+      <c r="C481" s="45"/>
+      <c r="F481" s="46"/>
+      <c r="G481" s="47"/>
+      <c r="H481" s="48"/>
+      <c r="I481" s="48"/>
+      <c r="J481" s="48"/>
+      <c r="K481" s="48"/>
+      <c r="L481" s="48"/>
+      <c r="M481" s="47"/>
+      <c r="N481" s="48"/>
+      <c r="O481" s="47"/>
+      <c r="P481" s="47"/>
+      <c r="Q481" s="48"/>
+      <c r="R481" s="47"/>
+      <c r="S481" s="47"/>
+      <c r="T481" s="48"/>
+      <c r="U481" s="47"/>
+      <c r="V481" s="47"/>
+      <c r="W481" s="47"/>
+      <c r="X481" s="47"/>
+      <c r="Y481" s="47"/>
+      <c r="Z481" s="47"/>
+      <c r="AA481" s="47"/>
+      <c r="AB481" s="47"/>
+      <c r="AC481" s="47"/>
+    </row>
+    <row r="482" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B482" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C482" s="43"/>
+      <c r="F482" s="46"/>
+      <c r="G482" s="47"/>
+      <c r="H482" s="48"/>
+      <c r="I482" s="48"/>
+      <c r="J482" s="48"/>
+      <c r="K482" s="48"/>
+      <c r="L482" s="48"/>
+      <c r="M482" s="47"/>
+      <c r="N482" s="48"/>
+      <c r="O482" s="47"/>
+      <c r="P482" s="47"/>
+      <c r="Q482" s="48"/>
+      <c r="R482" s="47"/>
+      <c r="S482" s="47"/>
+      <c r="T482" s="48"/>
+      <c r="U482" s="47"/>
+      <c r="V482" s="47"/>
+      <c r="W482" s="47"/>
+      <c r="X482" s="47"/>
+      <c r="Y482" s="47"/>
+      <c r="Z482" s="47"/>
+      <c r="AA482" s="47"/>
+      <c r="AB482" s="47"/>
+      <c r="AC482" s="47"/>
+    </row>
+    <row r="483" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F483" s="46"/>
+      <c r="G483" s="47"/>
+      <c r="H483" s="48"/>
+      <c r="I483" s="48"/>
+      <c r="J483" s="48"/>
+      <c r="K483" s="48"/>
+      <c r="L483" s="48"/>
+      <c r="M483" s="47"/>
+      <c r="N483" s="48"/>
+      <c r="O483" s="47"/>
+      <c r="P483" s="47"/>
+      <c r="Q483" s="48"/>
+      <c r="R483" s="47"/>
+      <c r="S483" s="47"/>
+      <c r="T483" s="48"/>
+      <c r="U483" s="47"/>
+      <c r="V483" s="47"/>
+      <c r="W483" s="47"/>
+      <c r="X483" s="47"/>
+      <c r="Y483" s="47"/>
+      <c r="Z483" s="47"/>
+      <c r="AA483" s="47"/>
+      <c r="AB483" s="47"/>
+      <c r="AC483" s="47"/>
+    </row>
+    <row r="484" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="16" t="s">
-        <v>883</v>
+        <v>946</v>
       </c>
       <c r="B484" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C484" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D484" s="18"/>
+      <c r="C484" s="17"/>
+      <c r="D484" s="16" t="s">
+        <v>956</v>
+      </c>
       <c r="E484" s="16"/>
       <c r="F484" s="19">
-        <v>1.9444444444444442E-3</v>
+        <v>2.4537037037037036E-3</v>
       </c>
       <c r="G484" s="21"/>
-      <c r="H484" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I484" s="21"/>
-      <c r="J484" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K484" s="20"/>
-      <c r="L484" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="H484" s="20"/>
+      <c r="I484" s="20"/>
+      <c r="J484" s="20"/>
+      <c r="K484" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L484" s="20"/>
       <c r="M484" s="21"/>
-      <c r="N484" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O484" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="N484" s="20"/>
+      <c r="O484" s="21"/>
       <c r="P484" s="21"/>
       <c r="Q484" s="20"/>
-      <c r="R484" s="20"/>
+      <c r="R484" s="21"/>
       <c r="S484" s="21"/>
-      <c r="T484" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="T484" s="20"/>
       <c r="U484" s="21"/>
       <c r="V484" s="21"/>
       <c r="W484" s="21"/>
-      <c r="X484" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="X484" s="21"/>
       <c r="Y484" s="21"/>
       <c r="Z484" s="21"/>
       <c r="AA484" s="21"/>
       <c r="AB484" s="21"/>
-      <c r="AC484" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD484" t="s">
-        <v>884</v>
+      <c r="AC484" s="21"/>
+      <c r="AD484" s="44" t="s">
+        <v>947</v>
       </c>
       <c r="AE484" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
-        <v>881</v>
+    <row r="485" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="44" t="s">
+        <v>948</v>
       </c>
       <c r="B485" s="5" t="s">
         <v>4</v>
@@ -24251,1187 +24336,1240 @@
       <c r="C485" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D485" s="44" t="s">
+        <v>956</v>
+      </c>
       <c r="F485" s="12">
-        <v>1.7708333333333332E-3</v>
-      </c>
-      <c r="G485" s="14"/>
-      <c r="H485" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I485" s="14"/>
+        <v>3.4375E-3</v>
+      </c>
+      <c r="G485" s="49"/>
+      <c r="H485" s="50"/>
+      <c r="I485" s="50"/>
       <c r="J485" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="K485" s="13"/>
-      <c r="L485" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M485" s="14"/>
-      <c r="N485" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O485" s="14"/>
-      <c r="P485" s="14"/>
-      <c r="Q485" s="13"/>
-      <c r="R485" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S485" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T485" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U485" s="14"/>
-      <c r="V485" s="14"/>
-      <c r="W485" s="14"/>
-      <c r="X485" s="13"/>
-      <c r="Y485" s="14"/>
-      <c r="Z485" s="14"/>
-      <c r="AA485" s="14"/>
-      <c r="AB485" s="14"/>
-      <c r="AC485" s="14"/>
-      <c r="AD485" t="s">
-        <v>882</v>
+      <c r="K485" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L485" s="50"/>
+      <c r="M485" s="49"/>
+      <c r="N485" s="50"/>
+      <c r="O485" s="49"/>
+      <c r="P485" s="49"/>
+      <c r="Q485" s="50"/>
+      <c r="R485" s="49"/>
+      <c r="S485" s="49"/>
+      <c r="T485" s="50"/>
+      <c r="U485" s="49"/>
+      <c r="V485" s="49"/>
+      <c r="W485" s="49"/>
+      <c r="X485" s="49"/>
+      <c r="Y485" s="49"/>
+      <c r="Z485" s="49"/>
+      <c r="AA485" s="49"/>
+      <c r="AB485" s="49"/>
+      <c r="AC485" s="49"/>
+      <c r="AD485" s="44" t="s">
+        <v>949</v>
       </c>
       <c r="AE485" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B486" s="31"/>
-      <c r="C486" s="17"/>
-      <c r="D486" s="22"/>
-      <c r="E486" s="26"/>
+        <v>953</v>
+      </c>
+      <c r="B486" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C486" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D486" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="E486" s="16"/>
       <c r="F486" s="19">
-        <v>2.1643518518518518E-3</v>
-      </c>
-      <c r="G486" s="23"/>
-      <c r="H486" s="23"/>
-      <c r="I486" s="23"/>
-      <c r="J486" s="23"/>
-      <c r="K486" s="23"/>
-      <c r="L486" s="23"/>
-      <c r="M486" s="23"/>
-      <c r="N486" s="23"/>
-      <c r="O486" s="23"/>
-      <c r="P486" s="23"/>
-      <c r="Q486" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R486" s="23"/>
-      <c r="S486" s="23"/>
-      <c r="T486" s="23"/>
-      <c r="U486" s="23"/>
-      <c r="V486" s="23"/>
-      <c r="W486" s="23"/>
-      <c r="X486" s="23"/>
-      <c r="Y486" s="23"/>
-      <c r="Z486" s="23"/>
-      <c r="AA486" s="23"/>
-      <c r="AB486" s="23"/>
+        <v>1.9675925925925928E-3</v>
+      </c>
+      <c r="G486" s="21"/>
+      <c r="H486" s="20"/>
+      <c r="I486" s="20"/>
+      <c r="J486" s="20"/>
+      <c r="K486" s="20"/>
+      <c r="L486" s="20"/>
+      <c r="M486" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="N486" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O486" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P486" s="21"/>
+      <c r="Q486" s="20"/>
+      <c r="R486" s="21"/>
+      <c r="S486" s="21"/>
+      <c r="T486" s="20"/>
+      <c r="U486" s="21"/>
+      <c r="V486" s="21"/>
+      <c r="W486" s="21"/>
+      <c r="X486" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y486" s="21"/>
+      <c r="Z486" s="21"/>
+      <c r="AA486" s="21"/>
+      <c r="AB486" s="21"/>
       <c r="AC486" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="AD486" t="s">
-        <v>482</v>
+        <v>441</v>
+      </c>
+      <c r="AD486" s="44" t="s">
+        <v>952</v>
       </c>
       <c r="AE486" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
-        <v>432</v>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="487" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="44" t="s">
+        <v>951</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D487" s="4" t="s">
-        <v>433</v>
+      <c r="D487" s="44" t="s">
+        <v>956</v>
       </c>
       <c r="F487" s="12">
-        <v>3.695601851851852E-2</v>
-      </c>
-      <c r="G487" s="14"/>
-      <c r="H487" s="14"/>
-      <c r="I487" s="14"/>
-      <c r="J487" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K487" s="14"/>
-      <c r="L487" s="14"/>
-      <c r="M487" s="14"/>
-      <c r="N487" s="14"/>
-      <c r="O487" s="14"/>
-      <c r="P487" s="14"/>
-      <c r="Q487" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R487" s="14"/>
-      <c r="S487" s="14"/>
-      <c r="T487" s="14"/>
-      <c r="U487" s="14"/>
-      <c r="V487" s="14"/>
-      <c r="W487" s="14"/>
-      <c r="X487" s="14"/>
-      <c r="Y487" s="14"/>
-      <c r="Z487" s="14"/>
-      <c r="AA487" s="14"/>
-      <c r="AB487" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC487" s="14"/>
-      <c r="AD487" t="s">
-        <v>817</v>
+        <v>1.3194444444444443E-3</v>
+      </c>
+      <c r="G487" s="49"/>
+      <c r="H487" s="50"/>
+      <c r="I487" s="50"/>
+      <c r="J487" s="50"/>
+      <c r="K487" s="50"/>
+      <c r="L487" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M487" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N487" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O487" s="49"/>
+      <c r="P487" s="49"/>
+      <c r="Q487" s="50"/>
+      <c r="R487" s="49"/>
+      <c r="S487" s="49"/>
+      <c r="T487" s="50"/>
+      <c r="U487" s="49"/>
+      <c r="V487" s="49"/>
+      <c r="W487" s="49"/>
+      <c r="X487" s="49"/>
+      <c r="Y487" s="49"/>
+      <c r="Z487" s="49"/>
+      <c r="AA487" s="49"/>
+      <c r="AB487" s="49"/>
+      <c r="AC487" s="49"/>
+      <c r="AD487" s="44" t="s">
+        <v>950</v>
       </c>
       <c r="AE487" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="488" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="16" t="s">
-        <v>879</v>
+        <v>957</v>
       </c>
       <c r="B488" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C488" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D488" s="18"/>
+      <c r="C488" s="17"/>
+      <c r="D488" s="16" t="s">
+        <v>956</v>
+      </c>
       <c r="E488" s="16"/>
       <c r="F488" s="19">
-        <v>1.8981481481481482E-3</v>
+        <v>3.5416666666666665E-3</v>
       </c>
       <c r="G488" s="21"/>
-      <c r="H488" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I488" s="21"/>
-      <c r="J488" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K488" s="20"/>
-      <c r="L488" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="H488" s="20"/>
+      <c r="I488" s="20"/>
+      <c r="J488" s="20"/>
+      <c r="K488" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L488" s="20"/>
       <c r="M488" s="21"/>
-      <c r="N488" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="N488" s="20"/>
       <c r="O488" s="21"/>
       <c r="P488" s="21"/>
       <c r="Q488" s="20"/>
-      <c r="R488" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S488" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T488" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="R488" s="21"/>
+      <c r="S488" s="21"/>
+      <c r="T488" s="20"/>
       <c r="U488" s="21"/>
       <c r="V488" s="21"/>
-      <c r="W488" s="21"/>
-      <c r="X488" s="20"/>
+      <c r="W488" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X488" s="21"/>
       <c r="Y488" s="21"/>
       <c r="Z488" s="21"/>
       <c r="AA488" s="21"/>
-      <c r="AB488" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC488" s="21"/>
-      <c r="AD488" t="s">
-        <v>880</v>
+      <c r="AB488" s="21"/>
+      <c r="AC488" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD488" s="44" t="s">
+        <v>958</v>
       </c>
       <c r="AE488" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>497</v>
+    <row r="489" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="44" t="s">
+        <v>954</v>
       </c>
       <c r="B489" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C489" s="5" t="s">
-        <v>4</v>
+      <c r="C489" s="45"/>
+      <c r="D489" s="44" t="s">
+        <v>956</v>
       </c>
       <c r="F489" s="12">
-        <v>7.6388888888888893E-4</v>
-      </c>
-      <c r="G489" s="14"/>
-      <c r="H489" s="14"/>
-      <c r="I489" s="14"/>
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="G489" s="49"/>
+      <c r="H489" s="50"/>
+      <c r="I489" s="50"/>
       <c r="J489" s="13" t="s">
         <v>416</v>
       </c>
       <c r="K489" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="L489" s="14"/>
-      <c r="M489" s="14"/>
-      <c r="N489" s="14"/>
-      <c r="O489" s="14"/>
-      <c r="P489" s="14"/>
-      <c r="Q489" s="14"/>
-      <c r="R489" s="14"/>
-      <c r="S489" s="14"/>
-      <c r="T489" s="14"/>
-      <c r="U489" s="14"/>
-      <c r="V489" s="14"/>
-      <c r="W489" s="14"/>
-      <c r="X489" s="14"/>
-      <c r="Y489" s="14"/>
-      <c r="Z489" s="14"/>
-      <c r="AA489" s="14"/>
-      <c r="AB489" s="14"/>
-      <c r="AC489" s="14"/>
-      <c r="AD489" t="s">
-        <v>498</v>
+      <c r="L489" s="50"/>
+      <c r="M489" s="49"/>
+      <c r="N489" s="50"/>
+      <c r="O489" s="49"/>
+      <c r="P489" s="49"/>
+      <c r="Q489" s="50"/>
+      <c r="R489" s="49"/>
+      <c r="S489" s="49"/>
+      <c r="T489" s="50"/>
+      <c r="U489" s="49"/>
+      <c r="V489" s="49"/>
+      <c r="W489" s="49"/>
+      <c r="X489" s="49"/>
+      <c r="Y489" s="49"/>
+      <c r="Z489" s="49"/>
+      <c r="AA489" s="49"/>
+      <c r="AB489" s="49"/>
+      <c r="AC489" s="49"/>
+      <c r="AD489" s="44" t="s">
+        <v>955</v>
       </c>
       <c r="AE489" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A490" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B490" s="31"/>
-      <c r="C490" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D490" s="22"/>
-      <c r="E490" s="26"/>
-      <c r="F490" s="19">
-        <v>3.8078703703703707E-3</v>
-      </c>
-      <c r="G490" s="23"/>
-      <c r="H490" s="23"/>
-      <c r="I490" s="23"/>
-      <c r="J490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M490" s="23"/>
-      <c r="N490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S490" s="23"/>
-      <c r="T490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U490" s="23"/>
-      <c r="V490" s="23"/>
-      <c r="W490" s="23"/>
-      <c r="X490" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y490" s="23"/>
-      <c r="Z490" s="23"/>
-      <c r="AA490" s="23"/>
-      <c r="AB490" s="23"/>
-      <c r="AC490" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD490" t="s">
-        <v>819</v>
-      </c>
-      <c r="AE490" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>853</v>
-      </c>
-      <c r="B491" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C491" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D491" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E491" s="1"/>
-      <c r="F491" s="12">
-        <v>2.4768518518518516E-3</v>
-      </c>
-      <c r="G491" s="25"/>
-      <c r="H491" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I491" s="25"/>
-      <c r="J491" s="25"/>
-      <c r="K491" s="25"/>
-      <c r="L491" s="25"/>
-      <c r="M491" s="25"/>
-      <c r="N491" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O491" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P491" s="25"/>
-      <c r="Q491" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R491" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S491" s="25"/>
-      <c r="T491" s="25"/>
-      <c r="U491" s="25"/>
-      <c r="V491" s="25"/>
-      <c r="W491" s="25"/>
-      <c r="X491" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y491" s="25"/>
-      <c r="Z491" s="25"/>
-      <c r="AA491" s="25"/>
-      <c r="AB491" s="25"/>
-      <c r="AC491" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD491" t="s">
-        <v>820</v>
-      </c>
-      <c r="AE491" t="s">
+    <row r="490" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="45"/>
+      <c r="C490" s="45"/>
+      <c r="F490" s="46"/>
+      <c r="G490" s="47"/>
+      <c r="H490" s="48"/>
+      <c r="I490" s="48"/>
+      <c r="J490" s="48"/>
+      <c r="K490" s="48"/>
+      <c r="L490" s="48"/>
+      <c r="M490" s="47"/>
+      <c r="N490" s="48"/>
+      <c r="O490" s="47"/>
+      <c r="P490" s="47"/>
+      <c r="Q490" s="48"/>
+      <c r="R490" s="47"/>
+      <c r="S490" s="47"/>
+      <c r="T490" s="48"/>
+      <c r="U490" s="47"/>
+      <c r="V490" s="47"/>
+      <c r="W490" s="47"/>
+      <c r="X490" s="47"/>
+      <c r="Y490" s="47"/>
+      <c r="Z490" s="47"/>
+      <c r="AA490" s="47"/>
+      <c r="AB490" s="47"/>
+      <c r="AC490" s="47"/>
+    </row>
+    <row r="491" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B491" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C491" s="43"/>
+      <c r="F491" s="46"/>
+      <c r="G491" s="47"/>
+      <c r="H491" s="48"/>
+      <c r="I491" s="48"/>
+      <c r="J491" s="48"/>
+      <c r="K491" s="48"/>
+      <c r="L491" s="48"/>
+      <c r="M491" s="47"/>
+      <c r="N491" s="48"/>
+      <c r="O491" s="47"/>
+      <c r="P491" s="47"/>
+      <c r="Q491" s="48"/>
+      <c r="R491" s="47"/>
+      <c r="S491" s="47"/>
+      <c r="T491" s="48"/>
+      <c r="U491" s="47"/>
+      <c r="V491" s="47"/>
+      <c r="W491" s="47"/>
+      <c r="X491" s="47"/>
+      <c r="Y491" s="47"/>
+      <c r="Z491" s="47"/>
+      <c r="AA491" s="47"/>
+      <c r="AB491" s="47"/>
+      <c r="AC491" s="47"/>
+    </row>
+    <row r="492" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F492" s="46"/>
+      <c r="G492" s="47"/>
+      <c r="H492" s="48"/>
+      <c r="I492" s="48"/>
+      <c r="J492" s="48"/>
+      <c r="K492" s="48"/>
+      <c r="L492" s="48"/>
+      <c r="M492" s="47"/>
+      <c r="N492" s="48"/>
+      <c r="O492" s="47"/>
+      <c r="P492" s="47"/>
+      <c r="Q492" s="48"/>
+      <c r="R492" s="47"/>
+      <c r="S492" s="47"/>
+      <c r="T492" s="48"/>
+      <c r="U492" s="47"/>
+      <c r="V492" s="47"/>
+      <c r="W492" s="47"/>
+      <c r="X492" s="47"/>
+      <c r="Y492" s="47"/>
+      <c r="Z492" s="47"/>
+      <c r="AA492" s="47"/>
+      <c r="AB492" s="47"/>
+      <c r="AC492" s="47"/>
+    </row>
+    <row r="493" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="B493" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C493" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D493" s="16"/>
+      <c r="E493" s="16" t="s">
+        <v>969</v>
+      </c>
+      <c r="F493" s="19">
+        <v>1.5821759259259261E-2</v>
+      </c>
+      <c r="G493" s="21"/>
+      <c r="H493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I493" s="20"/>
+      <c r="J493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="N493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P493" s="21"/>
+      <c r="Q493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R493" s="21"/>
+      <c r="S493" s="21"/>
+      <c r="T493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="V493" s="21"/>
+      <c r="W493" s="21"/>
+      <c r="X493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y493" s="21"/>
+      <c r="Z493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA493" s="21"/>
+      <c r="AB493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC493" s="21"/>
+      <c r="AD493" s="44" t="s">
+        <v>968</v>
+      </c>
+      <c r="AE493" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A492" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B492" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C492" s="17"/>
-      <c r="D492" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E492" s="26"/>
-      <c r="F492" s="19">
-        <v>3.5648148148148154E-3</v>
-      </c>
-      <c r="G492" s="23"/>
-      <c r="H492" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I492" s="23"/>
-      <c r="J492" s="23"/>
-      <c r="K492" s="23"/>
-      <c r="L492" s="23"/>
-      <c r="M492" s="23"/>
-      <c r="N492" s="23"/>
-      <c r="O492" s="23"/>
-      <c r="P492" s="23"/>
-      <c r="Q492" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R492" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S492" s="23"/>
-      <c r="T492" s="23"/>
-      <c r="U492" s="23"/>
-      <c r="V492" s="23"/>
-      <c r="W492" s="23"/>
-      <c r="X492" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y492" s="23"/>
-      <c r="Z492" s="23"/>
-      <c r="AA492" s="23"/>
-      <c r="AB492" s="23"/>
-      <c r="AC492" s="21" t="s">
-        <v>854</v>
-      </c>
-      <c r="AD492" t="s">
-        <v>821</v>
-      </c>
-      <c r="AE492" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
-        <v>434</v>
-      </c>
-      <c r="B493" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C493" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F493" s="12">
-        <v>1.8981481481481482E-3</v>
-      </c>
-      <c r="G493" s="14"/>
-      <c r="H493" s="14"/>
-      <c r="I493" s="14"/>
-      <c r="J493" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K493" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L493" s="14"/>
-      <c r="M493" s="14"/>
-      <c r="N493" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O493" s="14"/>
-      <c r="P493" s="14"/>
-      <c r="Q493" s="14"/>
-      <c r="R493" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S493" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T493" s="14"/>
-      <c r="U493" s="14"/>
-      <c r="V493" s="14"/>
-      <c r="W493" s="14"/>
-      <c r="X493" s="14"/>
-      <c r="Y493" s="14"/>
-      <c r="Z493" s="14"/>
-      <c r="AA493" s="14"/>
-      <c r="AB493" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC493" s="14" t="s">
-        <v>867</v>
-      </c>
-      <c r="AD493" t="s">
-        <v>865</v>
-      </c>
-      <c r="AE493" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A494" s="16" t="s">
-        <v>809</v>
-      </c>
-      <c r="B494" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C494" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D494" s="18"/>
-      <c r="E494" s="16"/>
-      <c r="F494" s="19">
-        <v>3.4027777777777784E-3</v>
-      </c>
-      <c r="G494" s="21"/>
-      <c r="H494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M494" s="21"/>
-      <c r="N494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O494" s="21"/>
-      <c r="P494" s="21"/>
-      <c r="Q494" s="21"/>
-      <c r="R494" s="21"/>
-      <c r="S494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U494" s="21"/>
-      <c r="V494" s="21"/>
-      <c r="W494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X494" s="21"/>
-      <c r="Y494" s="21"/>
-      <c r="Z494" s="21"/>
-      <c r="AA494" s="21"/>
-      <c r="AB494" s="21"/>
-      <c r="AC494" s="21"/>
-      <c r="AD494" t="s">
-        <v>810</v>
+    <row r="494" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="44" t="s">
+        <v>963</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D494" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="F494" s="12">
+        <v>3.5416666666666665E-3</v>
+      </c>
+      <c r="G494" s="49"/>
+      <c r="H494" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I494" s="50"/>
+      <c r="J494" s="50"/>
+      <c r="K494" s="50"/>
+      <c r="L494" s="50"/>
+      <c r="M494" s="49"/>
+      <c r="N494" s="50"/>
+      <c r="O494" s="49"/>
+      <c r="P494" s="49"/>
+      <c r="Q494" s="50"/>
+      <c r="R494" s="49"/>
+      <c r="S494" s="49"/>
+      <c r="T494" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U494" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V494" s="49"/>
+      <c r="W494" s="49"/>
+      <c r="X494" s="49"/>
+      <c r="Y494" s="49"/>
+      <c r="Z494" s="49"/>
+      <c r="AA494" s="49"/>
+      <c r="AB494" s="49"/>
+      <c r="AC494" s="49"/>
+      <c r="AD494" s="44" t="s">
+        <v>964</v>
       </c>
       <c r="AE494" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
-        <v>140</v>
-      </c>
-      <c r="C495" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F495" s="12">
-        <v>1.1122685185185185E-2</v>
-      </c>
-      <c r="G495" s="14"/>
-      <c r="H495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="N495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P495" s="14"/>
-      <c r="Q495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T495" s="14"/>
-      <c r="U495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V495" s="14"/>
-      <c r="W495" s="14"/>
-      <c r="X495" s="14"/>
-      <c r="Y495" s="14"/>
-      <c r="Z495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB495" s="14"/>
-      <c r="AC495" s="14"/>
-      <c r="AD495" t="s">
-        <v>482</v>
+    <row r="495" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="B495" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C495" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D495" s="16"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="19">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="G495" s="21"/>
+      <c r="H495" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I495" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J495" s="20"/>
+      <c r="K495" s="20"/>
+      <c r="L495" s="20"/>
+      <c r="M495" s="21"/>
+      <c r="N495" s="20"/>
+      <c r="O495" s="21"/>
+      <c r="P495" s="21"/>
+      <c r="Q495" s="20"/>
+      <c r="R495" s="21"/>
+      <c r="S495" s="21"/>
+      <c r="T495" s="20"/>
+      <c r="U495" s="21"/>
+      <c r="V495" s="21"/>
+      <c r="W495" s="21"/>
+      <c r="X495" s="21"/>
+      <c r="Y495" s="21"/>
+      <c r="Z495" s="21"/>
+      <c r="AA495" s="21"/>
+      <c r="AB495" s="21"/>
+      <c r="AC495" s="21" t="s">
+        <v>975</v>
+      </c>
+      <c r="AD495" s="44" t="s">
+        <v>974</v>
       </c>
       <c r="AE495" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A496" s="16" t="s">
-        <v>877</v>
-      </c>
-      <c r="B496" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C496" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D496" s="18"/>
-      <c r="E496" s="16"/>
-      <c r="F496" s="19">
-        <v>1.8750000000000001E-3</v>
-      </c>
-      <c r="G496" s="21"/>
-      <c r="H496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I496" s="21"/>
-      <c r="J496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L496" s="20"/>
-      <c r="M496" s="21"/>
-      <c r="N496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O496" s="21"/>
-      <c r="P496" s="21"/>
-      <c r="Q496" s="20"/>
-      <c r="R496" s="20"/>
-      <c r="S496" s="21"/>
-      <c r="T496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U496" s="21"/>
-      <c r="V496" s="21"/>
-      <c r="W496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X496" s="20"/>
-      <c r="Y496" s="21"/>
-      <c r="Z496" s="21"/>
-      <c r="AA496" s="21"/>
-      <c r="AB496" s="21"/>
-      <c r="AC496" s="21"/>
-      <c r="AD496" t="s">
-        <v>878</v>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="496" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="44" t="s">
+        <v>970</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D496" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="F496" s="12">
+        <v>3.1134259259259257E-3</v>
+      </c>
+      <c r="G496" s="49"/>
+      <c r="H496" s="50"/>
+      <c r="I496" s="50"/>
+      <c r="J496" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K496" s="50"/>
+      <c r="L496" s="50"/>
+      <c r="M496" s="49"/>
+      <c r="N496" s="50"/>
+      <c r="O496" s="49"/>
+      <c r="P496" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q496" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R496" s="49"/>
+      <c r="S496" s="49"/>
+      <c r="T496" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U496" s="49"/>
+      <c r="V496" s="49"/>
+      <c r="W496" s="49"/>
+      <c r="X496" s="49"/>
+      <c r="Y496" s="49"/>
+      <c r="Z496" s="49"/>
+      <c r="AA496" s="49"/>
+      <c r="AB496" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC496" s="49" t="s">
+        <v>972</v>
+      </c>
+      <c r="AD496" s="44" t="s">
+        <v>971</v>
       </c>
       <c r="AE496" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>876</v>
-      </c>
-      <c r="B497" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C497" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F497" s="12">
-        <v>2.5578703703703705E-3</v>
-      </c>
-      <c r="G497" s="14"/>
-      <c r="H497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I497" s="14"/>
-      <c r="J497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M497" s="14"/>
-      <c r="N497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O497" s="14"/>
-      <c r="P497" s="14"/>
-      <c r="Q497" s="13"/>
-      <c r="R497" s="13"/>
-      <c r="S497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U497" s="14"/>
-      <c r="V497" s="14"/>
-      <c r="W497" s="14"/>
-      <c r="X497" s="13"/>
-      <c r="Y497" s="14"/>
-      <c r="Z497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA497" s="14"/>
-      <c r="AB497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC497" s="14"/>
-      <c r="AD497" t="s">
-        <v>875</v>
+    <row r="497" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="B497" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D497" s="16"/>
+      <c r="E497" s="16"/>
+      <c r="F497" s="19">
+        <v>3.7314814814814815E-2</v>
+      </c>
+      <c r="G497" s="21"/>
+      <c r="H497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="N497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P497" s="21"/>
+      <c r="Q497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R497" s="21"/>
+      <c r="S497" s="21"/>
+      <c r="T497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="V497" s="21"/>
+      <c r="W497" s="21"/>
+      <c r="X497" s="21"/>
+      <c r="Y497" s="21"/>
+      <c r="Z497" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA497" s="21"/>
+      <c r="AB497" s="21"/>
+      <c r="AC497" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD497" s="44" t="s">
+        <v>966</v>
       </c>
       <c r="AE497" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A498" s="16" t="s">
-        <v>873</v>
-      </c>
-      <c r="B498" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C498" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D498" s="18"/>
-      <c r="E498" s="16"/>
-      <c r="F498" s="19">
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="G498" s="21"/>
-      <c r="H498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L498" s="20"/>
-      <c r="M498" s="21"/>
-      <c r="N498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P498" s="21"/>
-      <c r="Q498" s="20"/>
-      <c r="R498" s="20"/>
-      <c r="S498" s="21"/>
-      <c r="T498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U498" s="21"/>
-      <c r="V498" s="21"/>
-      <c r="W498" s="21"/>
-      <c r="X498" s="20"/>
-      <c r="Y498" s="21"/>
-      <c r="Z498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA498" s="21"/>
-      <c r="AB498" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC498" s="21"/>
-      <c r="AD498" t="s">
-        <v>874</v>
+    <row r="498" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="44" t="s">
+        <v>976</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D498" s="44" t="s">
+        <v>978</v>
+      </c>
+      <c r="F498" s="12">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="G498" s="49"/>
+      <c r="H498" s="50"/>
+      <c r="I498" s="50"/>
+      <c r="J498" s="50"/>
+      <c r="K498" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L498" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M498" s="49"/>
+      <c r="N498" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O498" s="49"/>
+      <c r="P498" s="49"/>
+      <c r="Q498" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R498" s="49"/>
+      <c r="S498" s="49"/>
+      <c r="T498" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U498" s="49"/>
+      <c r="V498" s="49"/>
+      <c r="W498" s="49"/>
+      <c r="X498" s="49"/>
+      <c r="Y498" s="49"/>
+      <c r="Z498" s="49"/>
+      <c r="AA498" s="49"/>
+      <c r="AB498" s="49"/>
+      <c r="AC498" s="49"/>
+      <c r="AD498" s="44" t="s">
+        <v>977</v>
       </c>
       <c r="AE498" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>823</v>
-      </c>
-      <c r="B499" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F499" s="12">
-        <v>3.9120370370370368E-3</v>
-      </c>
-      <c r="G499" s="14"/>
-      <c r="H499" s="14"/>
-      <c r="I499" s="14"/>
-      <c r="J499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M499" s="14"/>
-      <c r="N499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O499" s="14"/>
-      <c r="P499" s="14"/>
-      <c r="Q499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S499" s="14"/>
-      <c r="T499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U499" s="14"/>
-      <c r="V499" s="14"/>
-      <c r="W499" s="14"/>
-      <c r="X499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y499" s="14"/>
-      <c r="Z499" s="14"/>
-      <c r="AA499" s="14"/>
-      <c r="AB499" s="14"/>
-      <c r="AC499" s="14"/>
-      <c r="AD499" t="s">
-        <v>822</v>
+    <row r="499" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="16" t="s">
+        <v>960</v>
+      </c>
+      <c r="B499" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C499" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D499" s="16" t="s">
+        <v>962</v>
+      </c>
+      <c r="E499" s="16"/>
+      <c r="F499" s="19">
+        <v>2.5231481481481481E-3</v>
+      </c>
+      <c r="G499" s="21"/>
+      <c r="H499" s="20"/>
+      <c r="I499" s="20"/>
+      <c r="J499" s="20"/>
+      <c r="K499" s="20"/>
+      <c r="L499" s="20"/>
+      <c r="M499" s="21"/>
+      <c r="N499" s="20"/>
+      <c r="O499" s="21"/>
+      <c r="P499" s="21"/>
+      <c r="Q499" s="20"/>
+      <c r="R499" s="21"/>
+      <c r="S499" s="21"/>
+      <c r="T499" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U499" s="21"/>
+      <c r="V499" s="21"/>
+      <c r="W499" s="21"/>
+      <c r="X499" s="21"/>
+      <c r="Y499" s="21"/>
+      <c r="Z499" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA499" s="21"/>
+      <c r="AB499" s="21"/>
+      <c r="AC499" s="21"/>
+      <c r="AD499" s="44" t="s">
+        <v>961</v>
       </c>
       <c r="AE499" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="500" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A500" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="B500" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C500" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D500" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E500" s="16"/>
-      <c r="F500" s="19">
-        <v>3.2407407407407406E-3</v>
-      </c>
-      <c r="G500" s="21"/>
-      <c r="H500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I500" s="21"/>
-      <c r="J500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M500" s="21"/>
-      <c r="N500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O500" s="21"/>
-      <c r="P500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U500" s="21"/>
-      <c r="V500" s="21"/>
-      <c r="W500" s="21"/>
-      <c r="X500" s="20"/>
-      <c r="Y500" s="21"/>
-      <c r="Z500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB500" s="21"/>
-      <c r="AC500" s="21" t="s">
-        <v>933</v>
-      </c>
-      <c r="AD500" t="s">
-        <v>934</v>
-      </c>
-      <c r="AE500" t="s">
-        <v>935</v>
-      </c>
+      <c r="B500"/>
+      <c r="C500"/>
+      <c r="D500"/>
+    </row>
+    <row r="501" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B501" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C501" s="43"/>
+      <c r="D501" s="6"/>
     </row>
     <row r="502" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B502" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C502" s="43"/>
+      <c r="A502" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B502" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D502" s="6"/>
     </row>
     <row r="503" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B503" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C503" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D503" s="6"/>
-    </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A504" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B504" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C504" s="17"/>
-      <c r="D504" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E504" s="16"/>
-      <c r="F504" s="19">
-        <v>2.8009259259259259E-3</v>
-      </c>
-      <c r="G504" s="21"/>
-      <c r="H504" s="21"/>
-      <c r="I504" s="21"/>
-      <c r="J504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M504" s="21"/>
-      <c r="N504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O504" s="21"/>
-      <c r="P504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R504" s="21"/>
-      <c r="S504" s="21"/>
-      <c r="T504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U504" s="21"/>
-      <c r="V504" s="21"/>
-      <c r="W504" s="21"/>
-      <c r="X504" s="21"/>
-      <c r="Y504" s="21"/>
-      <c r="Z504" s="21"/>
-      <c r="AA504" s="21"/>
-      <c r="AB504" s="21"/>
-      <c r="AC504" s="21" t="s">
-        <v>855</v>
-      </c>
+      <c r="A503" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="B503" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C503" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D503" s="18"/>
+      <c r="E503" s="16"/>
+      <c r="F503" s="19">
+        <v>1.8865740740740742E-3</v>
+      </c>
+      <c r="G503" s="21"/>
+      <c r="H503" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I503" s="21"/>
+      <c r="J503" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K503" s="20"/>
+      <c r="L503" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M503" s="21"/>
+      <c r="N503" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O503" s="21"/>
+      <c r="P503" s="21"/>
+      <c r="Q503" s="20"/>
+      <c r="R503" s="20"/>
+      <c r="S503" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T503" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U503" s="21"/>
+      <c r="V503" s="21"/>
+      <c r="W503" s="21"/>
+      <c r="X503" s="20"/>
+      <c r="Y503" s="21"/>
+      <c r="Z503" s="21"/>
+      <c r="AA503" s="21"/>
+      <c r="AB503" s="21"/>
+      <c r="AC503" s="21"/>
+      <c r="AD503" t="s">
+        <v>888</v>
+      </c>
+      <c r="AE503" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="504" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>885</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D504" s="4"/>
+      <c r="E504"/>
+      <c r="F504" s="12">
+        <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="G504" s="14"/>
+      <c r="H504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M504" s="14"/>
+      <c r="N504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O504" s="14"/>
+      <c r="P504" s="14"/>
+      <c r="Q504" s="13"/>
+      <c r="R504" s="13"/>
+      <c r="S504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U504" s="14"/>
+      <c r="V504" s="14"/>
+      <c r="W504" s="14"/>
+      <c r="X504" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y504" s="14"/>
+      <c r="Z504" s="14"/>
+      <c r="AA504" s="14"/>
+      <c r="AB504" s="14"/>
+      <c r="AC504" s="14"/>
       <c r="AD504" t="s">
-        <v>824</v>
+        <v>886</v>
       </c>
       <c r="AE504" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>201</v>
-      </c>
-      <c r="B505" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D505" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F505" s="12">
-        <v>1.2037037037037038E-3</v>
-      </c>
-      <c r="G505" s="14"/>
-      <c r="H505" s="14"/>
-      <c r="I505" s="14"/>
-      <c r="J505" s="14"/>
-      <c r="K505" s="14"/>
-      <c r="L505" s="14"/>
-      <c r="M505" s="14"/>
-      <c r="N505" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O505" s="14"/>
-      <c r="P505" s="14"/>
-      <c r="Q505" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R505" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S505" s="14"/>
-      <c r="T505" s="14"/>
-      <c r="U505" s="14"/>
-      <c r="V505" s="14"/>
-      <c r="W505" s="14"/>
-      <c r="X505" s="14"/>
-      <c r="Y505" s="14"/>
-      <c r="Z505" s="14"/>
-      <c r="AA505" s="14"/>
-      <c r="AB505" s="14"/>
-      <c r="AC505" s="14"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="505" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B505" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C505" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D505" s="18"/>
+      <c r="E505" s="16"/>
+      <c r="F505" s="19">
+        <v>1.5046296296296294E-3</v>
+      </c>
+      <c r="G505" s="21"/>
+      <c r="H505" s="21"/>
+      <c r="I505" s="21"/>
+      <c r="J505" s="21"/>
+      <c r="K505" s="21"/>
+      <c r="L505" s="21"/>
+      <c r="M505" s="21"/>
+      <c r="N505" s="21"/>
+      <c r="O505" s="21"/>
+      <c r="P505" s="21"/>
+      <c r="Q505" s="21"/>
+      <c r="R505" s="21"/>
+      <c r="S505" s="21"/>
+      <c r="T505" s="21"/>
+      <c r="U505" s="21"/>
+      <c r="V505" s="21"/>
+      <c r="W505" s="21"/>
+      <c r="X505" s="21"/>
+      <c r="Y505" s="21"/>
+      <c r="Z505" s="21"/>
+      <c r="AA505" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB505" s="21"/>
+      <c r="AC505" s="21"/>
       <c r="AD505" t="s">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="AE505" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A506" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B506" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C506" s="17"/>
-      <c r="D506" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E506" s="16"/>
-      <c r="F506" s="19">
-        <v>2.5231481481481481E-3</v>
-      </c>
-      <c r="G506" s="21"/>
-      <c r="H506" s="21"/>
-      <c r="I506" s="21"/>
-      <c r="J506" s="21"/>
-      <c r="K506" s="21"/>
-      <c r="L506" s="21"/>
-      <c r="M506" s="21"/>
-      <c r="N506" s="21"/>
-      <c r="O506" s="21"/>
-      <c r="P506" s="21"/>
-      <c r="Q506" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R506" s="21"/>
-      <c r="S506" s="21"/>
-      <c r="T506" s="21"/>
-      <c r="U506" s="21"/>
-      <c r="V506" s="21"/>
-      <c r="W506" s="21"/>
-      <c r="X506" s="21"/>
-      <c r="Y506" s="21"/>
-      <c r="Z506" s="21"/>
-      <c r="AA506" s="21"/>
-      <c r="AB506" s="21"/>
-      <c r="AC506" s="21" t="s">
+    <row r="506" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>756</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D506" s="4"/>
+      <c r="E506"/>
+      <c r="F506" s="12">
+        <v>7.6736111111111111E-3</v>
+      </c>
+      <c r="G506" s="14"/>
+      <c r="H506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I506" s="14"/>
+      <c r="J506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M506" s="14"/>
+      <c r="N506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R506" s="14"/>
+      <c r="S506" s="14"/>
+      <c r="T506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U506" s="14"/>
+      <c r="V506" s="14"/>
+      <c r="W506" s="14"/>
+      <c r="X506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y506" s="14"/>
+      <c r="Z506" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA506" s="14"/>
+      <c r="AB506" s="14"/>
+      <c r="AC506" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD506" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE506" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A507" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="B507" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D507" s="18"/>
+      <c r="E507" s="16"/>
+      <c r="F507" s="19">
+        <v>1.9444444444444442E-3</v>
+      </c>
+      <c r="G507" s="21"/>
+      <c r="H507" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I507" s="21"/>
+      <c r="J507" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K507" s="20"/>
+      <c r="L507" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M507" s="21"/>
+      <c r="N507" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O507" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P507" s="21"/>
+      <c r="Q507" s="20"/>
+      <c r="R507" s="20"/>
+      <c r="S507" s="21"/>
+      <c r="T507" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U507" s="21"/>
+      <c r="V507" s="21"/>
+      <c r="W507" s="21"/>
+      <c r="X507" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y507" s="21"/>
+      <c r="Z507" s="21"/>
+      <c r="AA507" s="21"/>
+      <c r="AB507" s="21"/>
+      <c r="AC507" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD507" t="s">
+        <v>884</v>
+      </c>
+      <c r="AE507" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="508" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>881</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F508" s="12">
+        <v>1.7708333333333332E-3</v>
+      </c>
+      <c r="G508" s="14"/>
+      <c r="H508" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I508" s="14"/>
+      <c r="J508" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K508" s="13"/>
+      <c r="L508" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M508" s="14"/>
+      <c r="N508" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O508" s="14"/>
+      <c r="P508" s="14"/>
+      <c r="Q508" s="13"/>
+      <c r="R508" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S508" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T508" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U508" s="14"/>
+      <c r="V508" s="14"/>
+      <c r="W508" s="14"/>
+      <c r="X508" s="13"/>
+      <c r="Y508" s="14"/>
+      <c r="Z508" s="14"/>
+      <c r="AA508" s="14"/>
+      <c r="AB508" s="14"/>
+      <c r="AC508" s="14"/>
+      <c r="AD508" t="s">
+        <v>882</v>
+      </c>
+      <c r="AE508" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="509" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A509" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B509" s="31"/>
+      <c r="C509" s="17"/>
+      <c r="D509" s="22"/>
+      <c r="E509" s="26"/>
+      <c r="F509" s="19">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="G509" s="23"/>
+      <c r="H509" s="23"/>
+      <c r="I509" s="23"/>
+      <c r="J509" s="23"/>
+      <c r="K509" s="23"/>
+      <c r="L509" s="23"/>
+      <c r="M509" s="23"/>
+      <c r="N509" s="23"/>
+      <c r="O509" s="23"/>
+      <c r="P509" s="23"/>
+      <c r="Q509" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R509" s="23"/>
+      <c r="S509" s="23"/>
+      <c r="T509" s="23"/>
+      <c r="U509" s="23"/>
+      <c r="V509" s="23"/>
+      <c r="W509" s="23"/>
+      <c r="X509" s="23"/>
+      <c r="Y509" s="23"/>
+      <c r="Z509" s="23"/>
+      <c r="AA509" s="23"/>
+      <c r="AB509" s="23"/>
+      <c r="AC509" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="AD506" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE506" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
-        <v>203</v>
-      </c>
-      <c r="B507" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D507" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F507" s="12">
-        <v>5.9027777777777778E-4</v>
-      </c>
-      <c r="G507" s="14"/>
-      <c r="H507" s="14"/>
-      <c r="I507" s="14"/>
-      <c r="J507" s="14"/>
-      <c r="K507" s="14"/>
-      <c r="L507" s="14"/>
-      <c r="M507" s="14"/>
-      <c r="N507" s="14"/>
-      <c r="O507" s="14"/>
-      <c r="P507" s="14"/>
-      <c r="Q507" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R507" s="14"/>
-      <c r="S507" s="14"/>
-      <c r="T507" s="14"/>
-      <c r="U507" s="14"/>
-      <c r="V507" s="14"/>
-      <c r="W507" s="14"/>
-      <c r="X507" s="14"/>
-      <c r="Y507" s="14"/>
-      <c r="Z507" s="14"/>
-      <c r="AA507" s="14"/>
-      <c r="AB507" s="14"/>
-      <c r="AC507" s="14" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD507" t="s">
-        <v>827</v>
-      </c>
-      <c r="AE507" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="509" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B509" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C509" s="43"/>
-      <c r="D509" s="6"/>
-    </row>
-    <row r="510" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B510" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C510" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D510" s="6"/>
+      <c r="AD509" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE509" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="510" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>432</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F510" s="12">
+        <v>3.695601851851852E-2</v>
+      </c>
+      <c r="G510" s="14"/>
+      <c r="H510" s="14"/>
+      <c r="I510" s="14"/>
+      <c r="J510" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K510" s="14"/>
+      <c r="L510" s="14"/>
+      <c r="M510" s="14"/>
+      <c r="N510" s="14"/>
+      <c r="O510" s="14"/>
+      <c r="P510" s="14"/>
+      <c r="Q510" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R510" s="14"/>
+      <c r="S510" s="14"/>
+      <c r="T510" s="14"/>
+      <c r="U510" s="14"/>
+      <c r="V510" s="14"/>
+      <c r="W510" s="14"/>
+      <c r="X510" s="14"/>
+      <c r="Y510" s="14"/>
+      <c r="Z510" s="14"/>
+      <c r="AA510" s="14"/>
+      <c r="AB510" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC510" s="14"/>
+      <c r="AD510" t="s">
+        <v>817</v>
+      </c>
+      <c r="AE510" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="511" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A511" s="16" t="s">
-        <v>63</v>
+        <v>879</v>
       </c>
       <c r="B511" s="17" t="s">
         <v>4</v>
@@ -25439,26 +25577,20 @@
       <c r="C511" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D511" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="D511" s="18"/>
       <c r="E511" s="16"/>
       <c r="F511" s="19">
-        <v>4.5138888888888893E-3</v>
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I511" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="I511" s="21"/>
       <c r="J511" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="K511" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="K511" s="20"/>
       <c r="L511" s="20" t="s">
         <v>416</v>
       </c>
@@ -25466,15 +25598,9 @@
       <c r="N511" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="O511" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P511" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q511" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="O511" s="21"/>
+      <c r="P511" s="21"/>
+      <c r="Q511" s="20"/>
       <c r="R511" s="20" t="s">
         <v>416</v>
       </c>
@@ -25484,14 +25610,10 @@
       <c r="T511" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="U511" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="U511" s="21"/>
       <c r="V511" s="21"/>
-      <c r="W511" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X511" s="21"/>
+      <c r="W511" s="21"/>
+      <c r="X511" s="20"/>
       <c r="Y511" s="21"/>
       <c r="Z511" s="21"/>
       <c r="AA511" s="21"/>
@@ -25500,67 +25622,54 @@
       </c>
       <c r="AC511" s="21"/>
       <c r="AD511" t="s">
-        <v>828</v>
+        <v>880</v>
       </c>
       <c r="AE511" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="512" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>831</v>
+        <v>497</v>
       </c>
       <c r="B512" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C512" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F512" s="12">
-        <v>4.3287037037037035E-3</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="G512" s="14"/>
-      <c r="H512" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I512" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="H512" s="14"/>
+      <c r="I512" s="14"/>
       <c r="J512" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="K512" s="14"/>
+      <c r="K512" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="L512" s="14"/>
       <c r="M512" s="14"/>
-      <c r="N512" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="N512" s="14"/>
       <c r="O512" s="14"/>
       <c r="P512" s="14"/>
-      <c r="Q512" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R512" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q512" s="14"/>
+      <c r="R512" s="14"/>
       <c r="S512" s="14"/>
-      <c r="T512" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U512" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="T512" s="14"/>
+      <c r="U512" s="14"/>
       <c r="V512" s="14"/>
-      <c r="W512" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="W512" s="14"/>
       <c r="X512" s="14"/>
       <c r="Y512" s="14"/>
       <c r="Z512" s="14"/>
       <c r="AA512" s="14"/>
       <c r="AB512" s="14"/>
-      <c r="AC512" s="14" t="s">
-        <v>447</v>
-      </c>
+      <c r="AC512" s="14"/>
       <c r="AD512" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="AE512" t="s">
         <v>470</v>
@@ -25568,66 +25677,72 @@
     </row>
     <row r="513" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A513" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B513" s="17" t="s">
-        <v>4</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B513" s="31"/>
       <c r="C513" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D513" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E513" s="16"/>
+      <c r="D513" s="22"/>
+      <c r="E513" s="26"/>
       <c r="F513" s="19">
-        <v>1.4699074074074074E-3</v>
-      </c>
-      <c r="G513" s="21"/>
-      <c r="H513" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I513" s="21"/>
+        <v>3.8078703703703707E-3</v>
+      </c>
+      <c r="G513" s="23"/>
+      <c r="H513" s="23"/>
+      <c r="I513" s="23"/>
       <c r="J513" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="K513" s="21"/>
+      <c r="K513" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="L513" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="M513" s="21"/>
+      <c r="M513" s="23"/>
       <c r="N513" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="O513" s="21"/>
-      <c r="P513" s="21"/>
+      <c r="O513" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P513" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="Q513" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="R513" s="21"/>
-      <c r="S513" s="21"/>
+      <c r="R513" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S513" s="23"/>
       <c r="T513" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="U513" s="21"/>
-      <c r="V513" s="21"/>
-      <c r="W513" s="21"/>
-      <c r="X513" s="21"/>
-      <c r="Y513" s="21"/>
-      <c r="Z513" s="21"/>
-      <c r="AA513" s="21"/>
-      <c r="AB513" s="21"/>
-      <c r="AC513" s="21"/>
+      <c r="U513" s="23"/>
+      <c r="V513" s="23"/>
+      <c r="W513" s="23"/>
+      <c r="X513" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y513" s="23"/>
+      <c r="Z513" s="23"/>
+      <c r="AA513" s="23"/>
+      <c r="AB513" s="23"/>
+      <c r="AC513" s="21" t="s">
+        <v>441</v>
+      </c>
       <c r="AD513" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="AE513" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="514" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>9</v>
+        <v>853</v>
       </c>
       <c r="B514" s="5" t="s">
         <v>4</v>
@@ -25638,870 +25753,1260 @@
       <c r="D514" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E514" s="1"/>
       <c r="F514" s="12">
+        <v>2.4768518518518516E-3</v>
+      </c>
+      <c r="G514" s="25"/>
+      <c r="H514" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I514" s="25"/>
+      <c r="J514" s="25"/>
+      <c r="K514" s="25"/>
+      <c r="L514" s="25"/>
+      <c r="M514" s="25"/>
+      <c r="N514" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O514" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P514" s="25"/>
+      <c r="Q514" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R514" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S514" s="25"/>
+      <c r="T514" s="25"/>
+      <c r="U514" s="25"/>
+      <c r="V514" s="25"/>
+      <c r="W514" s="25"/>
+      <c r="X514" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y514" s="25"/>
+      <c r="Z514" s="25"/>
+      <c r="AA514" s="25"/>
+      <c r="AB514" s="25"/>
+      <c r="AC514" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD514" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE514" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="515" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A515" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B515" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C515" s="17"/>
+      <c r="D515" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E515" s="26"/>
+      <c r="F515" s="19">
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="G515" s="23"/>
+      <c r="H515" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I515" s="23"/>
+      <c r="J515" s="23"/>
+      <c r="K515" s="23"/>
+      <c r="L515" s="23"/>
+      <c r="M515" s="23"/>
+      <c r="N515" s="23"/>
+      <c r="O515" s="23"/>
+      <c r="P515" s="23"/>
+      <c r="Q515" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R515" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S515" s="23"/>
+      <c r="T515" s="23"/>
+      <c r="U515" s="23"/>
+      <c r="V515" s="23"/>
+      <c r="W515" s="23"/>
+      <c r="X515" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y515" s="23"/>
+      <c r="Z515" s="23"/>
+      <c r="AA515" s="23"/>
+      <c r="AB515" s="23"/>
+      <c r="AC515" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD515" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE515" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="516" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>434</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F516" s="12">
+        <v>1.8981481481481482E-3</v>
+      </c>
+      <c r="G516" s="14"/>
+      <c r="H516" s="14"/>
+      <c r="I516" s="14"/>
+      <c r="J516" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K516" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L516" s="14"/>
+      <c r="M516" s="14"/>
+      <c r="N516" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O516" s="14"/>
+      <c r="P516" s="14"/>
+      <c r="Q516" s="14"/>
+      <c r="R516" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S516" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T516" s="14"/>
+      <c r="U516" s="14"/>
+      <c r="V516" s="14"/>
+      <c r="W516" s="14"/>
+      <c r="X516" s="14"/>
+      <c r="Y516" s="14"/>
+      <c r="Z516" s="14"/>
+      <c r="AA516" s="14"/>
+      <c r="AB516" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC516" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD516" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE516" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="517" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A517" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="B517" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C517" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D517" s="18"/>
+      <c r="E517" s="16"/>
+      <c r="F517" s="19">
+        <v>3.4027777777777784E-3</v>
+      </c>
+      <c r="G517" s="21"/>
+      <c r="H517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M517" s="21"/>
+      <c r="N517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O517" s="21"/>
+      <c r="P517" s="21"/>
+      <c r="Q517" s="21"/>
+      <c r="R517" s="21"/>
+      <c r="S517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U517" s="21"/>
+      <c r="V517" s="21"/>
+      <c r="W517" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X517" s="21"/>
+      <c r="Y517" s="21"/>
+      <c r="Z517" s="21"/>
+      <c r="AA517" s="21"/>
+      <c r="AB517" s="21"/>
+      <c r="AC517" s="21"/>
+      <c r="AD517" t="s">
+        <v>810</v>
+      </c>
+      <c r="AE517" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="518" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>140</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F518" s="12">
+        <v>1.1122685185185185E-2</v>
+      </c>
+      <c r="G518" s="14"/>
+      <c r="H518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P518" s="14"/>
+      <c r="Q518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T518" s="14"/>
+      <c r="U518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V518" s="14"/>
+      <c r="W518" s="14"/>
+      <c r="X518" s="14"/>
+      <c r="Y518" s="14"/>
+      <c r="Z518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA518" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB518" s="14"/>
+      <c r="AC518" s="14"/>
+      <c r="AD518" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE518" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="519" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A519" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="B519" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C519" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D519" s="18"/>
+      <c r="E519" s="16"/>
+      <c r="F519" s="19">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="G519" s="21"/>
+      <c r="H519" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I519" s="21"/>
+      <c r="J519" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K519" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L519" s="20"/>
+      <c r="M519" s="21"/>
+      <c r="N519" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O519" s="21"/>
+      <c r="P519" s="21"/>
+      <c r="Q519" s="20"/>
+      <c r="R519" s="20"/>
+      <c r="S519" s="21"/>
+      <c r="T519" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U519" s="21"/>
+      <c r="V519" s="21"/>
+      <c r="W519" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X519" s="20"/>
+      <c r="Y519" s="21"/>
+      <c r="Z519" s="21"/>
+      <c r="AA519" s="21"/>
+      <c r="AB519" s="21"/>
+      <c r="AC519" s="21"/>
+      <c r="AD519" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE519" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="520" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>876</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F520" s="12">
+        <v>2.5578703703703705E-3</v>
+      </c>
+      <c r="G520" s="14"/>
+      <c r="H520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I520" s="14"/>
+      <c r="J520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M520" s="14"/>
+      <c r="N520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O520" s="14"/>
+      <c r="P520" s="14"/>
+      <c r="Q520" s="13"/>
+      <c r="R520" s="13"/>
+      <c r="S520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U520" s="14"/>
+      <c r="V520" s="14"/>
+      <c r="W520" s="14"/>
+      <c r="X520" s="13"/>
+      <c r="Y520" s="14"/>
+      <c r="Z520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA520" s="14"/>
+      <c r="AB520" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC520" s="14"/>
+      <c r="AD520" t="s">
+        <v>875</v>
+      </c>
+      <c r="AE520" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="521" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A521" s="16" t="s">
+        <v>873</v>
+      </c>
+      <c r="B521" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C521" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D521" s="18"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="19">
+        <v>1.8865740740740742E-3</v>
+      </c>
+      <c r="G521" s="21"/>
+      <c r="H521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L521" s="20"/>
+      <c r="M521" s="21"/>
+      <c r="N521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P521" s="21"/>
+      <c r="Q521" s="20"/>
+      <c r="R521" s="20"/>
+      <c r="S521" s="21"/>
+      <c r="T521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U521" s="21"/>
+      <c r="V521" s="21"/>
+      <c r="W521" s="21"/>
+      <c r="X521" s="20"/>
+      <c r="Y521" s="21"/>
+      <c r="Z521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA521" s="21"/>
+      <c r="AB521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC521" s="21"/>
+      <c r="AD521" t="s">
+        <v>874</v>
+      </c>
+      <c r="AE521" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="522" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>823</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F522" s="12">
+        <v>3.9120370370370368E-3</v>
+      </c>
+      <c r="G522" s="14"/>
+      <c r="H522" s="14"/>
+      <c r="I522" s="14"/>
+      <c r="J522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M522" s="14"/>
+      <c r="N522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O522" s="14"/>
+      <c r="P522" s="14"/>
+      <c r="Q522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S522" s="14"/>
+      <c r="T522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U522" s="14"/>
+      <c r="V522" s="14"/>
+      <c r="W522" s="14"/>
+      <c r="X522" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y522" s="14"/>
+      <c r="Z522" s="14"/>
+      <c r="AA522" s="14"/>
+      <c r="AB522" s="14"/>
+      <c r="AC522" s="14"/>
+      <c r="AD522" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE522" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="523" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A523" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="B523" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C523" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D523" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E523" s="16"/>
+      <c r="F523" s="19">
+        <v>3.2407407407407406E-3</v>
+      </c>
+      <c r="G523" s="21"/>
+      <c r="H523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I523" s="21"/>
+      <c r="J523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M523" s="21"/>
+      <c r="N523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O523" s="21"/>
+      <c r="P523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U523" s="21"/>
+      <c r="V523" s="21"/>
+      <c r="W523" s="21"/>
+      <c r="X523" s="20"/>
+      <c r="Y523" s="21"/>
+      <c r="Z523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA523" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB523" s="21"/>
+      <c r="AC523" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="AD523" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE523" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="525" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B525" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C525" s="43"/>
+      <c r="D525" s="6"/>
+    </row>
+    <row r="526" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D526" s="6"/>
+    </row>
+    <row r="527" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A527" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B527" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C527" s="17"/>
+      <c r="D527" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E527" s="16"/>
+      <c r="F527" s="19">
+        <v>2.8009259259259259E-3</v>
+      </c>
+      <c r="G527" s="21"/>
+      <c r="H527" s="21"/>
+      <c r="I527" s="21"/>
+      <c r="J527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M527" s="21"/>
+      <c r="N527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O527" s="21"/>
+      <c r="P527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R527" s="21"/>
+      <c r="S527" s="21"/>
+      <c r="T527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U527" s="21"/>
+      <c r="V527" s="21"/>
+      <c r="W527" s="21"/>
+      <c r="X527" s="21"/>
+      <c r="Y527" s="21"/>
+      <c r="Z527" s="21"/>
+      <c r="AA527" s="21"/>
+      <c r="AB527" s="21"/>
+      <c r="AC527" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD527" t="s">
+        <v>824</v>
+      </c>
+      <c r="AE527" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="528" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>201</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F528" s="12">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="G528" s="14"/>
+      <c r="H528" s="14"/>
+      <c r="I528" s="14"/>
+      <c r="J528" s="14"/>
+      <c r="K528" s="14"/>
+      <c r="L528" s="14"/>
+      <c r="M528" s="14"/>
+      <c r="N528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O528" s="14"/>
+      <c r="P528" s="14"/>
+      <c r="Q528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S528" s="14"/>
+      <c r="T528" s="14"/>
+      <c r="U528" s="14"/>
+      <c r="V528" s="14"/>
+      <c r="W528" s="14"/>
+      <c r="X528" s="14"/>
+      <c r="Y528" s="14"/>
+      <c r="Z528" s="14"/>
+      <c r="AA528" s="14"/>
+      <c r="AB528" s="14"/>
+      <c r="AC528" s="14"/>
+      <c r="AD528" t="s">
+        <v>825</v>
+      </c>
+      <c r="AE528" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="529" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A529" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B529" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C529" s="17"/>
+      <c r="D529" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E529" s="16"/>
+      <c r="F529" s="19">
+        <v>2.5231481481481481E-3</v>
+      </c>
+      <c r="G529" s="21"/>
+      <c r="H529" s="21"/>
+      <c r="I529" s="21"/>
+      <c r="J529" s="21"/>
+      <c r="K529" s="21"/>
+      <c r="L529" s="21"/>
+      <c r="M529" s="21"/>
+      <c r="N529" s="21"/>
+      <c r="O529" s="21"/>
+      <c r="P529" s="21"/>
+      <c r="Q529" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R529" s="21"/>
+      <c r="S529" s="21"/>
+      <c r="T529" s="21"/>
+      <c r="U529" s="21"/>
+      <c r="V529" s="21"/>
+      <c r="W529" s="21"/>
+      <c r="X529" s="21"/>
+      <c r="Y529" s="21"/>
+      <c r="Z529" s="21"/>
+      <c r="AA529" s="21"/>
+      <c r="AB529" s="21"/>
+      <c r="AC529" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AD529" t="s">
+        <v>826</v>
+      </c>
+      <c r="AE529" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="530" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>203</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F530" s="12">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="G530" s="14"/>
+      <c r="H530" s="14"/>
+      <c r="I530" s="14"/>
+      <c r="J530" s="14"/>
+      <c r="K530" s="14"/>
+      <c r="L530" s="14"/>
+      <c r="M530" s="14"/>
+      <c r="N530" s="14"/>
+      <c r="O530" s="14"/>
+      <c r="P530" s="14"/>
+      <c r="Q530" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R530" s="14"/>
+      <c r="S530" s="14"/>
+      <c r="T530" s="14"/>
+      <c r="U530" s="14"/>
+      <c r="V530" s="14"/>
+      <c r="W530" s="14"/>
+      <c r="X530" s="14"/>
+      <c r="Y530" s="14"/>
+      <c r="Z530" s="14"/>
+      <c r="AA530" s="14"/>
+      <c r="AB530" s="14"/>
+      <c r="AC530" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD530" t="s">
+        <v>827</v>
+      </c>
+      <c r="AE530" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="532" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B532" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C532" s="43"/>
+      <c r="D532" s="6"/>
+    </row>
+    <row r="533" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D533" s="6"/>
+    </row>
+    <row r="534" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A534" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B534" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C534" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D534" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E534" s="16"/>
+      <c r="F534" s="19">
+        <v>4.5138888888888893E-3</v>
+      </c>
+      <c r="G534" s="21"/>
+      <c r="H534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M534" s="21"/>
+      <c r="N534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="V534" s="21"/>
+      <c r="W534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X534" s="21"/>
+      <c r="Y534" s="21"/>
+      <c r="Z534" s="21"/>
+      <c r="AA534" s="21"/>
+      <c r="AB534" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC534" s="21"/>
+      <c r="AD534" t="s">
+        <v>828</v>
+      </c>
+      <c r="AE534" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="535" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>831</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F535" s="12">
+        <v>4.3287037037037035E-3</v>
+      </c>
+      <c r="G535" s="14"/>
+      <c r="H535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K535" s="14"/>
+      <c r="L535" s="14"/>
+      <c r="M535" s="14"/>
+      <c r="N535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O535" s="14"/>
+      <c r="P535" s="14"/>
+      <c r="Q535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S535" s="14"/>
+      <c r="T535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V535" s="14"/>
+      <c r="W535" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="X535" s="14"/>
+      <c r="Y535" s="14"/>
+      <c r="Z535" s="14"/>
+      <c r="AA535" s="14"/>
+      <c r="AB535" s="14"/>
+      <c r="AC535" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD535" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE535" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="536" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A536" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B536" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C536" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D536" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E536" s="16"/>
+      <c r="F536" s="19">
+        <v>1.4699074074074074E-3</v>
+      </c>
+      <c r="G536" s="21"/>
+      <c r="H536" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I536" s="21"/>
+      <c r="J536" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K536" s="21"/>
+      <c r="L536" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M536" s="21"/>
+      <c r="N536" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O536" s="21"/>
+      <c r="P536" s="21"/>
+      <c r="Q536" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R536" s="21"/>
+      <c r="S536" s="21"/>
+      <c r="T536" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U536" s="21"/>
+      <c r="V536" s="21"/>
+      <c r="W536" s="21"/>
+      <c r="X536" s="21"/>
+      <c r="Y536" s="21"/>
+      <c r="Z536" s="21"/>
+      <c r="AA536" s="21"/>
+      <c r="AB536" s="21"/>
+      <c r="AC536" s="21"/>
+      <c r="AD536" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE536" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="537" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>9</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C537" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F537" s="12">
         <v>1.8634259259259261E-3</v>
       </c>
-      <c r="G514" s="14"/>
-      <c r="H514" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I514" s="14"/>
-      <c r="J514" s="14"/>
-      <c r="K514" s="14"/>
-      <c r="L514" s="14"/>
-      <c r="M514" s="14"/>
-      <c r="N514" s="14"/>
-      <c r="O514" s="14"/>
-      <c r="P514" s="14"/>
-      <c r="Q514" s="14"/>
-      <c r="R514" s="14"/>
-      <c r="S514" s="14"/>
-      <c r="T514" s="14"/>
-      <c r="U514" s="14"/>
-      <c r="V514" s="14"/>
-      <c r="W514" s="14"/>
-      <c r="X514" s="14"/>
-      <c r="Y514" s="14"/>
-      <c r="Z514" s="14"/>
-      <c r="AA514" s="14"/>
-      <c r="AB514" s="14"/>
-      <c r="AC514" s="14"/>
-      <c r="AD514" t="s">
+      <c r="G537" s="14"/>
+      <c r="H537" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I537" s="14"/>
+      <c r="J537" s="14"/>
+      <c r="K537" s="14"/>
+      <c r="L537" s="14"/>
+      <c r="M537" s="14"/>
+      <c r="N537" s="14"/>
+      <c r="O537" s="14"/>
+      <c r="P537" s="14"/>
+      <c r="Q537" s="14"/>
+      <c r="R537" s="14"/>
+      <c r="S537" s="14"/>
+      <c r="T537" s="14"/>
+      <c r="U537" s="14"/>
+      <c r="V537" s="14"/>
+      <c r="W537" s="14"/>
+      <c r="X537" s="14"/>
+      <c r="Y537" s="14"/>
+      <c r="Z537" s="14"/>
+      <c r="AA537" s="14"/>
+      <c r="AB537" s="14"/>
+      <c r="AC537" s="14"/>
+      <c r="AD537" t="s">
         <v>830</v>
       </c>
-      <c r="AE514" t="s">
+      <c r="AE537" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="516" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="3" t="s">
+    <row r="539" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B516" s="43" t="s">
+      <c r="B539" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C516" s="43"/>
-      <c r="D516" s="6"/>
-    </row>
-    <row r="517" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
+      <c r="C539" s="43"/>
+      <c r="D539" s="6"/>
+    </row>
+    <row r="540" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B517" s="7" t="s">
+      <c r="B540" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C517" s="7" t="s">
+      <c r="C540" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D517" s="6"/>
-    </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A518" s="16" t="s">
+      <c r="D540" s="6"/>
+    </row>
+    <row r="541" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A541" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B518" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C518" s="17"/>
-      <c r="D518" s="18" t="s">
+      <c r="B541" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C541" s="17"/>
+      <c r="D541" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E518" s="16"/>
-      <c r="F518" s="19">
+      <c r="E541" s="16"/>
+      <c r="F541" s="19">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="G518" s="21"/>
-      <c r="H518" s="21"/>
-      <c r="I518" s="21"/>
-      <c r="J518" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K518" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L518" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M518" s="21"/>
-      <c r="N518" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O518" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P518" s="21"/>
-      <c r="Q518" s="21"/>
-      <c r="R518" s="21"/>
-      <c r="S518" s="21"/>
-      <c r="T518" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U518" s="21"/>
-      <c r="V518" s="21"/>
-      <c r="W518" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X518" s="21"/>
-      <c r="Y518" s="21"/>
-      <c r="Z518" s="21"/>
-      <c r="AA518" s="21"/>
-      <c r="AB518" s="21"/>
-      <c r="AC518" s="21" t="s">
+      <c r="G541" s="21"/>
+      <c r="H541" s="21"/>
+      <c r="I541" s="21"/>
+      <c r="J541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M541" s="21"/>
+      <c r="N541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P541" s="21"/>
+      <c r="Q541" s="21"/>
+      <c r="R541" s="21"/>
+      <c r="S541" s="21"/>
+      <c r="T541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U541" s="21"/>
+      <c r="V541" s="21"/>
+      <c r="W541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X541" s="21"/>
+      <c r="Y541" s="21"/>
+      <c r="Z541" s="21"/>
+      <c r="AA541" s="21"/>
+      <c r="AB541" s="21"/>
+      <c r="AC541" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="AD518" t="s">
+      <c r="AD541" t="s">
         <v>834</v>
       </c>
-      <c r="AE518" t="s">
+      <c r="AE541" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
+    <row r="542" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
         <v>833</v>
       </c>
-      <c r="B519" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C519" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D519" s="4" t="s">
+      <c r="B542" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D542" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F519" s="12">
+      <c r="F542" s="12">
         <v>4.5023148148148149E-3</v>
       </c>
-      <c r="G519" s="14"/>
-      <c r="H519" s="14"/>
-      <c r="I519" s="14"/>
-      <c r="J519" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K519" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L519" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M519" s="14"/>
-      <c r="N519" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O519" s="14"/>
-      <c r="P519" s="14"/>
-      <c r="Q519" s="14"/>
-      <c r="R519" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S519" s="14"/>
-      <c r="T519" s="14"/>
-      <c r="U519" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V519" s="14"/>
-      <c r="W519" s="14"/>
-      <c r="X519" s="14"/>
-      <c r="Y519" s="14"/>
-      <c r="Z519" s="14"/>
-      <c r="AA519" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB519" s="14"/>
-      <c r="AC519" s="14" t="s">
+      <c r="G542" s="14"/>
+      <c r="H542" s="14"/>
+      <c r="I542" s="14"/>
+      <c r="J542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M542" s="14"/>
+      <c r="N542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O542" s="14"/>
+      <c r="P542" s="14"/>
+      <c r="Q542" s="14"/>
+      <c r="R542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S542" s="14"/>
+      <c r="T542" s="14"/>
+      <c r="U542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V542" s="14"/>
+      <c r="W542" s="14"/>
+      <c r="X542" s="14"/>
+      <c r="Y542" s="14"/>
+      <c r="Z542" s="14"/>
+      <c r="AA542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB542" s="14"/>
+      <c r="AC542" s="14" t="s">
         <v>858</v>
       </c>
-      <c r="AD519" t="s">
+      <c r="AD542" t="s">
         <v>832</v>
       </c>
-      <c r="AE519" t="s">
+      <c r="AE542" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A520" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B520" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C520" s="17"/>
-      <c r="D520" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E520" s="16"/>
-      <c r="F520" s="19">
-        <v>1.7245370370370372E-3</v>
-      </c>
-      <c r="G520" s="21"/>
-      <c r="H520" s="21"/>
-      <c r="I520" s="21"/>
-      <c r="J520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M520" s="21"/>
-      <c r="N520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P520" s="21"/>
-      <c r="Q520" s="21"/>
-      <c r="R520" s="21"/>
-      <c r="S520" s="21"/>
-      <c r="T520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U520" s="21"/>
-      <c r="V520" s="21"/>
-      <c r="W520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X520" s="21"/>
-      <c r="Y520" s="21"/>
-      <c r="Z520" s="21"/>
-      <c r="AA520" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB520" s="21"/>
-      <c r="AC520" s="21" t="s">
-        <v>858</v>
-      </c>
-      <c r="AD520" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE520" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="522" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B522" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C522" s="43"/>
-      <c r="D522" s="6"/>
-    </row>
-    <row r="523" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B523" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C523" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D523" s="6"/>
-    </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A524" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B524" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C524" s="17"/>
-      <c r="D524" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E524" s="16" t="s">
-        <v>859</v>
-      </c>
-      <c r="F524" s="19">
-        <v>1.6087962962962963E-3</v>
-      </c>
-      <c r="G524" s="21"/>
-      <c r="H524" s="21"/>
-      <c r="I524" s="21"/>
-      <c r="J524" s="21"/>
-      <c r="K524" s="21"/>
-      <c r="L524" s="21"/>
-      <c r="M524" s="21"/>
-      <c r="N524" s="21"/>
-      <c r="O524" s="21"/>
-      <c r="P524" s="21"/>
-      <c r="Q524" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R524" s="21"/>
-      <c r="S524" s="21"/>
-      <c r="T524" s="21"/>
-      <c r="U524" s="21"/>
-      <c r="V524" s="21"/>
-      <c r="W524" s="21"/>
-      <c r="X524" s="21"/>
-      <c r="Y524" s="21"/>
-      <c r="Z524" s="21"/>
-      <c r="AA524" s="21"/>
-      <c r="AB524" s="21"/>
-      <c r="AC524" s="21"/>
-      <c r="AD524" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE524" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
-        <v>150</v>
-      </c>
-      <c r="B525" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D525" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E525" t="s">
-        <v>859</v>
-      </c>
-      <c r="F525" s="12">
-        <v>1.712962962962963E-3</v>
-      </c>
-      <c r="G525" s="14"/>
-      <c r="H525" s="14"/>
-      <c r="I525" s="14"/>
-      <c r="J525" s="14"/>
-      <c r="K525" s="14"/>
-      <c r="L525" s="14"/>
-      <c r="M525" s="14"/>
-      <c r="N525" s="14"/>
-      <c r="O525" s="14"/>
-      <c r="P525" s="14"/>
-      <c r="Q525" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R525" s="14"/>
-      <c r="S525" s="14"/>
-      <c r="T525" s="14"/>
-      <c r="U525" s="14"/>
-      <c r="V525" s="14"/>
-      <c r="W525" s="14"/>
-      <c r="X525" s="14"/>
-      <c r="Y525" s="14"/>
-      <c r="Z525" s="14"/>
-      <c r="AA525" s="14"/>
-      <c r="AB525" s="14"/>
-      <c r="AC525" s="14"/>
-      <c r="AD525" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE525" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A526" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B526" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C526" s="17"/>
-      <c r="D526" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E526" s="16" t="s">
-        <v>859</v>
-      </c>
-      <c r="F526" s="19">
-        <v>1.5046296296296294E-3</v>
-      </c>
-      <c r="G526" s="21"/>
-      <c r="H526" s="21"/>
-      <c r="I526" s="21"/>
-      <c r="J526" s="21"/>
-      <c r="K526" s="21"/>
-      <c r="L526" s="21"/>
-      <c r="M526" s="21"/>
-      <c r="N526" s="21"/>
-      <c r="O526" s="21"/>
-      <c r="P526" s="21"/>
-      <c r="Q526" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R526" s="21"/>
-      <c r="S526" s="21"/>
-      <c r="T526" s="21"/>
-      <c r="U526" s="21"/>
-      <c r="V526" s="21"/>
-      <c r="W526" s="21"/>
-      <c r="X526" s="21"/>
-      <c r="Y526" s="21"/>
-      <c r="Z526" s="21"/>
-      <c r="AA526" s="21"/>
-      <c r="AB526" s="21"/>
-      <c r="AC526" s="21"/>
-      <c r="AD526" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE526" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A527" t="s">
-        <v>153</v>
-      </c>
-      <c r="B527" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D527" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E527" t="s">
-        <v>859</v>
-      </c>
-      <c r="F527" s="12">
-        <v>2.0023148148148148E-3</v>
-      </c>
-      <c r="G527" s="14"/>
-      <c r="H527" s="14"/>
-      <c r="I527" s="14"/>
-      <c r="J527" s="14"/>
-      <c r="K527" s="14"/>
-      <c r="L527" s="14"/>
-      <c r="M527" s="14"/>
-      <c r="N527" s="14"/>
-      <c r="O527" s="14"/>
-      <c r="P527" s="14"/>
-      <c r="Q527" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R527" s="14"/>
-      <c r="S527" s="14"/>
-      <c r="T527" s="14"/>
-      <c r="U527" s="14"/>
-      <c r="V527" s="14"/>
-      <c r="W527" s="14"/>
-      <c r="X527" s="14"/>
-      <c r="Y527" s="14"/>
-      <c r="Z527" s="14"/>
-      <c r="AA527" s="14"/>
-      <c r="AB527" s="14"/>
-      <c r="AC527" s="14"/>
-      <c r="AD527" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE527" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="529" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B529" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C529" s="43"/>
-      <c r="D529" s="6"/>
-    </row>
-    <row r="530" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B530" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D530" s="6"/>
-    </row>
-    <row r="531" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A531" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B531" s="17"/>
-      <c r="C531" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D531" s="18"/>
-      <c r="E531" s="16"/>
-      <c r="F531" s="19">
-        <v>4.2881944444444438E-2</v>
-      </c>
-      <c r="G531" s="21"/>
-      <c r="H531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K531" s="21"/>
-      <c r="L531" s="21"/>
-      <c r="M531" s="21"/>
-      <c r="N531" s="21"/>
-      <c r="O531" s="21"/>
-      <c r="P531" s="21"/>
-      <c r="Q531" s="21"/>
-      <c r="R531" s="21"/>
-      <c r="S531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="V531" s="21"/>
-      <c r="W531" s="21"/>
-      <c r="X531" s="21"/>
-      <c r="Y531" s="21"/>
-      <c r="Z531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB531" s="21"/>
-      <c r="AC531" s="21"/>
-      <c r="AD531" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE531" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="532" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
-        <v>143</v>
-      </c>
-      <c r="B532" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E532" t="s">
-        <v>859</v>
-      </c>
-      <c r="F532" s="12">
-        <v>5.37037037037037E-3</v>
-      </c>
-      <c r="G532" s="14"/>
-      <c r="H532" s="14"/>
-      <c r="I532" s="14"/>
-      <c r="J532" s="14"/>
-      <c r="K532" s="14"/>
-      <c r="L532" s="14"/>
-      <c r="M532" s="14"/>
-      <c r="N532" s="14"/>
-      <c r="O532" s="14"/>
-      <c r="P532" s="14"/>
-      <c r="Q532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R532" s="14"/>
-      <c r="S532" s="14"/>
-      <c r="T532" s="14"/>
-      <c r="U532" s="14"/>
-      <c r="V532" s="14"/>
-      <c r="W532" s="14"/>
-      <c r="X532" s="14"/>
-      <c r="Y532" s="14"/>
-      <c r="Z532" s="14"/>
-      <c r="AA532" s="14"/>
-      <c r="AB532" s="14"/>
-      <c r="AC532" s="14"/>
-      <c r="AD532" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE532" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="533" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A533" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="B533" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C533" s="17"/>
-      <c r="D533" s="18"/>
-      <c r="E533" s="16"/>
-      <c r="F533" s="19">
-        <v>1.4548611111111111E-2</v>
-      </c>
-      <c r="G533" s="21"/>
-      <c r="H533" s="21"/>
-      <c r="I533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M533" s="21"/>
-      <c r="N533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U533" s="21"/>
-      <c r="V533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="W533" s="21"/>
-      <c r="X533" s="21"/>
-      <c r="Y533" s="21"/>
-      <c r="Z533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA533" s="21"/>
-      <c r="AB533" s="21"/>
-      <c r="AC533" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD533" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE533" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="534" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="44" t="s">
-        <v>940</v>
-      </c>
-      <c r="B534" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C534" s="45"/>
-      <c r="D534" s="46" t="s">
-        <v>941</v>
-      </c>
-      <c r="F534" s="12">
-        <v>1.300925925925926E-2</v>
-      </c>
-      <c r="G534" s="14"/>
-      <c r="H534" s="14"/>
-      <c r="I534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="N534" s="14"/>
-      <c r="O534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P534" s="14"/>
-      <c r="Q534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R534" s="14"/>
-      <c r="S534" s="14"/>
-      <c r="T534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V534" s="14"/>
-      <c r="W534" s="14"/>
-      <c r="X534" s="14"/>
-      <c r="Y534" s="14"/>
-      <c r="Z534" s="14"/>
-      <c r="AA534" s="14"/>
-      <c r="AB534" s="14"/>
-      <c r="AC534" s="14"/>
-      <c r="AD534" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE534" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="536" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B536" s="8"/>
-      <c r="C536" s="8"/>
-      <c r="D536" s="6"/>
-    </row>
-    <row r="537" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B537" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C537" s="7"/>
-      <c r="D537" s="6"/>
-    </row>
-    <row r="538" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A538" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B538" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C538" s="17"/>
-      <c r="D538" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E538" s="16"/>
-      <c r="F538" s="21"/>
-      <c r="G538" s="21"/>
-      <c r="H538" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I538" s="21"/>
-      <c r="J538" s="21"/>
-      <c r="K538" s="21"/>
-      <c r="L538" s="21"/>
-      <c r="M538" s="21"/>
-      <c r="N538" s="21"/>
-      <c r="O538" s="21"/>
-      <c r="P538" s="21"/>
-      <c r="Q538" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R538" s="21"/>
-      <c r="S538" s="21"/>
-      <c r="T538" s="21"/>
-      <c r="U538" s="21"/>
-      <c r="V538" s="21"/>
-      <c r="W538" s="21"/>
-      <c r="X538" s="21"/>
-      <c r="Y538" s="21"/>
-      <c r="Z538" s="21"/>
-      <c r="AA538" s="21"/>
-      <c r="AB538" s="21"/>
-      <c r="AC538" s="21"/>
-      <c r="AD538" t="s">
-        <v>849</v>
-      </c>
-      <c r="AE538" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="539" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
-        <v>322</v>
-      </c>
-      <c r="B539" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D539" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F539" s="12">
-        <v>1.0266203703703703E-2</v>
-      </c>
-      <c r="G539" s="14"/>
-      <c r="H539" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I539" s="14"/>
-      <c r="J539" s="13"/>
-      <c r="K539" s="13"/>
-      <c r="L539" s="14"/>
-      <c r="M539" s="14"/>
-      <c r="N539" s="14"/>
-      <c r="O539" s="14"/>
-      <c r="P539" s="14"/>
-      <c r="Q539" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R539" s="14"/>
-      <c r="S539" s="14"/>
-      <c r="T539" s="14"/>
-      <c r="U539" s="14"/>
-      <c r="V539" s="14"/>
-      <c r="W539" s="14"/>
-      <c r="X539" s="14"/>
-      <c r="Y539" s="14"/>
-      <c r="Z539" s="14"/>
-      <c r="AA539" s="14"/>
-      <c r="AB539" s="14"/>
-      <c r="AC539" s="14"/>
-      <c r="AD539" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE539" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="541" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A541" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B541" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C541" s="43"/>
-    </row>
-    <row r="542" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A542" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B542" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C542" s="7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A543" s="16" t="s">
-        <v>835</v>
+        <v>144</v>
       </c>
       <c r="B543" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C543" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D543" s="18"/>
+      <c r="C543" s="17"/>
+      <c r="D543" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E543" s="16"/>
       <c r="F543" s="19">
-        <v>5.1736111111111115E-3</v>
+        <v>1.7245370370370372E-3</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="21"/>
@@ -26522,12 +27027,8 @@
       <c r="O543" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="P543" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q543" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="P543" s="21"/>
+      <c r="Q543" s="21"/>
       <c r="R543" s="21"/>
       <c r="S543" s="21"/>
       <c r="T543" s="20" t="s">
@@ -26535,132 +27036,814 @@
       </c>
       <c r="U543" s="21"/>
       <c r="V543" s="21"/>
-      <c r="W543" s="21"/>
+      <c r="W543" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="X543" s="21"/>
       <c r="Y543" s="21"/>
       <c r="Z543" s="21"/>
-      <c r="AA543" s="21"/>
+      <c r="AA543" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="AB543" s="21"/>
-      <c r="AC543" s="21"/>
+      <c r="AC543" s="21" t="s">
+        <v>858</v>
+      </c>
       <c r="AD543" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE543" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="545" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B545" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C545" s="43"/>
+      <c r="D545" s="6"/>
+    </row>
+    <row r="546" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C546" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D546" s="6"/>
+    </row>
+    <row r="547" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A547" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B547" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C547" s="17"/>
+      <c r="D547" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E547" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="F547" s="19">
+        <v>1.6087962962962963E-3</v>
+      </c>
+      <c r="G547" s="21"/>
+      <c r="H547" s="21"/>
+      <c r="I547" s="21"/>
+      <c r="J547" s="21"/>
+      <c r="K547" s="21"/>
+      <c r="L547" s="21"/>
+      <c r="M547" s="21"/>
+      <c r="N547" s="21"/>
+      <c r="O547" s="21"/>
+      <c r="P547" s="21"/>
+      <c r="Q547" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R547" s="21"/>
+      <c r="S547" s="21"/>
+      <c r="T547" s="21"/>
+      <c r="U547" s="21"/>
+      <c r="V547" s="21"/>
+      <c r="W547" s="21"/>
+      <c r="X547" s="21"/>
+      <c r="Y547" s="21"/>
+      <c r="Z547" s="21"/>
+      <c r="AA547" s="21"/>
+      <c r="AB547" s="21"/>
+      <c r="AC547" s="21"/>
+      <c r="AD547" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE547" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="548" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>150</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E548" t="s">
+        <v>859</v>
+      </c>
+      <c r="F548" s="12">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="G548" s="14"/>
+      <c r="H548" s="14"/>
+      <c r="I548" s="14"/>
+      <c r="J548" s="14"/>
+      <c r="K548" s="14"/>
+      <c r="L548" s="14"/>
+      <c r="M548" s="14"/>
+      <c r="N548" s="14"/>
+      <c r="O548" s="14"/>
+      <c r="P548" s="14"/>
+      <c r="Q548" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R548" s="14"/>
+      <c r="S548" s="14"/>
+      <c r="T548" s="14"/>
+      <c r="U548" s="14"/>
+      <c r="V548" s="14"/>
+      <c r="W548" s="14"/>
+      <c r="X548" s="14"/>
+      <c r="Y548" s="14"/>
+      <c r="Z548" s="14"/>
+      <c r="AA548" s="14"/>
+      <c r="AB548" s="14"/>
+      <c r="AC548" s="14"/>
+      <c r="AD548" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE548" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="549" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A549" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B549" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C549" s="17"/>
+      <c r="D549" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E549" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="F549" s="19">
+        <v>1.5046296296296294E-3</v>
+      </c>
+      <c r="G549" s="21"/>
+      <c r="H549" s="21"/>
+      <c r="I549" s="21"/>
+      <c r="J549" s="21"/>
+      <c r="K549" s="21"/>
+      <c r="L549" s="21"/>
+      <c r="M549" s="21"/>
+      <c r="N549" s="21"/>
+      <c r="O549" s="21"/>
+      <c r="P549" s="21"/>
+      <c r="Q549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R549" s="21"/>
+      <c r="S549" s="21"/>
+      <c r="T549" s="21"/>
+      <c r="U549" s="21"/>
+      <c r="V549" s="21"/>
+      <c r="W549" s="21"/>
+      <c r="X549" s="21"/>
+      <c r="Y549" s="21"/>
+      <c r="Z549" s="21"/>
+      <c r="AA549" s="21"/>
+      <c r="AB549" s="21"/>
+      <c r="AC549" s="21"/>
+      <c r="AD549" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE549" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="550" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>153</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E550" t="s">
+        <v>859</v>
+      </c>
+      <c r="F550" s="12">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="G550" s="14"/>
+      <c r="H550" s="14"/>
+      <c r="I550" s="14"/>
+      <c r="J550" s="14"/>
+      <c r="K550" s="14"/>
+      <c r="L550" s="14"/>
+      <c r="M550" s="14"/>
+      <c r="N550" s="14"/>
+      <c r="O550" s="14"/>
+      <c r="P550" s="14"/>
+      <c r="Q550" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R550" s="14"/>
+      <c r="S550" s="14"/>
+      <c r="T550" s="14"/>
+      <c r="U550" s="14"/>
+      <c r="V550" s="14"/>
+      <c r="W550" s="14"/>
+      <c r="X550" s="14"/>
+      <c r="Y550" s="14"/>
+      <c r="Z550" s="14"/>
+      <c r="AA550" s="14"/>
+      <c r="AB550" s="14"/>
+      <c r="AC550" s="14"/>
+      <c r="AD550" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE550" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="552" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B552" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C552" s="43"/>
+      <c r="D552" s="6"/>
+    </row>
+    <row r="553" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D553" s="6"/>
+    </row>
+    <row r="554" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A554" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B554" s="17"/>
+      <c r="C554" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D554" s="18"/>
+      <c r="E554" s="16"/>
+      <c r="F554" s="19">
+        <v>4.2881944444444438E-2</v>
+      </c>
+      <c r="G554" s="21"/>
+      <c r="H554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K554" s="21"/>
+      <c r="L554" s="21"/>
+      <c r="M554" s="21"/>
+      <c r="N554" s="21"/>
+      <c r="O554" s="21"/>
+      <c r="P554" s="21"/>
+      <c r="Q554" s="21"/>
+      <c r="R554" s="21"/>
+      <c r="S554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="V554" s="21"/>
+      <c r="W554" s="21"/>
+      <c r="X554" s="21"/>
+      <c r="Y554" s="21"/>
+      <c r="Z554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB554" s="21"/>
+      <c r="AC554" s="21"/>
+      <c r="AD554" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE554" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="555" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>143</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E555" t="s">
+        <v>859</v>
+      </c>
+      <c r="F555" s="12">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="G555" s="14"/>
+      <c r="H555" s="14"/>
+      <c r="I555" s="14"/>
+      <c r="J555" s="14"/>
+      <c r="K555" s="14"/>
+      <c r="L555" s="14"/>
+      <c r="M555" s="14"/>
+      <c r="N555" s="14"/>
+      <c r="O555" s="14"/>
+      <c r="P555" s="14"/>
+      <c r="Q555" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R555" s="14"/>
+      <c r="S555" s="14"/>
+      <c r="T555" s="14"/>
+      <c r="U555" s="14"/>
+      <c r="V555" s="14"/>
+      <c r="W555" s="14"/>
+      <c r="X555" s="14"/>
+      <c r="Y555" s="14"/>
+      <c r="Z555" s="14"/>
+      <c r="AA555" s="14"/>
+      <c r="AB555" s="14"/>
+      <c r="AC555" s="14"/>
+      <c r="AD555" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE555" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="556" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A556" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B556" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C556" s="17"/>
+      <c r="D556" s="18"/>
+      <c r="E556" s="16"/>
+      <c r="F556" s="19">
+        <v>1.4548611111111111E-2</v>
+      </c>
+      <c r="G556" s="21"/>
+      <c r="H556" s="21"/>
+      <c r="I556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M556" s="21"/>
+      <c r="N556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U556" s="21"/>
+      <c r="V556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="W556" s="21"/>
+      <c r="X556" s="21"/>
+      <c r="Y556" s="21"/>
+      <c r="Z556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA556" s="21"/>
+      <c r="AB556" s="21"/>
+      <c r="AC556" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD556" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE556" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="557" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>940</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="F557" s="12">
+        <v>1.300925925925926E-2</v>
+      </c>
+      <c r="G557" s="14"/>
+      <c r="H557" s="14"/>
+      <c r="I557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N557" s="14"/>
+      <c r="O557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P557" s="14"/>
+      <c r="Q557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R557" s="14"/>
+      <c r="S557" s="14"/>
+      <c r="T557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V557" s="14"/>
+      <c r="W557" s="14"/>
+      <c r="X557" s="14"/>
+      <c r="Y557" s="14"/>
+      <c r="Z557" s="14"/>
+      <c r="AA557" s="14"/>
+      <c r="AB557" s="14"/>
+      <c r="AC557" s="14"/>
+      <c r="AD557" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE557" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="559" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B559" s="8"/>
+      <c r="C559" s="8"/>
+      <c r="D559" s="6"/>
+    </row>
+    <row r="560" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B560" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C560" s="7"/>
+      <c r="D560" s="6"/>
+    </row>
+    <row r="561" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A561" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B561" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C561" s="17"/>
+      <c r="D561" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E561" s="16"/>
+      <c r="F561" s="21"/>
+      <c r="G561" s="21"/>
+      <c r="H561" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I561" s="21"/>
+      <c r="J561" s="21"/>
+      <c r="K561" s="21"/>
+      <c r="L561" s="21"/>
+      <c r="M561" s="21"/>
+      <c r="N561" s="21"/>
+      <c r="O561" s="21"/>
+      <c r="P561" s="21"/>
+      <c r="Q561" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R561" s="21"/>
+      <c r="S561" s="21"/>
+      <c r="T561" s="21"/>
+      <c r="U561" s="21"/>
+      <c r="V561" s="21"/>
+      <c r="W561" s="21"/>
+      <c r="X561" s="21"/>
+      <c r="Y561" s="21"/>
+      <c r="Z561" s="21"/>
+      <c r="AA561" s="21"/>
+      <c r="AB561" s="21"/>
+      <c r="AC561" s="21"/>
+      <c r="AD561" t="s">
+        <v>849</v>
+      </c>
+      <c r="AE561" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="562" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>322</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D562" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F562" s="12">
+        <v>1.0266203703703703E-2</v>
+      </c>
+      <c r="G562" s="14"/>
+      <c r="H562" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I562" s="14"/>
+      <c r="J562" s="13"/>
+      <c r="K562" s="13"/>
+      <c r="L562" s="14"/>
+      <c r="M562" s="14"/>
+      <c r="N562" s="14"/>
+      <c r="O562" s="14"/>
+      <c r="P562" s="14"/>
+      <c r="Q562" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R562" s="14"/>
+      <c r="S562" s="14"/>
+      <c r="T562" s="14"/>
+      <c r="U562" s="14"/>
+      <c r="V562" s="14"/>
+      <c r="W562" s="14"/>
+      <c r="X562" s="14"/>
+      <c r="Y562" s="14"/>
+      <c r="Z562" s="14"/>
+      <c r="AA562" s="14"/>
+      <c r="AB562" s="14"/>
+      <c r="AC562" s="14"/>
+      <c r="AD562" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE562" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="564" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A564" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B564" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C564" s="43"/>
+    </row>
+    <row r="565" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A566" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="B566" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C566" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D566" s="18"/>
+      <c r="E566" s="16"/>
+      <c r="F566" s="19">
+        <v>5.1736111111111115E-3</v>
+      </c>
+      <c r="G566" s="21"/>
+      <c r="H566" s="21"/>
+      <c r="I566" s="21"/>
+      <c r="J566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M566" s="21"/>
+      <c r="N566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R566" s="21"/>
+      <c r="S566" s="21"/>
+      <c r="T566" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U566" s="21"/>
+      <c r="V566" s="21"/>
+      <c r="W566" s="21"/>
+      <c r="X566" s="21"/>
+      <c r="Y566" s="21"/>
+      <c r="Z566" s="21"/>
+      <c r="AA566" s="21"/>
+      <c r="AB566" s="21"/>
+      <c r="AC566" s="21"/>
+      <c r="AD566" t="s">
         <v>836</v>
       </c>
-      <c r="AE543" t="s">
+      <c r="AE566" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="544" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
+    <row r="567" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
         <v>837</v>
       </c>
-      <c r="B544" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C544" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F544" s="12">
+      <c r="B567" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F567" s="12">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="G544" s="14"/>
-      <c r="H544" s="14"/>
-      <c r="I544" s="14"/>
-      <c r="J544" s="14"/>
-      <c r="K544" s="14"/>
-      <c r="L544" s="14"/>
-      <c r="M544" s="14"/>
-      <c r="N544" s="14"/>
-      <c r="O544" s="14"/>
-      <c r="P544" s="14"/>
-      <c r="Q544" s="14"/>
-      <c r="R544" s="14"/>
-      <c r="S544" s="14"/>
-      <c r="T544" s="14"/>
-      <c r="U544" s="14"/>
-      <c r="V544" s="14"/>
-      <c r="W544" s="14"/>
-      <c r="X544" s="14"/>
-      <c r="Y544" s="14"/>
-      <c r="Z544" s="14"/>
-      <c r="AA544" s="14"/>
-      <c r="AB544" s="14"/>
-      <c r="AC544" s="14"/>
-      <c r="AD544" t="s">
+      <c r="G567" s="14"/>
+      <c r="H567" s="14"/>
+      <c r="I567" s="14"/>
+      <c r="J567" s="14"/>
+      <c r="K567" s="14"/>
+      <c r="L567" s="14"/>
+      <c r="M567" s="14"/>
+      <c r="N567" s="14"/>
+      <c r="O567" s="14"/>
+      <c r="P567" s="14"/>
+      <c r="Q567" s="14"/>
+      <c r="R567" s="14"/>
+      <c r="S567" s="14"/>
+      <c r="T567" s="14"/>
+      <c r="U567" s="14"/>
+      <c r="V567" s="14"/>
+      <c r="W567" s="14"/>
+      <c r="X567" s="14"/>
+      <c r="Y567" s="14"/>
+      <c r="Z567" s="14"/>
+      <c r="AA567" s="14"/>
+      <c r="AB567" s="14"/>
+      <c r="AC567" s="14"/>
+      <c r="AD567" t="s">
         <v>838</v>
       </c>
-      <c r="AE544" t="s">
+      <c r="AE567" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="545" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A545" s="16" t="s">
+    <row r="568" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A568" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="B545" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C545" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D545" s="16" t="s">
+      <c r="B568" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D568" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="E545" s="16"/>
-      <c r="F545" s="19">
+      <c r="E568" s="16"/>
+      <c r="F568" s="19">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="G545" s="21"/>
-      <c r="H545" s="20"/>
-      <c r="I545" s="20"/>
-      <c r="J545" s="20"/>
-      <c r="K545" s="20"/>
-      <c r="L545" s="20"/>
-      <c r="M545" s="21"/>
-      <c r="N545" s="20"/>
-      <c r="O545" s="21"/>
-      <c r="P545" s="21"/>
-      <c r="Q545" s="20"/>
-      <c r="R545" s="21"/>
-      <c r="S545" s="21"/>
-      <c r="T545" s="20"/>
-      <c r="U545" s="21"/>
-      <c r="V545" s="21"/>
-      <c r="W545" s="21"/>
-      <c r="X545" s="21"/>
-      <c r="Y545" s="21"/>
-      <c r="Z545" s="21"/>
-      <c r="AA545" s="21"/>
-      <c r="AB545" s="21"/>
-      <c r="AC545" s="21"/>
-      <c r="AD545" t="s">
+      <c r="G568" s="21"/>
+      <c r="H568" s="20"/>
+      <c r="I568" s="20"/>
+      <c r="J568" s="20"/>
+      <c r="K568" s="20"/>
+      <c r="L568" s="20"/>
+      <c r="M568" s="21"/>
+      <c r="N568" s="20"/>
+      <c r="O568" s="21"/>
+      <c r="P568" s="21"/>
+      <c r="Q568" s="20"/>
+      <c r="R568" s="21"/>
+      <c r="S568" s="21"/>
+      <c r="T568" s="20"/>
+      <c r="U568" s="21"/>
+      <c r="V568" s="21"/>
+      <c r="W568" s="21"/>
+      <c r="X568" s="21"/>
+      <c r="Y568" s="21"/>
+      <c r="Z568" s="21"/>
+      <c r="AA568" s="21"/>
+      <c r="AB568" s="21"/>
+      <c r="AC568" s="21"/>
+      <c r="AD568" t="s">
         <v>939</v>
       </c>
-      <c r="AE545" t="s">
+      <c r="AE568" t="s">
         <v>539</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A480:AE499">
-    <sortCondition ref="A480:A499"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A493:AE499">
+    <sortCondition ref="A493:A499"/>
   </sortState>
-  <mergeCells count="49">
-    <mergeCell ref="B429:C429"/>
-    <mergeCell ref="B541:C541"/>
-    <mergeCell ref="B437:C437"/>
-    <mergeCell ref="B502:C502"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="B516:C516"/>
-    <mergeCell ref="B522:C522"/>
-    <mergeCell ref="B529:C529"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="B470:C470"/>
+  <mergeCells count="52">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B214:C214"/>
     <mergeCell ref="B226:C226"/>
     <mergeCell ref="B231:C231"/>
     <mergeCell ref="B238:C238"/>
     <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="B501:C501"/>
     <mergeCell ref="B259:C259"/>
     <mergeCell ref="B274:C274"/>
     <mergeCell ref="B285:C285"/>
@@ -26672,27 +27855,21 @@
     <mergeCell ref="B392:C392"/>
     <mergeCell ref="B424:C424"/>
     <mergeCell ref="B433:C433"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B429:C429"/>
+    <mergeCell ref="B564:C564"/>
+    <mergeCell ref="B437:C437"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B532:C532"/>
+    <mergeCell ref="B539:C539"/>
+    <mergeCell ref="B545:C545"/>
+    <mergeCell ref="B552:C552"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="B470:C470"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="B482:C482"/>
+    <mergeCell ref="B491:C491"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/outreach_videos/IODP-JR_movie_log.xlsx
+++ b/outreach_videos/IODP-JR_movie_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\R_Studio\IODP-general\big_and_Shiny\19_outreach_videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\EducationOutreach\1_JRSO-OutreachPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC9FE29-F231-4A74-8F80-4665DA0EEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA754DC5-A23F-428A-9093-9685EA3EDA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4275" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4374" uniqueCount="986">
   <si>
     <t>Filename</t>
   </si>
@@ -2974,6 +2974,27 @@
   </si>
   <si>
     <t>Beth Doyle and Michelle Pratt</t>
+  </si>
+  <si>
+    <t>APC - Break Quick Connect</t>
+  </si>
+  <si>
+    <t>They are breaking the quick connect to remove the piston rod assembly from the APC core barrel with the barrel under pressure. The mud is causing a backfire, with the pressure blowing the rods in the air</t>
+  </si>
+  <si>
+    <t>About ODP (CanadaProduction) 1985</t>
+  </si>
+  <si>
+    <t>Out to Sea 2003</t>
+  </si>
+  <si>
+    <t>A Planet in Motion 1996</t>
+  </si>
+  <si>
+    <t>FFF; VIT</t>
+  </si>
+  <si>
+    <t>Windows to the Past 1993</t>
   </si>
 </sst>
 </file>
@@ -3505,15 +3526,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4147,13 +4170,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE568"/>
+  <dimension ref="A1:AE573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D488" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D539" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A501" sqref="A501"/>
+      <selection pane="bottomRight" activeCell="A554" sqref="A554:AC562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -24036,35 +24059,19 @@
         <v>539</v>
       </c>
     </row>
-    <row r="477" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B477" s="45"/>
-      <c r="C477" s="45"/>
-      <c r="F477" s="46"/>
-      <c r="G477" s="47"/>
-      <c r="H477" s="48"/>
-      <c r="I477" s="48"/>
-      <c r="J477" s="48"/>
-      <c r="K477" s="48"/>
-      <c r="L477" s="48"/>
-      <c r="M477" s="47"/>
-      <c r="N477" s="48"/>
-      <c r="O477" s="47"/>
-      <c r="P477" s="47"/>
-      <c r="Q477" s="48"/>
-      <c r="R477" s="47"/>
-      <c r="S477" s="47"/>
-      <c r="T477" s="48"/>
-      <c r="U477" s="47"/>
-      <c r="V477" s="47"/>
-      <c r="W477" s="47"/>
-      <c r="X477" s="47"/>
-      <c r="Y477" s="47"/>
-      <c r="Z477" s="47"/>
-      <c r="AA477" s="47"/>
-      <c r="AB477" s="47"/>
-      <c r="AC477" s="47"/>
-    </row>
-    <row r="478" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D477"/>
+      <c r="F477" s="11"/>
+      <c r="H477" s="5"/>
+      <c r="I477" s="5"/>
+      <c r="J477" s="5"/>
+      <c r="K477" s="5"/>
+      <c r="L477" s="5"/>
+      <c r="N477" s="5"/>
+      <c r="Q477" s="5"/>
+      <c r="T477" s="5"/>
+    </row>
+    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>942</v>
       </c>
@@ -24072,32 +24079,18 @@
         <v>135</v>
       </c>
       <c r="C478" s="43"/>
-      <c r="F478" s="46"/>
-      <c r="G478" s="47"/>
-      <c r="H478" s="48"/>
-      <c r="I478" s="48"/>
-      <c r="J478" s="48"/>
-      <c r="K478" s="48"/>
-      <c r="L478" s="48"/>
-      <c r="M478" s="47"/>
-      <c r="N478" s="48"/>
-      <c r="O478" s="47"/>
-      <c r="P478" s="47"/>
-      <c r="Q478" s="48"/>
-      <c r="R478" s="47"/>
-      <c r="S478" s="47"/>
-      <c r="T478" s="48"/>
-      <c r="U478" s="47"/>
-      <c r="V478" s="47"/>
-      <c r="W478" s="47"/>
-      <c r="X478" s="47"/>
-      <c r="Y478" s="47"/>
-      <c r="Z478" s="47"/>
-      <c r="AA478" s="47"/>
-      <c r="AB478" s="47"/>
-      <c r="AC478" s="47"/>
-    </row>
-    <row r="479" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D478"/>
+      <c r="F478" s="11"/>
+      <c r="H478" s="5"/>
+      <c r="I478" s="5"/>
+      <c r="J478" s="5"/>
+      <c r="K478" s="5"/>
+      <c r="L478" s="5"/>
+      <c r="N478" s="5"/>
+      <c r="Q478" s="5"/>
+      <c r="T478" s="5"/>
+    </row>
+    <row r="479" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>0</v>
       </c>
@@ -24107,32 +24100,18 @@
       <c r="C479" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F479" s="46"/>
-      <c r="G479" s="47"/>
-      <c r="H479" s="48"/>
-      <c r="I479" s="48"/>
-      <c r="J479" s="48"/>
-      <c r="K479" s="48"/>
-      <c r="L479" s="48"/>
-      <c r="M479" s="47"/>
-      <c r="N479" s="48"/>
-      <c r="O479" s="47"/>
-      <c r="P479" s="47"/>
-      <c r="Q479" s="48"/>
-      <c r="R479" s="47"/>
-      <c r="S479" s="47"/>
-      <c r="T479" s="48"/>
-      <c r="U479" s="47"/>
-      <c r="V479" s="47"/>
-      <c r="W479" s="47"/>
-      <c r="X479" s="47"/>
-      <c r="Y479" s="47"/>
-      <c r="Z479" s="47"/>
-      <c r="AA479" s="47"/>
-      <c r="AB479" s="47"/>
-      <c r="AC479" s="47"/>
-    </row>
-    <row r="480" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D479"/>
+      <c r="F479" s="11"/>
+      <c r="H479" s="5"/>
+      <c r="I479" s="5"/>
+      <c r="J479" s="5"/>
+      <c r="K479" s="5"/>
+      <c r="L479" s="5"/>
+      <c r="N479" s="5"/>
+      <c r="Q479" s="5"/>
+      <c r="T479" s="5"/>
+    </row>
+    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A480" s="16" t="s">
         <v>943</v>
       </c>
@@ -24176,42 +24155,26 @@
       <c r="AA480" s="21"/>
       <c r="AB480" s="21"/>
       <c r="AC480" s="21"/>
-      <c r="AD480" s="44" t="s">
+      <c r="AD480" t="s">
         <v>944</v>
       </c>
       <c r="AE480" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="481" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B481" s="45"/>
-      <c r="C481" s="45"/>
-      <c r="F481" s="46"/>
-      <c r="G481" s="47"/>
-      <c r="H481" s="48"/>
-      <c r="I481" s="48"/>
-      <c r="J481" s="48"/>
-      <c r="K481" s="48"/>
-      <c r="L481" s="48"/>
-      <c r="M481" s="47"/>
-      <c r="N481" s="48"/>
-      <c r="O481" s="47"/>
-      <c r="P481" s="47"/>
-      <c r="Q481" s="48"/>
-      <c r="R481" s="47"/>
-      <c r="S481" s="47"/>
-      <c r="T481" s="48"/>
-      <c r="U481" s="47"/>
-      <c r="V481" s="47"/>
-      <c r="W481" s="47"/>
-      <c r="X481" s="47"/>
-      <c r="Y481" s="47"/>
-      <c r="Z481" s="47"/>
-      <c r="AA481" s="47"/>
-      <c r="AB481" s="47"/>
-      <c r="AC481" s="47"/>
-    </row>
-    <row r="482" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D481"/>
+      <c r="F481" s="11"/>
+      <c r="H481" s="5"/>
+      <c r="I481" s="5"/>
+      <c r="J481" s="5"/>
+      <c r="K481" s="5"/>
+      <c r="L481" s="5"/>
+      <c r="N481" s="5"/>
+      <c r="Q481" s="5"/>
+      <c r="T481" s="5"/>
+    </row>
+    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>945</v>
       </c>
@@ -24219,32 +24182,18 @@
         <v>135</v>
       </c>
       <c r="C482" s="43"/>
-      <c r="F482" s="46"/>
-      <c r="G482" s="47"/>
-      <c r="H482" s="48"/>
-      <c r="I482" s="48"/>
-      <c r="J482" s="48"/>
-      <c r="K482" s="48"/>
-      <c r="L482" s="48"/>
-      <c r="M482" s="47"/>
-      <c r="N482" s="48"/>
-      <c r="O482" s="47"/>
-      <c r="P482" s="47"/>
-      <c r="Q482" s="48"/>
-      <c r="R482" s="47"/>
-      <c r="S482" s="47"/>
-      <c r="T482" s="48"/>
-      <c r="U482" s="47"/>
-      <c r="V482" s="47"/>
-      <c r="W482" s="47"/>
-      <c r="X482" s="47"/>
-      <c r="Y482" s="47"/>
-      <c r="Z482" s="47"/>
-      <c r="AA482" s="47"/>
-      <c r="AB482" s="47"/>
-      <c r="AC482" s="47"/>
-    </row>
-    <row r="483" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D482"/>
+      <c r="F482" s="11"/>
+      <c r="H482" s="5"/>
+      <c r="I482" s="5"/>
+      <c r="J482" s="5"/>
+      <c r="K482" s="5"/>
+      <c r="L482" s="5"/>
+      <c r="N482" s="5"/>
+      <c r="Q482" s="5"/>
+      <c r="T482" s="5"/>
+    </row>
+    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>0</v>
       </c>
@@ -24254,32 +24203,18 @@
       <c r="C483" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F483" s="46"/>
-      <c r="G483" s="47"/>
-      <c r="H483" s="48"/>
-      <c r="I483" s="48"/>
-      <c r="J483" s="48"/>
-      <c r="K483" s="48"/>
-      <c r="L483" s="48"/>
-      <c r="M483" s="47"/>
-      <c r="N483" s="48"/>
-      <c r="O483" s="47"/>
-      <c r="P483" s="47"/>
-      <c r="Q483" s="48"/>
-      <c r="R483" s="47"/>
-      <c r="S483" s="47"/>
-      <c r="T483" s="48"/>
-      <c r="U483" s="47"/>
-      <c r="V483" s="47"/>
-      <c r="W483" s="47"/>
-      <c r="X483" s="47"/>
-      <c r="Y483" s="47"/>
-      <c r="Z483" s="47"/>
-      <c r="AA483" s="47"/>
-      <c r="AB483" s="47"/>
-      <c r="AC483" s="47"/>
-    </row>
-    <row r="484" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D483"/>
+      <c r="F483" s="11"/>
+      <c r="H483" s="5"/>
+      <c r="I483" s="5"/>
+      <c r="J483" s="5"/>
+      <c r="K483" s="5"/>
+      <c r="L483" s="5"/>
+      <c r="N483" s="5"/>
+      <c r="Q483" s="5"/>
+      <c r="T483" s="5"/>
+    </row>
+    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A484" s="16" t="s">
         <v>946</v>
       </c>
@@ -24319,15 +24254,15 @@
       <c r="AA484" s="21"/>
       <c r="AB484" s="21"/>
       <c r="AC484" s="21"/>
-      <c r="AD484" s="44" t="s">
+      <c r="AD484" t="s">
         <v>947</v>
       </c>
       <c r="AE484" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="485" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="44" t="s">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>948</v>
       </c>
       <c r="B485" s="5" t="s">
@@ -24336,47 +24271,47 @@
       <c r="C485" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D485" s="44" t="s">
+      <c r="D485" t="s">
         <v>956</v>
       </c>
       <c r="F485" s="12">
         <v>3.4375E-3</v>
       </c>
-      <c r="G485" s="49"/>
-      <c r="H485" s="50"/>
-      <c r="I485" s="50"/>
+      <c r="G485" s="14"/>
+      <c r="H485" s="13"/>
+      <c r="I485" s="13"/>
       <c r="J485" s="13" t="s">
         <v>416</v>
       </c>
       <c r="K485" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="L485" s="50"/>
-      <c r="M485" s="49"/>
-      <c r="N485" s="50"/>
-      <c r="O485" s="49"/>
-      <c r="P485" s="49"/>
-      <c r="Q485" s="50"/>
-      <c r="R485" s="49"/>
-      <c r="S485" s="49"/>
-      <c r="T485" s="50"/>
-      <c r="U485" s="49"/>
-      <c r="V485" s="49"/>
-      <c r="W485" s="49"/>
-      <c r="X485" s="49"/>
-      <c r="Y485" s="49"/>
-      <c r="Z485" s="49"/>
-      <c r="AA485" s="49"/>
-      <c r="AB485" s="49"/>
-      <c r="AC485" s="49"/>
-      <c r="AD485" s="44" t="s">
+      <c r="L485" s="13"/>
+      <c r="M485" s="14"/>
+      <c r="N485" s="13"/>
+      <c r="O485" s="14"/>
+      <c r="P485" s="14"/>
+      <c r="Q485" s="13"/>
+      <c r="R485" s="14"/>
+      <c r="S485" s="14"/>
+      <c r="T485" s="13"/>
+      <c r="U485" s="14"/>
+      <c r="V485" s="14"/>
+      <c r="W485" s="14"/>
+      <c r="X485" s="14"/>
+      <c r="Y485" s="14"/>
+      <c r="Z485" s="14"/>
+      <c r="AA485" s="14"/>
+      <c r="AB485" s="14"/>
+      <c r="AC485" s="14"/>
+      <c r="AD485" t="s">
         <v>949</v>
       </c>
       <c r="AE485" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="486" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A486" s="16" t="s">
         <v>953</v>
       </c>
@@ -24426,15 +24361,15 @@
       <c r="AC486" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="AD486" s="44" t="s">
+      <c r="AD486" t="s">
         <v>952</v>
       </c>
       <c r="AE486" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="487" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="44" t="s">
+    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>951</v>
       </c>
       <c r="B487" s="5" t="s">
@@ -24443,17 +24378,17 @@
       <c r="C487" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D487" s="44" t="s">
+      <c r="D487" t="s">
         <v>956</v>
       </c>
       <c r="F487" s="12">
         <v>1.3194444444444443E-3</v>
       </c>
-      <c r="G487" s="49"/>
-      <c r="H487" s="50"/>
-      <c r="I487" s="50"/>
-      <c r="J487" s="50"/>
-      <c r="K487" s="50"/>
+      <c r="G487" s="14"/>
+      <c r="H487" s="13"/>
+      <c r="I487" s="13"/>
+      <c r="J487" s="13"/>
+      <c r="K487" s="13"/>
       <c r="L487" s="13" t="s">
         <v>416</v>
       </c>
@@ -24463,29 +24398,29 @@
       <c r="N487" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="O487" s="49"/>
-      <c r="P487" s="49"/>
-      <c r="Q487" s="50"/>
-      <c r="R487" s="49"/>
-      <c r="S487" s="49"/>
-      <c r="T487" s="50"/>
-      <c r="U487" s="49"/>
-      <c r="V487" s="49"/>
-      <c r="W487" s="49"/>
-      <c r="X487" s="49"/>
-      <c r="Y487" s="49"/>
-      <c r="Z487" s="49"/>
-      <c r="AA487" s="49"/>
-      <c r="AB487" s="49"/>
-      <c r="AC487" s="49"/>
-      <c r="AD487" s="44" t="s">
+      <c r="O487" s="14"/>
+      <c r="P487" s="14"/>
+      <c r="Q487" s="13"/>
+      <c r="R487" s="14"/>
+      <c r="S487" s="14"/>
+      <c r="T487" s="13"/>
+      <c r="U487" s="14"/>
+      <c r="V487" s="14"/>
+      <c r="W487" s="14"/>
+      <c r="X487" s="14"/>
+      <c r="Y487" s="14"/>
+      <c r="Z487" s="14"/>
+      <c r="AA487" s="14"/>
+      <c r="AB487" s="14"/>
+      <c r="AC487" s="14"/>
+      <c r="AD487" t="s">
         <v>950</v>
       </c>
       <c r="AE487" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="488" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A488" s="16" t="s">
         <v>957</v>
       </c>
@@ -24529,90 +24464,73 @@
       <c r="AC488" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="AD488" s="44" t="s">
+      <c r="AD488" t="s">
         <v>958</v>
       </c>
       <c r="AE488" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="489" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="44" t="s">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>954</v>
       </c>
       <c r="B489" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C489" s="45"/>
-      <c r="D489" s="44" t="s">
+      <c r="D489" t="s">
         <v>956</v>
       </c>
       <c r="F489" s="12">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="G489" s="49"/>
-      <c r="H489" s="50"/>
-      <c r="I489" s="50"/>
+      <c r="G489" s="14"/>
+      <c r="H489" s="13"/>
+      <c r="I489" s="13"/>
       <c r="J489" s="13" t="s">
         <v>416</v>
       </c>
       <c r="K489" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="L489" s="50"/>
-      <c r="M489" s="49"/>
-      <c r="N489" s="50"/>
-      <c r="O489" s="49"/>
-      <c r="P489" s="49"/>
-      <c r="Q489" s="50"/>
-      <c r="R489" s="49"/>
-      <c r="S489" s="49"/>
-      <c r="T489" s="50"/>
-      <c r="U489" s="49"/>
-      <c r="V489" s="49"/>
-      <c r="W489" s="49"/>
-      <c r="X489" s="49"/>
-      <c r="Y489" s="49"/>
-      <c r="Z489" s="49"/>
-      <c r="AA489" s="49"/>
-      <c r="AB489" s="49"/>
-      <c r="AC489" s="49"/>
-      <c r="AD489" s="44" t="s">
+      <c r="L489" s="13"/>
+      <c r="M489" s="14"/>
+      <c r="N489" s="13"/>
+      <c r="O489" s="14"/>
+      <c r="P489" s="14"/>
+      <c r="Q489" s="13"/>
+      <c r="R489" s="14"/>
+      <c r="S489" s="14"/>
+      <c r="T489" s="13"/>
+      <c r="U489" s="14"/>
+      <c r="V489" s="14"/>
+      <c r="W489" s="14"/>
+      <c r="X489" s="14"/>
+      <c r="Y489" s="14"/>
+      <c r="Z489" s="14"/>
+      <c r="AA489" s="14"/>
+      <c r="AB489" s="14"/>
+      <c r="AC489" s="14"/>
+      <c r="AD489" t="s">
         <v>955</v>
       </c>
       <c r="AE489" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="490" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B490" s="45"/>
-      <c r="C490" s="45"/>
-      <c r="F490" s="46"/>
-      <c r="G490" s="47"/>
-      <c r="H490" s="48"/>
-      <c r="I490" s="48"/>
-      <c r="J490" s="48"/>
-      <c r="K490" s="48"/>
-      <c r="L490" s="48"/>
-      <c r="M490" s="47"/>
-      <c r="N490" s="48"/>
-      <c r="O490" s="47"/>
-      <c r="P490" s="47"/>
-      <c r="Q490" s="48"/>
-      <c r="R490" s="47"/>
-      <c r="S490" s="47"/>
-      <c r="T490" s="48"/>
-      <c r="U490" s="47"/>
-      <c r="V490" s="47"/>
-      <c r="W490" s="47"/>
-      <c r="X490" s="47"/>
-      <c r="Y490" s="47"/>
-      <c r="Z490" s="47"/>
-      <c r="AA490" s="47"/>
-      <c r="AB490" s="47"/>
-      <c r="AC490" s="47"/>
-    </row>
-    <row r="491" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D490"/>
+      <c r="F490" s="11"/>
+      <c r="H490" s="5"/>
+      <c r="I490" s="5"/>
+      <c r="J490" s="5"/>
+      <c r="K490" s="5"/>
+      <c r="L490" s="5"/>
+      <c r="N490" s="5"/>
+      <c r="Q490" s="5"/>
+      <c r="T490" s="5"/>
+    </row>
+    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>959</v>
       </c>
@@ -24620,32 +24538,18 @@
         <v>135</v>
       </c>
       <c r="C491" s="43"/>
-      <c r="F491" s="46"/>
-      <c r="G491" s="47"/>
-      <c r="H491" s="48"/>
-      <c r="I491" s="48"/>
-      <c r="J491" s="48"/>
-      <c r="K491" s="48"/>
-      <c r="L491" s="48"/>
-      <c r="M491" s="47"/>
-      <c r="N491" s="48"/>
-      <c r="O491" s="47"/>
-      <c r="P491" s="47"/>
-      <c r="Q491" s="48"/>
-      <c r="R491" s="47"/>
-      <c r="S491" s="47"/>
-      <c r="T491" s="48"/>
-      <c r="U491" s="47"/>
-      <c r="V491" s="47"/>
-      <c r="W491" s="47"/>
-      <c r="X491" s="47"/>
-      <c r="Y491" s="47"/>
-      <c r="Z491" s="47"/>
-      <c r="AA491" s="47"/>
-      <c r="AB491" s="47"/>
-      <c r="AC491" s="47"/>
-    </row>
-    <row r="492" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D491"/>
+      <c r="F491" s="11"/>
+      <c r="H491" s="5"/>
+      <c r="I491" s="5"/>
+      <c r="J491" s="5"/>
+      <c r="K491" s="5"/>
+      <c r="L491" s="5"/>
+      <c r="N491" s="5"/>
+      <c r="Q491" s="5"/>
+      <c r="T491" s="5"/>
+    </row>
+    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>0</v>
       </c>
@@ -24655,32 +24559,18 @@
       <c r="C492" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F492" s="46"/>
-      <c r="G492" s="47"/>
-      <c r="H492" s="48"/>
-      <c r="I492" s="48"/>
-      <c r="J492" s="48"/>
-      <c r="K492" s="48"/>
-      <c r="L492" s="48"/>
-      <c r="M492" s="47"/>
-      <c r="N492" s="48"/>
-      <c r="O492" s="47"/>
-      <c r="P492" s="47"/>
-      <c r="Q492" s="48"/>
-      <c r="R492" s="47"/>
-      <c r="S492" s="47"/>
-      <c r="T492" s="48"/>
-      <c r="U492" s="47"/>
-      <c r="V492" s="47"/>
-      <c r="W492" s="47"/>
-      <c r="X492" s="47"/>
-      <c r="Y492" s="47"/>
-      <c r="Z492" s="47"/>
-      <c r="AA492" s="47"/>
-      <c r="AB492" s="47"/>
-      <c r="AC492" s="47"/>
-    </row>
-    <row r="493" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D492"/>
+      <c r="F492" s="11"/>
+      <c r="H492" s="5"/>
+      <c r="I492" s="5"/>
+      <c r="J492" s="5"/>
+      <c r="K492" s="5"/>
+      <c r="L492" s="5"/>
+      <c r="N492" s="5"/>
+      <c r="Q492" s="5"/>
+      <c r="T492" s="5"/>
+    </row>
+    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A493" s="16" t="s">
         <v>967</v>
       </c>
@@ -24746,15 +24636,15 @@
         <v>416</v>
       </c>
       <c r="AC493" s="21"/>
-      <c r="AD493" s="44" t="s">
+      <c r="AD493" t="s">
         <v>968</v>
       </c>
       <c r="AE493" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="494" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="44" t="s">
+    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>963</v>
       </c>
       <c r="B494" s="5" t="s">
@@ -24763,49 +24653,49 @@
       <c r="C494" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D494" s="44" t="s">
+      <c r="D494" t="s">
         <v>962</v>
       </c>
       <c r="F494" s="12">
         <v>3.5416666666666665E-3</v>
       </c>
-      <c r="G494" s="49"/>
+      <c r="G494" s="14"/>
       <c r="H494" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="I494" s="50"/>
-      <c r="J494" s="50"/>
-      <c r="K494" s="50"/>
-      <c r="L494" s="50"/>
-      <c r="M494" s="49"/>
-      <c r="N494" s="50"/>
-      <c r="O494" s="49"/>
-      <c r="P494" s="49"/>
-      <c r="Q494" s="50"/>
-      <c r="R494" s="49"/>
-      <c r="S494" s="49"/>
+      <c r="I494" s="13"/>
+      <c r="J494" s="13"/>
+      <c r="K494" s="13"/>
+      <c r="L494" s="13"/>
+      <c r="M494" s="14"/>
+      <c r="N494" s="13"/>
+      <c r="O494" s="14"/>
+      <c r="P494" s="14"/>
+      <c r="Q494" s="13"/>
+      <c r="R494" s="14"/>
+      <c r="S494" s="14"/>
       <c r="T494" s="13" t="s">
         <v>416</v>
       </c>
       <c r="U494" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="V494" s="49"/>
-      <c r="W494" s="49"/>
-      <c r="X494" s="49"/>
-      <c r="Y494" s="49"/>
-      <c r="Z494" s="49"/>
-      <c r="AA494" s="49"/>
-      <c r="AB494" s="49"/>
-      <c r="AC494" s="49"/>
-      <c r="AD494" s="44" t="s">
+      <c r="V494" s="14"/>
+      <c r="W494" s="14"/>
+      <c r="X494" s="14"/>
+      <c r="Y494" s="14"/>
+      <c r="Z494" s="14"/>
+      <c r="AA494" s="14"/>
+      <c r="AB494" s="14"/>
+      <c r="AC494" s="14"/>
+      <c r="AD494" t="s">
         <v>964</v>
       </c>
       <c r="AE494" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="495" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A495" s="16" t="s">
         <v>973</v>
       </c>
@@ -24849,15 +24739,15 @@
       <c r="AC495" s="21" t="s">
         <v>975</v>
       </c>
-      <c r="AD495" s="44" t="s">
+      <c r="AD495" t="s">
         <v>974</v>
       </c>
       <c r="AE495" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="496" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="44" t="s">
+    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
         <v>970</v>
       </c>
       <c r="B496" s="5" t="s">
@@ -24866,55 +24756,55 @@
       <c r="C496" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D496" s="44" t="s">
+      <c r="D496" t="s">
         <v>962</v>
       </c>
       <c r="F496" s="12">
         <v>3.1134259259259257E-3</v>
       </c>
-      <c r="G496" s="49"/>
-      <c r="H496" s="50"/>
-      <c r="I496" s="50"/>
+      <c r="G496" s="14"/>
+      <c r="H496" s="13"/>
+      <c r="I496" s="13"/>
       <c r="J496" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="K496" s="50"/>
-      <c r="L496" s="50"/>
-      <c r="M496" s="49"/>
-      <c r="N496" s="50"/>
-      <c r="O496" s="49"/>
+      <c r="K496" s="13"/>
+      <c r="L496" s="13"/>
+      <c r="M496" s="14"/>
+      <c r="N496" s="13"/>
+      <c r="O496" s="14"/>
       <c r="P496" s="13" t="s">
         <v>416</v>
       </c>
       <c r="Q496" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="R496" s="49"/>
-      <c r="S496" s="49"/>
+      <c r="R496" s="14"/>
+      <c r="S496" s="14"/>
       <c r="T496" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="U496" s="49"/>
-      <c r="V496" s="49"/>
-      <c r="W496" s="49"/>
-      <c r="X496" s="49"/>
-      <c r="Y496" s="49"/>
-      <c r="Z496" s="49"/>
-      <c r="AA496" s="49"/>
+      <c r="U496" s="14"/>
+      <c r="V496" s="14"/>
+      <c r="W496" s="14"/>
+      <c r="X496" s="14"/>
+      <c r="Y496" s="14"/>
+      <c r="Z496" s="14"/>
+      <c r="AA496" s="14"/>
       <c r="AB496" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="AC496" s="49" t="s">
+      <c r="AC496" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="AD496" s="44" t="s">
+      <c r="AD496" t="s">
         <v>971</v>
       </c>
       <c r="AE496" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="497" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A497" s="16" t="s">
         <v>965</v>
       </c>
@@ -24978,15 +24868,15 @@
       <c r="AC497" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="AD497" s="44" t="s">
+      <c r="AD497" t="s">
         <v>966</v>
       </c>
       <c r="AE497" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="498" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="44" t="s">
+    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>976</v>
       </c>
       <c r="B498" s="5" t="s">
@@ -24995,53 +24885,53 @@
       <c r="C498" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D498" s="44" t="s">
+      <c r="D498" t="s">
         <v>978</v>
       </c>
       <c r="F498" s="12">
         <v>1.7476851851851852E-3</v>
       </c>
-      <c r="G498" s="49"/>
-      <c r="H498" s="50"/>
-      <c r="I498" s="50"/>
-      <c r="J498" s="50"/>
+      <c r="G498" s="14"/>
+      <c r="H498" s="13"/>
+      <c r="I498" s="13"/>
+      <c r="J498" s="13"/>
       <c r="K498" s="13" t="s">
         <v>416</v>
       </c>
       <c r="L498" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="M498" s="49"/>
+      <c r="M498" s="14"/>
       <c r="N498" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="O498" s="49"/>
-      <c r="P498" s="49"/>
+      <c r="O498" s="14"/>
+      <c r="P498" s="14"/>
       <c r="Q498" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="R498" s="49"/>
-      <c r="S498" s="49"/>
+      <c r="R498" s="14"/>
+      <c r="S498" s="14"/>
       <c r="T498" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="U498" s="49"/>
-      <c r="V498" s="49"/>
-      <c r="W498" s="49"/>
-      <c r="X498" s="49"/>
-      <c r="Y498" s="49"/>
-      <c r="Z498" s="49"/>
-      <c r="AA498" s="49"/>
-      <c r="AB498" s="49"/>
-      <c r="AC498" s="49"/>
-      <c r="AD498" s="44" t="s">
+      <c r="U498" s="14"/>
+      <c r="V498" s="14"/>
+      <c r="W498" s="14"/>
+      <c r="X498" s="14"/>
+      <c r="Y498" s="14"/>
+      <c r="Z498" s="14"/>
+      <c r="AA498" s="14"/>
+      <c r="AB498" s="14"/>
+      <c r="AC498" s="14"/>
+      <c r="AD498" t="s">
         <v>977</v>
       </c>
       <c r="AE498" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A499" s="16" t="s">
         <v>960</v>
       </c>
@@ -25085,7 +24975,7 @@
       <c r="AA499" s="21"/>
       <c r="AB499" s="21"/>
       <c r="AC499" s="21"/>
-      <c r="AD499" s="44" t="s">
+      <c r="AD499" t="s">
         <v>961</v>
       </c>
       <c r="AE499" t="s">
@@ -27296,16 +27186,16 @@
     </row>
     <row r="554" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A554" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B554" s="17"/>
-      <c r="C554" s="17" t="s">
-        <v>4</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="B554" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C554" s="17"/>
       <c r="D554" s="18"/>
       <c r="E554" s="16"/>
       <c r="F554" s="19">
-        <v>4.2881944444444438E-2</v>
+        <v>1.5347222222222222E-2</v>
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="20" t="s">
@@ -27317,13 +27207,27 @@
       <c r="J554" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="K554" s="21"/>
-      <c r="L554" s="21"/>
-      <c r="M554" s="21"/>
-      <c r="N554" s="21"/>
-      <c r="O554" s="21"/>
-      <c r="P554" s="21"/>
-      <c r="Q554" s="21"/>
+      <c r="K554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="N554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q554" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="R554" s="21"/>
       <c r="S554" s="20" t="s">
         <v>416</v>
@@ -27335,17 +27239,23 @@
         <v>416</v>
       </c>
       <c r="V554" s="21"/>
-      <c r="W554" s="21"/>
-      <c r="X554" s="21"/>
+      <c r="W554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X554" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="Y554" s="21"/>
-      <c r="Z554" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="Z554" s="21"/>
       <c r="AA554" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="AB554" s="21"/>
-      <c r="AC554" s="21"/>
+      <c r="AB554" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC554" s="21" t="s">
+        <v>984</v>
+      </c>
       <c r="AD554" t="s">
         <v>482</v>
       </c>
@@ -27355,34 +27265,43 @@
     </row>
     <row r="555" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>143</v>
+        <v>981</v>
       </c>
       <c r="B555" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E555" t="s">
-        <v>859</v>
-      </c>
       <c r="F555" s="12">
-        <v>5.37037037037037E-3</v>
+        <v>4.6064814814814814E-3</v>
       </c>
       <c r="G555" s="14"/>
       <c r="H555" s="14"/>
-      <c r="I555" s="14"/>
-      <c r="J555" s="14"/>
-      <c r="K555" s="14"/>
-      <c r="L555" s="14"/>
-      <c r="M555" s="14"/>
-      <c r="N555" s="14"/>
-      <c r="O555" s="14"/>
+      <c r="I555" s="13"/>
+      <c r="J555" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K555" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L555" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M555" s="13"/>
+      <c r="N555" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O555" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="P555" s="14"/>
       <c r="Q555" s="13" t="s">
         <v>416</v>
       </c>
       <c r="R555" s="14"/>
       <c r="S555" s="14"/>
-      <c r="T555" s="14"/>
-      <c r="U555" s="14"/>
+      <c r="T555" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U555" s="13"/>
       <c r="V555" s="14"/>
       <c r="W555" s="14"/>
       <c r="X555" s="14"/>
@@ -27400,68 +27319,44 @@
     </row>
     <row r="556" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A556" s="16" t="s">
-        <v>436</v>
+        <v>979</v>
       </c>
       <c r="B556" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C556" s="17"/>
       <c r="D556" s="18"/>
-      <c r="E556" s="16"/>
+      <c r="E556" s="16" t="s">
+        <v>980</v>
+      </c>
       <c r="F556" s="19">
-        <v>1.4548611111111111E-2</v>
+        <v>1.9675925925925926E-4</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="21"/>
-      <c r="I556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J556" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="I556" s="20"/>
+      <c r="J556" s="20"/>
       <c r="K556" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="L556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M556" s="21"/>
-      <c r="N556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T556" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U556" s="21"/>
-      <c r="V556" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="L556" s="20"/>
+      <c r="M556" s="20"/>
+      <c r="N556" s="21"/>
+      <c r="O556" s="20"/>
+      <c r="P556" s="21"/>
+      <c r="Q556" s="20"/>
+      <c r="R556" s="21"/>
+      <c r="S556" s="21"/>
+      <c r="T556" s="20"/>
+      <c r="U556" s="20"/>
+      <c r="V556" s="21"/>
       <c r="W556" s="21"/>
       <c r="X556" s="21"/>
       <c r="Y556" s="21"/>
-      <c r="Z556" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="Z556" s="21"/>
       <c r="AA556" s="21"/>
       <c r="AB556" s="21"/>
-      <c r="AC556" s="21" t="s">
-        <v>852</v>
-      </c>
+      <c r="AC556" s="21"/>
       <c r="AD556" t="s">
         <v>482</v>
       </c>
@@ -27469,172 +27364,385 @@
         <v>483</v>
       </c>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A557" t="s">
+    <row r="557" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B557" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C557" s="46"/>
+      <c r="D557" s="47"/>
+      <c r="F557" s="48">
+        <v>4.2881944444444438E-2</v>
+      </c>
+      <c r="G557" s="49"/>
+      <c r="H557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="I557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="K557" s="49"/>
+      <c r="L557" s="49"/>
+      <c r="M557" s="49"/>
+      <c r="N557" s="49"/>
+      <c r="O557" s="49"/>
+      <c r="P557" s="49"/>
+      <c r="Q557" s="49"/>
+      <c r="R557" s="49"/>
+      <c r="S557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="T557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="U557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="V557" s="49"/>
+      <c r="W557" s="49"/>
+      <c r="X557" s="49"/>
+      <c r="Y557" s="49"/>
+      <c r="Z557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA557" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB557" s="49"/>
+      <c r="AC557" s="49"/>
+      <c r="AD557" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE557" s="45" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="558" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B558" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C558" s="17"/>
+      <c r="D558" s="18"/>
+      <c r="E558" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="F558" s="19">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="G558" s="21"/>
+      <c r="H558" s="21"/>
+      <c r="I558" s="21"/>
+      <c r="J558" s="21"/>
+      <c r="K558" s="21"/>
+      <c r="L558" s="21"/>
+      <c r="M558" s="21"/>
+      <c r="N558" s="21"/>
+      <c r="O558" s="21"/>
+      <c r="P558" s="21"/>
+      <c r="Q558" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R558" s="21"/>
+      <c r="S558" s="21"/>
+      <c r="T558" s="21"/>
+      <c r="U558" s="21"/>
+      <c r="V558" s="21"/>
+      <c r="W558" s="21"/>
+      <c r="X558" s="21"/>
+      <c r="Y558" s="21"/>
+      <c r="Z558" s="21"/>
+      <c r="AA558" s="21"/>
+      <c r="AB558" s="21"/>
+      <c r="AC558" s="21"/>
+      <c r="AD558" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE558" s="45" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="559" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="45" t="s">
+        <v>982</v>
+      </c>
+      <c r="B559" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C559" s="46"/>
+      <c r="D559" s="47"/>
+      <c r="F559" s="48">
+        <v>1.3090277777777779E-2</v>
+      </c>
+      <c r="G559" s="49"/>
+      <c r="H559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="I559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="K559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="L559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="M559" s="50"/>
+      <c r="N559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O559" s="50"/>
+      <c r="P559" s="49"/>
+      <c r="Q559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="R559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="S559" s="49"/>
+      <c r="T559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="U559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="V559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="W559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="X559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z559" s="49"/>
+      <c r="AA559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB559" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC559" s="44" t="s">
+        <v>975</v>
+      </c>
+      <c r="AD559" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE559" s="45" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="560" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B560" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C560" s="17"/>
+      <c r="D560" s="18"/>
+      <c r="E560" s="16"/>
+      <c r="F560" s="19">
+        <v>1.4548611111111111E-2</v>
+      </c>
+      <c r="G560" s="21"/>
+      <c r="H560" s="21"/>
+      <c r="I560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M560" s="21"/>
+      <c r="N560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U560" s="21"/>
+      <c r="V560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="W560" s="21"/>
+      <c r="X560" s="21"/>
+      <c r="Y560" s="21"/>
+      <c r="Z560" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA560" s="21"/>
+      <c r="AB560" s="21"/>
+      <c r="AC560" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD560" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE560" s="45" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="561" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
         <v>940</v>
       </c>
-      <c r="B557" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D557" s="4" t="s">
+      <c r="B561" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D561" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="F557" s="12">
+      <c r="F561" s="12">
         <v>1.300925925925926E-2</v>
       </c>
-      <c r="G557" s="14"/>
-      <c r="H557" s="14"/>
-      <c r="I557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="N557" s="14"/>
-      <c r="O557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P557" s="14"/>
-      <c r="Q557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R557" s="14"/>
-      <c r="S557" s="14"/>
-      <c r="T557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U557" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V557" s="14"/>
-      <c r="W557" s="14"/>
-      <c r="X557" s="14"/>
-      <c r="Y557" s="14"/>
-      <c r="Z557" s="14"/>
-      <c r="AA557" s="14"/>
-      <c r="AB557" s="14"/>
-      <c r="AC557" s="14"/>
-      <c r="AD557" t="s">
+      <c r="G561" s="14"/>
+      <c r="H561" s="14"/>
+      <c r="I561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N561" s="14"/>
+      <c r="O561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P561" s="14"/>
+      <c r="Q561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R561" s="14"/>
+      <c r="S561" s="14"/>
+      <c r="T561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U561" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V561" s="14"/>
+      <c r="W561" s="14"/>
+      <c r="X561" s="14"/>
+      <c r="Y561" s="14"/>
+      <c r="Z561" s="14"/>
+      <c r="AA561" s="14"/>
+      <c r="AB561" s="14"/>
+      <c r="AC561" s="14"/>
+      <c r="AD561" t="s">
         <v>482</v>
-      </c>
-      <c r="AE557" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="559" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B559" s="8"/>
-      <c r="C559" s="8"/>
-      <c r="D559" s="6"/>
-    </row>
-    <row r="560" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B560" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C560" s="7"/>
-      <c r="D560" s="6"/>
-    </row>
-    <row r="561" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A561" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B561" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C561" s="17"/>
-      <c r="D561" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E561" s="16"/>
-      <c r="F561" s="21"/>
-      <c r="G561" s="21"/>
-      <c r="H561" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I561" s="21"/>
-      <c r="J561" s="21"/>
-      <c r="K561" s="21"/>
-      <c r="L561" s="21"/>
-      <c r="M561" s="21"/>
-      <c r="N561" s="21"/>
-      <c r="O561" s="21"/>
-      <c r="P561" s="21"/>
-      <c r="Q561" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R561" s="21"/>
-      <c r="S561" s="21"/>
-      <c r="T561" s="21"/>
-      <c r="U561" s="21"/>
-      <c r="V561" s="21"/>
-      <c r="W561" s="21"/>
-      <c r="X561" s="21"/>
-      <c r="Y561" s="21"/>
-      <c r="Z561" s="21"/>
-      <c r="AA561" s="21"/>
-      <c r="AB561" s="21"/>
-      <c r="AC561" s="21"/>
-      <c r="AD561" t="s">
-        <v>849</v>
       </c>
       <c r="AE561" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="562" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A562" t="s">
-        <v>322</v>
-      </c>
-      <c r="B562" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D562" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F562" s="12">
-        <v>1.0266203703703703E-2</v>
-      </c>
-      <c r="G562" s="14"/>
-      <c r="H562" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I562" s="14"/>
-      <c r="J562" s="13"/>
-      <c r="K562" s="13"/>
-      <c r="L562" s="14"/>
-      <c r="M562" s="14"/>
-      <c r="N562" s="14"/>
-      <c r="O562" s="14"/>
-      <c r="P562" s="14"/>
-      <c r="Q562" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R562" s="14"/>
-      <c r="S562" s="14"/>
-      <c r="T562" s="14"/>
-      <c r="U562" s="14"/>
-      <c r="V562" s="14"/>
-      <c r="W562" s="14"/>
-      <c r="X562" s="14"/>
-      <c r="Y562" s="14"/>
-      <c r="Z562" s="14"/>
-      <c r="AA562" s="14"/>
-      <c r="AB562" s="14"/>
-      <c r="AC562" s="14"/>
+      <c r="A562" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="B562" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C562" s="17"/>
+      <c r="D562" s="18"/>
+      <c r="E562" s="16"/>
+      <c r="F562" s="19">
+        <v>9.9189814814814817E-3</v>
+      </c>
+      <c r="G562" s="21"/>
+      <c r="H562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M562" s="20"/>
+      <c r="N562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O562" s="20"/>
+      <c r="P562" s="21"/>
+      <c r="Q562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R562" s="21"/>
+      <c r="S562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U562" s="20"/>
+      <c r="V562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="W562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X562" s="21"/>
+      <c r="Y562" s="21"/>
+      <c r="Z562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB562" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC562" s="21" t="s">
+        <v>984</v>
+      </c>
       <c r="AD562" t="s">
         <v>482</v>
       </c>
@@ -27642,71 +27750,55 @@
         <v>483</v>
       </c>
     </row>
-    <row r="564" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B564" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C564" s="43"/>
-    </row>
-    <row r="565" spans="1:31" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="B564" s="8"/>
+      <c r="C564" s="8"/>
+      <c r="D564" s="6"/>
+    </row>
+    <row r="565" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B565" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C565" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B565" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C565" s="7"/>
+      <c r="D565" s="6"/>
     </row>
     <row r="566" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A566" s="16" t="s">
-        <v>835</v>
+        <v>242</v>
       </c>
       <c r="B566" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C566" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D566" s="18"/>
+      <c r="C566" s="17"/>
+      <c r="D566" s="18" t="s">
+        <v>241</v>
+      </c>
       <c r="E566" s="16"/>
-      <c r="F566" s="19">
-        <v>5.1736111111111115E-3</v>
-      </c>
+      <c r="F566" s="21"/>
       <c r="G566" s="21"/>
-      <c r="H566" s="21"/>
+      <c r="H566" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="I566" s="21"/>
-      <c r="J566" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K566" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L566" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="J566" s="21"/>
+      <c r="K566" s="21"/>
+      <c r="L566" s="21"/>
       <c r="M566" s="21"/>
-      <c r="N566" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O566" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P566" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="N566" s="21"/>
+      <c r="O566" s="21"/>
+      <c r="P566" s="21"/>
       <c r="Q566" s="20" t="s">
         <v>416</v>
       </c>
       <c r="R566" s="21"/>
       <c r="S566" s="21"/>
-      <c r="T566" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="T566" s="21"/>
       <c r="U566" s="21"/>
       <c r="V566" s="21"/>
       <c r="W566" s="21"/>
@@ -27717,36 +27809,40 @@
       <c r="AB566" s="21"/>
       <c r="AC566" s="21"/>
       <c r="AD566" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="AE566" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
     </row>
     <row r="567" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>837</v>
+        <v>322</v>
       </c>
       <c r="B567" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C567" s="5" t="s">
-        <v>4</v>
+      <c r="D567" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="F567" s="12">
-        <v>1.5949074074074074E-2</v>
+        <v>1.0266203703703703E-2</v>
       </c>
       <c r="G567" s="14"/>
-      <c r="H567" s="14"/>
+      <c r="H567" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="I567" s="14"/>
-      <c r="J567" s="14"/>
-      <c r="K567" s="14"/>
+      <c r="J567" s="13"/>
+      <c r="K567" s="13"/>
       <c r="L567" s="14"/>
       <c r="M567" s="14"/>
       <c r="N567" s="14"/>
       <c r="O567" s="14"/>
       <c r="P567" s="14"/>
-      <c r="Q567" s="14"/>
+      <c r="Q567" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="R567" s="14"/>
       <c r="S567" s="14"/>
       <c r="T567" s="14"/>
@@ -27760,85 +27856,203 @@
       <c r="AB567" s="14"/>
       <c r="AC567" s="14"/>
       <c r="AD567" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE567" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="569" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A569" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B569" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C569" s="43"/>
+    </row>
+    <row r="570" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A571" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="B571" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D571" s="18"/>
+      <c r="E571" s="16"/>
+      <c r="F571" s="19">
+        <v>5.1736111111111115E-3</v>
+      </c>
+      <c r="G571" s="21"/>
+      <c r="H571" s="21"/>
+      <c r="I571" s="21"/>
+      <c r="J571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M571" s="21"/>
+      <c r="N571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R571" s="21"/>
+      <c r="S571" s="21"/>
+      <c r="T571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U571" s="21"/>
+      <c r="V571" s="21"/>
+      <c r="W571" s="21"/>
+      <c r="X571" s="21"/>
+      <c r="Y571" s="21"/>
+      <c r="Z571" s="21"/>
+      <c r="AA571" s="21"/>
+      <c r="AB571" s="21"/>
+      <c r="AC571" s="21"/>
+      <c r="AD571" t="s">
+        <v>836</v>
+      </c>
+      <c r="AE571" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="572" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>837</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F572" s="12">
+        <v>1.5949074074074074E-2</v>
+      </c>
+      <c r="G572" s="14"/>
+      <c r="H572" s="14"/>
+      <c r="I572" s="14"/>
+      <c r="J572" s="14"/>
+      <c r="K572" s="14"/>
+      <c r="L572" s="14"/>
+      <c r="M572" s="14"/>
+      <c r="N572" s="14"/>
+      <c r="O572" s="14"/>
+      <c r="P572" s="14"/>
+      <c r="Q572" s="14"/>
+      <c r="R572" s="14"/>
+      <c r="S572" s="14"/>
+      <c r="T572" s="14"/>
+      <c r="U572" s="14"/>
+      <c r="V572" s="14"/>
+      <c r="W572" s="14"/>
+      <c r="X572" s="14"/>
+      <c r="Y572" s="14"/>
+      <c r="Z572" s="14"/>
+      <c r="AA572" s="14"/>
+      <c r="AB572" s="14"/>
+      <c r="AC572" s="14"/>
+      <c r="AD572" t="s">
         <v>838</v>
       </c>
-      <c r="AE567" t="s">
+      <c r="AE572" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A568" s="16" t="s">
+    <row r="573" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A573" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="B568" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C568" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D568" s="16" t="s">
+      <c r="B573" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C573" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D573" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="E568" s="16"/>
-      <c r="F568" s="19">
+      <c r="E573" s="16"/>
+      <c r="F573" s="19">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="G568" s="21"/>
-      <c r="H568" s="20"/>
-      <c r="I568" s="20"/>
-      <c r="J568" s="20"/>
-      <c r="K568" s="20"/>
-      <c r="L568" s="20"/>
-      <c r="M568" s="21"/>
-      <c r="N568" s="20"/>
-      <c r="O568" s="21"/>
-      <c r="P568" s="21"/>
-      <c r="Q568" s="20"/>
-      <c r="R568" s="21"/>
-      <c r="S568" s="21"/>
-      <c r="T568" s="20"/>
-      <c r="U568" s="21"/>
-      <c r="V568" s="21"/>
-      <c r="W568" s="21"/>
-      <c r="X568" s="21"/>
-      <c r="Y568" s="21"/>
-      <c r="Z568" s="21"/>
-      <c r="AA568" s="21"/>
-      <c r="AB568" s="21"/>
-      <c r="AC568" s="21"/>
-      <c r="AD568" t="s">
+      <c r="G573" s="21"/>
+      <c r="H573" s="20"/>
+      <c r="I573" s="20"/>
+      <c r="J573" s="20"/>
+      <c r="K573" s="20"/>
+      <c r="L573" s="20"/>
+      <c r="M573" s="21"/>
+      <c r="N573" s="20"/>
+      <c r="O573" s="21"/>
+      <c r="P573" s="21"/>
+      <c r="Q573" s="20"/>
+      <c r="R573" s="21"/>
+      <c r="S573" s="21"/>
+      <c r="T573" s="20"/>
+      <c r="U573" s="21"/>
+      <c r="V573" s="21"/>
+      <c r="W573" s="21"/>
+      <c r="X573" s="21"/>
+      <c r="Y573" s="21"/>
+      <c r="Z573" s="21"/>
+      <c r="AA573" s="21"/>
+      <c r="AB573" s="21"/>
+      <c r="AC573" s="21"/>
+      <c r="AD573" t="s">
         <v>939</v>
       </c>
-      <c r="AE568" t="s">
+      <c r="AE573" t="s">
         <v>539</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A493:AE499">
-    <sortCondition ref="A493:A499"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A554:AE562">
+    <sortCondition ref="A554:A562"/>
   </sortState>
   <mergeCells count="52">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B429:C429"/>
+    <mergeCell ref="B569:C569"/>
+    <mergeCell ref="B437:C437"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B532:C532"/>
+    <mergeCell ref="B539:C539"/>
+    <mergeCell ref="B545:C545"/>
+    <mergeCell ref="B552:C552"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="B470:C470"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="B482:C482"/>
+    <mergeCell ref="B491:C491"/>
     <mergeCell ref="B226:C226"/>
     <mergeCell ref="B231:C231"/>
     <mergeCell ref="B238:C238"/>
@@ -27855,21 +28069,27 @@
     <mergeCell ref="B392:C392"/>
     <mergeCell ref="B424:C424"/>
     <mergeCell ref="B433:C433"/>
-    <mergeCell ref="B429:C429"/>
-    <mergeCell ref="B564:C564"/>
-    <mergeCell ref="B437:C437"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B532:C532"/>
-    <mergeCell ref="B539:C539"/>
-    <mergeCell ref="B545:C545"/>
-    <mergeCell ref="B552:C552"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="B470:C470"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="B482:C482"/>
-    <mergeCell ref="B491:C491"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B138:C138"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/outreach_videos/IODP-JR_movie_log.xlsx
+++ b/outreach_videos/IODP-JR_movie_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childress\Documents\EducationOutreach\1_JRSO-OutreachPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D155CF1-3D8D-42B6-9D49-FE223F981349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9060486-82A7-4A44-B605-062C47C1B626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-11370" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4501" uniqueCount="1018">
   <si>
     <t>Filename</t>
   </si>
@@ -3078,6 +3078,30 @@
   </si>
   <si>
     <t>tugboat, locks</t>
+  </si>
+  <si>
+    <t>Expedition 402 - Tyrrhenian Continent–Ocean Transition</t>
+  </si>
+  <si>
+    <t>What do Soda Cans, Resistivity, and Drilling have to do with each other?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XSTE3ngxUoA</t>
+  </si>
+  <si>
+    <t>JOIDES Resolution drone footage</t>
+  </si>
+  <si>
+    <t>Expedition 398 - Hellenic Arc Volcanic Field</t>
+  </si>
+  <si>
+    <t>Thomas Ronge</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BYMF3D9om20</t>
+  </si>
+  <si>
+    <t>Tessa Peixoto</t>
   </si>
 </sst>
 </file>
@@ -3504,7 +3528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3612,7 +3636,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="289">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4240,13 +4281,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE587"/>
+  <dimension ref="A1:AE595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D475" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF478" sqref="AF478"/>
+      <selection pane="bottomRight" activeCell="F523" sqref="F523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15998,10 +16039,10 @@
       <c r="AA280" s="21"/>
       <c r="AB280" s="20"/>
       <c r="AC280" s="21"/>
-      <c r="AD280" s="45" t="s">
+      <c r="AD280" t="s">
         <v>980</v>
       </c>
-      <c r="AE280" s="45" t="s">
+      <c r="AE280" t="s">
         <v>539</v>
       </c>
     </row>
@@ -16052,10 +16093,10 @@
       <c r="AC281" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="AD281" s="45" t="s">
+      <c r="AD281" t="s">
         <v>661</v>
       </c>
-      <c r="AE281" s="45" t="s">
+      <c r="AE281" t="s">
         <v>539</v>
       </c>
     </row>
@@ -16105,10 +16146,10 @@
       <c r="AC282" s="21" t="s">
         <v>847</v>
       </c>
-      <c r="AD282" s="45" t="s">
+      <c r="AD282" t="s">
         <v>663</v>
       </c>
-      <c r="AE282" s="45" t="s">
+      <c r="AE282" t="s">
         <v>539</v>
       </c>
     </row>
@@ -16161,10 +16202,10 @@
       <c r="AA283" s="14"/>
       <c r="AB283" s="14"/>
       <c r="AC283" s="14"/>
-      <c r="AD283" s="45" t="s">
+      <c r="AD283" t="s">
         <v>667</v>
       </c>
-      <c r="AE283" s="45" t="s">
+      <c r="AE283" t="s">
         <v>539</v>
       </c>
     </row>
@@ -16228,10 +16269,10 @@
         <v>416</v>
       </c>
       <c r="AC284" s="21"/>
-      <c r="AD284" s="45" t="s">
+      <c r="AD284" t="s">
         <v>658</v>
       </c>
-      <c r="AE284" s="45" t="s">
+      <c r="AE284" t="s">
         <v>539</v>
       </c>
     </row>
@@ -24186,21 +24227,37 @@
         <v>539</v>
       </c>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D478"/>
-      <c r="F478" s="11"/>
-      <c r="H478" s="5"/>
-      <c r="I478" s="5"/>
-      <c r="J478" s="5"/>
-      <c r="K478" s="5"/>
-      <c r="L478" s="5"/>
-      <c r="N478" s="5"/>
-      <c r="Q478" s="5"/>
-      <c r="T478" s="5"/>
+    <row r="478" spans="1:31" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B478" s="49"/>
+      <c r="C478" s="49"/>
+      <c r="F478" s="50"/>
+      <c r="G478" s="51"/>
+      <c r="H478" s="52"/>
+      <c r="I478" s="52"/>
+      <c r="J478" s="52"/>
+      <c r="K478" s="52"/>
+      <c r="L478" s="52"/>
+      <c r="M478" s="51"/>
+      <c r="N478" s="52"/>
+      <c r="O478" s="51"/>
+      <c r="P478" s="51"/>
+      <c r="Q478" s="52"/>
+      <c r="R478" s="51"/>
+      <c r="S478" s="51"/>
+      <c r="T478" s="52"/>
+      <c r="U478" s="51"/>
+      <c r="V478" s="51"/>
+      <c r="W478" s="51"/>
+      <c r="X478" s="51"/>
+      <c r="Y478" s="51"/>
+      <c r="Z478" s="51"/>
+      <c r="AA478" s="51"/>
+      <c r="AB478" s="51"/>
+      <c r="AC478" s="51"/>
     </row>
     <row r="479" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
-        <v>942</v>
+        <v>1014</v>
       </c>
       <c r="B479" s="44" t="s">
         <v>135</v>
@@ -24238,41 +24295,41 @@
       <c r="Q480" s="5"/>
       <c r="T480" s="5"/>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:31" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A481" s="16" t="s">
-        <v>943</v>
+        <v>1013</v>
       </c>
       <c r="B481" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C481" s="17"/>
-      <c r="D481" s="16"/>
+      <c r="C481" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" s="16" t="s">
+        <v>1015</v>
+      </c>
       <c r="E481" s="16"/>
       <c r="F481" s="19">
-        <v>1.8750000000000001E-3</v>
+        <v>1.3541666666666667E-3</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="20"/>
       <c r="I481" s="20"/>
-      <c r="J481" s="20"/>
-      <c r="K481" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L481" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="J481" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K481" s="20"/>
+      <c r="L481" s="20"/>
       <c r="M481" s="21"/>
-      <c r="N481" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="N481" s="20"/>
       <c r="O481" s="21"/>
       <c r="P481" s="21"/>
-      <c r="Q481" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q481" s="20"/>
       <c r="R481" s="21"/>
       <c r="S481" s="21"/>
-      <c r="T481" s="20"/>
+      <c r="T481" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="U481" s="21"/>
       <c r="V481" s="21"/>
       <c r="W481" s="21"/>
@@ -24280,10 +24337,14 @@
       <c r="Y481" s="21"/>
       <c r="Z481" s="21"/>
       <c r="AA481" s="21"/>
-      <c r="AB481" s="21"/>
-      <c r="AC481" s="21"/>
-      <c r="AD481" t="s">
-        <v>944</v>
+      <c r="AB481" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC481" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="AD481" s="48" t="s">
+        <v>1016</v>
       </c>
       <c r="AE481" t="s">
         <v>539</v>
@@ -24303,7 +24364,7 @@
     </row>
     <row r="483" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B483" s="44" t="s">
         <v>135</v>
@@ -24343,18 +24404,16 @@
     </row>
     <row r="485" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A485" s="16" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B485" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C485" s="17"/>
-      <c r="D485" s="16" t="s">
-        <v>956</v>
-      </c>
+      <c r="D485" s="16"/>
       <c r="E485" s="16"/>
       <c r="F485" s="19">
-        <v>2.4537037037037036E-3</v>
+        <v>1.8750000000000001E-3</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="20"/>
@@ -24363,12 +24422,18 @@
       <c r="K485" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="L485" s="20"/>
+      <c r="L485" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="M485" s="21"/>
-      <c r="N485" s="20"/>
+      <c r="N485" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="O485" s="21"/>
       <c r="P485" s="21"/>
-      <c r="Q485" s="20"/>
+      <c r="Q485" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="R485" s="21"/>
       <c r="S485" s="21"/>
       <c r="T485" s="20"/>
@@ -24382,174 +24447,67 @@
       <c r="AB485" s="21"/>
       <c r="AC485" s="21"/>
       <c r="AD485" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="AE485" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="486" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A486" t="s">
-        <v>948</v>
-      </c>
-      <c r="B486" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C486" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D486" t="s">
-        <v>956</v>
-      </c>
-      <c r="F486" s="12">
-        <v>3.4375E-3</v>
-      </c>
-      <c r="G486" s="14"/>
-      <c r="H486" s="13"/>
-      <c r="I486" s="13"/>
-      <c r="J486" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K486" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L486" s="13"/>
-      <c r="M486" s="14"/>
-      <c r="N486" s="13"/>
-      <c r="O486" s="14"/>
-      <c r="P486" s="14"/>
-      <c r="Q486" s="13"/>
-      <c r="R486" s="14"/>
-      <c r="S486" s="14"/>
-      <c r="T486" s="13"/>
-      <c r="U486" s="14"/>
-      <c r="V486" s="14"/>
-      <c r="W486" s="14"/>
-      <c r="X486" s="14"/>
-      <c r="Y486" s="14"/>
-      <c r="Z486" s="14"/>
-      <c r="AA486" s="14"/>
-      <c r="AB486" s="14"/>
-      <c r="AC486" s="14"/>
-      <c r="AD486" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE486" t="s">
-        <v>539</v>
-      </c>
+      <c r="D486"/>
+      <c r="F486" s="11"/>
+      <c r="H486" s="5"/>
+      <c r="I486" s="5"/>
+      <c r="J486" s="5"/>
+      <c r="K486" s="5"/>
+      <c r="L486" s="5"/>
+      <c r="N486" s="5"/>
+      <c r="Q486" s="5"/>
+      <c r="T486" s="5"/>
     </row>
     <row r="487" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A487" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="B487" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C487" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D487" s="16" t="s">
-        <v>956</v>
-      </c>
-      <c r="E487" s="16"/>
-      <c r="F487" s="19">
-        <v>1.9675925925925928E-3</v>
-      </c>
-      <c r="G487" s="21"/>
-      <c r="H487" s="20"/>
-      <c r="I487" s="20"/>
-      <c r="J487" s="20"/>
-      <c r="K487" s="20"/>
-      <c r="L487" s="20"/>
-      <c r="M487" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="N487" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O487" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P487" s="21"/>
-      <c r="Q487" s="20"/>
-      <c r="R487" s="21"/>
-      <c r="S487" s="21"/>
-      <c r="T487" s="20"/>
-      <c r="U487" s="21"/>
-      <c r="V487" s="21"/>
-      <c r="W487" s="21"/>
-      <c r="X487" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y487" s="21"/>
-      <c r="Z487" s="21"/>
-      <c r="AA487" s="21"/>
-      <c r="AB487" s="21"/>
-      <c r="AC487" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD487" t="s">
-        <v>952</v>
-      </c>
-      <c r="AE487" t="s">
-        <v>539</v>
-      </c>
+      <c r="A487" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B487" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C487" s="44"/>
+      <c r="D487"/>
+      <c r="F487" s="11"/>
+      <c r="H487" s="5"/>
+      <c r="I487" s="5"/>
+      <c r="J487" s="5"/>
+      <c r="K487" s="5"/>
+      <c r="L487" s="5"/>
+      <c r="N487" s="5"/>
+      <c r="Q487" s="5"/>
+      <c r="T487" s="5"/>
     </row>
     <row r="488" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A488" t="s">
-        <v>951</v>
-      </c>
-      <c r="B488" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C488" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D488" t="s">
-        <v>956</v>
-      </c>
-      <c r="F488" s="12">
-        <v>1.3194444444444443E-3</v>
-      </c>
-      <c r="G488" s="14"/>
-      <c r="H488" s="13"/>
-      <c r="I488" s="13"/>
-      <c r="J488" s="13"/>
-      <c r="K488" s="13"/>
-      <c r="L488" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M488" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="N488" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O488" s="14"/>
-      <c r="P488" s="14"/>
-      <c r="Q488" s="13"/>
-      <c r="R488" s="14"/>
-      <c r="S488" s="14"/>
-      <c r="T488" s="13"/>
-      <c r="U488" s="14"/>
-      <c r="V488" s="14"/>
-      <c r="W488" s="14"/>
-      <c r="X488" s="14"/>
-      <c r="Y488" s="14"/>
-      <c r="Z488" s="14"/>
-      <c r="AA488" s="14"/>
-      <c r="AB488" s="14"/>
-      <c r="AC488" s="14"/>
-      <c r="AD488" t="s">
-        <v>950</v>
-      </c>
-      <c r="AE488" t="s">
-        <v>539</v>
-      </c>
+      <c r="A488" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B488" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D488"/>
+      <c r="F488" s="11"/>
+      <c r="H488" s="5"/>
+      <c r="I488" s="5"/>
+      <c r="J488" s="5"/>
+      <c r="K488" s="5"/>
+      <c r="L488" s="5"/>
+      <c r="N488" s="5"/>
+      <c r="Q488" s="5"/>
+      <c r="T488" s="5"/>
     </row>
     <row r="489" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A489" s="16" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B489" s="17" t="s">
         <v>4</v>
@@ -24560,7 +24518,7 @@
       </c>
       <c r="E489" s="16"/>
       <c r="F489" s="19">
-        <v>3.5416666666666665E-3</v>
+        <v>2.4537037037037036E-3</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="20"/>
@@ -24580,19 +24538,15 @@
       <c r="T489" s="20"/>
       <c r="U489" s="21"/>
       <c r="V489" s="21"/>
-      <c r="W489" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="W489" s="21"/>
       <c r="X489" s="21"/>
       <c r="Y489" s="21"/>
       <c r="Z489" s="21"/>
       <c r="AA489" s="21"/>
       <c r="AB489" s="21"/>
-      <c r="AC489" s="21" t="s">
-        <v>447</v>
-      </c>
+      <c r="AC489" s="21"/>
       <c r="AD489" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="AE489" t="s">
         <v>539</v>
@@ -24600,16 +24554,19 @@
     </row>
     <row r="490" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B490" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C490" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D490" t="s">
         <v>956</v>
       </c>
       <c r="F490" s="12">
-        <v>2.1527777777777778E-3</v>
+        <v>3.4375E-3</v>
       </c>
       <c r="G490" s="14"/>
       <c r="H490" s="13"/>
@@ -24639,293 +24596,274 @@
       <c r="AB490" s="14"/>
       <c r="AC490" s="14"/>
       <c r="AD490" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="AE490" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="491" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D491"/>
-      <c r="F491" s="11"/>
-      <c r="H491" s="5"/>
-      <c r="I491" s="5"/>
-      <c r="J491" s="5"/>
-      <c r="K491" s="5"/>
-      <c r="L491" s="5"/>
-      <c r="N491" s="5"/>
-      <c r="Q491" s="5"/>
-      <c r="T491" s="5"/>
+      <c r="A491" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="B491" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C491" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D491" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="E491" s="16"/>
+      <c r="F491" s="19">
+        <v>1.9675925925925928E-3</v>
+      </c>
+      <c r="G491" s="21"/>
+      <c r="H491" s="20"/>
+      <c r="I491" s="20"/>
+      <c r="J491" s="20"/>
+      <c r="K491" s="20"/>
+      <c r="L491" s="20"/>
+      <c r="M491" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="N491" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O491" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P491" s="21"/>
+      <c r="Q491" s="20"/>
+      <c r="R491" s="21"/>
+      <c r="S491" s="21"/>
+      <c r="T491" s="20"/>
+      <c r="U491" s="21"/>
+      <c r="V491" s="21"/>
+      <c r="W491" s="21"/>
+      <c r="X491" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y491" s="21"/>
+      <c r="Z491" s="21"/>
+      <c r="AA491" s="21"/>
+      <c r="AB491" s="21"/>
+      <c r="AC491" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD491" t="s">
+        <v>952</v>
+      </c>
+      <c r="AE491" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="492" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A492" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="B492" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C492" s="44"/>
-      <c r="D492"/>
-      <c r="F492" s="11"/>
-      <c r="H492" s="5"/>
-      <c r="I492" s="5"/>
-      <c r="J492" s="5"/>
-      <c r="K492" s="5"/>
-      <c r="L492" s="5"/>
-      <c r="N492" s="5"/>
-      <c r="Q492" s="5"/>
-      <c r="T492" s="5"/>
+      <c r="A492" t="s">
+        <v>951</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D492" t="s">
+        <v>956</v>
+      </c>
+      <c r="F492" s="12">
+        <v>1.3194444444444443E-3</v>
+      </c>
+      <c r="G492" s="14"/>
+      <c r="H492" s="13"/>
+      <c r="I492" s="13"/>
+      <c r="J492" s="13"/>
+      <c r="K492" s="13"/>
+      <c r="L492" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M492" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N492" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O492" s="14"/>
+      <c r="P492" s="14"/>
+      <c r="Q492" s="13"/>
+      <c r="R492" s="14"/>
+      <c r="S492" s="14"/>
+      <c r="T492" s="13"/>
+      <c r="U492" s="14"/>
+      <c r="V492" s="14"/>
+      <c r="W492" s="14"/>
+      <c r="X492" s="14"/>
+      <c r="Y492" s="14"/>
+      <c r="Z492" s="14"/>
+      <c r="AA492" s="14"/>
+      <c r="AB492" s="14"/>
+      <c r="AC492" s="14"/>
+      <c r="AD492" t="s">
+        <v>950</v>
+      </c>
+      <c r="AE492" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="493" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A493" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B493" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C493" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D493"/>
-      <c r="F493" s="11"/>
-      <c r="H493" s="5"/>
-      <c r="I493" s="5"/>
-      <c r="J493" s="5"/>
-      <c r="K493" s="5"/>
-      <c r="L493" s="5"/>
-      <c r="N493" s="5"/>
-      <c r="Q493" s="5"/>
-      <c r="T493" s="5"/>
+      <c r="A493" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="B493" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C493" s="17"/>
+      <c r="D493" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="E493" s="16"/>
+      <c r="F493" s="19">
+        <v>3.5416666666666665E-3</v>
+      </c>
+      <c r="G493" s="21"/>
+      <c r="H493" s="20"/>
+      <c r="I493" s="20"/>
+      <c r="J493" s="20"/>
+      <c r="K493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L493" s="20"/>
+      <c r="M493" s="21"/>
+      <c r="N493" s="20"/>
+      <c r="O493" s="21"/>
+      <c r="P493" s="21"/>
+      <c r="Q493" s="20"/>
+      <c r="R493" s="21"/>
+      <c r="S493" s="21"/>
+      <c r="T493" s="20"/>
+      <c r="U493" s="21"/>
+      <c r="V493" s="21"/>
+      <c r="W493" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X493" s="21"/>
+      <c r="Y493" s="21"/>
+      <c r="Z493" s="21"/>
+      <c r="AA493" s="21"/>
+      <c r="AB493" s="21"/>
+      <c r="AC493" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD493" t="s">
+        <v>958</v>
+      </c>
+      <c r="AE493" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="494" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A494" s="16" t="s">
-        <v>964</v>
-      </c>
-      <c r="B494" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C494" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D494" s="16"/>
-      <c r="E494" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="F494" s="19">
-        <v>1.5821759259259261E-2</v>
-      </c>
-      <c r="G494" s="21"/>
-      <c r="H494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I494" s="20"/>
-      <c r="J494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="N494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P494" s="21"/>
-      <c r="Q494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R494" s="21"/>
-      <c r="S494" s="21"/>
-      <c r="T494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="V494" s="21"/>
-      <c r="W494" s="21"/>
-      <c r="X494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y494" s="21"/>
-      <c r="Z494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA494" s="21"/>
-      <c r="AB494" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC494" s="21"/>
+      <c r="A494" t="s">
+        <v>954</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D494" t="s">
+        <v>956</v>
+      </c>
+      <c r="F494" s="12">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="G494" s="14"/>
+      <c r="H494" s="13"/>
+      <c r="I494" s="13"/>
+      <c r="J494" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K494" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L494" s="13"/>
+      <c r="M494" s="14"/>
+      <c r="N494" s="13"/>
+      <c r="O494" s="14"/>
+      <c r="P494" s="14"/>
+      <c r="Q494" s="13"/>
+      <c r="R494" s="14"/>
+      <c r="S494" s="14"/>
+      <c r="T494" s="13"/>
+      <c r="U494" s="14"/>
+      <c r="V494" s="14"/>
+      <c r="W494" s="14"/>
+      <c r="X494" s="14"/>
+      <c r="Y494" s="14"/>
+      <c r="Z494" s="14"/>
+      <c r="AA494" s="14"/>
+      <c r="AB494" s="14"/>
+      <c r="AC494" s="14"/>
       <c r="AD494" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="AE494" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="495" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A495" t="s">
-        <v>987</v>
-      </c>
-      <c r="B495" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C495" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="D495"/>
-      <c r="F495" s="12">
-        <v>1.5856481481481479E-3</v>
-      </c>
-      <c r="G495" s="14"/>
-      <c r="H495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I495" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J495" s="13"/>
-      <c r="K495" s="13"/>
-      <c r="L495" s="13"/>
-      <c r="M495" s="14"/>
-      <c r="N495" s="13"/>
-      <c r="O495" s="14"/>
-      <c r="P495" s="14"/>
-      <c r="Q495" s="13"/>
-      <c r="R495" s="14"/>
-      <c r="S495" s="14"/>
-      <c r="T495" s="13"/>
-      <c r="U495" s="14"/>
-      <c r="V495" s="14"/>
-      <c r="W495" s="14"/>
-      <c r="X495" s="14"/>
-      <c r="Y495" s="14"/>
-      <c r="Z495" s="14"/>
-      <c r="AA495" s="14"/>
-      <c r="AB495" s="14"/>
-      <c r="AC495" s="14" t="s">
-        <v>968</v>
-      </c>
-      <c r="AD495" t="s">
-        <v>988</v>
-      </c>
-      <c r="AE495" t="s">
-        <v>539</v>
-      </c>
+      <c r="F495" s="11"/>
+      <c r="H495" s="5"/>
+      <c r="I495" s="5"/>
+      <c r="J495" s="5"/>
+      <c r="K495" s="5"/>
+      <c r="L495" s="5"/>
+      <c r="N495" s="5"/>
+      <c r="Q495" s="5"/>
+      <c r="T495" s="5"/>
     </row>
     <row r="496" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A496" s="16" t="s">
-        <v>961</v>
-      </c>
-      <c r="B496" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C496" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D496" s="16" t="s">
-        <v>960</v>
-      </c>
-      <c r="E496" s="16"/>
-      <c r="F496" s="19">
-        <v>3.6226851851851854E-3</v>
-      </c>
-      <c r="G496" s="21"/>
-      <c r="H496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I496" s="20"/>
-      <c r="J496" s="20"/>
-      <c r="K496" s="20"/>
-      <c r="L496" s="20"/>
-      <c r="M496" s="21"/>
-      <c r="N496" s="20"/>
-      <c r="O496" s="21"/>
-      <c r="P496" s="21"/>
-      <c r="Q496" s="20"/>
-      <c r="R496" s="21"/>
-      <c r="S496" s="21"/>
-      <c r="T496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U496" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="V496" s="21"/>
-      <c r="W496" s="21"/>
-      <c r="X496" s="21"/>
-      <c r="Y496" s="21"/>
-      <c r="Z496" s="21"/>
-      <c r="AA496" s="21"/>
-      <c r="AB496" s="21"/>
-      <c r="AC496" s="21"/>
-      <c r="AD496" t="s">
-        <v>982</v>
-      </c>
-      <c r="AE496" t="s">
-        <v>539</v>
-      </c>
+      <c r="A496" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B496" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C496" s="44"/>
+      <c r="D496"/>
+      <c r="F496" s="11"/>
+      <c r="H496" s="5"/>
+      <c r="I496" s="5"/>
+      <c r="J496" s="5"/>
+      <c r="K496" s="5"/>
+      <c r="L496" s="5"/>
+      <c r="N496" s="5"/>
+      <c r="Q496" s="5"/>
+      <c r="T496" s="5"/>
     </row>
     <row r="497" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A497" t="s">
-        <v>983</v>
-      </c>
-      <c r="B497" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C497" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D497" t="s">
-        <v>960</v>
-      </c>
-      <c r="F497" s="12">
-        <v>2.9976851851851848E-3</v>
-      </c>
-      <c r="G497" s="14"/>
-      <c r="H497" s="13"/>
-      <c r="I497" s="13"/>
-      <c r="J497" s="13"/>
-      <c r="K497" s="13"/>
-      <c r="L497" s="13"/>
-      <c r="M497" s="14"/>
-      <c r="N497" s="13"/>
-      <c r="O497" s="14"/>
-      <c r="P497" s="14"/>
-      <c r="Q497" s="13"/>
-      <c r="R497" s="14"/>
-      <c r="S497" s="14"/>
-      <c r="T497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U497" s="14"/>
-      <c r="V497" s="14"/>
-      <c r="W497" s="14"/>
-      <c r="X497" s="14"/>
-      <c r="Y497" s="14"/>
-      <c r="Z497" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA497" s="14"/>
-      <c r="AB497" s="14"/>
-      <c r="AC497" s="14"/>
-      <c r="AD497" t="s">
-        <v>984</v>
-      </c>
-      <c r="AE497" t="s">
-        <v>539</v>
-      </c>
+      <c r="A497" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D497"/>
+      <c r="F497" s="11"/>
+      <c r="H497" s="5"/>
+      <c r="I497" s="5"/>
+      <c r="J497" s="5"/>
+      <c r="K497" s="5"/>
+      <c r="L497" s="5"/>
+      <c r="N497" s="5"/>
+      <c r="Q497" s="5"/>
+      <c r="T497" s="5"/>
     </row>
     <row r="498" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A498" s="16" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="B498" s="17" t="s">
         <v>4</v>
@@ -24933,27 +24871,37 @@
       <c r="C498" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D498" s="16" t="s">
-        <v>960</v>
-      </c>
-      <c r="E498" s="16"/>
+      <c r="D498" s="16"/>
+      <c r="E498" s="16" t="s">
+        <v>966</v>
+      </c>
       <c r="F498" s="19">
-        <v>3.4606481481481485E-3</v>
+        <v>1.5821759259259261E-2</v>
       </c>
       <c r="G498" s="21"/>
-      <c r="H498" s="20"/>
+      <c r="H498" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="I498" s="20"/>
       <c r="J498" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="K498" s="20"/>
-      <c r="L498" s="20"/>
-      <c r="M498" s="21"/>
-      <c r="N498" s="20"/>
-      <c r="O498" s="21"/>
-      <c r="P498" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="K498" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L498" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M498" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="N498" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O498" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P498" s="21"/>
       <c r="Q498" s="20" t="s">
         <v>416</v>
       </c>
@@ -24962,21 +24910,25 @@
       <c r="T498" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="U498" s="21"/>
+      <c r="U498" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="V498" s="21"/>
       <c r="W498" s="21"/>
-      <c r="X498" s="21"/>
+      <c r="X498" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="Y498" s="21"/>
-      <c r="Z498" s="21"/>
+      <c r="Z498" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="AA498" s="21"/>
       <c r="AB498" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="AC498" s="21" t="s">
-        <v>967</v>
-      </c>
+      <c r="AC498" s="21"/>
       <c r="AD498" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="AE498" t="s">
         <v>539</v>
@@ -24984,7 +24936,7 @@
     </row>
     <row r="499" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="B499" s="5" t="s">
         <v>4</v>
@@ -24994,7 +24946,7 @@
       </c>
       <c r="D499"/>
       <c r="F499" s="12">
-        <v>3.7314814814814815E-2</v>
+        <v>1.5856481481481479E-3</v>
       </c>
       <c r="G499" s="14"/>
       <c r="H499" s="13" t="s">
@@ -25003,50 +24955,30 @@
       <c r="I499" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="J499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="N499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O499" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="J499" s="13"/>
+      <c r="K499" s="13"/>
+      <c r="L499" s="13"/>
+      <c r="M499" s="14"/>
+      <c r="N499" s="13"/>
+      <c r="O499" s="14"/>
       <c r="P499" s="14"/>
-      <c r="Q499" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q499" s="13"/>
       <c r="R499" s="14"/>
       <c r="S499" s="14"/>
-      <c r="T499" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U499" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="T499" s="13"/>
+      <c r="U499" s="14"/>
       <c r="V499" s="14"/>
       <c r="W499" s="14"/>
       <c r="X499" s="14"/>
       <c r="Y499" s="14"/>
-      <c r="Z499" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="Z499" s="14"/>
       <c r="AA499" s="14"/>
       <c r="AB499" s="14"/>
       <c r="AC499" s="14" t="s">
-        <v>440</v>
+        <v>968</v>
       </c>
       <c r="AD499" t="s">
-        <v>963</v>
+        <v>988</v>
       </c>
       <c r="AE499" t="s">
         <v>539</v>
@@ -25054,7 +24986,7 @@
     </row>
     <row r="500" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A500" s="16" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="B500" s="17" t="s">
         <v>4</v>
@@ -25063,37 +24995,33 @@
         <v>4</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="E500" s="16"/>
       <c r="F500" s="19">
-        <v>1.7476851851851852E-3</v>
+        <v>3.6226851851851854E-3</v>
       </c>
       <c r="G500" s="21"/>
-      <c r="H500" s="20"/>
+      <c r="H500" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="I500" s="20"/>
       <c r="J500" s="20"/>
-      <c r="K500" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L500" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="K500" s="20"/>
+      <c r="L500" s="20"/>
       <c r="M500" s="21"/>
-      <c r="N500" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="N500" s="20"/>
       <c r="O500" s="21"/>
       <c r="P500" s="21"/>
-      <c r="Q500" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q500" s="20"/>
       <c r="R500" s="21"/>
       <c r="S500" s="21"/>
       <c r="T500" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="U500" s="21"/>
+      <c r="U500" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="V500" s="21"/>
       <c r="W500" s="21"/>
       <c r="X500" s="21"/>
@@ -25103,68 +25031,194 @@
       <c r="AB500" s="21"/>
       <c r="AC500" s="21"/>
       <c r="AD500" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="AE500" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="501" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D501"/>
-      <c r="F501" s="11"/>
-      <c r="H501" s="5"/>
-      <c r="I501" s="5"/>
-      <c r="J501" s="5"/>
-      <c r="K501" s="5"/>
-      <c r="L501" s="5"/>
-      <c r="N501" s="5"/>
-      <c r="Q501" s="5"/>
-      <c r="T501" s="5"/>
-      <c r="Z501" s="5"/>
+      <c r="A501" t="s">
+        <v>983</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D501" t="s">
+        <v>960</v>
+      </c>
+      <c r="F501" s="12">
+        <v>2.9976851851851848E-3</v>
+      </c>
+      <c r="G501" s="14"/>
+      <c r="H501" s="13"/>
+      <c r="I501" s="13"/>
+      <c r="J501" s="13"/>
+      <c r="K501" s="13"/>
+      <c r="L501" s="13"/>
+      <c r="M501" s="14"/>
+      <c r="N501" s="13"/>
+      <c r="O501" s="14"/>
+      <c r="P501" s="14"/>
+      <c r="Q501" s="13"/>
+      <c r="R501" s="14"/>
+      <c r="S501" s="14"/>
+      <c r="T501" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U501" s="14"/>
+      <c r="V501" s="14"/>
+      <c r="W501" s="14"/>
+      <c r="X501" s="14"/>
+      <c r="Y501" s="14"/>
+      <c r="Z501" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA501" s="14"/>
+      <c r="AB501" s="14"/>
+      <c r="AC501" s="14"/>
+      <c r="AD501" t="s">
+        <v>984</v>
+      </c>
+      <c r="AE501" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="502" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A502" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="B502" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C502" s="44"/>
-      <c r="D502"/>
-      <c r="F502" s="11"/>
-      <c r="H502" s="5"/>
-      <c r="I502" s="5"/>
-      <c r="J502" s="5"/>
-      <c r="K502" s="5"/>
-      <c r="L502" s="5"/>
-      <c r="N502" s="5"/>
-      <c r="Q502" s="5"/>
-      <c r="T502" s="5"/>
+      <c r="A502" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="B502" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D502" s="16" t="s">
+        <v>960</v>
+      </c>
+      <c r="E502" s="16"/>
+      <c r="F502" s="19">
+        <v>3.4606481481481485E-3</v>
+      </c>
+      <c r="G502" s="21"/>
+      <c r="H502" s="20"/>
+      <c r="I502" s="20"/>
+      <c r="J502" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K502" s="20"/>
+      <c r="L502" s="20"/>
+      <c r="M502" s="21"/>
+      <c r="N502" s="20"/>
+      <c r="O502" s="21"/>
+      <c r="P502" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q502" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R502" s="21"/>
+      <c r="S502" s="21"/>
+      <c r="T502" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U502" s="21"/>
+      <c r="V502" s="21"/>
+      <c r="W502" s="21"/>
+      <c r="X502" s="21"/>
+      <c r="Y502" s="21"/>
+      <c r="Z502" s="21"/>
+      <c r="AA502" s="21"/>
+      <c r="AB502" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC502" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="AD502" t="s">
+        <v>986</v>
+      </c>
+      <c r="AE502" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="503" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A503" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B503" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C503" s="7" t="s">
-        <v>2</v>
+      <c r="A503" t="s">
+        <v>962</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D503"/>
-      <c r="F503" s="11"/>
-      <c r="H503" s="5"/>
-      <c r="I503" s="5"/>
-      <c r="J503" s="5"/>
-      <c r="K503" s="5"/>
-      <c r="L503" s="5"/>
-      <c r="N503" s="5"/>
-      <c r="Q503" s="5"/>
-      <c r="T503" s="5"/>
+      <c r="F503" s="12">
+        <v>3.7314814814814815E-2</v>
+      </c>
+      <c r="G503" s="14"/>
+      <c r="H503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P503" s="14"/>
+      <c r="Q503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R503" s="14"/>
+      <c r="S503" s="14"/>
+      <c r="T503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V503" s="14"/>
+      <c r="W503" s="14"/>
+      <c r="X503" s="14"/>
+      <c r="Y503" s="14"/>
+      <c r="Z503" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA503" s="14"/>
+      <c r="AB503" s="14"/>
+      <c r="AC503" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD503" t="s">
+        <v>963</v>
+      </c>
+      <c r="AE503" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="504" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A504" s="16" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="B504" s="17" t="s">
         <v>4</v>
@@ -25172,205 +25226,109 @@
       <c r="C504" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D504" s="16"/>
+      <c r="D504" s="16" t="s">
+        <v>971</v>
+      </c>
       <c r="E504" s="16"/>
       <c r="F504" s="19">
-        <v>4.6296296296296293E-4</v>
+        <v>1.7476851851851852E-3</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="20"/>
       <c r="I504" s="20"/>
       <c r="J504" s="20"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="L504" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="M504" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="N504" s="20"/>
+      <c r="M504" s="21"/>
+      <c r="N504" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="O504" s="21"/>
       <c r="P504" s="21"/>
-      <c r="Q504" s="20"/>
+      <c r="Q504" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="R504" s="21"/>
       <c r="S504" s="21"/>
-      <c r="T504" s="20"/>
+      <c r="T504" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="U504" s="21"/>
       <c r="V504" s="21"/>
       <c r="W504" s="21"/>
       <c r="X504" s="21"/>
       <c r="Y504" s="21"/>
-      <c r="Z504" s="20"/>
+      <c r="Z504" s="21"/>
       <c r="AA504" s="21"/>
       <c r="AB504" s="21"/>
       <c r="AC504" s="21"/>
       <c r="AD504" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="AE504" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="505" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A505" t="s">
-        <v>999</v>
-      </c>
-      <c r="B505" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C505" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="D505"/>
-      <c r="F505" s="12">
-        <v>6.8287037037037025E-4</v>
-      </c>
-      <c r="G505" s="14"/>
-      <c r="H505" s="13"/>
-      <c r="I505" s="13"/>
-      <c r="J505" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K505" s="13"/>
-      <c r="L505" s="13"/>
-      <c r="M505" s="14"/>
-      <c r="N505" s="13"/>
-      <c r="O505" s="14"/>
-      <c r="P505" s="14"/>
-      <c r="Q505" s="13"/>
-      <c r="R505" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S505" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T505" s="13"/>
-      <c r="U505" s="14"/>
-      <c r="V505" s="14"/>
-      <c r="W505" s="14"/>
-      <c r="X505" s="14"/>
-      <c r="Y505" s="14"/>
-      <c r="Z505" s="13"/>
-      <c r="AA505" s="14"/>
-      <c r="AB505" s="14"/>
-      <c r="AC505" s="14" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AD505" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AE505" t="s">
-        <v>539</v>
-      </c>
+      <c r="F505" s="11"/>
+      <c r="H505" s="5"/>
+      <c r="I505" s="5"/>
+      <c r="J505" s="5"/>
+      <c r="K505" s="5"/>
+      <c r="L505" s="5"/>
+      <c r="N505" s="5"/>
+      <c r="Q505" s="5"/>
+      <c r="T505" s="5"/>
+      <c r="Z505" s="5"/>
     </row>
     <row r="506" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A506" s="16" t="s">
-        <v>993</v>
-      </c>
-      <c r="B506" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C506" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D506" s="16"/>
-      <c r="E506" s="16"/>
-      <c r="F506" s="19">
-        <v>9.7222222222222209E-4</v>
-      </c>
-      <c r="G506" s="21"/>
-      <c r="H506" s="20"/>
-      <c r="I506" s="20"/>
-      <c r="J506" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K506" s="20"/>
-      <c r="L506" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M506" s="21"/>
-      <c r="N506" s="20"/>
-      <c r="O506" s="21"/>
-      <c r="P506" s="21"/>
-      <c r="Q506" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R506" s="21"/>
-      <c r="S506" s="21"/>
-      <c r="T506" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U506" s="21"/>
-      <c r="V506" s="21"/>
-      <c r="W506" s="21"/>
-      <c r="X506" s="21"/>
-      <c r="Y506" s="21"/>
-      <c r="Z506" s="20"/>
-      <c r="AA506" s="21"/>
-      <c r="AB506" s="21"/>
-      <c r="AC506" s="21"/>
-      <c r="AD506" t="s">
-        <v>994</v>
-      </c>
-      <c r="AE506" t="s">
-        <v>539</v>
-      </c>
+      <c r="A506" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B506" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C506" s="44"/>
+      <c r="D506"/>
+      <c r="F506" s="11"/>
+      <c r="H506" s="5"/>
+      <c r="I506" s="5"/>
+      <c r="J506" s="5"/>
+      <c r="K506" s="5"/>
+      <c r="L506" s="5"/>
+      <c r="N506" s="5"/>
+      <c r="Q506" s="5"/>
+      <c r="T506" s="5"/>
     </row>
     <row r="507" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A507" t="s">
-        <v>995</v>
-      </c>
-      <c r="B507" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C507" s="5" t="s">
-        <v>4</v>
+      <c r="A507" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D507"/>
-      <c r="F507" s="12">
-        <v>9.7222222222222209E-4</v>
-      </c>
-      <c r="G507" s="14"/>
-      <c r="H507" s="13"/>
-      <c r="I507" s="13"/>
-      <c r="J507" s="13"/>
-      <c r="K507" s="13"/>
-      <c r="L507" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M507" s="14"/>
-      <c r="N507" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O507" s="14"/>
-      <c r="P507" s="14"/>
-      <c r="Q507" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R507" s="14"/>
-      <c r="S507" s="14"/>
-      <c r="T507" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U507" s="14"/>
-      <c r="V507" s="14"/>
-      <c r="W507" s="14"/>
-      <c r="X507" s="14"/>
-      <c r="Y507" s="14"/>
-      <c r="Z507" s="13"/>
-      <c r="AA507" s="14"/>
-      <c r="AB507" s="14"/>
-      <c r="AC507" s="14"/>
-      <c r="AD507" t="s">
-        <v>996</v>
-      </c>
-      <c r="AE507" t="s">
-        <v>539</v>
-      </c>
+      <c r="F507" s="11"/>
+      <c r="H507" s="5"/>
+      <c r="I507" s="5"/>
+      <c r="J507" s="5"/>
+      <c r="K507" s="5"/>
+      <c r="L507" s="5"/>
+      <c r="N507" s="5"/>
+      <c r="Q507" s="5"/>
+      <c r="T507" s="5"/>
     </row>
     <row r="508" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A508" s="16" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="B508" s="17" t="s">
         <v>4</v>
@@ -25381,20 +25339,22 @@
       <c r="D508" s="16"/>
       <c r="E508" s="16"/>
       <c r="F508" s="19">
-        <v>6.4814814814814813E-4</v>
+        <v>4.6296296296296293E-4</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="20"/>
       <c r="I508" s="20"/>
       <c r="J508" s="20"/>
       <c r="K508" s="20"/>
-      <c r="L508" s="20"/>
-      <c r="M508" s="21"/>
+      <c r="L508" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M508" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="N508" s="20"/>
       <c r="O508" s="21"/>
-      <c r="P508" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="P508" s="21"/>
       <c r="Q508" s="20"/>
       <c r="R508" s="21"/>
       <c r="S508" s="21"/>
@@ -25407,11 +25367,9 @@
       <c r="Z508" s="20"/>
       <c r="AA508" s="21"/>
       <c r="AB508" s="21"/>
-      <c r="AC508" s="21" t="s">
-        <v>453</v>
-      </c>
+      <c r="AC508" s="21"/>
       <c r="AD508" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="AE508" t="s">
         <v>539</v>
@@ -25419,7 +25377,7 @@
     </row>
     <row r="509" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B509" s="5" t="s">
         <v>4</v>
@@ -25429,14 +25387,14 @@
       </c>
       <c r="D509"/>
       <c r="F509" s="12">
-        <v>6.7129629629629625E-4</v>
+        <v>6.8287037037037025E-4</v>
       </c>
       <c r="G509" s="14"/>
       <c r="H509" s="13"/>
-      <c r="I509" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J509" s="13"/>
+      <c r="I509" s="13"/>
+      <c r="J509" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="K509" s="13"/>
       <c r="L509" s="13"/>
       <c r="M509" s="14"/>
@@ -25444,8 +25402,12 @@
       <c r="O509" s="14"/>
       <c r="P509" s="14"/>
       <c r="Q509" s="13"/>
-      <c r="R509" s="14"/>
-      <c r="S509" s="14"/>
+      <c r="R509" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S509" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="T509" s="13"/>
       <c r="U509" s="14"/>
       <c r="V509" s="14"/>
@@ -25455,9 +25417,11 @@
       <c r="Z509" s="13"/>
       <c r="AA509" s="14"/>
       <c r="AB509" s="14"/>
-      <c r="AC509" s="14"/>
+      <c r="AC509" s="14" t="s">
+        <v>1009</v>
+      </c>
       <c r="AD509" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="AE509" t="s">
         <v>539</v>
@@ -25465,7 +25429,7 @@
     </row>
     <row r="510" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A510" s="16" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="B510" s="17" t="s">
         <v>4</v>
@@ -25476,28 +25440,26 @@
       <c r="D510" s="16"/>
       <c r="E510" s="16"/>
       <c r="F510" s="19">
-        <v>6.3657407407407402E-4</v>
+        <v>9.7222222222222209E-4</v>
       </c>
       <c r="G510" s="21"/>
-      <c r="H510" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="H510" s="20"/>
       <c r="I510" s="20"/>
-      <c r="J510" s="20"/>
+      <c r="J510" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K510" s="20"/>
-      <c r="L510" s="20"/>
+      <c r="L510" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="M510" s="21"/>
-      <c r="N510" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="N510" s="20"/>
       <c r="O510" s="21"/>
       <c r="P510" s="21"/>
       <c r="Q510" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="R510" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="R510" s="21"/>
       <c r="S510" s="21"/>
       <c r="T510" s="20" t="s">
         <v>416</v>
@@ -25512,7 +25474,7 @@
       <c r="AB510" s="21"/>
       <c r="AC510" s="21"/>
       <c r="AD510" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="AE510" t="s">
         <v>539</v>
@@ -25520,7 +25482,7 @@
     </row>
     <row r="511" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="B511" s="5" t="s">
         <v>4</v>
@@ -25530,27 +25492,27 @@
       </c>
       <c r="D511"/>
       <c r="F511" s="12">
-        <v>7.9861111111111105E-4</v>
+        <v>9.7222222222222209E-4</v>
       </c>
       <c r="G511" s="14"/>
       <c r="H511" s="13"/>
-      <c r="I511" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="I511" s="13"/>
       <c r="J511" s="13"/>
-      <c r="K511" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L511" s="13"/>
+      <c r="K511" s="13"/>
+      <c r="L511" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="M511" s="14"/>
-      <c r="N511" s="13"/>
+      <c r="N511" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="O511" s="14"/>
       <c r="P511" s="14"/>
-      <c r="Q511" s="13"/>
+      <c r="Q511" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="R511" s="14"/>
-      <c r="S511" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="S511" s="14"/>
       <c r="T511" s="13" t="s">
         <v>416</v>
       </c>
@@ -25562,11 +25524,9 @@
       <c r="Z511" s="13"/>
       <c r="AA511" s="14"/>
       <c r="AB511" s="14"/>
-      <c r="AC511" s="14" t="s">
-        <v>968</v>
-      </c>
+      <c r="AC511" s="14"/>
       <c r="AD511" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="AE511" t="s">
         <v>539</v>
@@ -25574,7 +25534,7 @@
     </row>
     <row r="512" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A512" s="16" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="B512" s="17" t="s">
         <v>4</v>
@@ -25585,7 +25545,7 @@
       <c r="D512" s="16"/>
       <c r="E512" s="16"/>
       <c r="F512" s="19">
-        <v>6.7129629629629625E-4</v>
+        <v>6.4814814814814813E-4</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="20"/>
@@ -25596,10 +25556,10 @@
       <c r="M512" s="21"/>
       <c r="N512" s="20"/>
       <c r="O512" s="21"/>
-      <c r="P512" s="21"/>
-      <c r="Q512" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="P512" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q512" s="20"/>
       <c r="R512" s="21"/>
       <c r="S512" s="21"/>
       <c r="T512" s="20"/>
@@ -25611,9 +25571,11 @@
       <c r="Z512" s="20"/>
       <c r="AA512" s="21"/>
       <c r="AB512" s="21"/>
-      <c r="AC512" s="21"/>
+      <c r="AC512" s="21" t="s">
+        <v>453</v>
+      </c>
       <c r="AD512" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="AE512" t="s">
         <v>539</v>
@@ -25621,7 +25583,7 @@
     </row>
     <row r="513" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B513" s="5" t="s">
         <v>4</v>
@@ -25631,7 +25593,7 @@
       </c>
       <c r="D513"/>
       <c r="F513" s="12">
-        <v>4.6296296296296293E-4</v>
+        <v>6.7129629629629625E-4</v>
       </c>
       <c r="G513" s="14"/>
       <c r="H513" s="13"/>
@@ -25644,17 +25606,11 @@
       <c r="M513" s="14"/>
       <c r="N513" s="13"/>
       <c r="O513" s="14"/>
-      <c r="P513" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="P513" s="14"/>
       <c r="Q513" s="13"/>
       <c r="R513" s="14"/>
-      <c r="S513" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T513" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="S513" s="14"/>
+      <c r="T513" s="13"/>
       <c r="U513" s="14"/>
       <c r="V513" s="14"/>
       <c r="W513" s="14"/>
@@ -25665,278 +25621,290 @@
       <c r="AB513" s="14"/>
       <c r="AC513" s="14"/>
       <c r="AD513" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AE513" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="514" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B514"/>
-      <c r="C514"/>
-      <c r="D514"/>
-    </row>
-    <row r="515" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A515" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B515" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C515" s="44"/>
-      <c r="D515" s="6"/>
-    </row>
-    <row r="516" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A516" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B516" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C516" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D516" s="6"/>
-    </row>
-    <row r="517" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="16" t="s">
-        <v>887</v>
-      </c>
-      <c r="B517" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C517" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D517" s="18"/>
-      <c r="E517" s="16"/>
-      <c r="F517" s="19">
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="G517" s="21"/>
-      <c r="H517" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I517" s="21"/>
-      <c r="J517" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K517" s="20"/>
-      <c r="L517" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M517" s="21"/>
-      <c r="N517" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O517" s="21"/>
-      <c r="P517" s="21"/>
-      <c r="Q517" s="20"/>
-      <c r="R517" s="20"/>
-      <c r="S517" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T517" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U517" s="21"/>
-      <c r="V517" s="21"/>
-      <c r="W517" s="21"/>
-      <c r="X517" s="20"/>
-      <c r="Y517" s="21"/>
-      <c r="Z517" s="21"/>
-      <c r="AA517" s="21"/>
-      <c r="AB517" s="21"/>
-      <c r="AC517" s="21"/>
+      <c r="A514" s="16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B514" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C514" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D514" s="16"/>
+      <c r="E514" s="16"/>
+      <c r="F514" s="19">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="G514" s="21"/>
+      <c r="H514" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I514" s="20"/>
+      <c r="J514" s="20"/>
+      <c r="K514" s="20"/>
+      <c r="L514" s="20"/>
+      <c r="M514" s="21"/>
+      <c r="N514" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O514" s="21"/>
+      <c r="P514" s="21"/>
+      <c r="Q514" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R514" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S514" s="21"/>
+      <c r="T514" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U514" s="21"/>
+      <c r="V514" s="21"/>
+      <c r="W514" s="21"/>
+      <c r="X514" s="21"/>
+      <c r="Y514" s="21"/>
+      <c r="Z514" s="20"/>
+      <c r="AA514" s="21"/>
+      <c r="AB514" s="21"/>
+      <c r="AC514" s="21"/>
+      <c r="AD514" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AE514" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="515" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>989</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D515"/>
+      <c r="F515" s="12">
+        <v>7.9861111111111105E-4</v>
+      </c>
+      <c r="G515" s="14"/>
+      <c r="H515" s="13"/>
+      <c r="I515" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J515" s="13"/>
+      <c r="K515" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L515" s="13"/>
+      <c r="M515" s="14"/>
+      <c r="N515" s="13"/>
+      <c r="O515" s="14"/>
+      <c r="P515" s="14"/>
+      <c r="Q515" s="13"/>
+      <c r="R515" s="14"/>
+      <c r="S515" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T515" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U515" s="14"/>
+      <c r="V515" s="14"/>
+      <c r="W515" s="14"/>
+      <c r="X515" s="14"/>
+      <c r="Y515" s="14"/>
+      <c r="Z515" s="13"/>
+      <c r="AA515" s="14"/>
+      <c r="AB515" s="14"/>
+      <c r="AC515" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="AD515" t="s">
+        <v>990</v>
+      </c>
+      <c r="AE515" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="516" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A516" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="B516" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D516" s="16"/>
+      <c r="E516" s="16"/>
+      <c r="F516" s="19">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="G516" s="21"/>
+      <c r="H516" s="20"/>
+      <c r="I516" s="20"/>
+      <c r="J516" s="20"/>
+      <c r="K516" s="20"/>
+      <c r="L516" s="20"/>
+      <c r="M516" s="21"/>
+      <c r="N516" s="20"/>
+      <c r="O516" s="21"/>
+      <c r="P516" s="21"/>
+      <c r="Q516" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R516" s="21"/>
+      <c r="S516" s="21"/>
+      <c r="T516" s="20"/>
+      <c r="U516" s="21"/>
+      <c r="V516" s="21"/>
+      <c r="W516" s="21"/>
+      <c r="X516" s="21"/>
+      <c r="Y516" s="21"/>
+      <c r="Z516" s="20"/>
+      <c r="AA516" s="21"/>
+      <c r="AB516" s="21"/>
+      <c r="AC516" s="21"/>
+      <c r="AD516" t="s">
+        <v>997</v>
+      </c>
+      <c r="AE516" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="517" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D517"/>
+      <c r="F517" s="12">
+        <v>4.6296296296296293E-4</v>
+      </c>
+      <c r="G517" s="14"/>
+      <c r="H517" s="13"/>
+      <c r="I517" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J517" s="13"/>
+      <c r="K517" s="13"/>
+      <c r="L517" s="13"/>
+      <c r="M517" s="14"/>
+      <c r="N517" s="13"/>
+      <c r="O517" s="14"/>
+      <c r="P517" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q517" s="13"/>
+      <c r="R517" s="14"/>
+      <c r="S517" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T517" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U517" s="14"/>
+      <c r="V517" s="14"/>
+      <c r="W517" s="14"/>
+      <c r="X517" s="14"/>
+      <c r="Y517" s="14"/>
+      <c r="Z517" s="13"/>
+      <c r="AA517" s="14"/>
+      <c r="AB517" s="14"/>
+      <c r="AC517" s="14"/>
       <c r="AD517" t="s">
-        <v>888</v>
+        <v>1006</v>
       </c>
       <c r="AE517" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="518" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A518" t="s">
-        <v>885</v>
-      </c>
-      <c r="B518" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C518" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D518" s="4"/>
-      <c r="E518"/>
-      <c r="F518" s="12">
-        <v>1.9097222222222222E-3</v>
-      </c>
-      <c r="G518" s="14"/>
-      <c r="H518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M518" s="14"/>
-      <c r="N518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O518" s="14"/>
-      <c r="P518" s="14"/>
-      <c r="Q518" s="13"/>
-      <c r="R518" s="13"/>
-      <c r="S518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U518" s="14"/>
-      <c r="V518" s="14"/>
-      <c r="W518" s="14"/>
-      <c r="X518" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y518" s="14"/>
-      <c r="Z518" s="14"/>
-      <c r="AA518" s="14"/>
-      <c r="AB518" s="14"/>
-      <c r="AC518" s="14"/>
-      <c r="AD518" t="s">
-        <v>886</v>
-      </c>
-      <c r="AE518" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="519" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A519" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="B519" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C519" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D519" s="18"/>
-      <c r="E519" s="16"/>
-      <c r="F519" s="19">
-        <v>1.5046296296296294E-3</v>
-      </c>
-      <c r="G519" s="21"/>
-      <c r="H519" s="21"/>
-      <c r="I519" s="21"/>
-      <c r="J519" s="21"/>
-      <c r="K519" s="21"/>
-      <c r="L519" s="21"/>
-      <c r="M519" s="21"/>
-      <c r="N519" s="21"/>
-      <c r="O519" s="21"/>
-      <c r="P519" s="21"/>
-      <c r="Q519" s="21"/>
-      <c r="R519" s="21"/>
-      <c r="S519" s="21"/>
-      <c r="T519" s="21"/>
-      <c r="U519" s="21"/>
-      <c r="V519" s="21"/>
-      <c r="W519" s="21"/>
-      <c r="X519" s="21"/>
-      <c r="Y519" s="21"/>
-      <c r="Z519" s="21"/>
-      <c r="AA519" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB519" s="21"/>
-      <c r="AC519" s="21"/>
-      <c r="AD519" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE519" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="520" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A520" t="s">
-        <v>756</v>
-      </c>
-      <c r="B520" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C520" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D520" s="4"/>
-      <c r="E520"/>
-      <c r="F520" s="12">
-        <v>7.6736111111111111E-3</v>
-      </c>
-      <c r="G520" s="14"/>
-      <c r="H520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I520" s="14"/>
-      <c r="J520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M520" s="14"/>
-      <c r="N520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R520" s="14"/>
-      <c r="S520" s="14"/>
-      <c r="T520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U520" s="14"/>
-      <c r="V520" s="14"/>
-      <c r="W520" s="14"/>
-      <c r="X520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y520" s="14"/>
-      <c r="Z520" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA520" s="14"/>
-      <c r="AB520" s="14"/>
-      <c r="AC520" s="14" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD520" t="s">
-        <v>757</v>
-      </c>
-      <c r="AE520" t="s">
-        <v>539</v>
-      </c>
+    <row r="518" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="D518"/>
+      <c r="F518" s="45"/>
+      <c r="G518" s="46"/>
+      <c r="H518" s="47"/>
+      <c r="I518" s="47"/>
+      <c r="J518" s="47"/>
+      <c r="K518" s="47"/>
+      <c r="L518" s="47"/>
+      <c r="M518" s="46"/>
+      <c r="N518" s="47"/>
+      <c r="O518" s="46"/>
+      <c r="P518" s="47"/>
+      <c r="Q518" s="47"/>
+      <c r="R518" s="46"/>
+      <c r="S518" s="47"/>
+      <c r="T518" s="47"/>
+      <c r="U518" s="46"/>
+      <c r="V518" s="46"/>
+      <c r="W518" s="46"/>
+      <c r="X518" s="46"/>
+      <c r="Y518" s="46"/>
+      <c r="Z518" s="47"/>
+      <c r="AA518" s="46"/>
+      <c r="AB518" s="46"/>
+      <c r="AC518" s="46"/>
+    </row>
+    <row r="519" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A519" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B519" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C519" s="44"/>
+      <c r="D519"/>
+      <c r="F519" s="11"/>
+      <c r="H519" s="5"/>
+      <c r="I519" s="5"/>
+      <c r="J519" s="5"/>
+      <c r="K519" s="5"/>
+      <c r="L519" s="5"/>
+      <c r="N519" s="5"/>
+      <c r="Q519" s="5"/>
+      <c r="T519" s="5"/>
+    </row>
+    <row r="520" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A520" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D520"/>
+      <c r="F520" s="11"/>
+      <c r="H520" s="5"/>
+      <c r="I520" s="5"/>
+      <c r="J520" s="5"/>
+      <c r="K520" s="5"/>
+      <c r="L520" s="5"/>
+      <c r="N520" s="5"/>
+      <c r="Q520" s="5"/>
+      <c r="T520" s="5"/>
     </row>
     <row r="521" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A521" s="16" t="s">
-        <v>883</v>
+        <v>1011</v>
       </c>
       <c r="B521" s="17" t="s">
         <v>4</v>
@@ -25944,19 +25912,17 @@
       <c r="C521" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D521" s="18"/>
+      <c r="D521" s="16" t="s">
+        <v>1017</v>
+      </c>
       <c r="E521" s="16"/>
       <c r="F521" s="19">
-        <v>1.9444444444444442E-3</v>
+        <v>3.2407407407407406E-3</v>
       </c>
       <c r="G521" s="21"/>
-      <c r="H521" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I521" s="21"/>
-      <c r="J521" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="H521" s="20"/>
+      <c r="I521" s="20"/>
+      <c r="J521" s="20"/>
       <c r="K521" s="20"/>
       <c r="L521" s="20" t="s">
         <v>416</v>
@@ -25965,190 +25931,60 @@
       <c r="N521" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="O521" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P521" s="21"/>
-      <c r="Q521" s="20"/>
-      <c r="R521" s="20"/>
-      <c r="S521" s="21"/>
-      <c r="T521" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="O521" s="21"/>
+      <c r="P521" s="20"/>
+      <c r="Q521" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R521" s="21"/>
+      <c r="S521" s="20"/>
+      <c r="T521" s="20"/>
       <c r="U521" s="21"/>
       <c r="V521" s="21"/>
       <c r="W521" s="21"/>
-      <c r="X521" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="X521" s="21"/>
       <c r="Y521" s="21"/>
-      <c r="Z521" s="21"/>
+      <c r="Z521" s="20"/>
       <c r="AA521" s="21"/>
       <c r="AB521" s="21"/>
-      <c r="AC521" s="21" t="s">
-        <v>441</v>
-      </c>
+      <c r="AC521" s="21"/>
       <c r="AD521" t="s">
-        <v>884</v>
+        <v>1012</v>
       </c>
       <c r="AE521" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="522" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A522" t="s">
-        <v>881</v>
-      </c>
-      <c r="B522" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C522" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F522" s="12">
-        <v>1.7708333333333332E-3</v>
-      </c>
-      <c r="G522" s="14"/>
-      <c r="H522" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I522" s="14"/>
-      <c r="J522" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K522" s="13"/>
-      <c r="L522" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M522" s="14"/>
-      <c r="N522" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O522" s="14"/>
-      <c r="P522" s="14"/>
-      <c r="Q522" s="13"/>
-      <c r="R522" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S522" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T522" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U522" s="14"/>
-      <c r="V522" s="14"/>
-      <c r="W522" s="14"/>
-      <c r="X522" s="13"/>
-      <c r="Y522" s="14"/>
-      <c r="Z522" s="14"/>
-      <c r="AA522" s="14"/>
-      <c r="AB522" s="14"/>
-      <c r="AC522" s="14"/>
-      <c r="AD522" t="s">
-        <v>882</v>
-      </c>
-      <c r="AE522" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A523" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B523" s="31"/>
-      <c r="C523" s="17"/>
-      <c r="D523" s="22"/>
-      <c r="E523" s="26"/>
-      <c r="F523" s="19">
-        <v>2.1643518518518518E-3</v>
-      </c>
-      <c r="G523" s="23"/>
-      <c r="H523" s="23"/>
-      <c r="I523" s="23"/>
-      <c r="J523" s="23"/>
-      <c r="K523" s="23"/>
-      <c r="L523" s="23"/>
-      <c r="M523" s="23"/>
-      <c r="N523" s="23"/>
-      <c r="O523" s="23"/>
-      <c r="P523" s="23"/>
-      <c r="Q523" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R523" s="23"/>
-      <c r="S523" s="23"/>
-      <c r="T523" s="23"/>
-      <c r="U523" s="23"/>
-      <c r="V523" s="23"/>
-      <c r="W523" s="23"/>
-      <c r="X523" s="23"/>
-      <c r="Y523" s="23"/>
-      <c r="Z523" s="23"/>
-      <c r="AA523" s="23"/>
-      <c r="AB523" s="23"/>
-      <c r="AC523" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="AD523" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE523" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A524" t="s">
-        <v>432</v>
-      </c>
-      <c r="C524" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D524" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F524" s="12">
-        <v>3.695601851851852E-2</v>
-      </c>
-      <c r="G524" s="14"/>
-      <c r="H524" s="14"/>
-      <c r="I524" s="14"/>
-      <c r="J524" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K524" s="14"/>
-      <c r="L524" s="14"/>
-      <c r="M524" s="14"/>
-      <c r="N524" s="14"/>
-      <c r="O524" s="14"/>
-      <c r="P524" s="14"/>
-      <c r="Q524" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R524" s="14"/>
-      <c r="S524" s="14"/>
-      <c r="T524" s="14"/>
-      <c r="U524" s="14"/>
-      <c r="V524" s="14"/>
-      <c r="W524" s="14"/>
-      <c r="X524" s="14"/>
-      <c r="Y524" s="14"/>
-      <c r="Z524" s="14"/>
-      <c r="AA524" s="14"/>
-      <c r="AB524" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC524" s="14"/>
-      <c r="AD524" t="s">
-        <v>817</v>
-      </c>
-      <c r="AE524" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B522"/>
+      <c r="C522"/>
+      <c r="D522"/>
+    </row>
+    <row r="523" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A523" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B523" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C523" s="44"/>
+      <c r="D523" s="6"/>
+    </row>
+    <row r="524" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A524" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B524" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D524" s="6"/>
+    </row>
+    <row r="525" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A525" s="16" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="B525" s="17" t="s">
         <v>4</v>
@@ -26159,7 +25995,7 @@
       <c r="D525" s="18"/>
       <c r="E525" s="16"/>
       <c r="F525" s="19">
-        <v>1.8981481481481482E-3</v>
+        <v>1.8865740740740742E-3</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="20" t="s">
@@ -26180,9 +26016,7 @@
       <c r="O525" s="21"/>
       <c r="P525" s="21"/>
       <c r="Q525" s="20"/>
-      <c r="R525" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="R525" s="20"/>
       <c r="S525" s="20" t="s">
         <v>416</v>
       </c>
@@ -26196,20 +26030,18 @@
       <c r="Y525" s="21"/>
       <c r="Z525" s="21"/>
       <c r="AA525" s="21"/>
-      <c r="AB525" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="AB525" s="21"/>
       <c r="AC525" s="21"/>
       <c r="AD525" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="AE525" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>497</v>
+        <v>885</v>
       </c>
       <c r="B526" s="5" t="s">
         <v>4</v>
@@ -26217,111 +26049,109 @@
       <c r="C526" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D526" s="4"/>
+      <c r="E526"/>
       <c r="F526" s="12">
-        <v>7.6388888888888893E-4</v>
+        <v>1.9097222222222222E-3</v>
       </c>
       <c r="G526" s="14"/>
-      <c r="H526" s="14"/>
-      <c r="I526" s="14"/>
+      <c r="H526" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I526" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="J526" s="13" t="s">
         <v>416</v>
       </c>
       <c r="K526" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="L526" s="14"/>
+      <c r="L526" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="M526" s="14"/>
-      <c r="N526" s="14"/>
+      <c r="N526" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="O526" s="14"/>
       <c r="P526" s="14"/>
-      <c r="Q526" s="14"/>
-      <c r="R526" s="14"/>
-      <c r="S526" s="14"/>
-      <c r="T526" s="14"/>
+      <c r="Q526" s="13"/>
+      <c r="R526" s="13"/>
+      <c r="S526" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T526" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="U526" s="14"/>
       <c r="V526" s="14"/>
       <c r="W526" s="14"/>
-      <c r="X526" s="14"/>
+      <c r="X526" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="Y526" s="14"/>
       <c r="Z526" s="14"/>
       <c r="AA526" s="14"/>
       <c r="AB526" s="14"/>
       <c r="AC526" s="14"/>
       <c r="AD526" t="s">
-        <v>498</v>
+        <v>886</v>
       </c>
       <c r="AE526" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="527" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B527" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C527" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D527" s="18"/>
+      <c r="E527" s="16"/>
+      <c r="F527" s="19">
+        <v>1.5046296296296294E-3</v>
+      </c>
+      <c r="G527" s="21"/>
+      <c r="H527" s="21"/>
+      <c r="I527" s="21"/>
+      <c r="J527" s="21"/>
+      <c r="K527" s="21"/>
+      <c r="L527" s="21"/>
+      <c r="M527" s="21"/>
+      <c r="N527" s="21"/>
+      <c r="O527" s="21"/>
+      <c r="P527" s="21"/>
+      <c r="Q527" s="21"/>
+      <c r="R527" s="21"/>
+      <c r="S527" s="21"/>
+      <c r="T527" s="21"/>
+      <c r="U527" s="21"/>
+      <c r="V527" s="21"/>
+      <c r="W527" s="21"/>
+      <c r="X527" s="21"/>
+      <c r="Y527" s="21"/>
+      <c r="Z527" s="21"/>
+      <c r="AA527" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB527" s="21"/>
+      <c r="AC527" s="21"/>
+      <c r="AD527" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE527" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A527" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B527" s="31"/>
-      <c r="C527" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D527" s="22"/>
-      <c r="E527" s="26"/>
-      <c r="F527" s="19">
-        <v>3.8078703703703707E-3</v>
-      </c>
-      <c r="G527" s="23"/>
-      <c r="H527" s="23"/>
-      <c r="I527" s="23"/>
-      <c r="J527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M527" s="23"/>
-      <c r="N527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S527" s="23"/>
-      <c r="T527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U527" s="23"/>
-      <c r="V527" s="23"/>
-      <c r="W527" s="23"/>
-      <c r="X527" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y527" s="23"/>
-      <c r="Z527" s="23"/>
-      <c r="AA527" s="23"/>
-      <c r="AB527" s="23"/>
-      <c r="AC527" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD527" t="s">
-        <v>819</v>
-      </c>
-      <c r="AE527" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>853</v>
+        <v>756</v>
       </c>
       <c r="B528" s="5" t="s">
         <v>4</v>
@@ -26329,52 +26159,60 @@
       <c r="C528" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D528" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E528" s="1"/>
+      <c r="D528" s="4"/>
+      <c r="E528"/>
       <c r="F528" s="12">
-        <v>2.4768518518518516E-3</v>
-      </c>
-      <c r="G528" s="25"/>
+        <v>7.6736111111111111E-3</v>
+      </c>
+      <c r="G528" s="14"/>
       <c r="H528" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="I528" s="25"/>
-      <c r="J528" s="25"/>
-      <c r="K528" s="25"/>
-      <c r="L528" s="25"/>
-      <c r="M528" s="25"/>
+      <c r="I528" s="14"/>
+      <c r="J528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M528" s="14"/>
       <c r="N528" s="13" t="s">
         <v>416</v>
       </c>
       <c r="O528" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="P528" s="25"/>
+      <c r="P528" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="Q528" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="R528" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S528" s="25"/>
-      <c r="T528" s="25"/>
-      <c r="U528" s="25"/>
-      <c r="V528" s="25"/>
-      <c r="W528" s="25"/>
+      <c r="R528" s="14"/>
+      <c r="S528" s="14"/>
+      <c r="T528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U528" s="14"/>
+      <c r="V528" s="14"/>
+      <c r="W528" s="14"/>
       <c r="X528" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="Y528" s="25"/>
-      <c r="Z528" s="25"/>
-      <c r="AA528" s="25"/>
-      <c r="AB528" s="25"/>
+      <c r="Y528" s="14"/>
+      <c r="Z528" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA528" s="14"/>
+      <c r="AB528" s="14"/>
       <c r="AC528" s="14" t="s">
-        <v>441</v>
+        <v>852</v>
       </c>
       <c r="AD528" t="s">
-        <v>820</v>
+        <v>757</v>
       </c>
       <c r="AE528" t="s">
         <v>539</v>
@@ -26382,54 +26220,60 @@
     </row>
     <row r="529" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A529" s="16" t="s">
-        <v>214</v>
+        <v>883</v>
       </c>
       <c r="B529" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C529" s="17"/>
-      <c r="D529" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E529" s="26"/>
+      <c r="C529" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D529" s="18"/>
+      <c r="E529" s="16"/>
       <c r="F529" s="19">
-        <v>3.5648148148148154E-3</v>
-      </c>
-      <c r="G529" s="23"/>
+        <v>1.9444444444444442E-3</v>
+      </c>
+      <c r="G529" s="21"/>
       <c r="H529" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I529" s="23"/>
-      <c r="J529" s="23"/>
-      <c r="K529" s="23"/>
-      <c r="L529" s="23"/>
-      <c r="M529" s="23"/>
-      <c r="N529" s="23"/>
-      <c r="O529" s="23"/>
-      <c r="P529" s="23"/>
-      <c r="Q529" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R529" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S529" s="23"/>
-      <c r="T529" s="23"/>
-      <c r="U529" s="23"/>
-      <c r="V529" s="23"/>
-      <c r="W529" s="23"/>
+      <c r="I529" s="21"/>
+      <c r="J529" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K529" s="20"/>
+      <c r="L529" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M529" s="21"/>
+      <c r="N529" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O529" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P529" s="21"/>
+      <c r="Q529" s="20"/>
+      <c r="R529" s="20"/>
+      <c r="S529" s="21"/>
+      <c r="T529" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U529" s="21"/>
+      <c r="V529" s="21"/>
+      <c r="W529" s="21"/>
       <c r="X529" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="Y529" s="23"/>
-      <c r="Z529" s="23"/>
-      <c r="AA529" s="23"/>
-      <c r="AB529" s="23"/>
+      <c r="Y529" s="21"/>
+      <c r="Z529" s="21"/>
+      <c r="AA529" s="21"/>
+      <c r="AB529" s="21"/>
       <c r="AC529" s="21" t="s">
-        <v>854</v>
+        <v>441</v>
       </c>
       <c r="AD529" t="s">
-        <v>821</v>
+        <v>884</v>
       </c>
       <c r="AE529" t="s">
         <v>539</v>
@@ -26437,7 +26281,7 @@
     </row>
     <row r="530" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>434</v>
+        <v>881</v>
       </c>
       <c r="B530" s="5" t="s">
         <v>4</v>
@@ -26446,186 +26290,149 @@
         <v>4</v>
       </c>
       <c r="F530" s="12">
-        <v>1.8981481481481482E-3</v>
+        <v>1.7708333333333332E-3</v>
       </c>
       <c r="G530" s="14"/>
-      <c r="H530" s="14"/>
+      <c r="H530" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="I530" s="14"/>
       <c r="J530" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="K530" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L530" s="14"/>
+      <c r="K530" s="13"/>
+      <c r="L530" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="M530" s="14"/>
       <c r="N530" s="13" t="s">
         <v>416</v>
       </c>
       <c r="O530" s="14"/>
       <c r="P530" s="14"/>
-      <c r="Q530" s="14"/>
+      <c r="Q530" s="13"/>
       <c r="R530" s="13" t="s">
         <v>416</v>
       </c>
       <c r="S530" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="T530" s="14"/>
+      <c r="T530" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="U530" s="14"/>
       <c r="V530" s="14"/>
       <c r="W530" s="14"/>
-      <c r="X530" s="14"/>
+      <c r="X530" s="13"/>
       <c r="Y530" s="14"/>
       <c r="Z530" s="14"/>
       <c r="AA530" s="14"/>
-      <c r="AB530" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC530" s="14" t="s">
-        <v>867</v>
-      </c>
+      <c r="AB530" s="14"/>
+      <c r="AC530" s="14"/>
       <c r="AD530" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="AE530" t="s">
-        <v>866</v>
+        <v>539</v>
       </c>
     </row>
     <row r="531" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A531" s="16" t="s">
-        <v>809</v>
-      </c>
-      <c r="B531" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C531" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D531" s="18"/>
-      <c r="E531" s="16"/>
+        <v>253</v>
+      </c>
+      <c r="B531" s="31"/>
+      <c r="C531" s="17"/>
+      <c r="D531" s="22"/>
+      <c r="E531" s="26"/>
       <c r="F531" s="19">
-        <v>3.4027777777777784E-3</v>
-      </c>
-      <c r="G531" s="21"/>
-      <c r="H531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M531" s="21"/>
-      <c r="N531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O531" s="21"/>
-      <c r="P531" s="21"/>
-      <c r="Q531" s="21"/>
-      <c r="R531" s="21"/>
-      <c r="S531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U531" s="21"/>
-      <c r="V531" s="21"/>
-      <c r="W531" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X531" s="21"/>
-      <c r="Y531" s="21"/>
-      <c r="Z531" s="21"/>
-      <c r="AA531" s="21"/>
-      <c r="AB531" s="21"/>
-      <c r="AC531" s="21"/>
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="G531" s="23"/>
+      <c r="H531" s="23"/>
+      <c r="I531" s="23"/>
+      <c r="J531" s="23"/>
+      <c r="K531" s="23"/>
+      <c r="L531" s="23"/>
+      <c r="M531" s="23"/>
+      <c r="N531" s="23"/>
+      <c r="O531" s="23"/>
+      <c r="P531" s="23"/>
+      <c r="Q531" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R531" s="23"/>
+      <c r="S531" s="23"/>
+      <c r="T531" s="23"/>
+      <c r="U531" s="23"/>
+      <c r="V531" s="23"/>
+      <c r="W531" s="23"/>
+      <c r="X531" s="23"/>
+      <c r="Y531" s="23"/>
+      <c r="Z531" s="23"/>
+      <c r="AA531" s="23"/>
+      <c r="AB531" s="23"/>
+      <c r="AC531" s="21" t="s">
+        <v>463</v>
+      </c>
       <c r="AD531" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="AE531" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
     </row>
     <row r="532" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>140</v>
+        <v>432</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D532" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="F532" s="12">
-        <v>1.1122685185185185E-2</v>
+        <v>3.695601851851852E-2</v>
       </c>
       <c r="G532" s="14"/>
-      <c r="H532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I532" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="H532" s="14"/>
+      <c r="I532" s="14"/>
       <c r="J532" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="K532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="N532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O532" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="K532" s="14"/>
+      <c r="L532" s="14"/>
+      <c r="M532" s="14"/>
+      <c r="N532" s="14"/>
+      <c r="O532" s="14"/>
       <c r="P532" s="14"/>
       <c r="Q532" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="R532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S532" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="R532" s="14"/>
+      <c r="S532" s="14"/>
       <c r="T532" s="14"/>
-      <c r="U532" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="U532" s="14"/>
       <c r="V532" s="14"/>
       <c r="W532" s="14"/>
       <c r="X532" s="14"/>
       <c r="Y532" s="14"/>
-      <c r="Z532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA532" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB532" s="14"/>
+      <c r="Z532" s="14"/>
+      <c r="AA532" s="14"/>
+      <c r="AB532" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="AC532" s="14"/>
       <c r="AD532" t="s">
-        <v>482</v>
+        <v>817</v>
       </c>
       <c r="AE532" t="s">
-        <v>483</v>
+        <v>818</v>
       </c>
     </row>
     <row r="533" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A533" s="16" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B533" s="17" t="s">
         <v>4</v>
@@ -26636,7 +26443,7 @@
       <c r="D533" s="18"/>
       <c r="E533" s="16"/>
       <c r="F533" s="19">
-        <v>1.8750000000000001E-3</v>
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="20" t="s">
@@ -26646,10 +26453,10 @@
       <c r="J533" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="K533" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L533" s="20"/>
+      <c r="K533" s="20"/>
+      <c r="L533" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="M533" s="21"/>
       <c r="N533" s="20" t="s">
         <v>416</v>
@@ -26657,24 +26464,28 @@
       <c r="O533" s="21"/>
       <c r="P533" s="21"/>
       <c r="Q533" s="20"/>
-      <c r="R533" s="20"/>
-      <c r="S533" s="21"/>
+      <c r="R533" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S533" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="T533" s="20" t="s">
         <v>416</v>
       </c>
       <c r="U533" s="21"/>
       <c r="V533" s="21"/>
-      <c r="W533" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="W533" s="21"/>
       <c r="X533" s="20"/>
       <c r="Y533" s="21"/>
       <c r="Z533" s="21"/>
       <c r="AA533" s="21"/>
-      <c r="AB533" s="21"/>
+      <c r="AB533" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="AC533" s="21"/>
       <c r="AD533" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="AE533" t="s">
         <v>539</v>
@@ -26682,7 +26493,7 @@
     </row>
     <row r="534" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>876</v>
+        <v>497</v>
       </c>
       <c r="B534" s="5" t="s">
         <v>4</v>
@@ -26691,12 +26502,10 @@
         <v>4</v>
       </c>
       <c r="F534" s="12">
-        <v>2.5578703703703705E-3</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="G534" s="14"/>
-      <c r="H534" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="H534" s="14"/>
       <c r="I534" s="14"/>
       <c r="J534" s="13" t="s">
         <v>416</v>
@@ -26704,101 +26513,91 @@
       <c r="K534" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="L534" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="L534" s="14"/>
       <c r="M534" s="14"/>
-      <c r="N534" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="N534" s="14"/>
       <c r="O534" s="14"/>
       <c r="P534" s="14"/>
-      <c r="Q534" s="13"/>
-      <c r="R534" s="13"/>
-      <c r="S534" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T534" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q534" s="14"/>
+      <c r="R534" s="14"/>
+      <c r="S534" s="14"/>
+      <c r="T534" s="14"/>
       <c r="U534" s="14"/>
       <c r="V534" s="14"/>
       <c r="W534" s="14"/>
-      <c r="X534" s="13"/>
+      <c r="X534" s="14"/>
       <c r="Y534" s="14"/>
-      <c r="Z534" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="Z534" s="14"/>
       <c r="AA534" s="14"/>
-      <c r="AB534" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="AB534" s="14"/>
       <c r="AC534" s="14"/>
       <c r="AD534" t="s">
-        <v>875</v>
+        <v>498</v>
       </c>
       <c r="AE534" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
     </row>
     <row r="535" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A535" s="16" t="s">
-        <v>873</v>
-      </c>
-      <c r="B535" s="17" t="s">
-        <v>4</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B535" s="31"/>
       <c r="C535" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D535" s="18"/>
-      <c r="E535" s="16"/>
+      <c r="D535" s="22"/>
+      <c r="E535" s="26"/>
       <c r="F535" s="19">
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="G535" s="21"/>
-      <c r="H535" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I535" s="20" t="s">
-        <v>416</v>
-      </c>
+        <v>3.8078703703703707E-3</v>
+      </c>
+      <c r="G535" s="23"/>
+      <c r="H535" s="23"/>
+      <c r="I535" s="23"/>
       <c r="J535" s="20" t="s">
         <v>416</v>
       </c>
       <c r="K535" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="L535" s="20"/>
-      <c r="M535" s="21"/>
+      <c r="L535" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M535" s="23"/>
       <c r="N535" s="20" t="s">
         <v>416</v>
       </c>
       <c r="O535" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="P535" s="21"/>
-      <c r="Q535" s="20"/>
-      <c r="R535" s="20"/>
-      <c r="S535" s="21"/>
+      <c r="P535" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q535" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R535" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S535" s="23"/>
       <c r="T535" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="U535" s="21"/>
-      <c r="V535" s="21"/>
-      <c r="W535" s="21"/>
-      <c r="X535" s="20"/>
-      <c r="Y535" s="21"/>
-      <c r="Z535" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA535" s="21"/>
-      <c r="AB535" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC535" s="21"/>
+      <c r="U535" s="23"/>
+      <c r="V535" s="23"/>
+      <c r="W535" s="23"/>
+      <c r="X535" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y535" s="23"/>
+      <c r="Z535" s="23"/>
+      <c r="AA535" s="23"/>
+      <c r="AB535" s="23"/>
+      <c r="AC535" s="21" t="s">
+        <v>441</v>
+      </c>
       <c r="AD535" t="s">
-        <v>874</v>
+        <v>819</v>
       </c>
       <c r="AE535" t="s">
         <v>539</v>
@@ -26806,172 +26605,327 @@
     </row>
     <row r="536" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="B536" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C536" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E536" s="1"/>
       <c r="F536" s="12">
-        <v>3.9120370370370368E-3</v>
-      </c>
-      <c r="G536" s="14"/>
-      <c r="H536" s="14"/>
-      <c r="I536" s="14"/>
-      <c r="J536" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K536" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L536" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M536" s="14"/>
+        <v>2.4768518518518516E-3</v>
+      </c>
+      <c r="G536" s="25"/>
+      <c r="H536" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I536" s="25"/>
+      <c r="J536" s="25"/>
+      <c r="K536" s="25"/>
+      <c r="L536" s="25"/>
+      <c r="M536" s="25"/>
       <c r="N536" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="O536" s="14"/>
-      <c r="P536" s="14"/>
+      <c r="O536" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P536" s="25"/>
       <c r="Q536" s="13" t="s">
         <v>416</v>
       </c>
       <c r="R536" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="S536" s="14"/>
-      <c r="T536" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U536" s="14"/>
-      <c r="V536" s="14"/>
-      <c r="W536" s="14"/>
+      <c r="S536" s="25"/>
+      <c r="T536" s="25"/>
+      <c r="U536" s="25"/>
+      <c r="V536" s="25"/>
+      <c r="W536" s="25"/>
       <c r="X536" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="Y536" s="14"/>
-      <c r="Z536" s="14"/>
-      <c r="AA536" s="14"/>
-      <c r="AB536" s="14"/>
-      <c r="AC536" s="14"/>
+      <c r="Y536" s="25"/>
+      <c r="Z536" s="25"/>
+      <c r="AA536" s="25"/>
+      <c r="AB536" s="25"/>
+      <c r="AC536" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="AD536" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AE536" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="537" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A537" s="16" t="s">
-        <v>932</v>
+        <v>214</v>
       </c>
       <c r="B537" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C537" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="C537" s="17"/>
       <c r="D537" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E537" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="E537" s="26"/>
       <c r="F537" s="19">
-        <v>3.2407407407407406E-3</v>
-      </c>
-      <c r="G537" s="21"/>
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="G537" s="23"/>
       <c r="H537" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I537" s="21"/>
-      <c r="J537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M537" s="21"/>
-      <c r="N537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O537" s="21"/>
-      <c r="P537" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="I537" s="23"/>
+      <c r="J537" s="23"/>
+      <c r="K537" s="23"/>
+      <c r="L537" s="23"/>
+      <c r="M537" s="23"/>
+      <c r="N537" s="23"/>
+      <c r="O537" s="23"/>
+      <c r="P537" s="23"/>
       <c r="Q537" s="20" t="s">
         <v>416</v>
       </c>
       <c r="R537" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="S537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U537" s="21"/>
-      <c r="V537" s="21"/>
-      <c r="W537" s="21"/>
-      <c r="X537" s="20"/>
-      <c r="Y537" s="21"/>
-      <c r="Z537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA537" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB537" s="21"/>
+      <c r="S537" s="23"/>
+      <c r="T537" s="23"/>
+      <c r="U537" s="23"/>
+      <c r="V537" s="23"/>
+      <c r="W537" s="23"/>
+      <c r="X537" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y537" s="23"/>
+      <c r="Z537" s="23"/>
+      <c r="AA537" s="23"/>
+      <c r="AB537" s="23"/>
       <c r="AC537" s="21" t="s">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="AD537" t="s">
-        <v>934</v>
+        <v>821</v>
       </c>
       <c r="AE537" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="539" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A539" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B539" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C539" s="44"/>
-      <c r="D539" s="6"/>
-    </row>
-    <row r="540" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A540" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B540" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C540" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D540" s="6"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="538" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>434</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F538" s="12">
+        <v>1.8981481481481482E-3</v>
+      </c>
+      <c r="G538" s="14"/>
+      <c r="H538" s="14"/>
+      <c r="I538" s="14"/>
+      <c r="J538" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K538" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L538" s="14"/>
+      <c r="M538" s="14"/>
+      <c r="N538" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O538" s="14"/>
+      <c r="P538" s="14"/>
+      <c r="Q538" s="14"/>
+      <c r="R538" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S538" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T538" s="14"/>
+      <c r="U538" s="14"/>
+      <c r="V538" s="14"/>
+      <c r="W538" s="14"/>
+      <c r="X538" s="14"/>
+      <c r="Y538" s="14"/>
+      <c r="Z538" s="14"/>
+      <c r="AA538" s="14"/>
+      <c r="AB538" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC538" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD538" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE538" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="539" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A539" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="B539" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C539" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D539" s="18"/>
+      <c r="E539" s="16"/>
+      <c r="F539" s="19">
+        <v>3.4027777777777784E-3</v>
+      </c>
+      <c r="G539" s="21"/>
+      <c r="H539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M539" s="21"/>
+      <c r="N539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O539" s="21"/>
+      <c r="P539" s="21"/>
+      <c r="Q539" s="21"/>
+      <c r="R539" s="21"/>
+      <c r="S539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U539" s="21"/>
+      <c r="V539" s="21"/>
+      <c r="W539" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X539" s="21"/>
+      <c r="Y539" s="21"/>
+      <c r="Z539" s="21"/>
+      <c r="AA539" s="21"/>
+      <c r="AB539" s="21"/>
+      <c r="AC539" s="21"/>
+      <c r="AD539" t="s">
+        <v>810</v>
+      </c>
+      <c r="AE539" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="540" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>140</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F540" s="12">
+        <v>1.1122685185185185E-2</v>
+      </c>
+      <c r="G540" s="14"/>
+      <c r="H540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P540" s="14"/>
+      <c r="Q540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T540" s="14"/>
+      <c r="U540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V540" s="14"/>
+      <c r="W540" s="14"/>
+      <c r="X540" s="14"/>
+      <c r="Y540" s="14"/>
+      <c r="Z540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA540" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB540" s="14"/>
+      <c r="AC540" s="14"/>
+      <c r="AD540" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE540" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="541" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A541" s="16" t="s">
-        <v>200</v>
+        <v>877</v>
       </c>
       <c r="B541" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C541" s="17"/>
-      <c r="D541" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="C541" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D541" s="18"/>
       <c r="E541" s="16"/>
       <c r="F541" s="19">
-        <v>2.8009259259259259E-3</v>
+        <v>1.8750000000000001E-3</v>
       </c>
       <c r="G541" s="21"/>
-      <c r="H541" s="21"/>
+      <c r="H541" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="I541" s="21"/>
       <c r="J541" s="20" t="s">
         <v>416</v>
@@ -26979,784 +26933,809 @@
       <c r="K541" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="L541" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="L541" s="20"/>
       <c r="M541" s="21"/>
       <c r="N541" s="20" t="s">
         <v>416</v>
       </c>
       <c r="O541" s="21"/>
-      <c r="P541" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q541" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R541" s="21"/>
+      <c r="P541" s="21"/>
+      <c r="Q541" s="20"/>
+      <c r="R541" s="20"/>
       <c r="S541" s="21"/>
       <c r="T541" s="20" t="s">
         <v>416</v>
       </c>
       <c r="U541" s="21"/>
       <c r="V541" s="21"/>
-      <c r="W541" s="21"/>
-      <c r="X541" s="21"/>
+      <c r="W541" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X541" s="20"/>
       <c r="Y541" s="21"/>
       <c r="Z541" s="21"/>
       <c r="AA541" s="21"/>
       <c r="AB541" s="21"/>
-      <c r="AC541" s="21" t="s">
-        <v>855</v>
-      </c>
+      <c r="AC541" s="21"/>
       <c r="AD541" t="s">
-        <v>824</v>
+        <v>878</v>
       </c>
       <c r="AE541" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>201</v>
+        <v>876</v>
       </c>
       <c r="B542" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D542" s="4" t="s">
-        <v>15</v>
+      <c r="C542" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="F542" s="12">
-        <v>1.2037037037037038E-3</v>
+        <v>2.5578703703703705E-3</v>
       </c>
       <c r="G542" s="14"/>
-      <c r="H542" s="14"/>
+      <c r="H542" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="I542" s="14"/>
-      <c r="J542" s="14"/>
-      <c r="K542" s="14"/>
-      <c r="L542" s="14"/>
+      <c r="J542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L542" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="M542" s="14"/>
       <c r="N542" s="13" t="s">
         <v>416</v>
       </c>
       <c r="O542" s="14"/>
       <c r="P542" s="14"/>
-      <c r="Q542" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R542" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S542" s="14"/>
-      <c r="T542" s="14"/>
+      <c r="Q542" s="13"/>
+      <c r="R542" s="13"/>
+      <c r="S542" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T542" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="U542" s="14"/>
       <c r="V542" s="14"/>
       <c r="W542" s="14"/>
-      <c r="X542" s="14"/>
+      <c r="X542" s="13"/>
       <c r="Y542" s="14"/>
-      <c r="Z542" s="14"/>
+      <c r="Z542" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="AA542" s="14"/>
-      <c r="AB542" s="14"/>
+      <c r="AB542" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="AC542" s="14"/>
       <c r="AD542" t="s">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="AE542" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="543" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A543" s="16" t="s">
-        <v>202</v>
+        <v>873</v>
       </c>
       <c r="B543" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C543" s="17"/>
-      <c r="D543" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="C543" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D543" s="18"/>
       <c r="E543" s="16"/>
       <c r="F543" s="19">
-        <v>2.5231481481481481E-3</v>
+        <v>1.8865740740740742E-3</v>
       </c>
       <c r="G543" s="21"/>
-      <c r="H543" s="21"/>
-      <c r="I543" s="21"/>
-      <c r="J543" s="21"/>
-      <c r="K543" s="21"/>
-      <c r="L543" s="21"/>
+      <c r="H543" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I543" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J543" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K543" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L543" s="20"/>
       <c r="M543" s="21"/>
-      <c r="N543" s="21"/>
-      <c r="O543" s="21"/>
+      <c r="N543" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O543" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="P543" s="21"/>
-      <c r="Q543" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R543" s="21"/>
+      <c r="Q543" s="20"/>
+      <c r="R543" s="20"/>
       <c r="S543" s="21"/>
-      <c r="T543" s="21"/>
+      <c r="T543" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="U543" s="21"/>
       <c r="V543" s="21"/>
       <c r="W543" s="21"/>
-      <c r="X543" s="21"/>
+      <c r="X543" s="20"/>
       <c r="Y543" s="21"/>
-      <c r="Z543" s="21"/>
+      <c r="Z543" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="AA543" s="21"/>
-      <c r="AB543" s="21"/>
-      <c r="AC543" s="21" t="s">
-        <v>463</v>
-      </c>
+      <c r="AB543" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC543" s="21"/>
       <c r="AD543" t="s">
-        <v>826</v>
+        <v>874</v>
       </c>
       <c r="AE543" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="544" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>203</v>
+        <v>823</v>
       </c>
       <c r="B544" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D544" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F544" s="12">
-        <v>5.9027777777777778E-4</v>
+        <v>3.9120370370370368E-3</v>
       </c>
       <c r="G544" s="14"/>
       <c r="H544" s="14"/>
       <c r="I544" s="14"/>
-      <c r="J544" s="14"/>
-      <c r="K544" s="14"/>
-      <c r="L544" s="14"/>
+      <c r="J544" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K544" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L544" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="M544" s="14"/>
-      <c r="N544" s="14"/>
+      <c r="N544" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="O544" s="14"/>
       <c r="P544" s="14"/>
       <c r="Q544" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="R544" s="14"/>
+      <c r="R544" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="S544" s="14"/>
-      <c r="T544" s="14"/>
+      <c r="T544" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="U544" s="14"/>
       <c r="V544" s="14"/>
       <c r="W544" s="14"/>
-      <c r="X544" s="14"/>
+      <c r="X544" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="Y544" s="14"/>
       <c r="Z544" s="14"/>
       <c r="AA544" s="14"/>
       <c r="AB544" s="14"/>
-      <c r="AC544" s="14" t="s">
-        <v>856</v>
-      </c>
+      <c r="AC544" s="14"/>
       <c r="AD544" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="AE544" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="546" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A546" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B546" s="44" t="s">
+    <row r="545" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A545" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="B545" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C545" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D545" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E545" s="16"/>
+      <c r="F545" s="19">
+        <v>3.2407407407407406E-3</v>
+      </c>
+      <c r="G545" s="21"/>
+      <c r="H545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I545" s="21"/>
+      <c r="J545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M545" s="21"/>
+      <c r="N545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O545" s="21"/>
+      <c r="P545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U545" s="21"/>
+      <c r="V545" s="21"/>
+      <c r="W545" s="21"/>
+      <c r="X545" s="20"/>
+      <c r="Y545" s="21"/>
+      <c r="Z545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA545" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB545" s="21"/>
+      <c r="AC545" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="AD545" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE545" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="547" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A547" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B547" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C546" s="44"/>
-      <c r="D546" s="6"/>
-    </row>
-    <row r="547" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A547" s="1" t="s">
+      <c r="C547" s="44"/>
+      <c r="D547" s="6"/>
+    </row>
+    <row r="548" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A548" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B547" s="7" t="s">
+      <c r="B548" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C547" s="7" t="s">
+      <c r="C548" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D547" s="6"/>
-    </row>
-    <row r="548" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A548" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B548" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C548" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D548" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E548" s="16"/>
-      <c r="F548" s="19">
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="G548" s="21"/>
-      <c r="H548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M548" s="21"/>
-      <c r="N548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="V548" s="21"/>
-      <c r="W548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X548" s="21"/>
-      <c r="Y548" s="21"/>
-      <c r="Z548" s="21"/>
-      <c r="AA548" s="21"/>
-      <c r="AB548" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC548" s="21"/>
-      <c r="AD548" t="s">
-        <v>828</v>
-      </c>
-      <c r="AE548" t="s">
-        <v>470</v>
-      </c>
+      <c r="D548" s="6"/>
     </row>
     <row r="549" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A549" t="s">
-        <v>831</v>
-      </c>
-      <c r="B549" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F549" s="12">
-        <v>4.3287037037037035E-3</v>
-      </c>
-      <c r="G549" s="14"/>
-      <c r="H549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K549" s="14"/>
-      <c r="L549" s="14"/>
-      <c r="M549" s="14"/>
-      <c r="N549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O549" s="14"/>
-      <c r="P549" s="14"/>
-      <c r="Q549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S549" s="14"/>
-      <c r="T549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V549" s="14"/>
-      <c r="W549" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="X549" s="14"/>
-      <c r="Y549" s="14"/>
-      <c r="Z549" s="14"/>
-      <c r="AA549" s="14"/>
-      <c r="AB549" s="14"/>
-      <c r="AC549" s="14" t="s">
-        <v>447</v>
+      <c r="A549" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B549" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C549" s="17"/>
+      <c r="D549" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E549" s="16"/>
+      <c r="F549" s="19">
+        <v>2.8009259259259259E-3</v>
+      </c>
+      <c r="G549" s="21"/>
+      <c r="H549" s="21"/>
+      <c r="I549" s="21"/>
+      <c r="J549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M549" s="21"/>
+      <c r="N549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O549" s="21"/>
+      <c r="P549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R549" s="21"/>
+      <c r="S549" s="21"/>
+      <c r="T549" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U549" s="21"/>
+      <c r="V549" s="21"/>
+      <c r="W549" s="21"/>
+      <c r="X549" s="21"/>
+      <c r="Y549" s="21"/>
+      <c r="Z549" s="21"/>
+      <c r="AA549" s="21"/>
+      <c r="AB549" s="21"/>
+      <c r="AC549" s="21" t="s">
+        <v>855</v>
       </c>
       <c r="AD549" t="s">
-        <v>548</v>
+        <v>824</v>
       </c>
       <c r="AE549" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="550" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A550" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B550" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C550" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D550" s="18" t="s">
+      <c r="A550" t="s">
+        <v>201</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D550" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E550" s="16"/>
-      <c r="F550" s="19">
-        <v>1.4699074074074074E-3</v>
-      </c>
-      <c r="G550" s="21"/>
-      <c r="H550" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I550" s="21"/>
-      <c r="J550" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K550" s="21"/>
-      <c r="L550" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M550" s="21"/>
-      <c r="N550" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O550" s="21"/>
-      <c r="P550" s="21"/>
-      <c r="Q550" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R550" s="21"/>
-      <c r="S550" s="21"/>
-      <c r="T550" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U550" s="21"/>
-      <c r="V550" s="21"/>
-      <c r="W550" s="21"/>
-      <c r="X550" s="21"/>
-      <c r="Y550" s="21"/>
-      <c r="Z550" s="21"/>
-      <c r="AA550" s="21"/>
-      <c r="AB550" s="21"/>
-      <c r="AC550" s="21"/>
+      <c r="F550" s="12">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="G550" s="14"/>
+      <c r="H550" s="14"/>
+      <c r="I550" s="14"/>
+      <c r="J550" s="14"/>
+      <c r="K550" s="14"/>
+      <c r="L550" s="14"/>
+      <c r="M550" s="14"/>
+      <c r="N550" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O550" s="14"/>
+      <c r="P550" s="14"/>
+      <c r="Q550" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R550" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S550" s="14"/>
+      <c r="T550" s="14"/>
+      <c r="U550" s="14"/>
+      <c r="V550" s="14"/>
+      <c r="W550" s="14"/>
+      <c r="X550" s="14"/>
+      <c r="Y550" s="14"/>
+      <c r="Z550" s="14"/>
+      <c r="AA550" s="14"/>
+      <c r="AB550" s="14"/>
+      <c r="AC550" s="14"/>
       <c r="AD550" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AE550" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="551" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A551" t="s">
-        <v>9</v>
-      </c>
-      <c r="B551" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C551" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D551" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F551" s="12">
-        <v>1.8634259259259261E-3</v>
-      </c>
-      <c r="G551" s="14"/>
-      <c r="H551" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I551" s="14"/>
-      <c r="J551" s="14"/>
-      <c r="K551" s="14"/>
-      <c r="L551" s="14"/>
-      <c r="M551" s="14"/>
-      <c r="N551" s="14"/>
-      <c r="O551" s="14"/>
-      <c r="P551" s="14"/>
-      <c r="Q551" s="14"/>
-      <c r="R551" s="14"/>
-      <c r="S551" s="14"/>
-      <c r="T551" s="14"/>
-      <c r="U551" s="14"/>
-      <c r="V551" s="14"/>
-      <c r="W551" s="14"/>
-      <c r="X551" s="14"/>
-      <c r="Y551" s="14"/>
-      <c r="Z551" s="14"/>
-      <c r="AA551" s="14"/>
-      <c r="AB551" s="14"/>
-      <c r="AC551" s="14"/>
+      <c r="A551" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B551" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C551" s="17"/>
+      <c r="D551" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E551" s="16"/>
+      <c r="F551" s="19">
+        <v>2.5231481481481481E-3</v>
+      </c>
+      <c r="G551" s="21"/>
+      <c r="H551" s="21"/>
+      <c r="I551" s="21"/>
+      <c r="J551" s="21"/>
+      <c r="K551" s="21"/>
+      <c r="L551" s="21"/>
+      <c r="M551" s="21"/>
+      <c r="N551" s="21"/>
+      <c r="O551" s="21"/>
+      <c r="P551" s="21"/>
+      <c r="Q551" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R551" s="21"/>
+      <c r="S551" s="21"/>
+      <c r="T551" s="21"/>
+      <c r="U551" s="21"/>
+      <c r="V551" s="21"/>
+      <c r="W551" s="21"/>
+      <c r="X551" s="21"/>
+      <c r="Y551" s="21"/>
+      <c r="Z551" s="21"/>
+      <c r="AA551" s="21"/>
+      <c r="AB551" s="21"/>
+      <c r="AC551" s="21" t="s">
+        <v>463</v>
+      </c>
       <c r="AD551" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="AE551" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="553" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A553" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B553" s="44" t="s">
+    <row r="552" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A552" t="s">
+        <v>203</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F552" s="12">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="G552" s="14"/>
+      <c r="H552" s="14"/>
+      <c r="I552" s="14"/>
+      <c r="J552" s="14"/>
+      <c r="K552" s="14"/>
+      <c r="L552" s="14"/>
+      <c r="M552" s="14"/>
+      <c r="N552" s="14"/>
+      <c r="O552" s="14"/>
+      <c r="P552" s="14"/>
+      <c r="Q552" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R552" s="14"/>
+      <c r="S552" s="14"/>
+      <c r="T552" s="14"/>
+      <c r="U552" s="14"/>
+      <c r="V552" s="14"/>
+      <c r="W552" s="14"/>
+      <c r="X552" s="14"/>
+      <c r="Y552" s="14"/>
+      <c r="Z552" s="14"/>
+      <c r="AA552" s="14"/>
+      <c r="AB552" s="14"/>
+      <c r="AC552" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD552" t="s">
+        <v>827</v>
+      </c>
+      <c r="AE552" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="554" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A554" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B554" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C553" s="44"/>
-      <c r="D553" s="6"/>
-    </row>
-    <row r="554" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A554" s="1" t="s">
+      <c r="C554" s="44"/>
+      <c r="D554" s="6"/>
+    </row>
+    <row r="555" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A555" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B554" s="7" t="s">
+      <c r="B555" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C554" s="7" t="s">
+      <c r="C555" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D554" s="6"/>
-    </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A555" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B555" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C555" s="17"/>
-      <c r="D555" s="18" t="s">
+      <c r="D555" s="6"/>
+    </row>
+    <row r="556" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A556" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B556" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C556" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D556" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E555" s="16"/>
-      <c r="F555" s="19">
-        <v>2.1527777777777778E-3</v>
-      </c>
-      <c r="G555" s="21"/>
-      <c r="H555" s="21"/>
-      <c r="I555" s="21"/>
-      <c r="J555" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K555" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L555" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M555" s="21"/>
-      <c r="N555" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O555" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P555" s="21"/>
-      <c r="Q555" s="21"/>
-      <c r="R555" s="21"/>
-      <c r="S555" s="21"/>
-      <c r="T555" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U555" s="21"/>
-      <c r="V555" s="21"/>
-      <c r="W555" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X555" s="21"/>
-      <c r="Y555" s="21"/>
-      <c r="Z555" s="21"/>
-      <c r="AA555" s="21"/>
-      <c r="AB555" s="21"/>
-      <c r="AC555" s="21" t="s">
-        <v>858</v>
-      </c>
-      <c r="AD555" t="s">
-        <v>834</v>
-      </c>
-      <c r="AE555" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A556" t="s">
-        <v>833</v>
-      </c>
-      <c r="B556" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C556" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D556" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F556" s="12">
-        <v>4.5023148148148149E-3</v>
-      </c>
-      <c r="G556" s="14"/>
-      <c r="H556" s="14"/>
-      <c r="I556" s="14"/>
-      <c r="J556" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K556" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L556" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M556" s="14"/>
-      <c r="N556" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O556" s="14"/>
-      <c r="P556" s="14"/>
-      <c r="Q556" s="14"/>
-      <c r="R556" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S556" s="14"/>
-      <c r="T556" s="14"/>
-      <c r="U556" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V556" s="14"/>
-      <c r="W556" s="14"/>
-      <c r="X556" s="14"/>
-      <c r="Y556" s="14"/>
-      <c r="Z556" s="14"/>
-      <c r="AA556" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB556" s="14"/>
-      <c r="AC556" s="14" t="s">
-        <v>858</v>
-      </c>
+      <c r="E556" s="16"/>
+      <c r="F556" s="19">
+        <v>4.5138888888888893E-3</v>
+      </c>
+      <c r="G556" s="21"/>
+      <c r="H556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M556" s="21"/>
+      <c r="N556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="V556" s="21"/>
+      <c r="W556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X556" s="21"/>
+      <c r="Y556" s="21"/>
+      <c r="Z556" s="21"/>
+      <c r="AA556" s="21"/>
+      <c r="AB556" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC556" s="21"/>
       <c r="AD556" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AE556" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="557" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A557" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B557" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C557" s="17"/>
-      <c r="D557" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E557" s="16"/>
-      <c r="F557" s="19">
-        <v>1.7245370370370372E-3</v>
-      </c>
-      <c r="G557" s="21"/>
-      <c r="H557" s="21"/>
-      <c r="I557" s="21"/>
-      <c r="J557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M557" s="21"/>
-      <c r="N557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P557" s="21"/>
-      <c r="Q557" s="21"/>
-      <c r="R557" s="21"/>
-      <c r="S557" s="21"/>
-      <c r="T557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U557" s="21"/>
-      <c r="V557" s="21"/>
-      <c r="W557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X557" s="21"/>
-      <c r="Y557" s="21"/>
-      <c r="Z557" s="21"/>
-      <c r="AA557" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB557" s="21"/>
-      <c r="AC557" s="21" t="s">
-        <v>858</v>
+      <c r="A557" t="s">
+        <v>831</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F557" s="12">
+        <v>4.3287037037037035E-3</v>
+      </c>
+      <c r="G557" s="14"/>
+      <c r="H557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K557" s="14"/>
+      <c r="L557" s="14"/>
+      <c r="M557" s="14"/>
+      <c r="N557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O557" s="14"/>
+      <c r="P557" s="14"/>
+      <c r="Q557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="S557" s="14"/>
+      <c r="T557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V557" s="14"/>
+      <c r="W557" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="X557" s="14"/>
+      <c r="Y557" s="14"/>
+      <c r="Z557" s="14"/>
+      <c r="AA557" s="14"/>
+      <c r="AB557" s="14"/>
+      <c r="AC557" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="AD557" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="AE557" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="559" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B559" s="44" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="558" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A558" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B558" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C558" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D558" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E558" s="16"/>
+      <c r="F558" s="19">
+        <v>1.4699074074074074E-3</v>
+      </c>
+      <c r="G558" s="21"/>
+      <c r="H558" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I558" s="21"/>
+      <c r="J558" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K558" s="21"/>
+      <c r="L558" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M558" s="21"/>
+      <c r="N558" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O558" s="21"/>
+      <c r="P558" s="21"/>
+      <c r="Q558" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R558" s="21"/>
+      <c r="S558" s="21"/>
+      <c r="T558" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U558" s="21"/>
+      <c r="V558" s="21"/>
+      <c r="W558" s="21"/>
+      <c r="X558" s="21"/>
+      <c r="Y558" s="21"/>
+      <c r="Z558" s="21"/>
+      <c r="AA558" s="21"/>
+      <c r="AB558" s="21"/>
+      <c r="AC558" s="21"/>
+      <c r="AD558" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE558" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="559" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A559" t="s">
+        <v>9</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F559" s="12">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="G559" s="14"/>
+      <c r="H559" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I559" s="14"/>
+      <c r="J559" s="14"/>
+      <c r="K559" s="14"/>
+      <c r="L559" s="14"/>
+      <c r="M559" s="14"/>
+      <c r="N559" s="14"/>
+      <c r="O559" s="14"/>
+      <c r="P559" s="14"/>
+      <c r="Q559" s="14"/>
+      <c r="R559" s="14"/>
+      <c r="S559" s="14"/>
+      <c r="T559" s="14"/>
+      <c r="U559" s="14"/>
+      <c r="V559" s="14"/>
+      <c r="W559" s="14"/>
+      <c r="X559" s="14"/>
+      <c r="Y559" s="14"/>
+      <c r="Z559" s="14"/>
+      <c r="AA559" s="14"/>
+      <c r="AB559" s="14"/>
+      <c r="AC559" s="14"/>
+      <c r="AD559" t="s">
+        <v>830</v>
+      </c>
+      <c r="AE559" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="561" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A561" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B561" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C559" s="44"/>
-      <c r="D559" s="6"/>
-    </row>
-    <row r="560" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A560" s="1" t="s">
+      <c r="C561" s="44"/>
+      <c r="D561" s="6"/>
+    </row>
+    <row r="562" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B560" s="7" t="s">
+      <c r="B562" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C560" s="7" t="s">
+      <c r="C562" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D560" s="6"/>
-    </row>
-    <row r="561" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A561" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B561" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C561" s="17"/>
-      <c r="D561" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E561" s="16" t="s">
-        <v>859</v>
-      </c>
-      <c r="F561" s="19">
-        <v>1.6087962962962963E-3</v>
-      </c>
-      <c r="G561" s="21"/>
-      <c r="H561" s="21"/>
-      <c r="I561" s="21"/>
-      <c r="J561" s="21"/>
-      <c r="K561" s="21"/>
-      <c r="L561" s="21"/>
-      <c r="M561" s="21"/>
-      <c r="N561" s="21"/>
-      <c r="O561" s="21"/>
-      <c r="P561" s="21"/>
-      <c r="Q561" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R561" s="21"/>
-      <c r="S561" s="21"/>
-      <c r="T561" s="21"/>
-      <c r="U561" s="21"/>
-      <c r="V561" s="21"/>
-      <c r="W561" s="21"/>
-      <c r="X561" s="21"/>
-      <c r="Y561" s="21"/>
-      <c r="Z561" s="21"/>
-      <c r="AA561" s="21"/>
-      <c r="AB561" s="21"/>
-      <c r="AC561" s="21"/>
-      <c r="AD561" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE561" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="562" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A562" t="s">
-        <v>150</v>
-      </c>
-      <c r="B562" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D562" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E562" t="s">
-        <v>859</v>
-      </c>
-      <c r="F562" s="12">
-        <v>1.712962962962963E-3</v>
-      </c>
-      <c r="G562" s="14"/>
-      <c r="H562" s="14"/>
-      <c r="I562" s="14"/>
-      <c r="J562" s="14"/>
-      <c r="K562" s="14"/>
-      <c r="L562" s="14"/>
-      <c r="M562" s="14"/>
-      <c r="N562" s="14"/>
-      <c r="O562" s="14"/>
-      <c r="P562" s="14"/>
-      <c r="Q562" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R562" s="14"/>
-      <c r="S562" s="14"/>
-      <c r="T562" s="14"/>
-      <c r="U562" s="14"/>
-      <c r="V562" s="14"/>
-      <c r="W562" s="14"/>
-      <c r="X562" s="14"/>
-      <c r="Y562" s="14"/>
-      <c r="Z562" s="14"/>
-      <c r="AA562" s="14"/>
-      <c r="AB562" s="14"/>
-      <c r="AC562" s="14"/>
-      <c r="AD562" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE562" t="s">
-        <v>483</v>
-      </c>
+      <c r="D562" s="6"/>
     </row>
     <row r="563" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A563" s="16" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="B563" s="17" t="s">
         <v>4</v>
@@ -27765,240 +27744,245 @@
       <c r="D563" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E563" s="16" t="s">
-        <v>859</v>
-      </c>
+      <c r="E563" s="16"/>
       <c r="F563" s="19">
-        <v>1.5046296296296294E-3</v>
+        <v>2.1527777777777778E-3</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="21"/>
       <c r="I563" s="21"/>
-      <c r="J563" s="21"/>
-      <c r="K563" s="21"/>
-      <c r="L563" s="21"/>
+      <c r="J563" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K563" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L563" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="M563" s="21"/>
-      <c r="N563" s="21"/>
-      <c r="O563" s="21"/>
+      <c r="N563" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O563" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="P563" s="21"/>
-      <c r="Q563" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q563" s="21"/>
       <c r="R563" s="21"/>
       <c r="S563" s="21"/>
-      <c r="T563" s="21"/>
+      <c r="T563" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="U563" s="21"/>
       <c r="V563" s="21"/>
-      <c r="W563" s="21"/>
+      <c r="W563" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="X563" s="21"/>
       <c r="Y563" s="21"/>
       <c r="Z563" s="21"/>
       <c r="AA563" s="21"/>
       <c r="AB563" s="21"/>
-      <c r="AC563" s="21"/>
+      <c r="AC563" s="21" t="s">
+        <v>858</v>
+      </c>
       <c r="AD563" t="s">
-        <v>482</v>
+        <v>834</v>
       </c>
       <c r="AE563" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="564" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>153</v>
+        <v>833</v>
       </c>
       <c r="B564" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C564" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D564" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E564" t="s">
-        <v>859</v>
-      </c>
       <c r="F564" s="12">
-        <v>2.0023148148148148E-3</v>
+        <v>4.5023148148148149E-3</v>
       </c>
       <c r="G564" s="14"/>
       <c r="H564" s="14"/>
       <c r="I564" s="14"/>
-      <c r="J564" s="14"/>
-      <c r="K564" s="14"/>
-      <c r="L564" s="14"/>
+      <c r="J564" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K564" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L564" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="M564" s="14"/>
-      <c r="N564" s="14"/>
+      <c r="N564" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="O564" s="14"/>
       <c r="P564" s="14"/>
-      <c r="Q564" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R564" s="14"/>
+      <c r="Q564" s="14"/>
+      <c r="R564" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="S564" s="14"/>
       <c r="T564" s="14"/>
-      <c r="U564" s="14"/>
+      <c r="U564" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="V564" s="14"/>
       <c r="W564" s="14"/>
       <c r="X564" s="14"/>
       <c r="Y564" s="14"/>
       <c r="Z564" s="14"/>
-      <c r="AA564" s="14"/>
+      <c r="AA564" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="AB564" s="14"/>
-      <c r="AC564" s="14"/>
+      <c r="AC564" s="14" t="s">
+        <v>858</v>
+      </c>
       <c r="AD564" t="s">
+        <v>832</v>
+      </c>
+      <c r="AE564" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="565" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A565" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B565" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C565" s="17"/>
+      <c r="D565" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E565" s="16"/>
+      <c r="F565" s="19">
+        <v>1.7245370370370372E-3</v>
+      </c>
+      <c r="G565" s="21"/>
+      <c r="H565" s="21"/>
+      <c r="I565" s="21"/>
+      <c r="J565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M565" s="21"/>
+      <c r="N565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P565" s="21"/>
+      <c r="Q565" s="21"/>
+      <c r="R565" s="21"/>
+      <c r="S565" s="21"/>
+      <c r="T565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U565" s="21"/>
+      <c r="V565" s="21"/>
+      <c r="W565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X565" s="21"/>
+      <c r="Y565" s="21"/>
+      <c r="Z565" s="21"/>
+      <c r="AA565" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB565" s="21"/>
+      <c r="AC565" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD565" t="s">
         <v>482</v>
       </c>
-      <c r="AE564" t="s">
+      <c r="AE565" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="566" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A566" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B566" s="44" t="s">
+    <row r="567" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B567" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C566" s="44"/>
-      <c r="D566" s="6"/>
-    </row>
-    <row r="567" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A567" s="1" t="s">
+      <c r="C567" s="44"/>
+      <c r="D567" s="6"/>
+    </row>
+    <row r="568" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A568" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B567" s="7" t="s">
+      <c r="B568" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C567" s="7" t="s">
+      <c r="C568" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D567" s="6"/>
-    </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A568" s="16" t="s">
-        <v>976</v>
-      </c>
-      <c r="B568" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C568" s="17"/>
-      <c r="D568" s="18"/>
-      <c r="E568" s="16"/>
-      <c r="F568" s="19">
-        <v>1.5347222222222222E-2</v>
-      </c>
-      <c r="G568" s="21"/>
-      <c r="H568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="I568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="N568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R568" s="21"/>
-      <c r="S568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="V568" s="21"/>
-      <c r="W568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="X568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y568" s="21"/>
-      <c r="Z568" s="21"/>
-      <c r="AA568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB568" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC568" s="21" t="s">
-        <v>977</v>
-      </c>
-      <c r="AD568" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE568" t="s">
-        <v>483</v>
-      </c>
+      <c r="D568" s="6"/>
     </row>
     <row r="569" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A569" t="s">
-        <v>974</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F569" s="12">
-        <v>4.6064814814814814E-3</v>
-      </c>
-      <c r="G569" s="14"/>
-      <c r="H569" s="14"/>
-      <c r="I569" s="13"/>
-      <c r="J569" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K569" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L569" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M569" s="13"/>
-      <c r="N569" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O569" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P569" s="14"/>
-      <c r="Q569" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R569" s="14"/>
-      <c r="S569" s="14"/>
-      <c r="T569" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U569" s="13"/>
-      <c r="V569" s="14"/>
-      <c r="W569" s="14"/>
-      <c r="X569" s="14"/>
-      <c r="Y569" s="14"/>
-      <c r="Z569" s="14"/>
-      <c r="AA569" s="14"/>
-      <c r="AB569" s="14"/>
-      <c r="AC569" s="14"/>
+      <c r="A569" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B569" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C569" s="17"/>
+      <c r="D569" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E569" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="F569" s="19">
+        <v>1.6087962962962963E-3</v>
+      </c>
+      <c r="G569" s="21"/>
+      <c r="H569" s="21"/>
+      <c r="I569" s="21"/>
+      <c r="J569" s="21"/>
+      <c r="K569" s="21"/>
+      <c r="L569" s="21"/>
+      <c r="M569" s="21"/>
+      <c r="N569" s="21"/>
+      <c r="O569" s="21"/>
+      <c r="P569" s="21"/>
+      <c r="Q569" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R569" s="21"/>
+      <c r="S569" s="21"/>
+      <c r="T569" s="21"/>
+      <c r="U569" s="21"/>
+      <c r="V569" s="21"/>
+      <c r="W569" s="21"/>
+      <c r="X569" s="21"/>
+      <c r="Y569" s="21"/>
+      <c r="Z569" s="21"/>
+      <c r="AA569" s="21"/>
+      <c r="AB569" s="21"/>
+      <c r="AC569" s="21"/>
       <c r="AD569" t="s">
         <v>482</v>
       </c>
@@ -28007,45 +27991,46 @@
       </c>
     </row>
     <row r="570" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A570" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="B570" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C570" s="17"/>
-      <c r="D570" s="18"/>
-      <c r="E570" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="F570" s="19">
-        <v>1.9675925925925926E-4</v>
-      </c>
-      <c r="G570" s="21"/>
-      <c r="H570" s="21"/>
-      <c r="I570" s="20"/>
-      <c r="J570" s="20"/>
-      <c r="K570" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L570" s="20"/>
-      <c r="M570" s="20"/>
-      <c r="N570" s="21"/>
-      <c r="O570" s="20"/>
-      <c r="P570" s="21"/>
-      <c r="Q570" s="20"/>
-      <c r="R570" s="21"/>
-      <c r="S570" s="21"/>
-      <c r="T570" s="20"/>
-      <c r="U570" s="20"/>
-      <c r="V570" s="21"/>
-      <c r="W570" s="21"/>
-      <c r="X570" s="21"/>
-      <c r="Y570" s="21"/>
-      <c r="Z570" s="21"/>
-      <c r="AA570" s="21"/>
-      <c r="AB570" s="21"/>
-      <c r="AC570" s="21"/>
+      <c r="A570" t="s">
+        <v>150</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D570" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E570" t="s">
+        <v>859</v>
+      </c>
+      <c r="F570" s="12">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="G570" s="14"/>
+      <c r="H570" s="14"/>
+      <c r="I570" s="14"/>
+      <c r="J570" s="14"/>
+      <c r="K570" s="14"/>
+      <c r="L570" s="14"/>
+      <c r="M570" s="14"/>
+      <c r="N570" s="14"/>
+      <c r="O570" s="14"/>
+      <c r="P570" s="14"/>
+      <c r="Q570" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R570" s="14"/>
+      <c r="S570" s="14"/>
+      <c r="T570" s="14"/>
+      <c r="U570" s="14"/>
+      <c r="V570" s="14"/>
+      <c r="W570" s="14"/>
+      <c r="X570" s="14"/>
+      <c r="Y570" s="14"/>
+      <c r="Z570" s="14"/>
+      <c r="AA570" s="14"/>
+      <c r="AB570" s="14"/>
+      <c r="AC570" s="14"/>
       <c r="AD570" t="s">
         <v>482</v>
       </c>
@@ -28054,54 +28039,47 @@
       </c>
     </row>
     <row r="571" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A571" t="s">
-        <v>142</v>
-      </c>
-      <c r="B571" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F571" s="12">
-        <v>4.2881944444444438E-2</v>
-      </c>
-      <c r="G571" s="14"/>
-      <c r="H571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K571" s="14"/>
-      <c r="L571" s="14"/>
-      <c r="M571" s="14"/>
-      <c r="N571" s="14"/>
-      <c r="O571" s="14"/>
-      <c r="P571" s="14"/>
-      <c r="Q571" s="14"/>
-      <c r="R571" s="14"/>
-      <c r="S571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="T571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V571" s="14"/>
-      <c r="W571" s="14"/>
-      <c r="X571" s="14"/>
-      <c r="Y571" s="14"/>
-      <c r="Z571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA571" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB571" s="14"/>
-      <c r="AC571" s="14"/>
+      <c r="A571" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B571" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571" s="17"/>
+      <c r="D571" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E571" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="F571" s="19">
+        <v>1.5046296296296294E-3</v>
+      </c>
+      <c r="G571" s="21"/>
+      <c r="H571" s="21"/>
+      <c r="I571" s="21"/>
+      <c r="J571" s="21"/>
+      <c r="K571" s="21"/>
+      <c r="L571" s="21"/>
+      <c r="M571" s="21"/>
+      <c r="N571" s="21"/>
+      <c r="O571" s="21"/>
+      <c r="P571" s="21"/>
+      <c r="Q571" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R571" s="21"/>
+      <c r="S571" s="21"/>
+      <c r="T571" s="21"/>
+      <c r="U571" s="21"/>
+      <c r="V571" s="21"/>
+      <c r="W571" s="21"/>
+      <c r="X571" s="21"/>
+      <c r="Y571" s="21"/>
+      <c r="Z571" s="21"/>
+      <c r="AA571" s="21"/>
+      <c r="AB571" s="21"/>
+      <c r="AC571" s="21"/>
       <c r="AD571" t="s">
         <v>482</v>
       </c>
@@ -28110,45 +28088,46 @@
       </c>
     </row>
     <row r="572" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A572" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B572" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C572" s="17"/>
-      <c r="D572" s="18"/>
-      <c r="E572" s="16" t="s">
+      <c r="A572" t="s">
+        <v>153</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D572" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E572" t="s">
         <v>859</v>
       </c>
-      <c r="F572" s="19">
-        <v>5.37037037037037E-3</v>
-      </c>
-      <c r="G572" s="21"/>
-      <c r="H572" s="21"/>
-      <c r="I572" s="21"/>
-      <c r="J572" s="21"/>
-      <c r="K572" s="21"/>
-      <c r="L572" s="21"/>
-      <c r="M572" s="21"/>
-      <c r="N572" s="21"/>
-      <c r="O572" s="21"/>
-      <c r="P572" s="21"/>
-      <c r="Q572" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R572" s="21"/>
-      <c r="S572" s="21"/>
-      <c r="T572" s="21"/>
-      <c r="U572" s="21"/>
-      <c r="V572" s="21"/>
-      <c r="W572" s="21"/>
-      <c r="X572" s="21"/>
-      <c r="Y572" s="21"/>
-      <c r="Z572" s="21"/>
-      <c r="AA572" s="21"/>
-      <c r="AB572" s="21"/>
-      <c r="AC572" s="21"/>
+      <c r="F572" s="12">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="G572" s="14"/>
+      <c r="H572" s="14"/>
+      <c r="I572" s="14"/>
+      <c r="J572" s="14"/>
+      <c r="K572" s="14"/>
+      <c r="L572" s="14"/>
+      <c r="M572" s="14"/>
+      <c r="N572" s="14"/>
+      <c r="O572" s="14"/>
+      <c r="P572" s="14"/>
+      <c r="Q572" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R572" s="14"/>
+      <c r="S572" s="14"/>
+      <c r="T572" s="14"/>
+      <c r="U572" s="14"/>
+      <c r="V572" s="14"/>
+      <c r="W572" s="14"/>
+      <c r="X572" s="14"/>
+      <c r="Y572" s="14"/>
+      <c r="Z572" s="14"/>
+      <c r="AA572" s="14"/>
+      <c r="AB572" s="14"/>
+      <c r="AC572" s="14"/>
       <c r="AD572" t="s">
         <v>482</v>
       </c>
@@ -28156,215 +28135,31 @@
         <v>483</v>
       </c>
     </row>
-    <row r="573" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A573" t="s">
-        <v>975</v>
-      </c>
-      <c r="B573" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F573" s="12">
-        <v>1.3090277777777779E-2</v>
-      </c>
-      <c r="G573" s="14"/>
-      <c r="H573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M573" s="13"/>
-      <c r="N573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="O573" s="13"/>
-      <c r="P573" s="14"/>
-      <c r="Q573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="S573" s="14"/>
-      <c r="T573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="W573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="X573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z573" s="14"/>
-      <c r="AA573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB573" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC573" s="43" t="s">
-        <v>968</v>
-      </c>
-      <c r="AD573" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE573" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="574" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A574" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="B574" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C574" s="17"/>
-      <c r="D574" s="18"/>
-      <c r="E574" s="16"/>
-      <c r="F574" s="19">
-        <v>1.4548611111111111E-2</v>
-      </c>
-      <c r="G574" s="21"/>
-      <c r="H574" s="21"/>
-      <c r="I574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M574" s="21"/>
-      <c r="N574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="S574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="T574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U574" s="21"/>
-      <c r="V574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="W574" s="21"/>
-      <c r="X574" s="21"/>
-      <c r="Y574" s="21"/>
-      <c r="Z574" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA574" s="21"/>
-      <c r="AB574" s="21"/>
-      <c r="AC574" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD574" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE574" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="575" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A575" t="s">
-        <v>940</v>
-      </c>
-      <c r="B575" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D575" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="F575" s="12">
-        <v>1.300925925925926E-2</v>
-      </c>
-      <c r="G575" s="14"/>
-      <c r="H575" s="14"/>
-      <c r="I575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="L575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="M575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="N575" s="14"/>
-      <c r="O575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="P575" s="14"/>
-      <c r="Q575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="R575" s="14"/>
-      <c r="S575" s="14"/>
-      <c r="T575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U575" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="V575" s="14"/>
-      <c r="W575" s="14"/>
-      <c r="X575" s="14"/>
-      <c r="Y575" s="14"/>
-      <c r="Z575" s="14"/>
-      <c r="AA575" s="14"/>
-      <c r="AB575" s="14"/>
-      <c r="AC575" s="14"/>
-      <c r="AD575" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE575" t="s">
-        <v>483</v>
-      </c>
+    <row r="574" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B574" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C574" s="44"/>
+      <c r="D574" s="6"/>
+    </row>
+    <row r="575" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A575" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D575" s="6"/>
     </row>
     <row r="576" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A576" s="16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B576" s="17" t="s">
         <v>4</v>
@@ -28373,7 +28168,7 @@
       <c r="D576" s="18"/>
       <c r="E576" s="16"/>
       <c r="F576" s="19">
-        <v>9.9189814814814817E-3</v>
+        <v>1.5347222222222222E-2</v>
       </c>
       <c r="G576" s="21"/>
       <c r="H576" s="20" t="s">
@@ -28391,12 +28186,18 @@
       <c r="L576" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="M576" s="20"/>
+      <c r="M576" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="N576" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="O576" s="20"/>
-      <c r="P576" s="21"/>
+      <c r="O576" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P576" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="Q576" s="20" t="s">
         <v>416</v>
       </c>
@@ -28407,18 +28208,18 @@
       <c r="T576" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="U576" s="20"/>
-      <c r="V576" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="U576" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="V576" s="21"/>
       <c r="W576" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="X576" s="21"/>
+      <c r="X576" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="Y576" s="21"/>
-      <c r="Z576" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="Z576" s="21"/>
       <c r="AA576" s="20" t="s">
         <v>416</v>
       </c>
@@ -28435,41 +28236,180 @@
         <v>483</v>
       </c>
     </row>
-    <row r="578" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A578" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B578" s="8"/>
-      <c r="C578" s="8"/>
-      <c r="D578" s="6"/>
-    </row>
-    <row r="579" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A579" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B579" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C579" s="7"/>
-      <c r="D579" s="6"/>
+    <row r="577" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A577" t="s">
+        <v>974</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F577" s="12">
+        <v>4.6064814814814814E-3</v>
+      </c>
+      <c r="G577" s="14"/>
+      <c r="H577" s="14"/>
+      <c r="I577" s="13"/>
+      <c r="J577" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K577" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L577" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M577" s="13"/>
+      <c r="N577" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O577" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P577" s="14"/>
+      <c r="Q577" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R577" s="14"/>
+      <c r="S577" s="14"/>
+      <c r="T577" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U577" s="13"/>
+      <c r="V577" s="14"/>
+      <c r="W577" s="14"/>
+      <c r="X577" s="14"/>
+      <c r="Y577" s="14"/>
+      <c r="Z577" s="14"/>
+      <c r="AA577" s="14"/>
+      <c r="AB577" s="14"/>
+      <c r="AC577" s="14"/>
+      <c r="AD577" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE577" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="578" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A578" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="B578" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C578" s="17"/>
+      <c r="D578" s="18"/>
+      <c r="E578" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="F578" s="19">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="G578" s="21"/>
+      <c r="H578" s="21"/>
+      <c r="I578" s="20"/>
+      <c r="J578" s="20"/>
+      <c r="K578" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L578" s="20"/>
+      <c r="M578" s="20"/>
+      <c r="N578" s="21"/>
+      <c r="O578" s="20"/>
+      <c r="P578" s="21"/>
+      <c r="Q578" s="20"/>
+      <c r="R578" s="21"/>
+      <c r="S578" s="21"/>
+      <c r="T578" s="20"/>
+      <c r="U578" s="20"/>
+      <c r="V578" s="21"/>
+      <c r="W578" s="21"/>
+      <c r="X578" s="21"/>
+      <c r="Y578" s="21"/>
+      <c r="Z578" s="21"/>
+      <c r="AA578" s="21"/>
+      <c r="AB578" s="21"/>
+      <c r="AC578" s="21"/>
+      <c r="AD578" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE578" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="579" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A579" t="s">
+        <v>142</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F579" s="12">
+        <v>4.2881944444444438E-2</v>
+      </c>
+      <c r="G579" s="14"/>
+      <c r="H579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K579" s="14"/>
+      <c r="L579" s="14"/>
+      <c r="M579" s="14"/>
+      <c r="N579" s="14"/>
+      <c r="O579" s="14"/>
+      <c r="P579" s="14"/>
+      <c r="Q579" s="14"/>
+      <c r="R579" s="14"/>
+      <c r="S579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V579" s="14"/>
+      <c r="W579" s="14"/>
+      <c r="X579" s="14"/>
+      <c r="Y579" s="14"/>
+      <c r="Z579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA579" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB579" s="14"/>
+      <c r="AC579" s="14"/>
+      <c r="AD579" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE579" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="580" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A580" s="16" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="B580" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C580" s="17"/>
-      <c r="D580" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E580" s="16"/>
-      <c r="F580" s="21"/>
+      <c r="D580" s="18"/>
+      <c r="E580" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="F580" s="19">
+        <v>5.37037037037037E-3</v>
+      </c>
       <c r="G580" s="21"/>
-      <c r="H580" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="H580" s="21"/>
       <c r="I580" s="21"/>
       <c r="J580" s="21"/>
       <c r="K580" s="21"/>
@@ -28494,7 +28434,7 @@
       <c r="AB580" s="21"/>
       <c r="AC580" s="21"/>
       <c r="AD580" t="s">
-        <v>849</v>
+        <v>482</v>
       </c>
       <c r="AE580" t="s">
         <v>483</v>
@@ -28502,44 +28442,71 @@
     </row>
     <row r="581" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>322</v>
+        <v>975</v>
       </c>
       <c r="B581" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D581" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="F581" s="12">
-        <v>1.0266203703703703E-2</v>
+        <v>1.3090277777777779E-2</v>
       </c>
       <c r="G581" s="14"/>
       <c r="H581" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="I581" s="14"/>
-      <c r="J581" s="13"/>
-      <c r="K581" s="13"/>
-      <c r="L581" s="14"/>
-      <c r="M581" s="14"/>
-      <c r="N581" s="14"/>
-      <c r="O581" s="14"/>
+      <c r="I581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M581" s="13"/>
+      <c r="N581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="O581" s="13"/>
       <c r="P581" s="14"/>
       <c r="Q581" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="R581" s="14"/>
+      <c r="R581" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="S581" s="14"/>
-      <c r="T581" s="14"/>
-      <c r="U581" s="14"/>
-      <c r="V581" s="14"/>
-      <c r="W581" s="14"/>
-      <c r="X581" s="14"/>
-      <c r="Y581" s="14"/>
+      <c r="T581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="W581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="X581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y581" s="13" t="s">
+        <v>416</v>
+      </c>
       <c r="Z581" s="14"/>
-      <c r="AA581" s="14"/>
-      <c r="AB581" s="14"/>
-      <c r="AC581" s="14"/>
+      <c r="AA581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB581" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC581" s="43" t="s">
+        <v>968</v>
+      </c>
       <c r="AD581" t="s">
         <v>482</v>
       </c>
@@ -28547,187 +28514,538 @@
         <v>483</v>
       </c>
     </row>
+    <row r="582" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A582" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B582" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C582" s="17"/>
+      <c r="D582" s="18"/>
+      <c r="E582" s="16"/>
+      <c r="F582" s="19">
+        <v>1.4548611111111111E-2</v>
+      </c>
+      <c r="G582" s="21"/>
+      <c r="H582" s="21"/>
+      <c r="I582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M582" s="21"/>
+      <c r="N582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="S582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U582" s="21"/>
+      <c r="V582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="W582" s="21"/>
+      <c r="X582" s="21"/>
+      <c r="Y582" s="21"/>
+      <c r="Z582" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA582" s="21"/>
+      <c r="AB582" s="21"/>
+      <c r="AC582" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD582" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE582" t="s">
+        <v>483</v>
+      </c>
+    </row>
     <row r="583" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A583" s="3" t="s">
+      <c r="A583" t="s">
+        <v>940</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D583" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="F583" s="12">
+        <v>1.300925925925926E-2</v>
+      </c>
+      <c r="G583" s="14"/>
+      <c r="H583" s="14"/>
+      <c r="I583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N583" s="14"/>
+      <c r="O583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="P583" s="14"/>
+      <c r="Q583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R583" s="14"/>
+      <c r="S583" s="14"/>
+      <c r="T583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U583" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V583" s="14"/>
+      <c r="W583" s="14"/>
+      <c r="X583" s="14"/>
+      <c r="Y583" s="14"/>
+      <c r="Z583" s="14"/>
+      <c r="AA583" s="14"/>
+      <c r="AB583" s="14"/>
+      <c r="AC583" s="14"/>
+      <c r="AD583" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE583" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="584" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A584" s="16" t="s">
+        <v>978</v>
+      </c>
+      <c r="B584" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C584" s="17"/>
+      <c r="D584" s="18"/>
+      <c r="E584" s="16"/>
+      <c r="F584" s="19">
+        <v>9.9189814814814817E-3</v>
+      </c>
+      <c r="G584" s="21"/>
+      <c r="H584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M584" s="20"/>
+      <c r="N584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O584" s="20"/>
+      <c r="P584" s="21"/>
+      <c r="Q584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R584" s="21"/>
+      <c r="S584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="T584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U584" s="20"/>
+      <c r="V584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="W584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="X584" s="21"/>
+      <c r="Y584" s="21"/>
+      <c r="Z584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB584" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC584" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="AD584" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE584" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="586" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B586" s="8"/>
+      <c r="C586" s="8"/>
+      <c r="D586" s="6"/>
+    </row>
+    <row r="587" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B587" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C587" s="7"/>
+      <c r="D587" s="6"/>
+    </row>
+    <row r="588" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A588" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B588" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C588" s="17"/>
+      <c r="D588" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E588" s="16"/>
+      <c r="F588" s="21"/>
+      <c r="G588" s="21"/>
+      <c r="H588" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I588" s="21"/>
+      <c r="J588" s="21"/>
+      <c r="K588" s="21"/>
+      <c r="L588" s="21"/>
+      <c r="M588" s="21"/>
+      <c r="N588" s="21"/>
+      <c r="O588" s="21"/>
+      <c r="P588" s="21"/>
+      <c r="Q588" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R588" s="21"/>
+      <c r="S588" s="21"/>
+      <c r="T588" s="21"/>
+      <c r="U588" s="21"/>
+      <c r="V588" s="21"/>
+      <c r="W588" s="21"/>
+      <c r="X588" s="21"/>
+      <c r="Y588" s="21"/>
+      <c r="Z588" s="21"/>
+      <c r="AA588" s="21"/>
+      <c r="AB588" s="21"/>
+      <c r="AC588" s="21"/>
+      <c r="AD588" t="s">
+        <v>849</v>
+      </c>
+      <c r="AE588" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="589" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A589" t="s">
+        <v>322</v>
+      </c>
+      <c r="B589" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D589" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F589" s="12">
+        <v>1.0266203703703703E-2</v>
+      </c>
+      <c r="G589" s="14"/>
+      <c r="H589" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I589" s="14"/>
+      <c r="J589" s="13"/>
+      <c r="K589" s="13"/>
+      <c r="L589" s="14"/>
+      <c r="M589" s="14"/>
+      <c r="N589" s="14"/>
+      <c r="O589" s="14"/>
+      <c r="P589" s="14"/>
+      <c r="Q589" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="R589" s="14"/>
+      <c r="S589" s="14"/>
+      <c r="T589" s="14"/>
+      <c r="U589" s="14"/>
+      <c r="V589" s="14"/>
+      <c r="W589" s="14"/>
+      <c r="X589" s="14"/>
+      <c r="Y589" s="14"/>
+      <c r="Z589" s="14"/>
+      <c r="AA589" s="14"/>
+      <c r="AB589" s="14"/>
+      <c r="AC589" s="14"/>
+      <c r="AD589" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE589" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="591" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A591" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B583" s="44" t="s">
+      <c r="B591" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C583" s="44"/>
-    </row>
-    <row r="584" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A584" s="1" t="s">
+      <c r="C591" s="44"/>
+    </row>
+    <row r="592" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A592" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B584" s="7" t="s">
+      <c r="B592" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C584" s="7" t="s">
+      <c r="C592" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A585" s="16" t="s">
+    <row r="593" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A593" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="B585" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C585" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D585" s="18"/>
-      <c r="E585" s="16"/>
-      <c r="F585" s="19">
+      <c r="B593" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D593" s="18"/>
+      <c r="E593" s="16"/>
+      <c r="F593" s="19">
         <v>5.1736111111111115E-3</v>
       </c>
-      <c r="G585" s="21"/>
-      <c r="H585" s="21"/>
-      <c r="I585" s="21"/>
-      <c r="J585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M585" s="21"/>
-      <c r="N585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="O585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="P585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="R585" s="21"/>
-      <c r="S585" s="21"/>
-      <c r="T585" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="U585" s="21"/>
-      <c r="V585" s="21"/>
-      <c r="W585" s="21"/>
-      <c r="X585" s="21"/>
-      <c r="Y585" s="21"/>
-      <c r="Z585" s="21"/>
-      <c r="AA585" s="21"/>
-      <c r="AB585" s="21"/>
-      <c r="AC585" s="21"/>
-      <c r="AD585" t="s">
+      <c r="G593" s="21"/>
+      <c r="H593" s="21"/>
+      <c r="I593" s="21"/>
+      <c r="J593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="M593" s="21"/>
+      <c r="N593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="O593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="R593" s="21"/>
+      <c r="S593" s="21"/>
+      <c r="T593" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="U593" s="21"/>
+      <c r="V593" s="21"/>
+      <c r="W593" s="21"/>
+      <c r="X593" s="21"/>
+      <c r="Y593" s="21"/>
+      <c r="Z593" s="21"/>
+      <c r="AA593" s="21"/>
+      <c r="AB593" s="21"/>
+      <c r="AC593" s="21"/>
+      <c r="AD593" t="s">
         <v>836</v>
       </c>
-      <c r="AE585" t="s">
+      <c r="AE593" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="586" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A586" t="s">
+    <row r="594" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A594" t="s">
         <v>837</v>
       </c>
-      <c r="B586" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C586" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F586" s="12">
+      <c r="B594" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F594" s="12">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="G586" s="14"/>
-      <c r="H586" s="14"/>
-      <c r="I586" s="14"/>
-      <c r="J586" s="14"/>
-      <c r="K586" s="14"/>
-      <c r="L586" s="14"/>
-      <c r="M586" s="14"/>
-      <c r="N586" s="14"/>
-      <c r="O586" s="14"/>
-      <c r="P586" s="14"/>
-      <c r="Q586" s="14"/>
-      <c r="R586" s="14"/>
-      <c r="S586" s="14"/>
-      <c r="T586" s="14"/>
-      <c r="U586" s="14"/>
-      <c r="V586" s="14"/>
-      <c r="W586" s="14"/>
-      <c r="X586" s="14"/>
-      <c r="Y586" s="14"/>
-      <c r="Z586" s="14"/>
-      <c r="AA586" s="14"/>
-      <c r="AB586" s="14"/>
-      <c r="AC586" s="14"/>
-      <c r="AD586" t="s">
+      <c r="G594" s="14"/>
+      <c r="H594" s="14"/>
+      <c r="I594" s="14"/>
+      <c r="J594" s="14"/>
+      <c r="K594" s="14"/>
+      <c r="L594" s="14"/>
+      <c r="M594" s="14"/>
+      <c r="N594" s="14"/>
+      <c r="O594" s="14"/>
+      <c r="P594" s="14"/>
+      <c r="Q594" s="14"/>
+      <c r="R594" s="14"/>
+      <c r="S594" s="14"/>
+      <c r="T594" s="14"/>
+      <c r="U594" s="14"/>
+      <c r="V594" s="14"/>
+      <c r="W594" s="14"/>
+      <c r="X594" s="14"/>
+      <c r="Y594" s="14"/>
+      <c r="Z594" s="14"/>
+      <c r="AA594" s="14"/>
+      <c r="AB594" s="14"/>
+      <c r="AC594" s="14"/>
+      <c r="AD594" t="s">
         <v>838</v>
       </c>
-      <c r="AE586" t="s">
+      <c r="AE594" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="587" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A587" s="16" t="s">
+    <row r="595" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A595" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="B587" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C587" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D587" s="16" t="s">
+      <c r="B595" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D595" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="E587" s="16"/>
-      <c r="F587" s="19">
+      <c r="E595" s="16"/>
+      <c r="F595" s="19">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="G587" s="21"/>
-      <c r="H587" s="20"/>
-      <c r="I587" s="20"/>
-      <c r="J587" s="20"/>
-      <c r="K587" s="20"/>
-      <c r="L587" s="20"/>
-      <c r="M587" s="21"/>
-      <c r="N587" s="20"/>
-      <c r="O587" s="21"/>
-      <c r="P587" s="21"/>
-      <c r="Q587" s="20"/>
-      <c r="R587" s="21"/>
-      <c r="S587" s="21"/>
-      <c r="T587" s="20"/>
-      <c r="U587" s="21"/>
-      <c r="V587" s="21"/>
-      <c r="W587" s="21"/>
-      <c r="X587" s="21"/>
-      <c r="Y587" s="21"/>
-      <c r="Z587" s="21"/>
-      <c r="AA587" s="21"/>
-      <c r="AB587" s="21"/>
-      <c r="AC587" s="21"/>
-      <c r="AD587" t="s">
+      <c r="G595" s="21"/>
+      <c r="H595" s="20"/>
+      <c r="I595" s="20"/>
+      <c r="J595" s="20"/>
+      <c r="K595" s="20"/>
+      <c r="L595" s="20"/>
+      <c r="M595" s="21"/>
+      <c r="N595" s="20"/>
+      <c r="O595" s="21"/>
+      <c r="P595" s="21"/>
+      <c r="Q595" s="20"/>
+      <c r="R595" s="21"/>
+      <c r="S595" s="21"/>
+      <c r="T595" s="20"/>
+      <c r="U595" s="21"/>
+      <c r="V595" s="21"/>
+      <c r="W595" s="21"/>
+      <c r="X595" s="21"/>
+      <c r="Y595" s="21"/>
+      <c r="Z595" s="21"/>
+      <c r="AA595" s="21"/>
+      <c r="AB595" s="21"/>
+      <c r="AC595" s="21"/>
+      <c r="AD595" t="s">
         <v>939</v>
       </c>
-      <c r="AE587" t="s">
+      <c r="AE595" t="s">
         <v>539</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A504:AE513">
-    <sortCondition ref="A504:A513"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A508:AE517">
+    <sortCondition ref="A508:A517"/>
   </sortState>
-  <mergeCells count="53">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:C138"/>
+  <mergeCells count="55">
+    <mergeCell ref="B519:C519"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="B430:C430"/>
+    <mergeCell ref="B591:C591"/>
+    <mergeCell ref="B438:C438"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B554:C554"/>
+    <mergeCell ref="B561:C561"/>
+    <mergeCell ref="B567:C567"/>
+    <mergeCell ref="B574:C574"/>
+    <mergeCell ref="B443:C443"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="B454:C454"/>
+    <mergeCell ref="B471:C471"/>
+    <mergeCell ref="B483:C483"/>
+    <mergeCell ref="B487:C487"/>
+    <mergeCell ref="B496:C496"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B523:C523"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B380:C380"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B387:C387"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B425:C425"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B214:C214"/>
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B78:C78"/>
@@ -28739,43 +29057,11 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B515:C515"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B380:C380"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B387:C387"/>
-    <mergeCell ref="B393:C393"/>
-    <mergeCell ref="B425:C425"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="B430:C430"/>
-    <mergeCell ref="B583:C583"/>
-    <mergeCell ref="B438:C438"/>
-    <mergeCell ref="B539:C539"/>
-    <mergeCell ref="B546:C546"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B566:C566"/>
-    <mergeCell ref="B443:C443"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="B454:C454"/>
-    <mergeCell ref="B471:C471"/>
-    <mergeCell ref="B479:C479"/>
-    <mergeCell ref="B483:C483"/>
-    <mergeCell ref="B492:C492"/>
-    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B138:C138"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
